--- a/dbData/originData.xlsx
+++ b/dbData/originData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\OneDrive\桌面\網頁學習相關\六角專題班\love_in_no_words_back_end\dbData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31A96B09-AF29-47D2-8291-9A5C26860273}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6B79E03-61CC-4454-BF97-0203387488D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{5FA7A088-30AA-4EDF-87C5-72AD43B1CDFD}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1175" uniqueCount="764">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1125" uniqueCount="719">
   <si>
     <t>[</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1003,167 +1003,10 @@
     <t>C000000050</t>
   </si>
   <si>
-    <t>1. 0956312478</t>
-  </si>
-  <si>
-    <t>2. 0974261538</t>
-  </si>
-  <si>
-    <t>3. 0936174285</t>
-  </si>
-  <si>
-    <t>4. 0917382564</t>
-  </si>
-  <si>
-    <t>5. 0915462837</t>
-  </si>
-  <si>
-    <t>6. 0987123546</t>
-  </si>
-  <si>
-    <t>7. 0963182475</t>
-  </si>
-  <si>
-    <t>8. 0982741635</t>
-  </si>
-  <si>
-    <t>9. 0954163278</t>
-  </si>
-  <si>
-    <t>10. 0962143785</t>
-  </si>
-  <si>
-    <t>11. 0963184275</t>
-  </si>
-  <si>
-    <t>12. 0953847261</t>
-  </si>
-  <si>
-    <t>13. 0954872631</t>
-  </si>
-  <si>
-    <t>14. 0963185427</t>
-  </si>
-  <si>
-    <t>15. 0938217654</t>
-  </si>
-  <si>
-    <t>16. 0962147358</t>
-  </si>
-  <si>
-    <t>17. 0973185426</t>
-  </si>
-  <si>
-    <t>18. 0956342718</t>
-  </si>
-  <si>
-    <t>19. 0913265478</t>
-  </si>
-  <si>
-    <t>20. 0928475361</t>
-  </si>
-  <si>
-    <t>21. 0913278564</t>
-  </si>
-  <si>
-    <t>22. 0945132678</t>
-  </si>
-  <si>
-    <t>23. 0932764518</t>
-  </si>
-  <si>
-    <t>24. 0928174356</t>
-  </si>
-  <si>
-    <t>25. 0987153642</t>
-  </si>
-  <si>
-    <t>26. 0973128465</t>
-  </si>
-  <si>
-    <t>27. 0936415278</t>
-  </si>
-  <si>
-    <t>28. 0942183657</t>
-  </si>
-  <si>
-    <t>29. 0983125467</t>
-  </si>
-  <si>
-    <t>30. 0956732814</t>
-  </si>
-  <si>
-    <t>31. 0951847623</t>
-  </si>
-  <si>
-    <t>32. 0915462387</t>
-  </si>
-  <si>
-    <t>33. 0973185426</t>
-  </si>
-  <si>
-    <t>34. 0956734281</t>
-  </si>
-  <si>
-    <t>35. 0932765184</t>
-  </si>
-  <si>
-    <t>36. 0978562341</t>
-  </si>
-  <si>
-    <t>37. 0973184526</t>
-  </si>
-  <si>
-    <t>38. 0915462837</t>
-  </si>
-  <si>
-    <t>39. 0915476382</t>
-  </si>
-  <si>
-    <t>40. 0928475361</t>
-  </si>
-  <si>
     <t>4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>92. 0945123678</t>
-  </si>
-  <si>
-    <t>93. 0945823167</t>
-  </si>
-  <si>
-    <t>94. 0912564378</t>
-  </si>
-  <si>
-    <t>95. 0928361574</t>
-  </si>
-  <si>
-    <t>96. 0945123687</t>
-  </si>
-  <si>
-    <t>97. 0951847263</t>
-  </si>
-  <si>
-    <t>98. 0938172564</t>
-  </si>
-  <si>
-    <t>99. 0963187452</t>
-  </si>
-  <si>
-    <t>100. 0982741563</t>
-  </si>
-  <si>
-    <t>0982741563</t>
-  </si>
-  <si>
-    <t>0982741263</t>
-  </si>
-  <si>
-    <t>0982741263</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>明珠玉</t>
   </si>
   <si>
@@ -1612,135 +1455,6 @@
   </si>
   <si>
     <t>0973125864</t>
-  </si>
-  <si>
-    <t>0956312478</t>
-  </si>
-  <si>
-    <t>0974261538</t>
-  </si>
-  <si>
-    <t>0936174285</t>
-  </si>
-  <si>
-    <t>0917382564</t>
-  </si>
-  <si>
-    <t>0915462837</t>
-  </si>
-  <si>
-    <t>0987123546</t>
-  </si>
-  <si>
-    <t>0963182475</t>
-  </si>
-  <si>
-    <t>0982741635</t>
-  </si>
-  <si>
-    <t>0954163278</t>
-  </si>
-  <si>
-    <t>0962143785</t>
-  </si>
-  <si>
-    <t>0963184275</t>
-  </si>
-  <si>
-    <t>0953847261</t>
-  </si>
-  <si>
-    <t>0954872631</t>
-  </si>
-  <si>
-    <t>0938217654</t>
-  </si>
-  <si>
-    <t>0962147358</t>
-  </si>
-  <si>
-    <t>0973185426</t>
-  </si>
-  <si>
-    <t>0956342718</t>
-  </si>
-  <si>
-    <t>0913265478</t>
-  </si>
-  <si>
-    <t>0928475361</t>
-  </si>
-  <si>
-    <t>0913278564</t>
-  </si>
-  <si>
-    <t>0945132678</t>
-  </si>
-  <si>
-    <t>0932764518</t>
-  </si>
-  <si>
-    <t>0928174356</t>
-  </si>
-  <si>
-    <t>0987153642</t>
-  </si>
-  <si>
-    <t>0973128465</t>
-  </si>
-  <si>
-    <t>0936415278</t>
-  </si>
-  <si>
-    <t>0942183657</t>
-  </si>
-  <si>
-    <t>0983125467</t>
-  </si>
-  <si>
-    <t>0956732814</t>
-  </si>
-  <si>
-    <t>0915462387</t>
-  </si>
-  <si>
-    <t>0956734281</t>
-  </si>
-  <si>
-    <t>0932765184</t>
-  </si>
-  <si>
-    <t>0978562341</t>
-  </si>
-  <si>
-    <t>0973184526</t>
-  </si>
-  <si>
-    <t>0915476382</t>
-  </si>
-  <si>
-    <t>0945123678</t>
-  </si>
-  <si>
-    <t>0945823167</t>
-  </si>
-  <si>
-    <t>0912564378</t>
-  </si>
-  <si>
-    <t>0928361574</t>
-  </si>
-  <si>
-    <t>0945123687</t>
-  </si>
-  <si>
-    <t>0951847263</t>
-  </si>
-  <si>
-    <t>0938172564</t>
-  </si>
-  <si>
-    <t>0963187452</t>
   </si>
   <si>
     <t>"會員"</t>
@@ -2207,154 +1921,305 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{"name":"紅梅香","number":"C000000001","phone":"0956312478","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2021-11-16T04:33:12.354+00:00"},</t>
-  </si>
-  <si>
-    <t>{"name":"花開半","number":"C000000002","phone":"0974261538","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2022-06-01T21:39:16.913+00:00"},</t>
-  </si>
-  <si>
-    <t>{"name":"雪月風","number":"C000000003","phone":"0936174285","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2022-02-15T22:24:18.970+00:00"},</t>
-  </si>
-  <si>
-    <t>{"name":"陽光樂","number":"C000000004","phone":"0917382564","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2022-08-22T11:44:26.424+00:00"},</t>
-  </si>
-  <si>
-    <t>{"name":"花開結","number":"C000000005","phone":"0915462837","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2021-10-15T07:30:19.703+00:00"},</t>
-  </si>
-  <si>
-    <t>{"name":"天香慕","number":"C000000006","phone":"0987123546","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2022-03-29T22:11:47.662+00:00"},</t>
-  </si>
-  <si>
-    <t>{"name":"紅塵客","number":"C000000007","phone":"0963182475","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2021-11-23T15:23:01.228+00:00"},</t>
-  </si>
-  <si>
-    <t>{"name":"琴瑟音","number":"C000000008","phone":"0982741635","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2022-06-06T14:13:27.097+00:00"},</t>
-  </si>
-  <si>
-    <t>{"name":"愛如花","number":"C000000009","phone":"0954163278","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2021-12-17T05:17:57.586+00:00"},</t>
-  </si>
-  <si>
-    <t>{"name":"深海潛","number":"C000000010","phone":"0962143785","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2022-08-04T02:52:55.810+00:00"},</t>
-  </si>
-  <si>
-    <t>{"name":"雨蘭香","number":"C000000011","phone":"0963184275","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2022-03-24T04:22:07.955+00:00"},</t>
-  </si>
-  <si>
-    <t>{"name":"紫陽花","number":"C000000012","phone":"0953847261","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2022-08-25T18:15:32.166+00:00"},</t>
-  </si>
-  <si>
-    <t>{"name":"仙女飛","number":"C000000013","phone":"0954872631","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2022-02-05T09:53:39.014+00:00"},</t>
-  </si>
-  <si>
-    <t>{"name":"雲霧裡","number":"C000000014","phone":"0963185427","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2022-01-21T19:10:03.173+00:00"},</t>
-  </si>
-  <si>
-    <t>{"name":"靈狐仙","number":"C000000015","phone":"0938217654","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2022-03-31T13:19:19.930+00:00"},</t>
-  </si>
-  <si>
-    <t>{"name":"夜雨香","number":"C000000016","phone":"0962147358","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2022-01-28T18:20:50.973+00:00"},</t>
-  </si>
-  <si>
-    <t>{"name":"美人香","number":"C000000017","phone":"0973185426","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2021-11-12T11:48:16.759+00:00"},</t>
-  </si>
-  <si>
-    <t>{"name":"時光倒","number":"C000000018","phone":"0956342718","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2022-01-20T09:05:31.541+00:00"},</t>
-  </si>
-  <si>
-    <t>{"name":"楓葉紅","number":"C000000019","phone":"0913265478","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2022-04-09T01:23:27.904+00:00"},</t>
-  </si>
-  <si>
-    <t>{"name":"愛情路","number":"C000000020","phone":"0928475361","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2021-08-28T02:28:13.324+00:00"},</t>
-  </si>
-  <si>
-    <t>{"name":"梅花雪","number":"C000000021","phone":"0913278564","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2022-10-05T11:34:27.820+00:00"},</t>
-  </si>
-  <si>
-    <t>{"name":"雲中仙","number":"C000000022","phone":"0945132678","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2023-02-05T02:29:14.874+00:00"},</t>
-  </si>
-  <si>
-    <t>{"name":"風雨聲","number":"C000000023","phone":"0932764518","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2023-02-18T03:48:35.504+00:00"},</t>
-  </si>
-  <si>
-    <t>{"name":"桃花緣","number":"C000000024","phone":"0928174356","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2022-10-18T03:12:21.701+00:00"},</t>
-  </si>
-  <si>
-    <t>{"name":"花開花","number":"C000000025","phone":"0987153642","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2022-11-13T22:42:37.486+00:00"},</t>
-  </si>
-  <si>
-    <t>{"name":"天地月","number":"C000000026","phone":"0973128465","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2022-10-16T01:32:03.803+00:00"},</t>
-  </si>
-  <si>
-    <t>{"name":"紫金花","number":"C000000027","phone":"0936415278","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2023-02-06T22:09:31.420+00:00"},</t>
-  </si>
-  <si>
-    <t>{"name":"飛天燕","number":"C000000028","phone":"0942183657","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2022-10-08T08:48:21.518+00:00"},</t>
-  </si>
-  <si>
-    <t>{"name":"紫雲霞","number":"C000000029","phone":"0983125467","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2022-11-25T14:59:56.031+00:00"},</t>
-  </si>
-  <si>
-    <t>{"name":"青山翠","number":"C000000030","phone":"0956732814","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2023-03-07T12:55:36.945+00:00"},</t>
-  </si>
-  <si>
-    <t>{"name":"水墨畫","number":"C000000031","phone":"0951847623","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2022-12-05T21:31:36.919+00:00"},</t>
-  </si>
-  <si>
-    <t>{"name":"蝶戀花","number":"C000000032","phone":"0915462387","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2023-03-02T16:43:49.845+00:00"},</t>
-  </si>
-  <si>
-    <t>{"name":"桃花心","number":"C000000033","phone":"0973185426","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2023-03-22T09:13:24.863+00:00"},</t>
-  </si>
-  <si>
-    <t>{"name":"梅花寒","number":"C000000034","phone":"0956734281","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2022-12-27T01:45:24.083+00:00"},</t>
-  </si>
-  <si>
-    <t>{"name":"雲海深","number":"C000000035","phone":"0932765184","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2022-12-18T04:22:38.697+00:00"},</t>
-  </si>
-  <si>
-    <t>{"name":"雨花石","number":"C000000036","phone":"0978562341","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2023-03-17T09:10:45.040+00:00"},</t>
-  </si>
-  <si>
-    <t>{"name":"星空夜","number":"C000000037","phone":"0973184526","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2022-11-24T13:08:29.524+00:00"},</t>
-  </si>
-  <si>
-    <t>{"name":"金玉滿","number":"C000000038","phone":"0915462837","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2023-01-17T02:02:06.772+00:00"},</t>
-  </si>
-  <si>
-    <t>{"name":"紫竹林","number":"C000000039","phone":"0915476382","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2022-12-25T23:12:11.261+00:00"},</t>
-  </si>
-  <si>
-    <t>{"name":"青青草","number":"C000000040","phone":"0928475361","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2022-10-22T18:45:39.505+00:00"},</t>
-  </si>
-  <si>
-    <t>{"name":"紫羅蘭","number":"C000000041","phone":"0945123678","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2023-03-15T16:33:57.583+00:00"},</t>
-  </si>
-  <si>
-    <t>{"name":"白蘭花","number":"C000000042","phone":"0945823167","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2023-01-06T02:22:11.967+00:00"},</t>
-  </si>
-  <si>
-    <t>{"name":"花海深","number":"C000000043","phone":"0912564378","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2022-10-10T05:28:54.427+00:00"},</t>
-  </si>
-  <si>
-    <t>{"name":"飛燕舞","number":"C000000044","phone":"0928361574","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2022-10-26T17:34:52.986+00:00"},</t>
-  </si>
-  <si>
-    <t>{"name":"玉樹林","number":"C000000045","phone":"0945123687","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2022-11-08T07:51:33.562+00:00"},</t>
-  </si>
-  <si>
-    <t>{"name":"春風吹","number":"C000000046","phone":"0951847263","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2023-02-07T22:33:24.423+00:00"},</t>
-  </si>
-  <si>
-    <t>{"name":"雪山飛","number":"C000000047","phone":"0938172564","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2023-03-20T06:50:01.294+00:00"},</t>
-  </si>
-  <si>
-    <t>{"name":"玫瑰花","number":"C000000048","phone":"0963187452","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2023-03-24T13:06:39.383+00:00"},</t>
-  </si>
-  <si>
-    <t>{"name":"夜色靜","number":"C000000049","phone":"0982741563","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2022-11-18T06:21:05.648+00:00"},</t>
-  </si>
-  <si>
-    <t>{"name":"落日慕","number":"C000000050","phone":"0982741263","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2022-12-28T00:34:03.527+00:00"},</t>
+    <t>0902846781</t>
+  </si>
+  <si>
+    <t>0928765432</t>
+  </si>
+  <si>
+    <t>0989154896</t>
+  </si>
+  <si>
+    <t>0902213574</t>
+  </si>
+  <si>
+    <t>0937723502</t>
+  </si>
+  <si>
+    <t>0933543285</t>
+  </si>
+  <si>
+    <t>0964687456</t>
+  </si>
+  <si>
+    <t>0937645289</t>
+  </si>
+  <si>
+    <t>0955432569</t>
+  </si>
+  <si>
+    <t>0988542895</t>
+  </si>
+  <si>
+    <t>0968594321</t>
+  </si>
+  <si>
+    <t>0928596412</t>
+  </si>
+  <si>
+    <t>0975348962</t>
+  </si>
+  <si>
+    <t>0962358714</t>
+  </si>
+  <si>
+    <t>0945812376</t>
+  </si>
+  <si>
+    <t>0943192675</t>
+  </si>
+  <si>
+    <t>0989275631</t>
+  </si>
+  <si>
+    <t>0918675423</t>
+  </si>
+  <si>
+    <t>0921753486</t>
+  </si>
+  <si>
+    <t>0941837692</t>
+  </si>
+  <si>
+    <t>0968325471</t>
+  </si>
+  <si>
+    <t>0943685741</t>
+  </si>
+  <si>
+    <t>0973548691</t>
+  </si>
+  <si>
+    <t>0921384765</t>
+  </si>
+  <si>
+    <t>0962874531</t>
+  </si>
+  <si>
+    <t>0938567124</t>
+  </si>
+  <si>
+    <t>0956782143</t>
+  </si>
+  <si>
+    <t>0978345162</t>
+  </si>
+  <si>
+    <t>0983657142</t>
+  </si>
+  <si>
+    <t>0912673548</t>
+  </si>
+  <si>
+    <t>0963851742</t>
+  </si>
+  <si>
+    <t>0925176843</t>
+  </si>
+  <si>
+    <t>0954213867</t>
+  </si>
+  <si>
+    <t>0945128367</t>
+  </si>
+  <si>
+    <t>0941852637</t>
+  </si>
+  <si>
+    <t>0916458327</t>
+  </si>
+  <si>
+    <t>0987316548</t>
+  </si>
+  <si>
+    <t>0916573842</t>
+  </si>
+  <si>
+    <t>0981654372</t>
+  </si>
+  <si>
+    <t>0967853412</t>
+  </si>
+  <si>
+    <t>0937452168</t>
+  </si>
+  <si>
+    <t>0982734651</t>
+  </si>
+  <si>
+    <t>0938574612</t>
+  </si>
+  <si>
+    <t>0962571348</t>
+  </si>
+  <si>
+    <t>0941385762</t>
+  </si>
+  <si>
+    <t>0957831642</t>
+  </si>
+  <si>
+    <t>0972365418</t>
+  </si>
+  <si>
+    <t>0915732846</t>
+  </si>
+  <si>
+    <t>0982175364</t>
+  </si>
+  <si>
+    <t>0965873214</t>
+  </si>
+  <si>
+    <t>{"name":"紅梅香","number":"C000000001","phone":"0902846781","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2021-11-16T04:33:12.354+00:00"},</t>
+  </si>
+  <si>
+    <t>{"name":"花開半","number":"C000000002","phone":"0928765432","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2022-06-01T21:39:16.913+00:00"},</t>
+  </si>
+  <si>
+    <t>{"name":"雪月風","number":"C000000003","phone":"0989154896","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2022-02-15T22:24:18.970+00:00"},</t>
+  </si>
+  <si>
+    <t>{"name":"陽光樂","number":"C000000004","phone":"0902213574","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2022-08-22T11:44:26.424+00:00"},</t>
+  </si>
+  <si>
+    <t>{"name":"花開結","number":"C000000005","phone":"0937723502","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2021-10-15T07:30:19.703+00:00"},</t>
+  </si>
+  <si>
+    <t>{"name":"天香慕","number":"C000000006","phone":"0933543285","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2022-03-29T22:11:47.662+00:00"},</t>
+  </si>
+  <si>
+    <t>{"name":"紅塵客","number":"C000000007","phone":"0964687456","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2021-11-23T15:23:01.228+00:00"},</t>
+  </si>
+  <si>
+    <t>{"name":"琴瑟音","number":"C000000008","phone":"0937645289","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2022-06-06T14:13:27.097+00:00"},</t>
+  </si>
+  <si>
+    <t>{"name":"愛如花","number":"C000000009","phone":"0955432569","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2021-12-17T05:17:57.586+00:00"},</t>
+  </si>
+  <si>
+    <t>{"name":"深海潛","number":"C000000010","phone":"0988542895","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2022-08-04T02:52:55.810+00:00"},</t>
+  </si>
+  <si>
+    <t>{"name":"雨蘭香","number":"C000000011","phone":"0968594321","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2022-03-24T04:22:07.955+00:00"},</t>
+  </si>
+  <si>
+    <t>{"name":"紫陽花","number":"C000000012","phone":"0928596412","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2022-08-25T18:15:32.166+00:00"},</t>
+  </si>
+  <si>
+    <t>{"name":"仙女飛","number":"C000000013","phone":"0975348962","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2022-02-05T09:53:39.014+00:00"},</t>
+  </si>
+  <si>
+    <t>{"name":"雲霧裡","number":"C000000014","phone":"0962358714","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2022-01-21T19:10:03.173+00:00"},</t>
+  </si>
+  <si>
+    <t>{"name":"靈狐仙","number":"C000000015","phone":"0945812376","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2022-03-31T13:19:19.930+00:00"},</t>
+  </si>
+  <si>
+    <t>{"name":"夜雨香","number":"C000000016","phone":"0943192675","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2022-01-28T18:20:50.973+00:00"},</t>
+  </si>
+  <si>
+    <t>{"name":"美人香","number":"C000000017","phone":"0989275631","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2021-11-12T11:48:16.759+00:00"},</t>
+  </si>
+  <si>
+    <t>{"name":"時光倒","number":"C000000018","phone":"0918675423","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2022-01-20T09:05:31.541+00:00"},</t>
+  </si>
+  <si>
+    <t>{"name":"楓葉紅","number":"C000000019","phone":"0921753486","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2022-04-09T01:23:27.904+00:00"},</t>
+  </si>
+  <si>
+    <t>{"name":"愛情路","number":"C000000020","phone":"0941837692","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2021-08-28T02:28:13.324+00:00"},</t>
+  </si>
+  <si>
+    <t>{"name":"梅花雪","number":"C000000021","phone":"0968325471","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2022-10-05T11:34:27.820+00:00"},</t>
+  </si>
+  <si>
+    <t>{"name":"雲中仙","number":"C000000022","phone":"0943685741","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2023-02-05T02:29:14.874+00:00"},</t>
+  </si>
+  <si>
+    <t>{"name":"風雨聲","number":"C000000023","phone":"0973548691","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2023-02-18T03:48:35.504+00:00"},</t>
+  </si>
+  <si>
+    <t>{"name":"桃花緣","number":"C000000024","phone":"0921384765","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2022-10-18T03:12:21.701+00:00"},</t>
+  </si>
+  <si>
+    <t>{"name":"花開花","number":"C000000025","phone":"0962874531","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2022-11-13T22:42:37.486+00:00"},</t>
+  </si>
+  <si>
+    <t>{"name":"天地月","number":"C000000026","phone":"0938567124","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2022-10-16T01:32:03.803+00:00"},</t>
+  </si>
+  <si>
+    <t>{"name":"紫金花","number":"C000000027","phone":"0956782143","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2023-02-06T22:09:31.420+00:00"},</t>
+  </si>
+  <si>
+    <t>{"name":"飛天燕","number":"C000000028","phone":"0978345162","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2022-10-08T08:48:21.518+00:00"},</t>
+  </si>
+  <si>
+    <t>{"name":"紫雲霞","number":"C000000029","phone":"0983657142","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2022-11-25T14:59:56.031+00:00"},</t>
+  </si>
+  <si>
+    <t>{"name":"青山翠","number":"C000000030","phone":"0912673548","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2023-03-07T12:55:36.945+00:00"},</t>
+  </si>
+  <si>
+    <t>{"name":"水墨畫","number":"C000000031","phone":"0963851742","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2022-12-05T21:31:36.919+00:00"},</t>
+  </si>
+  <si>
+    <t>{"name":"蝶戀花","number":"C000000032","phone":"0925176843","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2023-03-02T16:43:49.845+00:00"},</t>
+  </si>
+  <si>
+    <t>{"name":"桃花心","number":"C000000033","phone":"0954213867","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2023-03-22T09:13:24.863+00:00"},</t>
+  </si>
+  <si>
+    <t>{"name":"梅花寒","number":"C000000034","phone":"0945128367","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2022-12-27T01:45:24.083+00:00"},</t>
+  </si>
+  <si>
+    <t>{"name":"雲海深","number":"C000000035","phone":"0941852637","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2022-12-18T04:22:38.697+00:00"},</t>
+  </si>
+  <si>
+    <t>{"name":"雨花石","number":"C000000036","phone":"0916458327","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2023-03-17T09:10:45.040+00:00"},</t>
+  </si>
+  <si>
+    <t>{"name":"星空夜","number":"C000000037","phone":"0987316548","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2022-11-24T13:08:29.524+00:00"},</t>
+  </si>
+  <si>
+    <t>{"name":"金玉滿","number":"C000000038","phone":"0916573842","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2023-01-17T02:02:06.772+00:00"},</t>
+  </si>
+  <si>
+    <t>{"name":"紫竹林","number":"C000000039","phone":"0981654372","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2022-12-25T23:12:11.261+00:00"},</t>
+  </si>
+  <si>
+    <t>{"name":"青青草","number":"C000000040","phone":"0967853412","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2022-10-22T18:45:39.505+00:00"},</t>
+  </si>
+  <si>
+    <t>{"name":"紫羅蘭","number":"C000000041","phone":"0937452168","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2023-03-15T16:33:57.583+00:00"},</t>
+  </si>
+  <si>
+    <t>{"name":"白蘭花","number":"C000000042","phone":"0982734651","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2023-01-06T02:22:11.967+00:00"},</t>
+  </si>
+  <si>
+    <t>{"name":"花海深","number":"C000000043","phone":"0938574612","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2022-10-10T05:28:54.427+00:00"},</t>
+  </si>
+  <si>
+    <t>{"name":"飛燕舞","number":"C000000044","phone":"0962571348","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2022-10-26T17:34:52.986+00:00"},</t>
+  </si>
+  <si>
+    <t>{"name":"玉樹林","number":"C000000045","phone":"0941385762","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2022-11-08T07:51:33.562+00:00"},</t>
+  </si>
+  <si>
+    <t>{"name":"春風吹","number":"C000000046","phone":"0957831642","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2023-02-07T22:33:24.423+00:00"},</t>
+  </si>
+  <si>
+    <t>{"name":"雪山飛","number":"C000000047","phone":"0972365418","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2023-03-20T06:50:01.294+00:00"},</t>
+  </si>
+  <si>
+    <t>{"name":"玫瑰花","number":"C000000048","phone":"0915732846","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2023-03-24T13:06:39.383+00:00"},</t>
+  </si>
+  <si>
+    <t>{"name":"夜色靜","number":"C000000049","phone":"0982175364","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2022-11-18T06:21:05.648+00:00"},</t>
+  </si>
+  <si>
+    <t>{"name":"落日慕","number":"C000000050","phone":"0965873214","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2022-12-28T00:34:03.527+00:00"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2780,13 +2645,13 @@
         <v>1</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>597</v>
+        <v>502</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>2</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>597</v>
+        <v>502</v>
       </c>
       <c r="H4" s="5" t="s">
         <v>3</v>
@@ -2825,13 +2690,13 @@
         <v>明珠玉</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>368</v>
+        <v>316</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>60</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>468</v>
+        <v>416</v>
       </c>
       <c r="H5" s="5" t="str">
         <f>RIGHT(B5,10)</f>
@@ -2853,14 +2718,14 @@
         <v>214</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>562</v>
+        <v>467</v>
       </c>
       <c r="Q5" s="5" t="str">
         <f>"{""name"":"""&amp;E5&amp;""",""number"":"""&amp;F5&amp;""",""phone"":"""&amp;H5&amp;""",""titleNo"":"&amp;I5&amp;",""title"":"&amp;J5&amp;",""password"":"&amp;K5&amp;",""isDisabled"":"&amp;L5&amp;",""isDeleted"":"&amp;M5&amp;",""createdAt"":"""&amp;N5&amp;"""},"</f>
         <v>{"name":"明珠玉","number":"A000000001","phone":"0902563847","titleNo":2,"title":"店員","password":"$2a$12$","isDisabled":false,"isDeleted":false,"createdAt":"2022-10-14T18:49:13.859+00:00"},</v>
       </c>
       <c r="S5" s="2" t="s">
-        <v>713</v>
+        <v>618</v>
       </c>
     </row>
     <row r="6" spans="2:19" x14ac:dyDescent="0.4">
@@ -2875,13 +2740,13 @@
         <v>紅綠藍</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>369</v>
+        <v>317</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>61</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>469</v>
+        <v>417</v>
       </c>
       <c r="H6" s="5" t="str">
         <f t="shared" ref="H6:H69" si="0">RIGHT(B6,10)</f>
@@ -2903,14 +2768,14 @@
         <v>214</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>563</v>
+        <v>468</v>
       </c>
       <c r="Q6" s="5" t="str">
         <f t="shared" ref="Q6:Q54" si="1">"{""name"":"""&amp;E6&amp;""",""number"":"""&amp;F6&amp;""",""phone"":"""&amp;H6&amp;""",""titleNo"":"&amp;I6&amp;",""title"":"&amp;J6&amp;",""password"":"&amp;K6&amp;",""isDisabled"":"&amp;L6&amp;",""isDeleted"":"&amp;M6&amp;",""createdAt"":"""&amp;N6&amp;"""},"</f>
         <v>{"name":"紅綠藍","number":"A000000002","phone":"0928746916","titleNo":2,"title":"店員","password":"$2a$13$","isDisabled":false,"isDeleted":false,"createdAt":"2023-03-10T00:44:44.764+00:00"},</v>
       </c>
       <c r="S6" s="2" t="s">
-        <v>664</v>
+        <v>569</v>
       </c>
     </row>
     <row r="7" spans="2:19" x14ac:dyDescent="0.4">
@@ -2925,13 +2790,13 @@
         <v>靈魂歌</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>370</v>
+        <v>318</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>62</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>470</v>
+        <v>418</v>
       </c>
       <c r="H7" s="5" t="str">
         <f t="shared" si="0"/>
@@ -2953,14 +2818,14 @@
         <v>214</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>564</v>
+        <v>469</v>
       </c>
       <c r="Q7" s="5" t="str">
         <f t="shared" si="1"/>
         <v>{"name":"靈魂歌","number":"A000000003","phone":"0915627043","titleNo":2,"title":"店員","password":"$2a$14$","isDisabled":false,"isDeleted":false,"createdAt":"2022-11-27T14:41:57.206+00:00"},</v>
       </c>
       <c r="S7" s="2" t="s">
-        <v>665</v>
+        <v>570</v>
       </c>
     </row>
     <row r="8" spans="2:19" x14ac:dyDescent="0.4">
@@ -2975,13 +2840,13 @@
         <v>雲山水</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>371</v>
+        <v>319</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>63</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>471</v>
+        <v>419</v>
       </c>
       <c r="H8" s="5" t="str">
         <f t="shared" si="0"/>
@@ -3003,14 +2868,14 @@
         <v>214</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>565</v>
+        <v>470</v>
       </c>
       <c r="Q8" s="5" t="str">
         <f t="shared" si="1"/>
         <v>{"name":"雲山水","number":"A000000004","phone":"0945832167","titleNo":2,"title":"店員","password":"$2a$15$","isDisabled":false,"isDeleted":false,"createdAt":"2022-08-12T08:11:58.453+00:00"},</v>
       </c>
       <c r="S8" s="2" t="s">
-        <v>666</v>
+        <v>571</v>
       </c>
     </row>
     <row r="9" spans="2:19" x14ac:dyDescent="0.4">
@@ -3025,13 +2890,13 @@
         <v>落花滿</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>372</v>
+        <v>320</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>64</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>472</v>
+        <v>420</v>
       </c>
       <c r="H9" s="5" t="str">
         <f t="shared" si="0"/>
@@ -3053,14 +2918,14 @@
         <v>214</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>566</v>
+        <v>471</v>
       </c>
       <c r="Q9" s="5" t="str">
         <f t="shared" si="1"/>
         <v>{"name":"落花滿","number":"A000000005","phone":"0936472180","titleNo":2,"title":"店員","password":"$2a$16$","isDisabled":false,"isDeleted":false,"createdAt":"2023-03-09T06:16:27.553+00:00"},</v>
       </c>
       <c r="S9" s="2" t="s">
-        <v>667</v>
+        <v>572</v>
       </c>
     </row>
     <row r="10" spans="2:19" x14ac:dyDescent="0.4">
@@ -3075,13 +2940,13 @@
         <v>風雅詩</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>373</v>
+        <v>321</v>
       </c>
       <c r="F10" s="4" t="s">
         <v>65</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>473</v>
+        <v>421</v>
       </c>
       <c r="H10" s="5" t="str">
         <f t="shared" si="0"/>
@@ -3103,14 +2968,14 @@
         <v>214</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>567</v>
+        <v>472</v>
       </c>
       <c r="Q10" s="5" t="str">
         <f t="shared" si="1"/>
         <v>{"name":"風雅詩","number":"A000000006","phone":"0947526398","titleNo":2,"title":"店員","password":"$2a$17$","isDisabled":false,"isDeleted":false,"createdAt":"2022-09-07T17:42:17.010+00:00"},</v>
       </c>
       <c r="S10" s="2" t="s">
-        <v>668</v>
+        <v>573</v>
       </c>
     </row>
     <row r="11" spans="2:19" x14ac:dyDescent="0.4">
@@ -3125,13 +2990,13 @@
         <v>清心福</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>374</v>
+        <v>322</v>
       </c>
       <c r="F11" s="4" t="s">
         <v>66</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>474</v>
+        <v>422</v>
       </c>
       <c r="H11" s="5" t="str">
         <f t="shared" si="0"/>
@@ -3153,14 +3018,14 @@
         <v>214</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>568</v>
+        <v>473</v>
       </c>
       <c r="Q11" s="5" t="str">
         <f t="shared" si="1"/>
         <v>{"name":"清心福","number":"A000000007","phone":"0957643280","titleNo":2,"title":"店員","password":"$2a$18$","isDisabled":false,"isDeleted":false,"createdAt":"2023-03-20T05:58:38.050+00:00"},</v>
       </c>
       <c r="S11" s="2" t="s">
-        <v>669</v>
+        <v>574</v>
       </c>
     </row>
     <row r="12" spans="2:19" x14ac:dyDescent="0.4">
@@ -3175,13 +3040,13 @@
         <v>天幸福</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>375</v>
+        <v>323</v>
       </c>
       <c r="F12" s="4" t="s">
         <v>67</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>475</v>
+        <v>423</v>
       </c>
       <c r="H12" s="5" t="str">
         <f t="shared" si="0"/>
@@ -3203,14 +3068,14 @@
         <v>214</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>569</v>
+        <v>474</v>
       </c>
       <c r="Q12" s="5" t="str">
         <f t="shared" si="1"/>
         <v>{"name":"天幸福","number":"A000000008","phone":"0942879163","titleNo":2,"title":"店員","password":"$2a$19$","isDisabled":false,"isDeleted":false,"createdAt":"2022-08-16T23:52:32.186+00:00"},</v>
       </c>
       <c r="S12" s="2" t="s">
-        <v>670</v>
+        <v>575</v>
       </c>
     </row>
     <row r="13" spans="2:19" x14ac:dyDescent="0.4">
@@ -3225,13 +3090,13 @@
         <v>海天地</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>376</v>
+        <v>324</v>
       </c>
       <c r="F13" s="4" t="s">
         <v>68</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>476</v>
+        <v>424</v>
       </c>
       <c r="H13" s="5" t="str">
         <f t="shared" si="0"/>
@@ -3253,14 +3118,14 @@
         <v>214</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>570</v>
+        <v>475</v>
       </c>
       <c r="Q13" s="5" t="str">
         <f t="shared" si="1"/>
         <v>{"name":"海天地","number":"A000000009","phone":"0975431862","titleNo":2,"title":"店員","password":"$2a$20$","isDisabled":false,"isDeleted":false,"createdAt":"2022-09-22T16:11:57.066+00:00"},</v>
       </c>
       <c r="S13" s="2" t="s">
-        <v>671</v>
+        <v>576</v>
       </c>
     </row>
     <row r="14" spans="2:19" x14ac:dyDescent="0.4">
@@ -3275,13 +3140,13 @@
         <v>雨露霜</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>377</v>
+        <v>325</v>
       </c>
       <c r="F14" s="4" t="s">
         <v>69</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>477</v>
+        <v>425</v>
       </c>
       <c r="H14" s="5" t="str">
         <f t="shared" si="0"/>
@@ -3303,14 +3168,14 @@
         <v>214</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>571</v>
+        <v>476</v>
       </c>
       <c r="Q14" s="5" t="str">
         <f t="shared" si="1"/>
         <v>{"name":"雨露霜","number":"A000000010","phone":"0958371246","titleNo":2,"title":"店員","password":"$2a$21$","isDisabled":false,"isDeleted":false,"createdAt":"2023-03-22T14:42:41.307+00:00"},</v>
       </c>
       <c r="S14" s="2" t="s">
-        <v>672</v>
+        <v>577</v>
       </c>
     </row>
     <row r="15" spans="2:19" x14ac:dyDescent="0.4">
@@ -3325,13 +3190,13 @@
         <v>碧水潭</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>378</v>
+        <v>326</v>
       </c>
       <c r="F15" s="4" t="s">
         <v>70</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>478</v>
+        <v>426</v>
       </c>
       <c r="H15" s="5" t="str">
         <f t="shared" si="0"/>
@@ -3353,14 +3218,14 @@
         <v>214</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>572</v>
+        <v>477</v>
       </c>
       <c r="Q15" s="5" t="str">
         <f t="shared" si="1"/>
         <v>{"name":"碧水潭","number":"A000000011","phone":"0928175306","titleNo":2,"title":"店員","password":"$2a$22$","isDisabled":false,"isDeleted":false,"createdAt":"2023-03-05T14:56:36.193+00:00"},</v>
       </c>
       <c r="S15" s="2" t="s">
-        <v>673</v>
+        <v>578</v>
       </c>
     </row>
     <row r="16" spans="2:19" x14ac:dyDescent="0.4">
@@ -3375,13 +3240,13 @@
         <v>玉清明</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>379</v>
+        <v>327</v>
       </c>
       <c r="F16" s="4" t="s">
         <v>71</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>479</v>
+        <v>427</v>
       </c>
       <c r="H16" s="5" t="str">
         <f t="shared" si="0"/>
@@ -3403,14 +3268,14 @@
         <v>214</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>573</v>
+        <v>478</v>
       </c>
       <c r="Q16" s="5" t="str">
         <f t="shared" si="1"/>
         <v>{"name":"玉清明","number":"A000000012","phone":"0982764190","titleNo":2,"title":"店員","password":"$2a$23$","isDisabled":false,"isDeleted":false,"createdAt":"2022-09-17T12:01:26.378+00:00"},</v>
       </c>
       <c r="S16" s="2" t="s">
-        <v>674</v>
+        <v>579</v>
       </c>
     </row>
     <row r="17" spans="2:19" x14ac:dyDescent="0.4">
@@ -3425,13 +3290,13 @@
         <v>花樹林</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>380</v>
+        <v>328</v>
       </c>
       <c r="F17" s="4" t="s">
         <v>72</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>480</v>
+        <v>428</v>
       </c>
       <c r="H17" s="5" t="str">
         <f t="shared" si="0"/>
@@ -3453,14 +3318,14 @@
         <v>214</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>574</v>
+        <v>479</v>
       </c>
       <c r="Q17" s="5" t="str">
         <f t="shared" si="1"/>
         <v>{"name":"花樹林","number":"A000000013","phone":"0925176038","titleNo":2,"title":"店員","password":"$2a$24$","isDisabled":false,"isDeleted":false,"createdAt":"2022-08-27T08:08:28.325+00:00"},</v>
       </c>
       <c r="S17" s="2" t="s">
-        <v>675</v>
+        <v>580</v>
       </c>
     </row>
     <row r="18" spans="2:19" x14ac:dyDescent="0.4">
@@ -3475,13 +3340,13 @@
         <v>莫忘我</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>381</v>
+        <v>329</v>
       </c>
       <c r="F18" s="4" t="s">
         <v>73</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>481</v>
+        <v>429</v>
       </c>
       <c r="H18" s="5" t="str">
         <f t="shared" si="0"/>
@@ -3503,14 +3368,14 @@
         <v>214</v>
       </c>
       <c r="N18" s="1" t="s">
-        <v>575</v>
+        <v>480</v>
       </c>
       <c r="Q18" s="5" t="str">
         <f t="shared" si="1"/>
         <v>{"name":"莫忘我","number":"A000000014","phone":"0934621857","titleNo":2,"title":"店員","password":"$2a$25$","isDisabled":false,"isDeleted":false,"createdAt":"2022-09-18T19:59:28.817+00:00"},</v>
       </c>
       <c r="S18" s="2" t="s">
-        <v>676</v>
+        <v>581</v>
       </c>
     </row>
     <row r="19" spans="2:19" x14ac:dyDescent="0.4">
@@ -3525,13 +3390,13 @@
         <v>夜星辰</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>382</v>
+        <v>330</v>
       </c>
       <c r="F19" s="4" t="s">
         <v>74</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>482</v>
+        <v>430</v>
       </c>
       <c r="H19" s="5" t="str">
         <f t="shared" si="0"/>
@@ -3553,14 +3418,14 @@
         <v>214</v>
       </c>
       <c r="N19" s="1" t="s">
-        <v>576</v>
+        <v>481</v>
       </c>
       <c r="Q19" s="5" t="str">
         <f t="shared" si="1"/>
         <v>{"name":"夜星辰","number":"A000000015","phone":"0953164782","titleNo":2,"title":"店員","password":"$2a$26$","isDisabled":false,"isDeleted":false,"createdAt":"2023-03-07T19:29:55.573+00:00"},</v>
       </c>
       <c r="S19" s="2" t="s">
-        <v>677</v>
+        <v>582</v>
       </c>
     </row>
     <row r="20" spans="2:19" x14ac:dyDescent="0.4">
@@ -3575,13 +3440,13 @@
         <v>雲深處</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>383</v>
+        <v>331</v>
       </c>
       <c r="F20" s="4" t="s">
         <v>75</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>483</v>
+        <v>431</v>
       </c>
       <c r="H20" s="5" t="str">
         <f t="shared" si="0"/>
@@ -3603,14 +3468,14 @@
         <v>214</v>
       </c>
       <c r="N20" s="1" t="s">
-        <v>577</v>
+        <v>482</v>
       </c>
       <c r="Q20" s="5" t="str">
         <f t="shared" si="1"/>
         <v>{"name":"雲深處","number":"A000000016","phone":"0908673195","titleNo":2,"title":"店員","password":"$2a$27$","isDisabled":false,"isDeleted":false,"createdAt":"2022-09-28T00:01:25.430+00:00"},</v>
       </c>
       <c r="S20" s="2" t="s">
-        <v>678</v>
+        <v>583</v>
       </c>
     </row>
     <row r="21" spans="2:19" x14ac:dyDescent="0.4">
@@ -3625,13 +3490,13 @@
         <v>碧海天</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>384</v>
+        <v>332</v>
       </c>
       <c r="F21" s="4" t="s">
         <v>76</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>484</v>
+        <v>432</v>
       </c>
       <c r="H21" s="5" t="str">
         <f t="shared" si="0"/>
@@ -3653,14 +3518,14 @@
         <v>214</v>
       </c>
       <c r="N21" s="1" t="s">
-        <v>578</v>
+        <v>483</v>
       </c>
       <c r="Q21" s="5" t="str">
         <f t="shared" si="1"/>
         <v>{"name":"碧海天","number":"A000000017","phone":"0934528067","titleNo":2,"title":"店員","password":"$2a$28$","isDisabled":false,"isDeleted":false,"createdAt":"2022-10-05T01:23:36.620+00:00"},</v>
       </c>
       <c r="S21" s="2" t="s">
-        <v>679</v>
+        <v>584</v>
       </c>
     </row>
     <row r="22" spans="2:19" x14ac:dyDescent="0.4">
@@ -3675,13 +3540,13 @@
         <v>春花香</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>385</v>
+        <v>333</v>
       </c>
       <c r="F22" s="4" t="s">
         <v>77</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>485</v>
+        <v>433</v>
       </c>
       <c r="H22" s="5" t="str">
         <f t="shared" si="0"/>
@@ -3703,14 +3568,14 @@
         <v>214</v>
       </c>
       <c r="N22" s="1" t="s">
-        <v>579</v>
+        <v>484</v>
       </c>
       <c r="Q22" s="5" t="str">
         <f t="shared" si="1"/>
         <v>{"name":"春花香","number":"A000000018","phone":"0943621587","titleNo":2,"title":"店員","password":"$2a$29$","isDisabled":false,"isDeleted":false,"createdAt":"2022-12-16T04:22:56.472+00:00"},</v>
       </c>
       <c r="S22" s="2" t="s">
-        <v>680</v>
+        <v>585</v>
       </c>
     </row>
     <row r="23" spans="2:19" x14ac:dyDescent="0.4">
@@ -3725,13 +3590,13 @@
         <v>紅梅雪</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>386</v>
+        <v>334</v>
       </c>
       <c r="F23" s="4" t="s">
         <v>78</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>486</v>
+        <v>434</v>
       </c>
       <c r="H23" s="5" t="str">
         <f t="shared" si="0"/>
@@ -3753,14 +3618,14 @@
         <v>214</v>
       </c>
       <c r="N23" s="1" t="s">
-        <v>580</v>
+        <v>485</v>
       </c>
       <c r="Q23" s="5" t="str">
         <f t="shared" si="1"/>
         <v>{"name":"紅梅雪","number":"A000000019","phone":"0975268431","titleNo":2,"title":"店員","password":"$2a$30$","isDisabled":false,"isDeleted":false,"createdAt":"2022-11-03T22:43:38.292+00:00"},</v>
       </c>
       <c r="S23" s="2" t="s">
-        <v>681</v>
+        <v>586</v>
       </c>
     </row>
     <row r="24" spans="2:19" x14ac:dyDescent="0.4">
@@ -3775,13 +3640,13 @@
         <v>紫薇仙</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>387</v>
+        <v>335</v>
       </c>
       <c r="F24" s="4" t="s">
         <v>79</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>487</v>
+        <v>435</v>
       </c>
       <c r="H24" s="5" t="str">
         <f t="shared" si="0"/>
@@ -3803,14 +3668,14 @@
         <v>214</v>
       </c>
       <c r="N24" s="1" t="s">
-        <v>581</v>
+        <v>486</v>
       </c>
       <c r="Q24" s="5" t="str">
         <f t="shared" si="1"/>
         <v>{"name":"紫薇仙","number":"A000000020","phone":"0974820315","titleNo":2,"title":"店員","password":"$2a$31$","isDisabled":false,"isDeleted":false,"createdAt":"2022-12-11T09:06:17.449+00:00"},</v>
       </c>
       <c r="S24" s="2" t="s">
-        <v>682</v>
+        <v>587</v>
       </c>
     </row>
     <row r="25" spans="2:19" x14ac:dyDescent="0.4">
@@ -3825,13 +3690,13 @@
         <v>梅花鶯</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>388</v>
+        <v>336</v>
       </c>
       <c r="F25" s="4" t="s">
         <v>80</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>488</v>
+        <v>436</v>
       </c>
       <c r="H25" s="5" t="str">
         <f t="shared" si="0"/>
@@ -3853,14 +3718,14 @@
         <v>214</v>
       </c>
       <c r="N25" s="1" t="s">
-        <v>582</v>
+        <v>487</v>
       </c>
       <c r="Q25" s="5" t="str">
         <f t="shared" si="1"/>
         <v>{"name":"梅花鶯","number":"A000000021","phone":"0918634257","titleNo":2,"title":"店員","password":"$2a$32$","isDisabled":false,"isDeleted":false,"createdAt":"2022-11-15T23:25:28.472+00:00"},</v>
       </c>
       <c r="S25" s="2" t="s">
-        <v>683</v>
+        <v>588</v>
       </c>
     </row>
     <row r="26" spans="2:19" x14ac:dyDescent="0.4">
@@ -3875,13 +3740,13 @@
         <v>雲半天</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>389</v>
+        <v>337</v>
       </c>
       <c r="F26" s="4" t="s">
         <v>81</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>489</v>
+        <v>437</v>
       </c>
       <c r="H26" s="5" t="str">
         <f t="shared" si="0"/>
@@ -3903,14 +3768,14 @@
         <v>214</v>
       </c>
       <c r="N26" s="1" t="s">
-        <v>583</v>
+        <v>488</v>
       </c>
       <c r="Q26" s="5" t="str">
         <f t="shared" si="1"/>
         <v>{"name":"雲半天","number":"A000000022","phone":"0914275386","titleNo":2,"title":"店員","password":"$2a$33$","isDisabled":false,"isDeleted":false,"createdAt":"2022-11-08T13:18:58.676+00:00"},</v>
       </c>
       <c r="S26" s="2" t="s">
-        <v>684</v>
+        <v>589</v>
       </c>
     </row>
     <row r="27" spans="2:19" x14ac:dyDescent="0.4">
@@ -3925,13 +3790,13 @@
         <v>海闊天</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>390</v>
+        <v>338</v>
       </c>
       <c r="F27" s="4" t="s">
         <v>82</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>490</v>
+        <v>438</v>
       </c>
       <c r="H27" s="5" t="str">
         <f t="shared" si="0"/>
@@ -3953,14 +3818,14 @@
         <v>214</v>
       </c>
       <c r="N27" s="1" t="s">
-        <v>584</v>
+        <v>489</v>
       </c>
       <c r="Q27" s="5" t="str">
         <f t="shared" si="1"/>
         <v>{"name":"海闊天","number":"A000000023","phone":"0982746315","titleNo":2,"title":"店員","password":"$2a$34$","isDisabled":false,"isDeleted":false,"createdAt":"2022-08-22T06:08:12.461+00:00"},</v>
       </c>
       <c r="S27" s="2" t="s">
-        <v>685</v>
+        <v>590</v>
       </c>
     </row>
     <row r="28" spans="2:19" x14ac:dyDescent="0.4">
@@ -3975,13 +3840,13 @@
         <v>星火燎</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>391</v>
+        <v>339</v>
       </c>
       <c r="F28" s="4" t="s">
         <v>83</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>491</v>
+        <v>439</v>
       </c>
       <c r="H28" s="5" t="str">
         <f t="shared" si="0"/>
@@ -4003,14 +3868,14 @@
         <v>214</v>
       </c>
       <c r="N28" s="1" t="s">
-        <v>585</v>
+        <v>490</v>
       </c>
       <c r="Q28" s="5" t="str">
         <f t="shared" si="1"/>
         <v>{"name":"星火燎","number":"A000000024","phone":"0914265083","titleNo":2,"title":"店員","password":"$2a$35$","isDisabled":false,"isDeleted":false,"createdAt":"2023-04-10T20:45:29.958+00:00"},</v>
       </c>
       <c r="S28" s="2" t="s">
-        <v>686</v>
+        <v>591</v>
       </c>
     </row>
     <row r="29" spans="2:19" x14ac:dyDescent="0.4">
@@ -4025,13 +3890,13 @@
         <v>落葉歸</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>392</v>
+        <v>340</v>
       </c>
       <c r="F29" s="4" t="s">
         <v>84</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>492</v>
+        <v>440</v>
       </c>
       <c r="H29" s="5" t="str">
         <f t="shared" si="0"/>
@@ -4053,14 +3918,14 @@
         <v>214</v>
       </c>
       <c r="N29" s="1" t="s">
-        <v>586</v>
+        <v>491</v>
       </c>
       <c r="Q29" s="5" t="str">
         <f t="shared" si="1"/>
         <v>{"name":"落葉歸","number":"A000000025","phone":"0978426315","titleNo":2,"title":"店員","password":"$2a$36$","isDisabled":false,"isDeleted":false,"createdAt":"2022-11-09T05:47:03.264+00:00"},</v>
       </c>
       <c r="S29" s="2" t="s">
-        <v>687</v>
+        <v>592</v>
       </c>
     </row>
     <row r="30" spans="2:19" x14ac:dyDescent="0.4">
@@ -4075,13 +3940,13 @@
         <v>龍飛燕</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>393</v>
+        <v>341</v>
       </c>
       <c r="F30" s="4" t="s">
         <v>85</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>493</v>
+        <v>441</v>
       </c>
       <c r="H30" s="5" t="str">
         <f t="shared" si="0"/>
@@ -4103,14 +3968,14 @@
         <v>214</v>
       </c>
       <c r="N30" s="1" t="s">
-        <v>587</v>
+        <v>492</v>
       </c>
       <c r="Q30" s="5" t="str">
         <f t="shared" si="1"/>
         <v>{"name":"龍飛燕","number":"A000000026","phone":"0963182457","titleNo":2,"title":"店員","password":"$2a$37$","isDisabled":false,"isDeleted":false,"createdAt":"2022-12-16T11:45:18.400+00:00"},</v>
       </c>
       <c r="S30" s="2" t="s">
-        <v>688</v>
+        <v>593</v>
       </c>
     </row>
     <row r="31" spans="2:19" x14ac:dyDescent="0.4">
@@ -4125,13 +3990,13 @@
         <v>雪蓮花</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>394</v>
+        <v>342</v>
       </c>
       <c r="F31" s="4" t="s">
         <v>86</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>494</v>
+        <v>442</v>
       </c>
       <c r="H31" s="5" t="str">
         <f t="shared" si="0"/>
@@ -4153,14 +4018,14 @@
         <v>214</v>
       </c>
       <c r="N31" s="1" t="s">
-        <v>588</v>
+        <v>493</v>
       </c>
       <c r="Q31" s="5" t="str">
         <f t="shared" si="1"/>
         <v>{"name":"雪蓮花","number":"A000000027","phone":"0986314275","titleNo":2,"title":"店員","password":"$2a$38$","isDisabled":false,"isDeleted":false,"createdAt":"2022-12-18T20:13:56.630+00:00"},</v>
       </c>
       <c r="S31" s="2" t="s">
-        <v>689</v>
+        <v>594</v>
       </c>
     </row>
     <row r="32" spans="2:19" x14ac:dyDescent="0.4">
@@ -4175,13 +4040,13 @@
         <v>桃花塢</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>395</v>
+        <v>343</v>
       </c>
       <c r="F32" s="4" t="s">
         <v>87</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>495</v>
+        <v>443</v>
       </c>
       <c r="H32" s="5" t="str">
         <f t="shared" si="0"/>
@@ -4203,14 +4068,14 @@
         <v>214</v>
       </c>
       <c r="N32" s="1" t="s">
-        <v>589</v>
+        <v>494</v>
       </c>
       <c r="Q32" s="5" t="str">
         <f t="shared" si="1"/>
         <v>{"name":"桃花塢","number":"A000000028","phone":"0923184705","titleNo":2,"title":"店員","password":"$2a$39$","isDisabled":false,"isDeleted":false,"createdAt":"2023-03-20T14:22:32.534+00:00"},</v>
       </c>
       <c r="S32" s="2" t="s">
-        <v>690</v>
+        <v>595</v>
       </c>
     </row>
     <row r="33" spans="2:19" x14ac:dyDescent="0.4">
@@ -4225,13 +4090,13 @@
         <v>虹彩霓</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>396</v>
+        <v>344</v>
       </c>
       <c r="F33" s="4" t="s">
         <v>88</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>496</v>
+        <v>444</v>
       </c>
       <c r="H33" s="5" t="str">
         <f t="shared" si="0"/>
@@ -4253,14 +4118,14 @@
         <v>214</v>
       </c>
       <c r="N33" s="1" t="s">
-        <v>590</v>
+        <v>495</v>
       </c>
       <c r="Q33" s="5" t="str">
         <f t="shared" si="1"/>
         <v>{"name":"虹彩霓","number":"A000000029","phone":"0938562471","titleNo":2,"title":"店員","password":"$2a$40$","isDisabled":false,"isDeleted":false,"createdAt":"2022-09-27T06:12:35.528+00:00"},</v>
       </c>
       <c r="S33" s="2" t="s">
-        <v>691</v>
+        <v>596</v>
       </c>
     </row>
     <row r="34" spans="2:19" x14ac:dyDescent="0.4">
@@ -4275,13 +4140,13 @@
         <v>碧空山</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>397</v>
+        <v>345</v>
       </c>
       <c r="F34" s="4" t="s">
         <v>89</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>497</v>
+        <v>445</v>
       </c>
       <c r="H34" s="5" t="str">
         <f t="shared" si="0"/>
@@ -4303,14 +4168,14 @@
         <v>214</v>
       </c>
       <c r="N34" s="1" t="s">
-        <v>591</v>
+        <v>496</v>
       </c>
       <c r="Q34" s="5" t="str">
         <f t="shared" si="1"/>
         <v>{"name":"碧空山","number":"A000000030","phone":"0963185427","titleNo":2,"title":"店員","password":"$2a$41$","isDisabled":false,"isDeleted":false,"createdAt":"2022-09-24T21:07:54.041+00:00"},</v>
       </c>
       <c r="S34" s="2" t="s">
-        <v>692</v>
+        <v>597</v>
       </c>
     </row>
     <row r="35" spans="2:19" x14ac:dyDescent="0.4">
@@ -4325,13 +4190,13 @@
         <v>神仙境</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>398</v>
+        <v>346</v>
       </c>
       <c r="F35" s="4" t="s">
         <v>192</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>498</v>
+        <v>446</v>
       </c>
       <c r="H35" s="5" t="str">
         <f t="shared" si="0"/>
@@ -4353,14 +4218,14 @@
         <v>214</v>
       </c>
       <c r="N35" s="1" t="s">
-        <v>592</v>
+        <v>497</v>
       </c>
       <c r="Q35" s="5" t="str">
         <f t="shared" si="1"/>
         <v>{"name":"神仙境","number":"B000000001","phone":"0913275640","titleNo":3,"title":"廚師","password":"$2a$42$","isDisabled":false,"isDeleted":false,"createdAt":"2022-11-03T02:20:27.520+00:00"},</v>
       </c>
       <c r="S35" s="2" t="s">
-        <v>693</v>
+        <v>598</v>
       </c>
     </row>
     <row r="36" spans="2:19" x14ac:dyDescent="0.4">
@@ -4375,13 +4240,13 @@
         <v>女俠客</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>399</v>
+        <v>347</v>
       </c>
       <c r="F36" s="4" t="s">
         <v>193</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>499</v>
+        <v>447</v>
       </c>
       <c r="H36" s="5" t="str">
         <f t="shared" si="0"/>
@@ -4403,14 +4268,14 @@
         <v>214</v>
       </c>
       <c r="N36" s="1" t="s">
-        <v>593</v>
+        <v>498</v>
       </c>
       <c r="Q36" s="5" t="str">
         <f t="shared" si="1"/>
         <v>{"name":"女俠客","number":"B000000002","phone":"0928354167","titleNo":3,"title":"廚師","password":"$2a$43$","isDisabled":false,"isDeleted":false,"createdAt":"2022-09-23T16:34:22.396+00:00"},</v>
       </c>
       <c r="S36" s="2" t="s">
-        <v>694</v>
+        <v>599</v>
       </c>
     </row>
     <row r="37" spans="2:19" x14ac:dyDescent="0.4">
@@ -4425,13 +4290,13 @@
         <v>玉琴曲</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>400</v>
+        <v>348</v>
       </c>
       <c r="F37" s="4" t="s">
         <v>194</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>500</v>
+        <v>448</v>
       </c>
       <c r="H37" s="5" t="str">
         <f t="shared" si="0"/>
@@ -4453,14 +4318,14 @@
         <v>214</v>
       </c>
       <c r="N37" s="1" t="s">
-        <v>594</v>
+        <v>499</v>
       </c>
       <c r="Q37" s="5" t="str">
         <f t="shared" si="1"/>
         <v>{"name":"玉琴曲","number":"B000000003","phone":"0938562147","titleNo":3,"title":"廚師","password":"$2a$44$","isDisabled":false,"isDeleted":false,"createdAt":"2022-10-06T08:08:54.794+00:00"},</v>
       </c>
       <c r="S37" s="2" t="s">
-        <v>695</v>
+        <v>600</v>
       </c>
     </row>
     <row r="38" spans="2:19" x14ac:dyDescent="0.4">
@@ -4475,13 +4340,13 @@
         <v>雪莊主</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>401</v>
+        <v>349</v>
       </c>
       <c r="F38" s="4" t="s">
         <v>195</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>501</v>
+        <v>449</v>
       </c>
       <c r="H38" s="5" t="str">
         <f t="shared" si="0"/>
@@ -4503,14 +4368,14 @@
         <v>214</v>
       </c>
       <c r="N38" s="1" t="s">
-        <v>595</v>
+        <v>500</v>
       </c>
       <c r="Q38" s="5" t="str">
         <f t="shared" si="1"/>
         <v>{"name":"雪莊主","number":"B000000004","phone":"0915473286","titleNo":3,"title":"廚師","password":"$2a$45$","isDisabled":false,"isDeleted":false,"createdAt":"2022-09-10T16:48:07.034+00:00"},</v>
       </c>
       <c r="S38" s="2" t="s">
-        <v>696</v>
+        <v>601</v>
       </c>
     </row>
     <row r="39" spans="2:19" x14ac:dyDescent="0.4">
@@ -4525,13 +4390,13 @@
         <v>飛鳥想</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>402</v>
+        <v>350</v>
       </c>
       <c r="F39" s="4" t="s">
         <v>196</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>502</v>
+        <v>450</v>
       </c>
       <c r="H39" s="5" t="str">
         <f t="shared" si="0"/>
@@ -4553,14 +4418,14 @@
         <v>214</v>
       </c>
       <c r="N39" s="1" t="s">
-        <v>596</v>
+        <v>501</v>
       </c>
       <c r="Q39" s="5" t="str">
         <f t="shared" si="1"/>
         <v>{"name":"飛鳥想","number":"B000000005","phone":"0956714283","titleNo":3,"title":"廚師","password":"$2a$46$","isDisabled":false,"isDeleted":false,"createdAt":"2022-10-27T01:03:02.509+00:00"},</v>
       </c>
       <c r="S39" s="2" t="s">
-        <v>697</v>
+        <v>602</v>
       </c>
     </row>
     <row r="40" spans="2:19" x14ac:dyDescent="0.4">
@@ -4575,13 +4440,13 @@
         <v>春水源</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>403</v>
+        <v>351</v>
       </c>
       <c r="F40" s="4" t="s">
         <v>197</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>503</v>
+        <v>451</v>
       </c>
       <c r="H40" s="5" t="str">
         <f t="shared" si="0"/>
@@ -4603,14 +4468,14 @@
         <v>214</v>
       </c>
       <c r="N40" s="1" t="s">
-        <v>598</v>
+        <v>503</v>
       </c>
       <c r="Q40" s="5" t="str">
         <f t="shared" si="1"/>
         <v>{"name":"春水源","number":"B000000006","phone":"0974286315","titleNo":3,"title":"廚師","password":"$2a$47$","isDisabled":false,"isDeleted":false,"createdAt":"2022-03-20T14:15:34.221+00:00"},</v>
       </c>
       <c r="S40" s="2" t="s">
-        <v>698</v>
+        <v>603</v>
       </c>
     </row>
     <row r="41" spans="2:19" x14ac:dyDescent="0.4">
@@ -4625,13 +4490,13 @@
         <v>月傾城</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>404</v>
+        <v>352</v>
       </c>
       <c r="F41" s="4" t="s">
         <v>198</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>504</v>
+        <v>452</v>
       </c>
       <c r="H41" s="5" t="str">
         <f t="shared" si="0"/>
@@ -4653,14 +4518,14 @@
         <v>214</v>
       </c>
       <c r="N41" s="1" t="s">
-        <v>599</v>
+        <v>504</v>
       </c>
       <c r="Q41" s="5" t="str">
         <f t="shared" si="1"/>
         <v>{"name":"月傾城","number":"B000000007","phone":"0987312465","titleNo":3,"title":"廚師","password":"$2a$48$","isDisabled":false,"isDeleted":false,"createdAt":"2021-12-14T23:50:09.605+00:00"},</v>
       </c>
       <c r="S41" s="2" t="s">
-        <v>699</v>
+        <v>604</v>
       </c>
     </row>
     <row r="42" spans="2:19" x14ac:dyDescent="0.4">
@@ -4675,13 +4540,13 @@
         <v>傾國妃</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>405</v>
+        <v>353</v>
       </c>
       <c r="F42" s="4" t="s">
         <v>199</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>505</v>
+        <v>453</v>
       </c>
       <c r="H42" s="5" t="str">
         <f t="shared" si="0"/>
@@ -4703,14 +4568,14 @@
         <v>214</v>
       </c>
       <c r="N42" s="1" t="s">
-        <v>600</v>
+        <v>505</v>
       </c>
       <c r="Q42" s="5" t="str">
         <f t="shared" si="1"/>
         <v>{"name":"傾國妃","number":"B000000008","phone":"0925384617","titleNo":3,"title":"廚師","password":"$2a$49$","isDisabled":false,"isDeleted":false,"createdAt":"2023-01-31T21:33:22.703+00:00"},</v>
       </c>
       <c r="S42" s="2" t="s">
-        <v>700</v>
+        <v>605</v>
       </c>
     </row>
     <row r="43" spans="2:19" x14ac:dyDescent="0.4">
@@ -4725,13 +4590,13 @@
         <v>飛天舞</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>406</v>
+        <v>354</v>
       </c>
       <c r="F43" s="4" t="s">
         <v>200</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>506</v>
+        <v>454</v>
       </c>
       <c r="H43" s="5" t="str">
         <f t="shared" si="0"/>
@@ -4753,14 +4618,14 @@
         <v>214</v>
       </c>
       <c r="N43" s="1" t="s">
-        <v>601</v>
+        <v>506</v>
       </c>
       <c r="Q43" s="5" t="str">
         <f t="shared" si="1"/>
         <v>{"name":"飛天舞","number":"B000000009","phone":"0987416235","titleNo":3,"title":"廚師","password":"$2a$50$","isDisabled":false,"isDeleted":false,"createdAt":"2021-10-29T06:25:01.906+00:00"},</v>
       </c>
       <c r="S43" s="2" t="s">
-        <v>701</v>
+        <v>606</v>
       </c>
     </row>
     <row r="44" spans="2:19" x14ac:dyDescent="0.4">
@@ -4775,13 +4640,13 @@
         <v>靈龍鳳</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>407</v>
+        <v>355</v>
       </c>
       <c r="F44" s="4" t="s">
         <v>201</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>507</v>
+        <v>455</v>
       </c>
       <c r="H44" s="5" t="str">
         <f t="shared" si="0"/>
@@ -4803,14 +4668,14 @@
         <v>214</v>
       </c>
       <c r="N44" s="1" t="s">
-        <v>602</v>
+        <v>507</v>
       </c>
       <c r="Q44" s="5" t="str">
         <f t="shared" si="1"/>
         <v>{"name":"靈龍鳳","number":"B000000010","phone":"0956487312","titleNo":3,"title":"廚師","password":"$2a$51$","isDisabled":false,"isDeleted":false,"createdAt":"2022-09-14T16:43:08.933+00:00"},</v>
       </c>
       <c r="S44" s="2" t="s">
-        <v>702</v>
+        <v>607</v>
       </c>
     </row>
     <row r="45" spans="2:19" x14ac:dyDescent="0.4">
@@ -4825,13 +4690,13 @@
         <v>帝皇后</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>408</v>
+        <v>356</v>
       </c>
       <c r="F45" s="4" t="s">
         <v>202</v>
       </c>
       <c r="G45" s="4" t="s">
-        <v>508</v>
+        <v>456</v>
       </c>
       <c r="H45" s="5" t="str">
         <f t="shared" si="0"/>
@@ -4853,14 +4718,14 @@
         <v>214</v>
       </c>
       <c r="N45" s="1" t="s">
-        <v>603</v>
+        <v>508</v>
       </c>
       <c r="Q45" s="5" t="str">
         <f t="shared" si="1"/>
         <v>{"name":"帝皇后","number":"B000000011","phone":"0975426831","titleNo":3,"title":"廚師","password":"$2a$52$","isDisabled":false,"isDeleted":false,"createdAt":"2023-03-23T10:51:51.779+00:00"},</v>
       </c>
       <c r="S45" s="2" t="s">
-        <v>703</v>
+        <v>608</v>
       </c>
     </row>
     <row r="46" spans="2:19" x14ac:dyDescent="0.4">
@@ -4875,13 +4740,13 @@
         <v>竹林寺</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>409</v>
+        <v>357</v>
       </c>
       <c r="F46" s="4" t="s">
         <v>203</v>
       </c>
       <c r="G46" s="4" t="s">
-        <v>509</v>
+        <v>457</v>
       </c>
       <c r="H46" s="5" t="str">
         <f t="shared" si="0"/>
@@ -4903,14 +4768,14 @@
         <v>214</v>
       </c>
       <c r="N46" s="1" t="s">
-        <v>604</v>
+        <v>509</v>
       </c>
       <c r="Q46" s="5" t="str">
         <f t="shared" si="1"/>
         <v>{"name":"竹林寺","number":"B000000012","phone":"0973125468","titleNo":3,"title":"廚師","password":"$2a$53$","isDisabled":false,"isDeleted":false,"createdAt":"2022-10-16T17:26:34.926+00:00"},</v>
       </c>
       <c r="S46" s="2" t="s">
-        <v>704</v>
+        <v>609</v>
       </c>
     </row>
     <row r="47" spans="2:19" x14ac:dyDescent="0.4">
@@ -4925,13 +4790,13 @@
         <v>白雪糕</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>410</v>
+        <v>358</v>
       </c>
       <c r="F47" s="4" t="s">
         <v>204</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>510</v>
+        <v>458</v>
       </c>
       <c r="H47" s="5" t="str">
         <f t="shared" si="0"/>
@@ -4953,14 +4818,14 @@
         <v>214</v>
       </c>
       <c r="N47" s="1" t="s">
-        <v>605</v>
+        <v>510</v>
       </c>
       <c r="Q47" s="5" t="str">
         <f t="shared" si="1"/>
         <v>{"name":"白雪糕","number":"B000000013","phone":"0912563478","titleNo":3,"title":"廚師","password":"$2a$54$","isDisabled":false,"isDeleted":false,"createdAt":"2021-08-26T07:39:13.491+00:00"},</v>
       </c>
       <c r="S47" s="2" t="s">
-        <v>705</v>
+        <v>610</v>
       </c>
     </row>
     <row r="48" spans="2:19" x14ac:dyDescent="0.4">
@@ -4975,13 +4840,13 @@
         <v>雨雪霜</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>411</v>
+        <v>359</v>
       </c>
       <c r="F48" s="4" t="s">
         <v>205</v>
       </c>
       <c r="G48" s="4" t="s">
-        <v>511</v>
+        <v>459</v>
       </c>
       <c r="H48" s="5" t="str">
         <f t="shared" si="0"/>
@@ -5003,14 +4868,14 @@
         <v>214</v>
       </c>
       <c r="N48" s="1" t="s">
-        <v>606</v>
+        <v>511</v>
       </c>
       <c r="Q48" s="5" t="str">
         <f t="shared" si="1"/>
         <v>{"name":"雨雪霜","number":"B000000014","phone":"0942316578","titleNo":3,"title":"廚師","password":"$2a$55$","isDisabled":false,"isDeleted":false,"createdAt":"2021-12-31T12:41:47.066+00:00"},</v>
       </c>
       <c r="S48" s="2" t="s">
-        <v>706</v>
+        <v>611</v>
       </c>
     </row>
     <row r="49" spans="1:19" x14ac:dyDescent="0.4">
@@ -5025,13 +4890,13 @@
         <v>燕雀安</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>412</v>
+        <v>360</v>
       </c>
       <c r="F49" s="4" t="s">
         <v>206</v>
       </c>
       <c r="G49" s="4" t="s">
-        <v>512</v>
+        <v>460</v>
       </c>
       <c r="H49" s="5" t="str">
         <f t="shared" si="0"/>
@@ -5053,14 +4918,14 @@
         <v>214</v>
       </c>
       <c r="N49" s="1" t="s">
-        <v>607</v>
+        <v>512</v>
       </c>
       <c r="Q49" s="5" t="str">
         <f t="shared" si="1"/>
         <v>{"name":"燕雀安","number":"B000000015","phone":"0942761538","titleNo":3,"title":"廚師","password":"$2a$56$","isDisabled":false,"isDeleted":false,"createdAt":"2022-06-13T18:07:16.927+00:00"},</v>
       </c>
       <c r="S49" s="2" t="s">
-        <v>707</v>
+        <v>612</v>
       </c>
     </row>
     <row r="50" spans="1:19" x14ac:dyDescent="0.4">
@@ -5075,13 +4940,13 @@
         <v>雪藏龍</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>413</v>
+        <v>361</v>
       </c>
       <c r="F50" s="4" t="s">
         <v>207</v>
       </c>
       <c r="G50" s="4" t="s">
-        <v>513</v>
+        <v>461</v>
       </c>
       <c r="H50" s="5" t="str">
         <f t="shared" si="0"/>
@@ -5103,14 +4968,14 @@
         <v>214</v>
       </c>
       <c r="N50" s="1" t="s">
-        <v>608</v>
+        <v>513</v>
       </c>
       <c r="Q50" s="5" t="str">
         <f t="shared" si="1"/>
         <v>{"name":"雪藏龍","number":"B000000016","phone":"0946218375","titleNo":3,"title":"廚師","password":"$2a$57$","isDisabled":false,"isDeleted":false,"createdAt":"2022-02-12T07:26:24.855+00:00"},</v>
       </c>
       <c r="S50" s="2" t="s">
-        <v>708</v>
+        <v>613</v>
       </c>
     </row>
     <row r="51" spans="1:19" x14ac:dyDescent="0.4">
@@ -5125,13 +4990,13 @@
         <v>雲水月</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>414</v>
+        <v>362</v>
       </c>
       <c r="F51" s="4" t="s">
         <v>208</v>
       </c>
       <c r="G51" s="4" t="s">
-        <v>514</v>
+        <v>462</v>
       </c>
       <c r="H51" s="5" t="str">
         <f t="shared" si="0"/>
@@ -5153,14 +5018,14 @@
         <v>214</v>
       </c>
       <c r="N51" s="1" t="s">
-        <v>609</v>
+        <v>514</v>
       </c>
       <c r="Q51" s="5" t="str">
         <f t="shared" si="1"/>
         <v>{"name":"雲水月","number":"B000000017","phone":"0943186527","titleNo":3,"title":"廚師","password":"$2a$58$","isDisabled":false,"isDeleted":false,"createdAt":"2021-10-28T08:01:02.832+00:00"},</v>
       </c>
       <c r="S51" s="2" t="s">
-        <v>709</v>
+        <v>614</v>
       </c>
     </row>
     <row r="52" spans="1:19" x14ac:dyDescent="0.4">
@@ -5175,13 +5040,13 @@
         <v>雪夜狐</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>415</v>
+        <v>363</v>
       </c>
       <c r="F52" s="4" t="s">
         <v>209</v>
       </c>
       <c r="G52" s="4" t="s">
-        <v>515</v>
+        <v>463</v>
       </c>
       <c r="H52" s="5" t="str">
         <f t="shared" si="0"/>
@@ -5203,14 +5068,14 @@
         <v>214</v>
       </c>
       <c r="N52" s="1" t="s">
-        <v>610</v>
+        <v>515</v>
       </c>
       <c r="Q52" s="5" t="str">
         <f t="shared" si="1"/>
         <v>{"name":"雪夜狐","number":"B000000018","phone":"0951847623","titleNo":3,"title":"廚師","password":"$2a$59$","isDisabled":false,"isDeleted":false,"createdAt":"2023-04-08T23:17:47.289+00:00"},</v>
       </c>
       <c r="S52" s="2" t="s">
-        <v>710</v>
+        <v>615</v>
       </c>
     </row>
     <row r="53" spans="1:19" x14ac:dyDescent="0.4">
@@ -5225,13 +5090,13 @@
         <v>草原狼</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>416</v>
+        <v>364</v>
       </c>
       <c r="F53" s="4" t="s">
         <v>210</v>
       </c>
       <c r="G53" s="4" t="s">
-        <v>516</v>
+        <v>464</v>
       </c>
       <c r="H53" s="5" t="str">
         <f t="shared" si="0"/>
@@ -5253,14 +5118,14 @@
         <v>214</v>
       </c>
       <c r="N53" s="1" t="s">
-        <v>611</v>
+        <v>516</v>
       </c>
       <c r="Q53" s="5" t="str">
         <f t="shared" si="1"/>
         <v>{"name":"草原狼","number":"B000000019","phone":"0932764150","titleNo":3,"title":"廚師","password":"$2a$60$","isDisabled":false,"isDeleted":false,"createdAt":"2022-06-21T05:28:50.537+00:00"},</v>
       </c>
       <c r="S53" s="2" t="s">
-        <v>711</v>
+        <v>616</v>
       </c>
     </row>
     <row r="54" spans="1:19" x14ac:dyDescent="0.4">
@@ -5276,13 +5141,13 @@
         <v>狂風怒</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>417</v>
+        <v>365</v>
       </c>
       <c r="F54" s="4" t="s">
         <v>211</v>
       </c>
       <c r="G54" s="4" t="s">
-        <v>517</v>
+        <v>465</v>
       </c>
       <c r="H54" s="5" t="str">
         <f t="shared" si="0"/>
@@ -5304,14 +5169,14 @@
         <v>214</v>
       </c>
       <c r="N54" s="1" t="s">
-        <v>612</v>
+        <v>517</v>
       </c>
       <c r="Q54" s="5" t="str">
         <f t="shared" si="1"/>
         <v>{"name":"狂風怒","number":"B000000020","phone":"0973125864","titleNo":3,"title":"廚師","password":"$2a$61$","isDisabled":false,"isDeleted":false,"createdAt":"2022-10-04T19:07:36.137+00:00"},</v>
       </c>
       <c r="S54" s="2" t="s">
-        <v>712</v>
+        <v>617</v>
       </c>
     </row>
     <row r="55" spans="1:19" x14ac:dyDescent="0.4">
@@ -5321,7 +5186,7 @@
       <c r="G55" s="4"/>
       <c r="N55" s="1"/>
       <c r="S55" s="2" t="s">
-        <v>663</v>
+        <v>568</v>
       </c>
     </row>
     <row r="56" spans="1:19" x14ac:dyDescent="0.4">
@@ -5692,13 +5557,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22F99467-EB2D-44F4-BB36-E4DD2F52E660}">
   <dimension ref="B4:R59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E41" workbookViewId="0">
-      <selection activeCell="O55" sqref="O55"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="P4" sqref="P4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="3" width="8.7265625" style="2"/>
+    <col min="1" max="1" width="8.7265625" style="2"/>
+    <col min="2" max="2" width="14" style="2" customWidth="1"/>
+    <col min="3" max="3" width="8.7265625" style="2"/>
     <col min="4" max="4" width="9.90625" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.90625" style="2" customWidth="1"/>
     <col min="6" max="7" width="12.54296875" style="2" customWidth="1"/>
@@ -5715,13 +5582,13 @@
         <v>1</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>597</v>
+        <v>502</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>2</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>597</v>
+        <v>502</v>
       </c>
       <c r="H4" s="5" t="s">
         <v>3</v>
@@ -5746,8 +5613,8 @@
       </c>
     </row>
     <row r="5" spans="2:18" x14ac:dyDescent="0.4">
-      <c r="B5" s="1" t="s">
-        <v>315</v>
+      <c r="B5" s="1">
+        <v>902846781</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>215</v>
@@ -5757,44 +5624,44 @@
         <v>紅梅香</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>418</v>
+        <v>366</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>265</v>
       </c>
       <c r="G5" s="4" t="s">
+        <v>619</v>
+      </c>
+      <c r="H5" s="5" t="str">
+        <f>"0"&amp;B5</f>
+        <v>0902846781</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="M5" s="1" t="s">
         <v>518</v>
-      </c>
-      <c r="H5" s="5" t="str">
-        <f t="shared" ref="H5:H19" si="1">RIGHT(B5,10)</f>
-        <v>0956312478</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>355</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>561</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>613</v>
       </c>
       <c r="P5" s="5" t="str">
         <f>"{""name"":"""&amp;E5&amp;""",""number"":"""&amp;F5&amp;""",""phone"":"""&amp;H5&amp;""",""titleNo"":"&amp;I5&amp;",""title"":"&amp;J5&amp;",""isDisabled"":"&amp;K5&amp;",""isDeleted"":"&amp;L5&amp;",""createdAt"":"""&amp;M5&amp;"""},"</f>
-        <v>{"name":"紅梅香","number":"C000000001","phone":"0956312478","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2021-11-16T04:33:12.354+00:00"},</v>
+        <v>{"name":"紅梅香","number":"C000000001","phone":"0902846781","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2021-11-16T04:33:12.354+00:00"},</v>
       </c>
       <c r="R5" s="2" t="s">
-        <v>714</v>
+        <v>669</v>
       </c>
     </row>
     <row r="6" spans="2:18" x14ac:dyDescent="0.4">
-      <c r="B6" s="1" t="s">
-        <v>316</v>
+      <c r="B6" s="1">
+        <v>928765432</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>216</v>
@@ -5804,44 +5671,44 @@
         <v>花開半</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>419</v>
+        <v>367</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>266</v>
       </c>
       <c r="G6" s="4" t="s">
+        <v>620</v>
+      </c>
+      <c r="H6" s="5" t="str">
+        <f t="shared" ref="H6:H54" si="1">"0"&amp;B6</f>
+        <v>0928765432</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="M6" s="1" t="s">
         <v>519</v>
-      </c>
-      <c r="H6" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>0974261538</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>355</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>561</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="L6" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="M6" s="1" t="s">
-        <v>614</v>
       </c>
       <c r="P6" s="5" t="str">
         <f>"{""name"":"""&amp;E6&amp;""",""number"":"""&amp;F6&amp;""",""phone"":"""&amp;H6&amp;""",""titleNo"":"&amp;I6&amp;",""title"":"&amp;J6&amp;",""isDisabled"":"&amp;K6&amp;",""isDeleted"":"&amp;L6&amp;",""createdAt"":"""&amp;M6&amp;"""},"</f>
-        <v>{"name":"花開半","number":"C000000002","phone":"0974261538","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2022-06-01T21:39:16.913+00:00"},</v>
+        <v>{"name":"花開半","number":"C000000002","phone":"0928765432","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2022-06-01T21:39:16.913+00:00"},</v>
       </c>
       <c r="R6" s="2" t="s">
-        <v>715</v>
+        <v>670</v>
       </c>
     </row>
     <row r="7" spans="2:18" x14ac:dyDescent="0.4">
-      <c r="B7" s="1" t="s">
-        <v>317</v>
+      <c r="B7" s="1">
+        <v>989154896</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>217</v>
@@ -5851,44 +5718,44 @@
         <v>雪月風</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>420</v>
+        <v>368</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>267</v>
       </c>
       <c r="G7" s="4" t="s">
+        <v>621</v>
+      </c>
+      <c r="H7" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>0989154896</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="M7" s="1" t="s">
         <v>520</v>
-      </c>
-      <c r="H7" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>0936174285</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>355</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>561</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="M7" s="1" t="s">
-        <v>615</v>
       </c>
       <c r="P7" s="5" t="str">
         <f>"{""name"":"""&amp;E7&amp;""",""number"":"""&amp;F7&amp;""",""phone"":"""&amp;H7&amp;""",""titleNo"":"&amp;I7&amp;",""title"":"&amp;J7&amp;",""isDisabled"":"&amp;K7&amp;",""isDeleted"":"&amp;L7&amp;",""createdAt"":"""&amp;M7&amp;"""},"</f>
-        <v>{"name":"雪月風","number":"C000000003","phone":"0936174285","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2022-02-15T22:24:18.970+00:00"},</v>
+        <v>{"name":"雪月風","number":"C000000003","phone":"0989154896","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2022-02-15T22:24:18.970+00:00"},</v>
       </c>
       <c r="R7" s="2" t="s">
-        <v>716</v>
+        <v>671</v>
       </c>
     </row>
     <row r="8" spans="2:18" x14ac:dyDescent="0.4">
-      <c r="B8" s="1" t="s">
-        <v>318</v>
+      <c r="B8" s="1">
+        <v>902213574</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>218</v>
@@ -5898,44 +5765,44 @@
         <v>陽光樂</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>421</v>
+        <v>369</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>268</v>
       </c>
       <c r="G8" s="4" t="s">
+        <v>622</v>
+      </c>
+      <c r="H8" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>0902213574</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="M8" s="1" t="s">
         <v>521</v>
-      </c>
-      <c r="H8" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>0917382564</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>355</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>561</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="L8" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="M8" s="1" t="s">
-        <v>616</v>
       </c>
       <c r="P8" s="5" t="str">
         <f>"{""name"":"""&amp;E8&amp;""",""number"":"""&amp;F8&amp;""",""phone"":"""&amp;H8&amp;""",""titleNo"":"&amp;I8&amp;",""title"":"&amp;J8&amp;",""isDisabled"":"&amp;K8&amp;",""isDeleted"":"&amp;L8&amp;",""createdAt"":"""&amp;M8&amp;"""},"</f>
-        <v>{"name":"陽光樂","number":"C000000004","phone":"0917382564","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2022-08-22T11:44:26.424+00:00"},</v>
+        <v>{"name":"陽光樂","number":"C000000004","phone":"0902213574","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2022-08-22T11:44:26.424+00:00"},</v>
       </c>
       <c r="R8" s="2" t="s">
-        <v>717</v>
+        <v>672</v>
       </c>
     </row>
     <row r="9" spans="2:18" x14ac:dyDescent="0.4">
-      <c r="B9" s="1" t="s">
-        <v>319</v>
+      <c r="B9" s="1">
+        <v>937723502</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>219</v>
@@ -5945,44 +5812,44 @@
         <v>花開結</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>422</v>
+        <v>370</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>269</v>
       </c>
       <c r="G9" s="4" t="s">
+        <v>623</v>
+      </c>
+      <c r="H9" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>0937723502</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="M9" s="1" t="s">
         <v>522</v>
-      </c>
-      <c r="H9" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>0915462837</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>355</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>561</v>
-      </c>
-      <c r="K9" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="L9" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="M9" s="1" t="s">
-        <v>617</v>
       </c>
       <c r="P9" s="5" t="str">
         <f>"{""name"":"""&amp;E9&amp;""",""number"":"""&amp;F9&amp;""",""phone"":"""&amp;H9&amp;""",""titleNo"":"&amp;I9&amp;",""title"":"&amp;J9&amp;",""isDisabled"":"&amp;K9&amp;",""isDeleted"":"&amp;L9&amp;",""createdAt"":"""&amp;M9&amp;"""},"</f>
-        <v>{"name":"花開結","number":"C000000005","phone":"0915462837","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2021-10-15T07:30:19.703+00:00"},</v>
+        <v>{"name":"花開結","number":"C000000005","phone":"0937723502","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2021-10-15T07:30:19.703+00:00"},</v>
       </c>
       <c r="R9" s="2" t="s">
-        <v>718</v>
+        <v>673</v>
       </c>
     </row>
     <row r="10" spans="2:18" x14ac:dyDescent="0.4">
-      <c r="B10" s="1" t="s">
-        <v>320</v>
+      <c r="B10" s="1">
+        <v>933543285</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>220</v>
@@ -5992,44 +5859,44 @@
         <v>天香慕</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>423</v>
+        <v>371</v>
       </c>
       <c r="F10" s="4" t="s">
         <v>270</v>
       </c>
       <c r="G10" s="4" t="s">
+        <v>624</v>
+      </c>
+      <c r="H10" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>0933543285</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="M10" s="1" t="s">
         <v>523</v>
-      </c>
-      <c r="H10" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>0987123546</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>355</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>561</v>
-      </c>
-      <c r="K10" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="L10" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="M10" s="1" t="s">
-        <v>618</v>
       </c>
       <c r="P10" s="5" t="str">
         <f>"{""name"":"""&amp;E10&amp;""",""number"":"""&amp;F10&amp;""",""phone"":"""&amp;H10&amp;""",""titleNo"":"&amp;I10&amp;",""title"":"&amp;J10&amp;",""isDisabled"":"&amp;K10&amp;",""isDeleted"":"&amp;L10&amp;",""createdAt"":"""&amp;M10&amp;"""},"</f>
-        <v>{"name":"天香慕","number":"C000000006","phone":"0987123546","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2022-03-29T22:11:47.662+00:00"},</v>
+        <v>{"name":"天香慕","number":"C000000006","phone":"0933543285","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2022-03-29T22:11:47.662+00:00"},</v>
       </c>
       <c r="R10" s="2" t="s">
-        <v>719</v>
+        <v>674</v>
       </c>
     </row>
     <row r="11" spans="2:18" x14ac:dyDescent="0.4">
-      <c r="B11" s="1" t="s">
-        <v>321</v>
+      <c r="B11" s="1">
+        <v>964687456</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>221</v>
@@ -6039,44 +5906,44 @@
         <v>紅塵客</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>424</v>
+        <v>372</v>
       </c>
       <c r="F11" s="4" t="s">
         <v>271</v>
       </c>
       <c r="G11" s="4" t="s">
+        <v>625</v>
+      </c>
+      <c r="H11" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>0964687456</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="M11" s="1" t="s">
         <v>524</v>
-      </c>
-      <c r="H11" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>0963182475</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>355</v>
-      </c>
-      <c r="J11" s="2" t="s">
-        <v>561</v>
-      </c>
-      <c r="K11" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="L11" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="M11" s="1" t="s">
-        <v>619</v>
       </c>
       <c r="P11" s="5" t="str">
         <f>"{""name"":"""&amp;E11&amp;""",""number"":"""&amp;F11&amp;""",""phone"":"""&amp;H11&amp;""",""titleNo"":"&amp;I11&amp;",""title"":"&amp;J11&amp;",""isDisabled"":"&amp;K11&amp;",""isDeleted"":"&amp;L11&amp;",""createdAt"":"""&amp;M11&amp;"""},"</f>
-        <v>{"name":"紅塵客","number":"C000000007","phone":"0963182475","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2021-11-23T15:23:01.228+00:00"},</v>
+        <v>{"name":"紅塵客","number":"C000000007","phone":"0964687456","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2021-11-23T15:23:01.228+00:00"},</v>
       </c>
       <c r="R11" s="2" t="s">
-        <v>720</v>
+        <v>675</v>
       </c>
     </row>
     <row r="12" spans="2:18" x14ac:dyDescent="0.4">
-      <c r="B12" s="1" t="s">
-        <v>322</v>
+      <c r="B12" s="1">
+        <v>937645289</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>222</v>
@@ -6086,44 +5953,44 @@
         <v>琴瑟音</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>425</v>
+        <v>373</v>
       </c>
       <c r="F12" s="4" t="s">
         <v>272</v>
       </c>
       <c r="G12" s="4" t="s">
+        <v>626</v>
+      </c>
+      <c r="H12" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>0937645289</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="M12" s="1" t="s">
         <v>525</v>
-      </c>
-      <c r="H12" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>0982741635</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>355</v>
-      </c>
-      <c r="J12" s="2" t="s">
-        <v>561</v>
-      </c>
-      <c r="K12" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="L12" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="M12" s="1" t="s">
-        <v>620</v>
       </c>
       <c r="P12" s="5" t="str">
         <f>"{""name"":"""&amp;E12&amp;""",""number"":"""&amp;F12&amp;""",""phone"":"""&amp;H12&amp;""",""titleNo"":"&amp;I12&amp;",""title"":"&amp;J12&amp;",""isDisabled"":"&amp;K12&amp;",""isDeleted"":"&amp;L12&amp;",""createdAt"":"""&amp;M12&amp;"""},"</f>
-        <v>{"name":"琴瑟音","number":"C000000008","phone":"0982741635","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2022-06-06T14:13:27.097+00:00"},</v>
+        <v>{"name":"琴瑟音","number":"C000000008","phone":"0937645289","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2022-06-06T14:13:27.097+00:00"},</v>
       </c>
       <c r="R12" s="2" t="s">
-        <v>721</v>
+        <v>676</v>
       </c>
     </row>
     <row r="13" spans="2:18" x14ac:dyDescent="0.4">
-      <c r="B13" s="1" t="s">
-        <v>323</v>
+      <c r="B13" s="1">
+        <v>955432569</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>223</v>
@@ -6133,44 +6000,44 @@
         <v>愛如花</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>426</v>
+        <v>374</v>
       </c>
       <c r="F13" s="4" t="s">
         <v>273</v>
       </c>
       <c r="G13" s="4" t="s">
+        <v>627</v>
+      </c>
+      <c r="H13" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>0955432569</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="M13" s="1" t="s">
         <v>526</v>
-      </c>
-      <c r="H13" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>0954163278</v>
-      </c>
-      <c r="I13" s="2" t="s">
-        <v>355</v>
-      </c>
-      <c r="J13" s="2" t="s">
-        <v>561</v>
-      </c>
-      <c r="K13" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="L13" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="M13" s="1" t="s">
-        <v>621</v>
       </c>
       <c r="P13" s="5" t="str">
         <f>"{""name"":"""&amp;E13&amp;""",""number"":"""&amp;F13&amp;""",""phone"":"""&amp;H13&amp;""",""titleNo"":"&amp;I13&amp;",""title"":"&amp;J13&amp;",""isDisabled"":"&amp;K13&amp;",""isDeleted"":"&amp;L13&amp;",""createdAt"":"""&amp;M13&amp;"""},"</f>
-        <v>{"name":"愛如花","number":"C000000009","phone":"0954163278","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2021-12-17T05:17:57.586+00:00"},</v>
+        <v>{"name":"愛如花","number":"C000000009","phone":"0955432569","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2021-12-17T05:17:57.586+00:00"},</v>
       </c>
       <c r="R13" s="2" t="s">
-        <v>722</v>
+        <v>677</v>
       </c>
     </row>
     <row r="14" spans="2:18" x14ac:dyDescent="0.4">
-      <c r="B14" s="1" t="s">
-        <v>324</v>
+      <c r="B14" s="1">
+        <v>988542895</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>224</v>
@@ -6180,44 +6047,44 @@
         <v>深海潛</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>427</v>
+        <v>375</v>
       </c>
       <c r="F14" s="4" t="s">
         <v>274</v>
       </c>
       <c r="G14" s="4" t="s">
+        <v>628</v>
+      </c>
+      <c r="H14" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>0988542895</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="M14" s="1" t="s">
         <v>527</v>
-      </c>
-      <c r="H14" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>0962143785</v>
-      </c>
-      <c r="I14" s="2" t="s">
-        <v>355</v>
-      </c>
-      <c r="J14" s="2" t="s">
-        <v>561</v>
-      </c>
-      <c r="K14" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="L14" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="M14" s="1" t="s">
-        <v>622</v>
       </c>
       <c r="P14" s="5" t="str">
         <f>"{""name"":"""&amp;E14&amp;""",""number"":"""&amp;F14&amp;""",""phone"":"""&amp;H14&amp;""",""titleNo"":"&amp;I14&amp;",""title"":"&amp;J14&amp;",""isDisabled"":"&amp;K14&amp;",""isDeleted"":"&amp;L14&amp;",""createdAt"":"""&amp;M14&amp;"""},"</f>
-        <v>{"name":"深海潛","number":"C000000010","phone":"0962143785","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2022-08-04T02:52:55.810+00:00"},</v>
+        <v>{"name":"深海潛","number":"C000000010","phone":"0988542895","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2022-08-04T02:52:55.810+00:00"},</v>
       </c>
       <c r="R14" s="2" t="s">
-        <v>723</v>
+        <v>678</v>
       </c>
     </row>
     <row r="15" spans="2:18" x14ac:dyDescent="0.4">
-      <c r="B15" s="1" t="s">
-        <v>325</v>
+      <c r="B15" s="1">
+        <v>968594321</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>225</v>
@@ -6227,44 +6094,44 @@
         <v>雨蘭香</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>428</v>
+        <v>376</v>
       </c>
       <c r="F15" s="4" t="s">
         <v>275</v>
       </c>
       <c r="G15" s="4" t="s">
+        <v>629</v>
+      </c>
+      <c r="H15" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>0968594321</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="M15" s="1" t="s">
         <v>528</v>
-      </c>
-      <c r="H15" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>0963184275</v>
-      </c>
-      <c r="I15" s="2" t="s">
-        <v>355</v>
-      </c>
-      <c r="J15" s="2" t="s">
-        <v>561</v>
-      </c>
-      <c r="K15" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="L15" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="M15" s="1" t="s">
-        <v>623</v>
       </c>
       <c r="P15" s="5" t="str">
         <f>"{""name"":"""&amp;E15&amp;""",""number"":"""&amp;F15&amp;""",""phone"":"""&amp;H15&amp;""",""titleNo"":"&amp;I15&amp;",""title"":"&amp;J15&amp;",""isDisabled"":"&amp;K15&amp;",""isDeleted"":"&amp;L15&amp;",""createdAt"":"""&amp;M15&amp;"""},"</f>
-        <v>{"name":"雨蘭香","number":"C000000011","phone":"0963184275","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2022-03-24T04:22:07.955+00:00"},</v>
+        <v>{"name":"雨蘭香","number":"C000000011","phone":"0968594321","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2022-03-24T04:22:07.955+00:00"},</v>
       </c>
       <c r="R15" s="2" t="s">
-        <v>724</v>
+        <v>679</v>
       </c>
     </row>
     <row r="16" spans="2:18" x14ac:dyDescent="0.4">
-      <c r="B16" s="1" t="s">
-        <v>326</v>
+      <c r="B16" s="1">
+        <v>928596412</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>226</v>
@@ -6274,44 +6141,44 @@
         <v>紫陽花</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>429</v>
+        <v>377</v>
       </c>
       <c r="F16" s="4" t="s">
         <v>276</v>
       </c>
       <c r="G16" s="4" t="s">
+        <v>630</v>
+      </c>
+      <c r="H16" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>0928596412</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="M16" s="1" t="s">
         <v>529</v>
-      </c>
-      <c r="H16" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>0953847261</v>
-      </c>
-      <c r="I16" s="2" t="s">
-        <v>355</v>
-      </c>
-      <c r="J16" s="2" t="s">
-        <v>561</v>
-      </c>
-      <c r="K16" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="L16" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="M16" s="1" t="s">
-        <v>624</v>
       </c>
       <c r="P16" s="5" t="str">
         <f>"{""name"":"""&amp;E16&amp;""",""number"":"""&amp;F16&amp;""",""phone"":"""&amp;H16&amp;""",""titleNo"":"&amp;I16&amp;",""title"":"&amp;J16&amp;",""isDisabled"":"&amp;K16&amp;",""isDeleted"":"&amp;L16&amp;",""createdAt"":"""&amp;M16&amp;"""},"</f>
-        <v>{"name":"紫陽花","number":"C000000012","phone":"0953847261","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2022-08-25T18:15:32.166+00:00"},</v>
+        <v>{"name":"紫陽花","number":"C000000012","phone":"0928596412","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2022-08-25T18:15:32.166+00:00"},</v>
       </c>
       <c r="R16" s="2" t="s">
-        <v>725</v>
+        <v>680</v>
       </c>
     </row>
     <row r="17" spans="2:18" x14ac:dyDescent="0.4">
-      <c r="B17" s="1" t="s">
-        <v>327</v>
+      <c r="B17" s="1">
+        <v>975348962</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>227</v>
@@ -6321,44 +6188,44 @@
         <v>仙女飛</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>430</v>
+        <v>378</v>
       </c>
       <c r="F17" s="4" t="s">
         <v>277</v>
       </c>
       <c r="G17" s="4" t="s">
+        <v>631</v>
+      </c>
+      <c r="H17" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>0975348962</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="M17" s="1" t="s">
         <v>530</v>
-      </c>
-      <c r="H17" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>0954872631</v>
-      </c>
-      <c r="I17" s="2" t="s">
-        <v>355</v>
-      </c>
-      <c r="J17" s="2" t="s">
-        <v>561</v>
-      </c>
-      <c r="K17" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="L17" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="M17" s="1" t="s">
-        <v>625</v>
       </c>
       <c r="P17" s="5" t="str">
         <f>"{""name"":"""&amp;E17&amp;""",""number"":"""&amp;F17&amp;""",""phone"":"""&amp;H17&amp;""",""titleNo"":"&amp;I17&amp;",""title"":"&amp;J17&amp;",""isDisabled"":"&amp;K17&amp;",""isDeleted"":"&amp;L17&amp;",""createdAt"":"""&amp;M17&amp;"""},"</f>
-        <v>{"name":"仙女飛","number":"C000000013","phone":"0954872631","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2022-02-05T09:53:39.014+00:00"},</v>
+        <v>{"name":"仙女飛","number":"C000000013","phone":"0975348962","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2022-02-05T09:53:39.014+00:00"},</v>
       </c>
       <c r="R17" s="2" t="s">
-        <v>726</v>
+        <v>681</v>
       </c>
     </row>
     <row r="18" spans="2:18" x14ac:dyDescent="0.4">
-      <c r="B18" s="1" t="s">
-        <v>328</v>
+      <c r="B18" s="1">
+        <v>962358714</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>228</v>
@@ -6368,23 +6235,23 @@
         <v>雲霧裡</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>431</v>
+        <v>379</v>
       </c>
       <c r="F18" s="4" t="s">
         <v>278</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>497</v>
+        <v>632</v>
       </c>
       <c r="H18" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>0963185427</v>
+        <v>0962358714</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>355</v>
+        <v>315</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>561</v>
+        <v>466</v>
       </c>
       <c r="K18" s="2" t="s">
         <v>214</v>
@@ -6393,19 +6260,19 @@
         <v>214</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>626</v>
+        <v>531</v>
       </c>
       <c r="P18" s="5" t="str">
         <f>"{""name"":"""&amp;E18&amp;""",""number"":"""&amp;F18&amp;""",""phone"":"""&amp;H18&amp;""",""titleNo"":"&amp;I18&amp;",""title"":"&amp;J18&amp;",""isDisabled"":"&amp;K18&amp;",""isDeleted"":"&amp;L18&amp;",""createdAt"":"""&amp;M18&amp;"""},"</f>
-        <v>{"name":"雲霧裡","number":"C000000014","phone":"0963185427","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2022-01-21T19:10:03.173+00:00"},</v>
+        <v>{"name":"雲霧裡","number":"C000000014","phone":"0962358714","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2022-01-21T19:10:03.173+00:00"},</v>
       </c>
       <c r="R18" s="2" t="s">
-        <v>727</v>
+        <v>682</v>
       </c>
     </row>
     <row r="19" spans="2:18" x14ac:dyDescent="0.4">
-      <c r="B19" s="1" t="s">
-        <v>329</v>
+      <c r="B19" s="1">
+        <v>945812376</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>229</v>
@@ -6415,23 +6282,23 @@
         <v>靈狐仙</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>432</v>
+        <v>380</v>
       </c>
       <c r="F19" s="4" t="s">
         <v>279</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>531</v>
+        <v>633</v>
       </c>
       <c r="H19" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>0938217654</v>
+        <v>0945812376</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>355</v>
+        <v>315</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>561</v>
+        <v>466</v>
       </c>
       <c r="K19" s="2" t="s">
         <v>214</v>
@@ -6440,19 +6307,19 @@
         <v>214</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>627</v>
+        <v>532</v>
       </c>
       <c r="P19" s="5" t="str">
         <f>"{""name"":"""&amp;E19&amp;""",""number"":"""&amp;F19&amp;""",""phone"":"""&amp;H19&amp;""",""titleNo"":"&amp;I19&amp;",""title"":"&amp;J19&amp;",""isDisabled"":"&amp;K19&amp;",""isDeleted"":"&amp;L19&amp;",""createdAt"":"""&amp;M19&amp;"""},"</f>
-        <v>{"name":"靈狐仙","number":"C000000015","phone":"0938217654","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2022-03-31T13:19:19.930+00:00"},</v>
+        <v>{"name":"靈狐仙","number":"C000000015","phone":"0945812376","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2022-03-31T13:19:19.930+00:00"},</v>
       </c>
       <c r="R19" s="2" t="s">
-        <v>728</v>
+        <v>683</v>
       </c>
     </row>
     <row r="20" spans="2:18" x14ac:dyDescent="0.4">
-      <c r="B20" s="1" t="s">
-        <v>330</v>
+      <c r="B20" s="1">
+        <v>943192675</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>230</v>
@@ -6462,23 +6329,23 @@
         <v>夜雨香</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>433</v>
+        <v>381</v>
       </c>
       <c r="F20" s="4" t="s">
         <v>280</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>532</v>
+        <v>634</v>
       </c>
       <c r="H20" s="5" t="str">
-        <f>RIGHT(B20,10)</f>
-        <v>0962147358</v>
+        <f t="shared" si="1"/>
+        <v>0943192675</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>355</v>
+        <v>315</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>561</v>
+        <v>466</v>
       </c>
       <c r="K20" s="2" t="s">
         <v>214</v>
@@ -6487,19 +6354,19 @@
         <v>214</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>628</v>
+        <v>533</v>
       </c>
       <c r="P20" s="5" t="str">
         <f>"{""name"":"""&amp;E20&amp;""",""number"":"""&amp;F20&amp;""",""phone"":"""&amp;H20&amp;""",""titleNo"":"&amp;I20&amp;",""title"":"&amp;J20&amp;",""isDisabled"":"&amp;K20&amp;",""isDeleted"":"&amp;L20&amp;",""createdAt"":"""&amp;M20&amp;"""},"</f>
-        <v>{"name":"夜雨香","number":"C000000016","phone":"0962147358","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2022-01-28T18:20:50.973+00:00"},</v>
+        <v>{"name":"夜雨香","number":"C000000016","phone":"0943192675","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2022-01-28T18:20:50.973+00:00"},</v>
       </c>
       <c r="R20" s="2" t="s">
-        <v>729</v>
+        <v>684</v>
       </c>
     </row>
     <row r="21" spans="2:18" x14ac:dyDescent="0.4">
-      <c r="B21" s="1" t="s">
-        <v>331</v>
+      <c r="B21" s="1">
+        <v>989275631</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>231</v>
@@ -6509,23 +6376,23 @@
         <v>美人香</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>434</v>
+        <v>382</v>
       </c>
       <c r="F21" s="4" t="s">
         <v>281</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>533</v>
+        <v>635</v>
       </c>
       <c r="H21" s="5" t="str">
-        <f>RIGHT(B21,10)</f>
-        <v>0973185426</v>
+        <f t="shared" si="1"/>
+        <v>0989275631</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>355</v>
+        <v>315</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>561</v>
+        <v>466</v>
       </c>
       <c r="K21" s="2" t="s">
         <v>214</v>
@@ -6534,19 +6401,19 @@
         <v>214</v>
       </c>
       <c r="M21" s="1" t="s">
-        <v>629</v>
+        <v>534</v>
       </c>
       <c r="P21" s="5" t="str">
         <f>"{""name"":"""&amp;E21&amp;""",""number"":"""&amp;F21&amp;""",""phone"":"""&amp;H21&amp;""",""titleNo"":"&amp;I21&amp;",""title"":"&amp;J21&amp;",""isDisabled"":"&amp;K21&amp;",""isDeleted"":"&amp;L21&amp;",""createdAt"":"""&amp;M21&amp;"""},"</f>
-        <v>{"name":"美人香","number":"C000000017","phone":"0973185426","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2021-11-12T11:48:16.759+00:00"},</v>
+        <v>{"name":"美人香","number":"C000000017","phone":"0989275631","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2021-11-12T11:48:16.759+00:00"},</v>
       </c>
       <c r="R21" s="2" t="s">
-        <v>730</v>
+        <v>685</v>
       </c>
     </row>
     <row r="22" spans="2:18" x14ac:dyDescent="0.4">
-      <c r="B22" s="1" t="s">
-        <v>332</v>
+      <c r="B22" s="1">
+        <v>918675423</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>232</v>
@@ -6556,23 +6423,23 @@
         <v>時光倒</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>435</v>
+        <v>383</v>
       </c>
       <c r="F22" s="4" t="s">
         <v>282</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>534</v>
+        <v>636</v>
       </c>
       <c r="H22" s="5" t="str">
-        <f>RIGHT(B22,10)</f>
-        <v>0956342718</v>
+        <f t="shared" si="1"/>
+        <v>0918675423</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>355</v>
+        <v>315</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>561</v>
+        <v>466</v>
       </c>
       <c r="K22" s="2" t="s">
         <v>214</v>
@@ -6581,19 +6448,19 @@
         <v>214</v>
       </c>
       <c r="M22" s="1" t="s">
-        <v>630</v>
+        <v>535</v>
       </c>
       <c r="P22" s="5" t="str">
         <f>"{""name"":"""&amp;E22&amp;""",""number"":"""&amp;F22&amp;""",""phone"":"""&amp;H22&amp;""",""titleNo"":"&amp;I22&amp;",""title"":"&amp;J22&amp;",""isDisabled"":"&amp;K22&amp;",""isDeleted"":"&amp;L22&amp;",""createdAt"":"""&amp;M22&amp;"""},"</f>
-        <v>{"name":"時光倒","number":"C000000018","phone":"0956342718","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2022-01-20T09:05:31.541+00:00"},</v>
+        <v>{"name":"時光倒","number":"C000000018","phone":"0918675423","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2022-01-20T09:05:31.541+00:00"},</v>
       </c>
       <c r="R22" s="2" t="s">
-        <v>731</v>
+        <v>686</v>
       </c>
     </row>
     <row r="23" spans="2:18" x14ac:dyDescent="0.4">
-      <c r="B23" s="1" t="s">
-        <v>333</v>
+      <c r="B23" s="1">
+        <v>921753486</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>233</v>
@@ -6603,23 +6470,23 @@
         <v>楓葉紅</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>436</v>
+        <v>384</v>
       </c>
       <c r="F23" s="4" t="s">
         <v>283</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>535</v>
+        <v>637</v>
       </c>
       <c r="H23" s="5" t="str">
-        <f>RIGHT(B23,10)</f>
-        <v>0913265478</v>
+        <f t="shared" si="1"/>
+        <v>0921753486</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>355</v>
+        <v>315</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>561</v>
+        <v>466</v>
       </c>
       <c r="K23" s="2" t="s">
         <v>214</v>
@@ -6628,19 +6495,19 @@
         <v>214</v>
       </c>
       <c r="M23" s="1" t="s">
-        <v>631</v>
+        <v>536</v>
       </c>
       <c r="P23" s="5" t="str">
         <f>"{""name"":"""&amp;E23&amp;""",""number"":"""&amp;F23&amp;""",""phone"":"""&amp;H23&amp;""",""titleNo"":"&amp;I23&amp;",""title"":"&amp;J23&amp;",""isDisabled"":"&amp;K23&amp;",""isDeleted"":"&amp;L23&amp;",""createdAt"":"""&amp;M23&amp;"""},"</f>
-        <v>{"name":"楓葉紅","number":"C000000019","phone":"0913265478","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2022-04-09T01:23:27.904+00:00"},</v>
+        <v>{"name":"楓葉紅","number":"C000000019","phone":"0921753486","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2022-04-09T01:23:27.904+00:00"},</v>
       </c>
       <c r="R23" s="2" t="s">
-        <v>732</v>
+        <v>687</v>
       </c>
     </row>
     <row r="24" spans="2:18" x14ac:dyDescent="0.4">
-      <c r="B24" s="1" t="s">
-        <v>334</v>
+      <c r="B24" s="1">
+        <v>941837692</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>234</v>
@@ -6650,23 +6517,23 @@
         <v>愛情路</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>437</v>
+        <v>385</v>
       </c>
       <c r="F24" s="4" t="s">
         <v>284</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>536</v>
+        <v>638</v>
       </c>
       <c r="H24" s="5" t="str">
-        <f>RIGHT(B24,10)</f>
-        <v>0928475361</v>
+        <f t="shared" si="1"/>
+        <v>0941837692</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>355</v>
+        <v>315</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>561</v>
+        <v>466</v>
       </c>
       <c r="K24" s="2" t="s">
         <v>214</v>
@@ -6675,19 +6542,19 @@
         <v>214</v>
       </c>
       <c r="M24" s="1" t="s">
-        <v>632</v>
+        <v>537</v>
       </c>
       <c r="P24" s="5" t="str">
         <f>"{""name"":"""&amp;E24&amp;""",""number"":"""&amp;F24&amp;""",""phone"":"""&amp;H24&amp;""",""titleNo"":"&amp;I24&amp;",""title"":"&amp;J24&amp;",""isDisabled"":"&amp;K24&amp;",""isDeleted"":"&amp;L24&amp;",""createdAt"":"""&amp;M24&amp;"""},"</f>
-        <v>{"name":"愛情路","number":"C000000020","phone":"0928475361","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2021-08-28T02:28:13.324+00:00"},</v>
+        <v>{"name":"愛情路","number":"C000000020","phone":"0941837692","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2021-08-28T02:28:13.324+00:00"},</v>
       </c>
       <c r="R24" s="2" t="s">
-        <v>733</v>
+        <v>688</v>
       </c>
     </row>
     <row r="25" spans="2:18" x14ac:dyDescent="0.4">
-      <c r="B25" s="1" t="s">
-        <v>335</v>
+      <c r="B25" s="1">
+        <v>968325471</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>235</v>
@@ -6697,23 +6564,23 @@
         <v>梅花雪</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>438</v>
+        <v>386</v>
       </c>
       <c r="F25" s="4" t="s">
         <v>285</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>537</v>
+        <v>639</v>
       </c>
       <c r="H25" s="5" t="str">
-        <f>RIGHT(B25,10)</f>
-        <v>0913278564</v>
+        <f t="shared" si="1"/>
+        <v>0968325471</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>355</v>
+        <v>315</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>561</v>
+        <v>466</v>
       </c>
       <c r="K25" s="2" t="s">
         <v>214</v>
@@ -6722,19 +6589,19 @@
         <v>214</v>
       </c>
       <c r="M25" s="1" t="s">
-        <v>633</v>
+        <v>538</v>
       </c>
       <c r="P25" s="5" t="str">
         <f>"{""name"":"""&amp;E25&amp;""",""number"":"""&amp;F25&amp;""",""phone"":"""&amp;H25&amp;""",""titleNo"":"&amp;I25&amp;",""title"":"&amp;J25&amp;",""isDisabled"":"&amp;K25&amp;",""isDeleted"":"&amp;L25&amp;",""createdAt"":"""&amp;M25&amp;"""},"</f>
-        <v>{"name":"梅花雪","number":"C000000021","phone":"0913278564","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2022-10-05T11:34:27.820+00:00"},</v>
+        <v>{"name":"梅花雪","number":"C000000021","phone":"0968325471","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2022-10-05T11:34:27.820+00:00"},</v>
       </c>
       <c r="R25" s="2" t="s">
-        <v>734</v>
+        <v>689</v>
       </c>
     </row>
     <row r="26" spans="2:18" x14ac:dyDescent="0.4">
-      <c r="B26" s="1" t="s">
-        <v>336</v>
+      <c r="B26" s="1">
+        <v>943685741</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>236</v>
@@ -6744,23 +6611,23 @@
         <v>雲中仙</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>439</v>
+        <v>387</v>
       </c>
       <c r="F26" s="4" t="s">
         <v>286</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>538</v>
+        <v>640</v>
       </c>
       <c r="H26" s="5" t="str">
-        <f>RIGHT(B26,10)</f>
-        <v>0945132678</v>
+        <f t="shared" si="1"/>
+        <v>0943685741</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>355</v>
+        <v>315</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>561</v>
+        <v>466</v>
       </c>
       <c r="K26" s="2" t="s">
         <v>214</v>
@@ -6769,19 +6636,19 @@
         <v>214</v>
       </c>
       <c r="M26" s="1" t="s">
-        <v>634</v>
+        <v>539</v>
       </c>
       <c r="P26" s="5" t="str">
         <f>"{""name"":"""&amp;E26&amp;""",""number"":"""&amp;F26&amp;""",""phone"":"""&amp;H26&amp;""",""titleNo"":"&amp;I26&amp;",""title"":"&amp;J26&amp;",""isDisabled"":"&amp;K26&amp;",""isDeleted"":"&amp;L26&amp;",""createdAt"":"""&amp;M26&amp;"""},"</f>
-        <v>{"name":"雲中仙","number":"C000000022","phone":"0945132678","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2023-02-05T02:29:14.874+00:00"},</v>
+        <v>{"name":"雲中仙","number":"C000000022","phone":"0943685741","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2023-02-05T02:29:14.874+00:00"},</v>
       </c>
       <c r="R26" s="2" t="s">
-        <v>735</v>
+        <v>690</v>
       </c>
     </row>
     <row r="27" spans="2:18" x14ac:dyDescent="0.4">
-      <c r="B27" s="1" t="s">
-        <v>337</v>
+      <c r="B27" s="1">
+        <v>973548691</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>237</v>
@@ -6791,23 +6658,23 @@
         <v>風雨聲</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>440</v>
+        <v>388</v>
       </c>
       <c r="F27" s="4" t="s">
         <v>287</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>539</v>
+        <v>641</v>
       </c>
       <c r="H27" s="5" t="str">
-        <f>RIGHT(B27,10)</f>
-        <v>0932764518</v>
+        <f t="shared" si="1"/>
+        <v>0973548691</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>355</v>
+        <v>315</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>561</v>
+        <v>466</v>
       </c>
       <c r="K27" s="2" t="s">
         <v>214</v>
@@ -6816,19 +6683,19 @@
         <v>214</v>
       </c>
       <c r="M27" s="1" t="s">
-        <v>635</v>
+        <v>540</v>
       </c>
       <c r="P27" s="5" t="str">
         <f>"{""name"":"""&amp;E27&amp;""",""number"":"""&amp;F27&amp;""",""phone"":"""&amp;H27&amp;""",""titleNo"":"&amp;I27&amp;",""title"":"&amp;J27&amp;",""isDisabled"":"&amp;K27&amp;",""isDeleted"":"&amp;L27&amp;",""createdAt"":"""&amp;M27&amp;"""},"</f>
-        <v>{"name":"風雨聲","number":"C000000023","phone":"0932764518","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2023-02-18T03:48:35.504+00:00"},</v>
+        <v>{"name":"風雨聲","number":"C000000023","phone":"0973548691","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2023-02-18T03:48:35.504+00:00"},</v>
       </c>
       <c r="R27" s="2" t="s">
-        <v>736</v>
+        <v>691</v>
       </c>
     </row>
     <row r="28" spans="2:18" x14ac:dyDescent="0.4">
-      <c r="B28" s="1" t="s">
-        <v>338</v>
+      <c r="B28" s="1">
+        <v>921384765</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>238</v>
@@ -6838,23 +6705,23 @@
         <v>桃花緣</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>441</v>
+        <v>389</v>
       </c>
       <c r="F28" s="4" t="s">
         <v>288</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>540</v>
+        <v>642</v>
       </c>
       <c r="H28" s="5" t="str">
-        <f>RIGHT(B28,10)</f>
-        <v>0928174356</v>
+        <f t="shared" si="1"/>
+        <v>0921384765</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>355</v>
+        <v>315</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>561</v>
+        <v>466</v>
       </c>
       <c r="K28" s="2" t="s">
         <v>214</v>
@@ -6863,19 +6730,19 @@
         <v>214</v>
       </c>
       <c r="M28" s="1" t="s">
-        <v>636</v>
+        <v>541</v>
       </c>
       <c r="P28" s="5" t="str">
         <f>"{""name"":"""&amp;E28&amp;""",""number"":"""&amp;F28&amp;""",""phone"":"""&amp;H28&amp;""",""titleNo"":"&amp;I28&amp;",""title"":"&amp;J28&amp;",""isDisabled"":"&amp;K28&amp;",""isDeleted"":"&amp;L28&amp;",""createdAt"":"""&amp;M28&amp;"""},"</f>
-        <v>{"name":"桃花緣","number":"C000000024","phone":"0928174356","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2022-10-18T03:12:21.701+00:00"},</v>
+        <v>{"name":"桃花緣","number":"C000000024","phone":"0921384765","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2022-10-18T03:12:21.701+00:00"},</v>
       </c>
       <c r="R28" s="2" t="s">
-        <v>737</v>
+        <v>692</v>
       </c>
     </row>
     <row r="29" spans="2:18" x14ac:dyDescent="0.4">
-      <c r="B29" s="1" t="s">
-        <v>339</v>
+      <c r="B29" s="1">
+        <v>962874531</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>239</v>
@@ -6885,23 +6752,23 @@
         <v>花開花</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>442</v>
+        <v>390</v>
       </c>
       <c r="F29" s="4" t="s">
         <v>289</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>541</v>
+        <v>643</v>
       </c>
       <c r="H29" s="5" t="str">
-        <f>RIGHT(B29,10)</f>
-        <v>0987153642</v>
+        <f t="shared" si="1"/>
+        <v>0962874531</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>355</v>
+        <v>315</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>561</v>
+        <v>466</v>
       </c>
       <c r="K29" s="2" t="s">
         <v>214</v>
@@ -6910,19 +6777,19 @@
         <v>214</v>
       </c>
       <c r="M29" s="1" t="s">
-        <v>637</v>
+        <v>542</v>
       </c>
       <c r="P29" s="5" t="str">
         <f>"{""name"":"""&amp;E29&amp;""",""number"":"""&amp;F29&amp;""",""phone"":"""&amp;H29&amp;""",""titleNo"":"&amp;I29&amp;",""title"":"&amp;J29&amp;",""isDisabled"":"&amp;K29&amp;",""isDeleted"":"&amp;L29&amp;",""createdAt"":"""&amp;M29&amp;"""},"</f>
-        <v>{"name":"花開花","number":"C000000025","phone":"0987153642","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2022-11-13T22:42:37.486+00:00"},</v>
+        <v>{"name":"花開花","number":"C000000025","phone":"0962874531","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2022-11-13T22:42:37.486+00:00"},</v>
       </c>
       <c r="R29" s="2" t="s">
-        <v>738</v>
+        <v>693</v>
       </c>
     </row>
     <row r="30" spans="2:18" x14ac:dyDescent="0.4">
-      <c r="B30" s="1" t="s">
-        <v>340</v>
+      <c r="B30" s="1">
+        <v>938567124</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>240</v>
@@ -6932,23 +6799,23 @@
         <v>天地月</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>443</v>
+        <v>391</v>
       </c>
       <c r="F30" s="4" t="s">
         <v>290</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>542</v>
+        <v>644</v>
       </c>
       <c r="H30" s="5" t="str">
-        <f>RIGHT(B30,10)</f>
-        <v>0973128465</v>
+        <f t="shared" si="1"/>
+        <v>0938567124</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>355</v>
+        <v>315</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>561</v>
+        <v>466</v>
       </c>
       <c r="K30" s="2" t="s">
         <v>214</v>
@@ -6957,19 +6824,19 @@
         <v>214</v>
       </c>
       <c r="M30" s="1" t="s">
-        <v>638</v>
+        <v>543</v>
       </c>
       <c r="P30" s="5" t="str">
         <f>"{""name"":"""&amp;E30&amp;""",""number"":"""&amp;F30&amp;""",""phone"":"""&amp;H30&amp;""",""titleNo"":"&amp;I30&amp;",""title"":"&amp;J30&amp;",""isDisabled"":"&amp;K30&amp;",""isDeleted"":"&amp;L30&amp;",""createdAt"":"""&amp;M30&amp;"""},"</f>
-        <v>{"name":"天地月","number":"C000000026","phone":"0973128465","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2022-10-16T01:32:03.803+00:00"},</v>
+        <v>{"name":"天地月","number":"C000000026","phone":"0938567124","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2022-10-16T01:32:03.803+00:00"},</v>
       </c>
       <c r="R30" s="2" t="s">
-        <v>739</v>
+        <v>694</v>
       </c>
     </row>
     <row r="31" spans="2:18" x14ac:dyDescent="0.4">
-      <c r="B31" s="1" t="s">
-        <v>341</v>
+      <c r="B31" s="1">
+        <v>956782143</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>241</v>
@@ -6979,23 +6846,23 @@
         <v>紫金花</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>444</v>
+        <v>392</v>
       </c>
       <c r="F31" s="4" t="s">
         <v>291</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>543</v>
+        <v>645</v>
       </c>
       <c r="H31" s="5" t="str">
-        <f>RIGHT(B31,10)</f>
-        <v>0936415278</v>
+        <f t="shared" si="1"/>
+        <v>0956782143</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>355</v>
+        <v>315</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>561</v>
+        <v>466</v>
       </c>
       <c r="K31" s="2" t="s">
         <v>214</v>
@@ -7004,19 +6871,19 @@
         <v>214</v>
       </c>
       <c r="M31" s="1" t="s">
-        <v>639</v>
+        <v>544</v>
       </c>
       <c r="P31" s="5" t="str">
         <f>"{""name"":"""&amp;E31&amp;""",""number"":"""&amp;F31&amp;""",""phone"":"""&amp;H31&amp;""",""titleNo"":"&amp;I31&amp;",""title"":"&amp;J31&amp;",""isDisabled"":"&amp;K31&amp;",""isDeleted"":"&amp;L31&amp;",""createdAt"":"""&amp;M31&amp;"""},"</f>
-        <v>{"name":"紫金花","number":"C000000027","phone":"0936415278","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2023-02-06T22:09:31.420+00:00"},</v>
+        <v>{"name":"紫金花","number":"C000000027","phone":"0956782143","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2023-02-06T22:09:31.420+00:00"},</v>
       </c>
       <c r="R31" s="2" t="s">
-        <v>740</v>
+        <v>695</v>
       </c>
     </row>
     <row r="32" spans="2:18" x14ac:dyDescent="0.4">
-      <c r="B32" s="1" t="s">
-        <v>342</v>
+      <c r="B32" s="1">
+        <v>978345162</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>242</v>
@@ -7026,23 +6893,23 @@
         <v>飛天燕</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>445</v>
+        <v>393</v>
       </c>
       <c r="F32" s="4" t="s">
         <v>292</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>544</v>
+        <v>646</v>
       </c>
       <c r="H32" s="5" t="str">
-        <f>RIGHT(B32,10)</f>
-        <v>0942183657</v>
+        <f t="shared" si="1"/>
+        <v>0978345162</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>355</v>
+        <v>315</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>561</v>
+        <v>466</v>
       </c>
       <c r="K32" s="2" t="s">
         <v>214</v>
@@ -7051,19 +6918,19 @@
         <v>214</v>
       </c>
       <c r="M32" s="1" t="s">
-        <v>640</v>
+        <v>545</v>
       </c>
       <c r="P32" s="5" t="str">
         <f>"{""name"":"""&amp;E32&amp;""",""number"":"""&amp;F32&amp;""",""phone"":"""&amp;H32&amp;""",""titleNo"":"&amp;I32&amp;",""title"":"&amp;J32&amp;",""isDisabled"":"&amp;K32&amp;",""isDeleted"":"&amp;L32&amp;",""createdAt"":"""&amp;M32&amp;"""},"</f>
-        <v>{"name":"飛天燕","number":"C000000028","phone":"0942183657","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2022-10-08T08:48:21.518+00:00"},</v>
+        <v>{"name":"飛天燕","number":"C000000028","phone":"0978345162","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2022-10-08T08:48:21.518+00:00"},</v>
       </c>
       <c r="R32" s="2" t="s">
-        <v>741</v>
+        <v>696</v>
       </c>
     </row>
     <row r="33" spans="2:18" x14ac:dyDescent="0.4">
-      <c r="B33" s="1" t="s">
-        <v>343</v>
+      <c r="B33" s="1">
+        <v>983657142</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>243</v>
@@ -7073,23 +6940,23 @@
         <v>紫雲霞</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>446</v>
+        <v>394</v>
       </c>
       <c r="F33" s="4" t="s">
         <v>293</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>545</v>
+        <v>647</v>
       </c>
       <c r="H33" s="5" t="str">
-        <f>RIGHT(B33,10)</f>
-        <v>0983125467</v>
+        <f t="shared" si="1"/>
+        <v>0983657142</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>355</v>
+        <v>315</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>561</v>
+        <v>466</v>
       </c>
       <c r="K33" s="2" t="s">
         <v>214</v>
@@ -7098,19 +6965,19 @@
         <v>214</v>
       </c>
       <c r="M33" s="1" t="s">
-        <v>641</v>
+        <v>546</v>
       </c>
       <c r="P33" s="5" t="str">
         <f>"{""name"":"""&amp;E33&amp;""",""number"":"""&amp;F33&amp;""",""phone"":"""&amp;H33&amp;""",""titleNo"":"&amp;I33&amp;",""title"":"&amp;J33&amp;",""isDisabled"":"&amp;K33&amp;",""isDeleted"":"&amp;L33&amp;",""createdAt"":"""&amp;M33&amp;"""},"</f>
-        <v>{"name":"紫雲霞","number":"C000000029","phone":"0983125467","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2022-11-25T14:59:56.031+00:00"},</v>
+        <v>{"name":"紫雲霞","number":"C000000029","phone":"0983657142","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2022-11-25T14:59:56.031+00:00"},</v>
       </c>
       <c r="R33" s="2" t="s">
-        <v>742</v>
+        <v>697</v>
       </c>
     </row>
     <row r="34" spans="2:18" x14ac:dyDescent="0.4">
-      <c r="B34" s="1" t="s">
-        <v>344</v>
+      <c r="B34" s="1">
+        <v>912673548</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>244</v>
@@ -7120,23 +6987,23 @@
         <v>青山翠</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>447</v>
+        <v>395</v>
       </c>
       <c r="F34" s="4" t="s">
         <v>294</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>546</v>
+        <v>648</v>
       </c>
       <c r="H34" s="5" t="str">
-        <f>RIGHT(B34,10)</f>
-        <v>0956732814</v>
+        <f t="shared" si="1"/>
+        <v>0912673548</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>355</v>
+        <v>315</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>561</v>
+        <v>466</v>
       </c>
       <c r="K34" s="2" t="s">
         <v>214</v>
@@ -7145,19 +7012,19 @@
         <v>214</v>
       </c>
       <c r="M34" s="1" t="s">
-        <v>642</v>
+        <v>547</v>
       </c>
       <c r="P34" s="5" t="str">
         <f>"{""name"":"""&amp;E34&amp;""",""number"":"""&amp;F34&amp;""",""phone"":"""&amp;H34&amp;""",""titleNo"":"&amp;I34&amp;",""title"":"&amp;J34&amp;",""isDisabled"":"&amp;K34&amp;",""isDeleted"":"&amp;L34&amp;",""createdAt"":"""&amp;M34&amp;"""},"</f>
-        <v>{"name":"青山翠","number":"C000000030","phone":"0956732814","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2023-03-07T12:55:36.945+00:00"},</v>
+        <v>{"name":"青山翠","number":"C000000030","phone":"0912673548","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2023-03-07T12:55:36.945+00:00"},</v>
       </c>
       <c r="R34" s="2" t="s">
-        <v>743</v>
+        <v>698</v>
       </c>
     </row>
     <row r="35" spans="2:18" x14ac:dyDescent="0.4">
-      <c r="B35" s="1" t="s">
-        <v>345</v>
+      <c r="B35" s="1">
+        <v>963851742</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>245</v>
@@ -7167,23 +7034,23 @@
         <v>水墨畫</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>448</v>
+        <v>396</v>
       </c>
       <c r="F35" s="4" t="s">
         <v>295</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>515</v>
+        <v>649</v>
       </c>
       <c r="H35" s="5" t="str">
-        <f>RIGHT(B35,10)</f>
-        <v>0951847623</v>
+        <f t="shared" si="1"/>
+        <v>0963851742</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>355</v>
+        <v>315</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>561</v>
+        <v>466</v>
       </c>
       <c r="K35" s="2" t="s">
         <v>214</v>
@@ -7192,19 +7059,19 @@
         <v>214</v>
       </c>
       <c r="M35" s="1" t="s">
-        <v>643</v>
+        <v>548</v>
       </c>
       <c r="P35" s="5" t="str">
         <f>"{""name"":"""&amp;E35&amp;""",""number"":"""&amp;F35&amp;""",""phone"":"""&amp;H35&amp;""",""titleNo"":"&amp;I35&amp;",""title"":"&amp;J35&amp;",""isDisabled"":"&amp;K35&amp;",""isDeleted"":"&amp;L35&amp;",""createdAt"":"""&amp;M35&amp;"""},"</f>
-        <v>{"name":"水墨畫","number":"C000000031","phone":"0951847623","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2022-12-05T21:31:36.919+00:00"},</v>
+        <v>{"name":"水墨畫","number":"C000000031","phone":"0963851742","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2022-12-05T21:31:36.919+00:00"},</v>
       </c>
       <c r="R35" s="2" t="s">
-        <v>744</v>
+        <v>699</v>
       </c>
     </row>
     <row r="36" spans="2:18" x14ac:dyDescent="0.4">
-      <c r="B36" s="1" t="s">
-        <v>346</v>
+      <c r="B36" s="1">
+        <v>925176843</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>246</v>
@@ -7214,23 +7081,23 @@
         <v>蝶戀花</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>449</v>
+        <v>397</v>
       </c>
       <c r="F36" s="4" t="s">
         <v>296</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>547</v>
+        <v>650</v>
       </c>
       <c r="H36" s="5" t="str">
-        <f>RIGHT(B36,10)</f>
-        <v>0915462387</v>
+        <f t="shared" si="1"/>
+        <v>0925176843</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>355</v>
+        <v>315</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>561</v>
+        <v>466</v>
       </c>
       <c r="K36" s="2" t="s">
         <v>214</v>
@@ -7239,19 +7106,19 @@
         <v>214</v>
       </c>
       <c r="M36" s="1" t="s">
-        <v>644</v>
+        <v>549</v>
       </c>
       <c r="P36" s="5" t="str">
         <f>"{""name"":"""&amp;E36&amp;""",""number"":"""&amp;F36&amp;""",""phone"":"""&amp;H36&amp;""",""titleNo"":"&amp;I36&amp;",""title"":"&amp;J36&amp;",""isDisabled"":"&amp;K36&amp;",""isDeleted"":"&amp;L36&amp;",""createdAt"":"""&amp;M36&amp;"""},"</f>
-        <v>{"name":"蝶戀花","number":"C000000032","phone":"0915462387","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2023-03-02T16:43:49.845+00:00"},</v>
+        <v>{"name":"蝶戀花","number":"C000000032","phone":"0925176843","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2023-03-02T16:43:49.845+00:00"},</v>
       </c>
       <c r="R36" s="2" t="s">
-        <v>745</v>
+        <v>700</v>
       </c>
     </row>
     <row r="37" spans="2:18" x14ac:dyDescent="0.4">
-      <c r="B37" s="1" t="s">
-        <v>347</v>
+      <c r="B37" s="1">
+        <v>954213867</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>247</v>
@@ -7261,23 +7128,23 @@
         <v>桃花心</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>450</v>
+        <v>398</v>
       </c>
       <c r="F37" s="4" t="s">
         <v>297</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>533</v>
+        <v>651</v>
       </c>
       <c r="H37" s="5" t="str">
-        <f>RIGHT(B37,10)</f>
-        <v>0973185426</v>
+        <f t="shared" si="1"/>
+        <v>0954213867</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>355</v>
+        <v>315</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>561</v>
+        <v>466</v>
       </c>
       <c r="K37" s="2" t="s">
         <v>214</v>
@@ -7286,19 +7153,19 @@
         <v>214</v>
       </c>
       <c r="M37" s="1" t="s">
-        <v>645</v>
+        <v>550</v>
       </c>
       <c r="P37" s="5" t="str">
         <f>"{""name"":"""&amp;E37&amp;""",""number"":"""&amp;F37&amp;""",""phone"":"""&amp;H37&amp;""",""titleNo"":"&amp;I37&amp;",""title"":"&amp;J37&amp;",""isDisabled"":"&amp;K37&amp;",""isDeleted"":"&amp;L37&amp;",""createdAt"":"""&amp;M37&amp;"""},"</f>
-        <v>{"name":"桃花心","number":"C000000033","phone":"0973185426","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2023-03-22T09:13:24.863+00:00"},</v>
+        <v>{"name":"桃花心","number":"C000000033","phone":"0954213867","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2023-03-22T09:13:24.863+00:00"},</v>
       </c>
       <c r="R37" s="2" t="s">
-        <v>746</v>
+        <v>701</v>
       </c>
     </row>
     <row r="38" spans="2:18" x14ac:dyDescent="0.4">
-      <c r="B38" s="1" t="s">
-        <v>348</v>
+      <c r="B38" s="1">
+        <v>945128367</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>248</v>
@@ -7308,23 +7175,23 @@
         <v>梅花寒</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>451</v>
+        <v>399</v>
       </c>
       <c r="F38" s="4" t="s">
         <v>298</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>548</v>
+        <v>652</v>
       </c>
       <c r="H38" s="5" t="str">
-        <f>RIGHT(B38,10)</f>
-        <v>0956734281</v>
+        <f t="shared" si="1"/>
+        <v>0945128367</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>355</v>
+        <v>315</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>561</v>
+        <v>466</v>
       </c>
       <c r="K38" s="2" t="s">
         <v>214</v>
@@ -7333,19 +7200,19 @@
         <v>214</v>
       </c>
       <c r="M38" s="1" t="s">
-        <v>646</v>
+        <v>551</v>
       </c>
       <c r="P38" s="5" t="str">
         <f>"{""name"":"""&amp;E38&amp;""",""number"":"""&amp;F38&amp;""",""phone"":"""&amp;H38&amp;""",""titleNo"":"&amp;I38&amp;",""title"":"&amp;J38&amp;",""isDisabled"":"&amp;K38&amp;",""isDeleted"":"&amp;L38&amp;",""createdAt"":"""&amp;M38&amp;"""},"</f>
-        <v>{"name":"梅花寒","number":"C000000034","phone":"0956734281","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2022-12-27T01:45:24.083+00:00"},</v>
+        <v>{"name":"梅花寒","number":"C000000034","phone":"0945128367","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2022-12-27T01:45:24.083+00:00"},</v>
       </c>
       <c r="R38" s="2" t="s">
-        <v>747</v>
+        <v>702</v>
       </c>
     </row>
     <row r="39" spans="2:18" x14ac:dyDescent="0.4">
-      <c r="B39" s="1" t="s">
-        <v>349</v>
+      <c r="B39" s="1">
+        <v>941852637</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>249</v>
@@ -7355,23 +7222,23 @@
         <v>雲海深</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>452</v>
+        <v>400</v>
       </c>
       <c r="F39" s="4" t="s">
         <v>299</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>549</v>
+        <v>653</v>
       </c>
       <c r="H39" s="5" t="str">
-        <f>RIGHT(B39,10)</f>
-        <v>0932765184</v>
+        <f t="shared" si="1"/>
+        <v>0941852637</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>355</v>
+        <v>315</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>561</v>
+        <v>466</v>
       </c>
       <c r="K39" s="2" t="s">
         <v>214</v>
@@ -7380,19 +7247,19 @@
         <v>214</v>
       </c>
       <c r="M39" s="1" t="s">
-        <v>647</v>
+        <v>552</v>
       </c>
       <c r="P39" s="5" t="str">
         <f>"{""name"":"""&amp;E39&amp;""",""number"":"""&amp;F39&amp;""",""phone"":"""&amp;H39&amp;""",""titleNo"":"&amp;I39&amp;",""title"":"&amp;J39&amp;",""isDisabled"":"&amp;K39&amp;",""isDeleted"":"&amp;L39&amp;",""createdAt"":"""&amp;M39&amp;"""},"</f>
-        <v>{"name":"雲海深","number":"C000000035","phone":"0932765184","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2022-12-18T04:22:38.697+00:00"},</v>
+        <v>{"name":"雲海深","number":"C000000035","phone":"0941852637","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2022-12-18T04:22:38.697+00:00"},</v>
       </c>
       <c r="R39" s="2" t="s">
-        <v>748</v>
+        <v>703</v>
       </c>
     </row>
     <row r="40" spans="2:18" x14ac:dyDescent="0.4">
-      <c r="B40" s="1" t="s">
-        <v>350</v>
+      <c r="B40" s="1">
+        <v>916458327</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>250</v>
@@ -7402,23 +7269,23 @@
         <v>雨花石</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>453</v>
+        <v>401</v>
       </c>
       <c r="F40" s="4" t="s">
         <v>300</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>550</v>
+        <v>654</v>
       </c>
       <c r="H40" s="5" t="str">
-        <f>RIGHT(B40,10)</f>
-        <v>0978562341</v>
+        <f t="shared" si="1"/>
+        <v>0916458327</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>355</v>
+        <v>315</v>
       </c>
       <c r="J40" s="2" t="s">
-        <v>561</v>
+        <v>466</v>
       </c>
       <c r="K40" s="2" t="s">
         <v>214</v>
@@ -7427,19 +7294,19 @@
         <v>214</v>
       </c>
       <c r="M40" s="1" t="s">
-        <v>648</v>
+        <v>553</v>
       </c>
       <c r="P40" s="5" t="str">
         <f>"{""name"":"""&amp;E40&amp;""",""number"":"""&amp;F40&amp;""",""phone"":"""&amp;H40&amp;""",""titleNo"":"&amp;I40&amp;",""title"":"&amp;J40&amp;",""isDisabled"":"&amp;K40&amp;",""isDeleted"":"&amp;L40&amp;",""createdAt"":"""&amp;M40&amp;"""},"</f>
-        <v>{"name":"雨花石","number":"C000000036","phone":"0978562341","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2023-03-17T09:10:45.040+00:00"},</v>
+        <v>{"name":"雨花石","number":"C000000036","phone":"0916458327","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2023-03-17T09:10:45.040+00:00"},</v>
       </c>
       <c r="R40" s="2" t="s">
-        <v>749</v>
+        <v>704</v>
       </c>
     </row>
     <row r="41" spans="2:18" x14ac:dyDescent="0.4">
-      <c r="B41" s="1" t="s">
-        <v>351</v>
+      <c r="B41" s="1">
+        <v>987316548</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>251</v>
@@ -7449,23 +7316,23 @@
         <v>星空夜</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>454</v>
+        <v>402</v>
       </c>
       <c r="F41" s="4" t="s">
         <v>301</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>551</v>
+        <v>655</v>
       </c>
       <c r="H41" s="5" t="str">
-        <f>RIGHT(B41,10)</f>
-        <v>0973184526</v>
+        <f t="shared" si="1"/>
+        <v>0987316548</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>355</v>
+        <v>315</v>
       </c>
       <c r="J41" s="2" t="s">
-        <v>561</v>
+        <v>466</v>
       </c>
       <c r="K41" s="2" t="s">
         <v>214</v>
@@ -7474,19 +7341,19 @@
         <v>214</v>
       </c>
       <c r="M41" s="1" t="s">
-        <v>649</v>
+        <v>554</v>
       </c>
       <c r="P41" s="5" t="str">
         <f>"{""name"":"""&amp;E41&amp;""",""number"":"""&amp;F41&amp;""",""phone"":"""&amp;H41&amp;""",""titleNo"":"&amp;I41&amp;",""title"":"&amp;J41&amp;",""isDisabled"":"&amp;K41&amp;",""isDeleted"":"&amp;L41&amp;",""createdAt"":"""&amp;M41&amp;"""},"</f>
-        <v>{"name":"星空夜","number":"C000000037","phone":"0973184526","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2022-11-24T13:08:29.524+00:00"},</v>
+        <v>{"name":"星空夜","number":"C000000037","phone":"0987316548","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2022-11-24T13:08:29.524+00:00"},</v>
       </c>
       <c r="R41" s="2" t="s">
-        <v>750</v>
+        <v>705</v>
       </c>
     </row>
     <row r="42" spans="2:18" x14ac:dyDescent="0.4">
-      <c r="B42" s="1" t="s">
-        <v>352</v>
+      <c r="B42" s="1">
+        <v>916573842</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>252</v>
@@ -7496,23 +7363,23 @@
         <v>金玉滿</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>455</v>
+        <v>403</v>
       </c>
       <c r="F42" s="4" t="s">
         <v>302</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>522</v>
+        <v>656</v>
       </c>
       <c r="H42" s="5" t="str">
-        <f>RIGHT(B42,10)</f>
-        <v>0915462837</v>
+        <f t="shared" si="1"/>
+        <v>0916573842</v>
       </c>
       <c r="I42" s="2" t="s">
-        <v>355</v>
+        <v>315</v>
       </c>
       <c r="J42" s="2" t="s">
-        <v>561</v>
+        <v>466</v>
       </c>
       <c r="K42" s="2" t="s">
         <v>214</v>
@@ -7521,19 +7388,19 @@
         <v>214</v>
       </c>
       <c r="M42" s="1" t="s">
-        <v>650</v>
+        <v>555</v>
       </c>
       <c r="P42" s="5" t="str">
         <f>"{""name"":"""&amp;E42&amp;""",""number"":"""&amp;F42&amp;""",""phone"":"""&amp;H42&amp;""",""titleNo"":"&amp;I42&amp;",""title"":"&amp;J42&amp;",""isDisabled"":"&amp;K42&amp;",""isDeleted"":"&amp;L42&amp;",""createdAt"":"""&amp;M42&amp;"""},"</f>
-        <v>{"name":"金玉滿","number":"C000000038","phone":"0915462837","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2023-01-17T02:02:06.772+00:00"},</v>
+        <v>{"name":"金玉滿","number":"C000000038","phone":"0916573842","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2023-01-17T02:02:06.772+00:00"},</v>
       </c>
       <c r="R42" s="2" t="s">
-        <v>751</v>
+        <v>706</v>
       </c>
     </row>
     <row r="43" spans="2:18" x14ac:dyDescent="0.4">
-      <c r="B43" s="1" t="s">
-        <v>353</v>
+      <c r="B43" s="1">
+        <v>981654372</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>253</v>
@@ -7543,23 +7410,23 @@
         <v>紫竹林</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>456</v>
+        <v>404</v>
       </c>
       <c r="F43" s="4" t="s">
         <v>303</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>552</v>
+        <v>657</v>
       </c>
       <c r="H43" s="5" t="str">
-        <f>RIGHT(B43,10)</f>
-        <v>0915476382</v>
+        <f t="shared" si="1"/>
+        <v>0981654372</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>355</v>
+        <v>315</v>
       </c>
       <c r="J43" s="2" t="s">
-        <v>561</v>
+        <v>466</v>
       </c>
       <c r="K43" s="2" t="s">
         <v>214</v>
@@ -7568,19 +7435,19 @@
         <v>214</v>
       </c>
       <c r="M43" s="1" t="s">
-        <v>651</v>
+        <v>556</v>
       </c>
       <c r="P43" s="5" t="str">
         <f>"{""name"":"""&amp;E43&amp;""",""number"":"""&amp;F43&amp;""",""phone"":"""&amp;H43&amp;""",""titleNo"":"&amp;I43&amp;",""title"":"&amp;J43&amp;",""isDisabled"":"&amp;K43&amp;",""isDeleted"":"&amp;L43&amp;",""createdAt"":"""&amp;M43&amp;"""},"</f>
-        <v>{"name":"紫竹林","number":"C000000039","phone":"0915476382","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2022-12-25T23:12:11.261+00:00"},</v>
+        <v>{"name":"紫竹林","number":"C000000039","phone":"0981654372","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2022-12-25T23:12:11.261+00:00"},</v>
       </c>
       <c r="R43" s="2" t="s">
-        <v>752</v>
+        <v>707</v>
       </c>
     </row>
     <row r="44" spans="2:18" x14ac:dyDescent="0.4">
-      <c r="B44" s="1" t="s">
-        <v>354</v>
+      <c r="B44" s="1">
+        <v>967853412</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>254</v>
@@ -7590,23 +7457,23 @@
         <v>青青草</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>457</v>
+        <v>405</v>
       </c>
       <c r="F44" s="4" t="s">
         <v>304</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>536</v>
+        <v>658</v>
       </c>
       <c r="H44" s="5" t="str">
-        <f>RIGHT(B44,10)</f>
-        <v>0928475361</v>
+        <f t="shared" si="1"/>
+        <v>0967853412</v>
       </c>
       <c r="I44" s="2" t="s">
-        <v>355</v>
+        <v>315</v>
       </c>
       <c r="J44" s="2" t="s">
-        <v>561</v>
+        <v>466</v>
       </c>
       <c r="K44" s="2" t="s">
         <v>214</v>
@@ -7615,19 +7482,19 @@
         <v>214</v>
       </c>
       <c r="M44" s="1" t="s">
-        <v>652</v>
+        <v>557</v>
       </c>
       <c r="P44" s="5" t="str">
         <f>"{""name"":"""&amp;E44&amp;""",""number"":"""&amp;F44&amp;""",""phone"":"""&amp;H44&amp;""",""titleNo"":"&amp;I44&amp;",""title"":"&amp;J44&amp;",""isDisabled"":"&amp;K44&amp;",""isDeleted"":"&amp;L44&amp;",""createdAt"":"""&amp;M44&amp;"""},"</f>
-        <v>{"name":"青青草","number":"C000000040","phone":"0928475361","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2022-10-22T18:45:39.505+00:00"},</v>
+        <v>{"name":"青青草","number":"C000000040","phone":"0967853412","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2022-10-22T18:45:39.505+00:00"},</v>
       </c>
       <c r="R44" s="2" t="s">
-        <v>753</v>
+        <v>708</v>
       </c>
     </row>
     <row r="45" spans="2:18" x14ac:dyDescent="0.4">
-      <c r="B45" s="1" t="s">
-        <v>356</v>
+      <c r="B45" s="1">
+        <v>937452168</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>255</v>
@@ -7637,23 +7504,23 @@
         <v>紫羅蘭</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>458</v>
+        <v>406</v>
       </c>
       <c r="F45" s="4" t="s">
         <v>305</v>
       </c>
       <c r="G45" s="4" t="s">
-        <v>553</v>
+        <v>659</v>
       </c>
       <c r="H45" s="5" t="str">
-        <f>RIGHT(B45,10)</f>
-        <v>0945123678</v>
+        <f t="shared" si="1"/>
+        <v>0937452168</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>355</v>
+        <v>315</v>
       </c>
       <c r="J45" s="2" t="s">
-        <v>561</v>
+        <v>466</v>
       </c>
       <c r="K45" s="2" t="s">
         <v>214</v>
@@ -7662,19 +7529,19 @@
         <v>214</v>
       </c>
       <c r="M45" s="1" t="s">
-        <v>653</v>
+        <v>558</v>
       </c>
       <c r="P45" s="5" t="str">
         <f>"{""name"":"""&amp;E45&amp;""",""number"":"""&amp;F45&amp;""",""phone"":"""&amp;H45&amp;""",""titleNo"":"&amp;I45&amp;",""title"":"&amp;J45&amp;",""isDisabled"":"&amp;K45&amp;",""isDeleted"":"&amp;L45&amp;",""createdAt"":"""&amp;M45&amp;"""},"</f>
-        <v>{"name":"紫羅蘭","number":"C000000041","phone":"0945123678","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2023-03-15T16:33:57.583+00:00"},</v>
+        <v>{"name":"紫羅蘭","number":"C000000041","phone":"0937452168","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2023-03-15T16:33:57.583+00:00"},</v>
       </c>
       <c r="R45" s="2" t="s">
-        <v>754</v>
+        <v>709</v>
       </c>
     </row>
     <row r="46" spans="2:18" x14ac:dyDescent="0.4">
-      <c r="B46" s="1" t="s">
-        <v>357</v>
+      <c r="B46" s="1">
+        <v>982734651</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>256</v>
@@ -7684,23 +7551,23 @@
         <v>白蘭花</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>459</v>
+        <v>407</v>
       </c>
       <c r="F46" s="4" t="s">
         <v>306</v>
       </c>
       <c r="G46" s="4" t="s">
-        <v>554</v>
+        <v>660</v>
       </c>
       <c r="H46" s="5" t="str">
-        <f>RIGHT(B46,10)</f>
-        <v>0945823167</v>
+        <f t="shared" si="1"/>
+        <v>0982734651</v>
       </c>
       <c r="I46" s="2" t="s">
-        <v>355</v>
+        <v>315</v>
       </c>
       <c r="J46" s="2" t="s">
-        <v>561</v>
+        <v>466</v>
       </c>
       <c r="K46" s="2" t="s">
         <v>214</v>
@@ -7709,19 +7576,19 @@
         <v>214</v>
       </c>
       <c r="M46" s="1" t="s">
-        <v>654</v>
+        <v>559</v>
       </c>
       <c r="P46" s="5" t="str">
         <f>"{""name"":"""&amp;E46&amp;""",""number"":"""&amp;F46&amp;""",""phone"":"""&amp;H46&amp;""",""titleNo"":"&amp;I46&amp;",""title"":"&amp;J46&amp;",""isDisabled"":"&amp;K46&amp;",""isDeleted"":"&amp;L46&amp;",""createdAt"":"""&amp;M46&amp;"""},"</f>
-        <v>{"name":"白蘭花","number":"C000000042","phone":"0945823167","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2023-01-06T02:22:11.967+00:00"},</v>
+        <v>{"name":"白蘭花","number":"C000000042","phone":"0982734651","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2023-01-06T02:22:11.967+00:00"},</v>
       </c>
       <c r="R46" s="2" t="s">
-        <v>755</v>
+        <v>710</v>
       </c>
     </row>
     <row r="47" spans="2:18" x14ac:dyDescent="0.4">
-      <c r="B47" s="1" t="s">
-        <v>358</v>
+      <c r="B47" s="1">
+        <v>938574612</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>257</v>
@@ -7731,23 +7598,23 @@
         <v>花海深</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>460</v>
+        <v>408</v>
       </c>
       <c r="F47" s="4" t="s">
         <v>307</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>555</v>
+        <v>661</v>
       </c>
       <c r="H47" s="5" t="str">
-        <f>RIGHT(B47,10)</f>
-        <v>0912564378</v>
+        <f t="shared" si="1"/>
+        <v>0938574612</v>
       </c>
       <c r="I47" s="2" t="s">
-        <v>355</v>
+        <v>315</v>
       </c>
       <c r="J47" s="2" t="s">
-        <v>561</v>
+        <v>466</v>
       </c>
       <c r="K47" s="2" t="s">
         <v>214</v>
@@ -7756,19 +7623,19 @@
         <v>214</v>
       </c>
       <c r="M47" s="1" t="s">
-        <v>655</v>
+        <v>560</v>
       </c>
       <c r="P47" s="5" t="str">
         <f>"{""name"":"""&amp;E47&amp;""",""number"":"""&amp;F47&amp;""",""phone"":"""&amp;H47&amp;""",""titleNo"":"&amp;I47&amp;",""title"":"&amp;J47&amp;",""isDisabled"":"&amp;K47&amp;",""isDeleted"":"&amp;L47&amp;",""createdAt"":"""&amp;M47&amp;"""},"</f>
-        <v>{"name":"花海深","number":"C000000043","phone":"0912564378","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2022-10-10T05:28:54.427+00:00"},</v>
+        <v>{"name":"花海深","number":"C000000043","phone":"0938574612","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2022-10-10T05:28:54.427+00:00"},</v>
       </c>
       <c r="R47" s="2" t="s">
-        <v>756</v>
+        <v>711</v>
       </c>
     </row>
     <row r="48" spans="2:18" x14ac:dyDescent="0.4">
-      <c r="B48" s="1" t="s">
-        <v>359</v>
+      <c r="B48" s="1">
+        <v>962571348</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>258</v>
@@ -7778,44 +7645,44 @@
         <v>飛燕舞</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>461</v>
+        <v>409</v>
       </c>
       <c r="F48" s="4" t="s">
         <v>308</v>
       </c>
       <c r="G48" s="4" t="s">
-        <v>556</v>
+        <v>662</v>
       </c>
       <c r="H48" s="5" t="str">
-        <f>RIGHT(B48,10)</f>
-        <v>0928361574</v>
+        <f t="shared" si="1"/>
+        <v>0962571348</v>
       </c>
       <c r="I48" s="2" t="s">
-        <v>355</v>
+        <v>315</v>
       </c>
       <c r="J48" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="K48" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="L48" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="M48" s="1" t="s">
         <v>561</v>
-      </c>
-      <c r="K48" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="L48" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="M48" s="1" t="s">
-        <v>656</v>
       </c>
       <c r="P48" s="5" t="str">
         <f>"{""name"":"""&amp;E48&amp;""",""number"":"""&amp;F48&amp;""",""phone"":"""&amp;H48&amp;""",""titleNo"":"&amp;I48&amp;",""title"":"&amp;J48&amp;",""isDisabled"":"&amp;K48&amp;",""isDeleted"":"&amp;L48&amp;",""createdAt"":"""&amp;M48&amp;"""},"</f>
-        <v>{"name":"飛燕舞","number":"C000000044","phone":"0928361574","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2022-10-26T17:34:52.986+00:00"},</v>
+        <v>{"name":"飛燕舞","number":"C000000044","phone":"0962571348","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2022-10-26T17:34:52.986+00:00"},</v>
       </c>
       <c r="R48" s="2" t="s">
-        <v>757</v>
+        <v>712</v>
       </c>
     </row>
     <row r="49" spans="2:18" x14ac:dyDescent="0.4">
-      <c r="B49" s="1" t="s">
-        <v>360</v>
+      <c r="B49" s="1">
+        <v>941385762</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>259</v>
@@ -7825,23 +7692,23 @@
         <v>玉樹林</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>462</v>
+        <v>410</v>
       </c>
       <c r="F49" s="4" t="s">
         <v>309</v>
       </c>
       <c r="G49" s="4" t="s">
-        <v>557</v>
+        <v>663</v>
       </c>
       <c r="H49" s="5" t="str">
-        <f>RIGHT(B49,10)</f>
-        <v>0945123687</v>
+        <f t="shared" si="1"/>
+        <v>0941385762</v>
       </c>
       <c r="I49" s="2" t="s">
-        <v>355</v>
+        <v>315</v>
       </c>
       <c r="J49" s="2" t="s">
-        <v>561</v>
+        <v>466</v>
       </c>
       <c r="K49" s="2" t="s">
         <v>214</v>
@@ -7850,19 +7717,19 @@
         <v>214</v>
       </c>
       <c r="M49" s="1" t="s">
-        <v>657</v>
+        <v>562</v>
       </c>
       <c r="P49" s="5" t="str">
         <f>"{""name"":"""&amp;E49&amp;""",""number"":"""&amp;F49&amp;""",""phone"":"""&amp;H49&amp;""",""titleNo"":"&amp;I49&amp;",""title"":"&amp;J49&amp;",""isDisabled"":"&amp;K49&amp;",""isDeleted"":"&amp;L49&amp;",""createdAt"":"""&amp;M49&amp;"""},"</f>
-        <v>{"name":"玉樹林","number":"C000000045","phone":"0945123687","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2022-11-08T07:51:33.562+00:00"},</v>
+        <v>{"name":"玉樹林","number":"C000000045","phone":"0941385762","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2022-11-08T07:51:33.562+00:00"},</v>
       </c>
       <c r="R49" s="2" t="s">
-        <v>758</v>
+        <v>713</v>
       </c>
     </row>
     <row r="50" spans="2:18" x14ac:dyDescent="0.4">
-      <c r="B50" s="1" t="s">
-        <v>361</v>
+      <c r="B50" s="1">
+        <v>957831642</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>260</v>
@@ -7872,23 +7739,23 @@
         <v>春風吹</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>463</v>
+        <v>411</v>
       </c>
       <c r="F50" s="4" t="s">
         <v>310</v>
       </c>
       <c r="G50" s="4" t="s">
-        <v>558</v>
+        <v>664</v>
       </c>
       <c r="H50" s="5" t="str">
-        <f>RIGHT(B50,10)</f>
-        <v>0951847263</v>
+        <f t="shared" si="1"/>
+        <v>0957831642</v>
       </c>
       <c r="I50" s="2" t="s">
-        <v>355</v>
+        <v>315</v>
       </c>
       <c r="J50" s="2" t="s">
-        <v>561</v>
+        <v>466</v>
       </c>
       <c r="K50" s="2" t="s">
         <v>214</v>
@@ -7897,19 +7764,19 @@
         <v>214</v>
       </c>
       <c r="M50" s="1" t="s">
-        <v>658</v>
+        <v>563</v>
       </c>
       <c r="P50" s="5" t="str">
         <f>"{""name"":"""&amp;E50&amp;""",""number"":"""&amp;F50&amp;""",""phone"":"""&amp;H50&amp;""",""titleNo"":"&amp;I50&amp;",""title"":"&amp;J50&amp;",""isDisabled"":"&amp;K50&amp;",""isDeleted"":"&amp;L50&amp;",""createdAt"":"""&amp;M50&amp;"""},"</f>
-        <v>{"name":"春風吹","number":"C000000046","phone":"0951847263","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2023-02-07T22:33:24.423+00:00"},</v>
+        <v>{"name":"春風吹","number":"C000000046","phone":"0957831642","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2023-02-07T22:33:24.423+00:00"},</v>
       </c>
       <c r="R50" s="2" t="s">
-        <v>759</v>
+        <v>714</v>
       </c>
     </row>
     <row r="51" spans="2:18" x14ac:dyDescent="0.4">
-      <c r="B51" s="1" t="s">
-        <v>362</v>
+      <c r="B51" s="1">
+        <v>972365418</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>261</v>
@@ -7919,23 +7786,23 @@
         <v>雪山飛</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>464</v>
+        <v>412</v>
       </c>
       <c r="F51" s="4" t="s">
         <v>311</v>
       </c>
       <c r="G51" s="4" t="s">
-        <v>559</v>
+        <v>665</v>
       </c>
       <c r="H51" s="5" t="str">
-        <f>RIGHT(B51,10)</f>
-        <v>0938172564</v>
+        <f t="shared" si="1"/>
+        <v>0972365418</v>
       </c>
       <c r="I51" s="2" t="s">
-        <v>355</v>
+        <v>315</v>
       </c>
       <c r="J51" s="2" t="s">
-        <v>561</v>
+        <v>466</v>
       </c>
       <c r="K51" s="2" t="s">
         <v>214</v>
@@ -7944,19 +7811,19 @@
         <v>214</v>
       </c>
       <c r="M51" s="1" t="s">
-        <v>659</v>
+        <v>564</v>
       </c>
       <c r="P51" s="5" t="str">
         <f>"{""name"":"""&amp;E51&amp;""",""number"":"""&amp;F51&amp;""",""phone"":"""&amp;H51&amp;""",""titleNo"":"&amp;I51&amp;",""title"":"&amp;J51&amp;",""isDisabled"":"&amp;K51&amp;",""isDeleted"":"&amp;L51&amp;",""createdAt"":"""&amp;M51&amp;"""},"</f>
-        <v>{"name":"雪山飛","number":"C000000047","phone":"0938172564","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2023-03-20T06:50:01.294+00:00"},</v>
+        <v>{"name":"雪山飛","number":"C000000047","phone":"0972365418","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2023-03-20T06:50:01.294+00:00"},</v>
       </c>
       <c r="R51" s="2" t="s">
-        <v>760</v>
+        <v>715</v>
       </c>
     </row>
     <row r="52" spans="2:18" x14ac:dyDescent="0.4">
-      <c r="B52" s="1" t="s">
-        <v>363</v>
+      <c r="B52" s="1">
+        <v>915732846</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>262</v>
@@ -7966,23 +7833,23 @@
         <v>玫瑰花</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>465</v>
+        <v>413</v>
       </c>
       <c r="F52" s="4" t="s">
         <v>312</v>
       </c>
       <c r="G52" s="4" t="s">
-        <v>560</v>
+        <v>666</v>
       </c>
       <c r="H52" s="5" t="str">
-        <f>RIGHT(B52,10)</f>
-        <v>0963187452</v>
+        <f t="shared" si="1"/>
+        <v>0915732846</v>
       </c>
       <c r="I52" s="2" t="s">
-        <v>355</v>
+        <v>315</v>
       </c>
       <c r="J52" s="2" t="s">
-        <v>561</v>
+        <v>466</v>
       </c>
       <c r="K52" s="2" t="s">
         <v>214</v>
@@ -7991,19 +7858,19 @@
         <v>214</v>
       </c>
       <c r="M52" s="1" t="s">
-        <v>660</v>
+        <v>565</v>
       </c>
       <c r="P52" s="5" t="str">
         <f>"{""name"":"""&amp;E52&amp;""",""number"":"""&amp;F52&amp;""",""phone"":"""&amp;H52&amp;""",""titleNo"":"&amp;I52&amp;",""title"":"&amp;J52&amp;",""isDisabled"":"&amp;K52&amp;",""isDeleted"":"&amp;L52&amp;",""createdAt"":"""&amp;M52&amp;"""},"</f>
-        <v>{"name":"玫瑰花","number":"C000000048","phone":"0963187452","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2023-03-24T13:06:39.383+00:00"},</v>
+        <v>{"name":"玫瑰花","number":"C000000048","phone":"0915732846","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2023-03-24T13:06:39.383+00:00"},</v>
       </c>
       <c r="R52" s="2" t="s">
-        <v>761</v>
+        <v>716</v>
       </c>
     </row>
     <row r="53" spans="2:18" x14ac:dyDescent="0.4">
-      <c r="B53" s="1" t="s">
-        <v>364</v>
+      <c r="B53" s="1">
+        <v>982175364</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>263</v>
@@ -8013,23 +7880,23 @@
         <v>夜色靜</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>466</v>
+        <v>414</v>
       </c>
       <c r="F53" s="4" t="s">
         <v>313</v>
       </c>
       <c r="G53" s="4" t="s">
-        <v>365</v>
+        <v>667</v>
       </c>
       <c r="H53" s="5" t="str">
-        <f>RIGHT(B53,10)</f>
-        <v>0982741563</v>
+        <f t="shared" si="1"/>
+        <v>0982175364</v>
       </c>
       <c r="I53" s="2" t="s">
-        <v>355</v>
+        <v>315</v>
       </c>
       <c r="J53" s="2" t="s">
-        <v>561</v>
+        <v>466</v>
       </c>
       <c r="K53" s="2" t="s">
         <v>214</v>
@@ -8038,17 +7905,20 @@
         <v>214</v>
       </c>
       <c r="M53" s="1" t="s">
-        <v>661</v>
+        <v>566</v>
       </c>
       <c r="P53" s="5" t="str">
         <f>"{""name"":"""&amp;E53&amp;""",""number"":"""&amp;F53&amp;""",""phone"":"""&amp;H53&amp;""",""titleNo"":"&amp;I53&amp;",""title"":"&amp;J53&amp;",""isDisabled"":"&amp;K53&amp;",""isDeleted"":"&amp;L53&amp;",""createdAt"":"""&amp;M53&amp;"""},"</f>
-        <v>{"name":"夜色靜","number":"C000000049","phone":"0982741563","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2022-11-18T06:21:05.648+00:00"},</v>
+        <v>{"name":"夜色靜","number":"C000000049","phone":"0982175364","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2022-11-18T06:21:05.648+00:00"},</v>
       </c>
       <c r="R53" s="2" t="s">
-        <v>762</v>
+        <v>717</v>
       </c>
     </row>
     <row r="54" spans="2:18" x14ac:dyDescent="0.4">
+      <c r="B54" s="1">
+        <v>965873214</v>
+      </c>
       <c r="C54" s="1" t="s">
         <v>264</v>
       </c>
@@ -8057,22 +7927,23 @@
         <v>落日慕</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>467</v>
+        <v>415</v>
       </c>
       <c r="F54" s="4" t="s">
         <v>314</v>
       </c>
       <c r="G54" s="4" t="s">
-        <v>366</v>
-      </c>
-      <c r="H54" s="2" t="s">
-        <v>367</v>
+        <v>668</v>
+      </c>
+      <c r="H54" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>0965873214</v>
       </c>
       <c r="I54" s="2" t="s">
-        <v>355</v>
+        <v>315</v>
       </c>
       <c r="J54" s="2" t="s">
-        <v>561</v>
+        <v>466</v>
       </c>
       <c r="K54" s="2" t="s">
         <v>214</v>
@@ -8081,20 +7952,20 @@
         <v>214</v>
       </c>
       <c r="M54" s="1" t="s">
-        <v>662</v>
+        <v>567</v>
       </c>
       <c r="P54" s="5" t="str">
         <f>"{""name"":"""&amp;E54&amp;""",""number"":"""&amp;F54&amp;""",""phone"":"""&amp;H54&amp;""",""titleNo"":"&amp;I54&amp;",""title"":"&amp;J54&amp;",""isDisabled"":"&amp;K54&amp;",""isDeleted"":"&amp;L54&amp;",""createdAt"":"""&amp;M54&amp;"""},"</f>
-        <v>{"name":"落日慕","number":"C000000050","phone":"0982741263","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2022-12-28T00:34:03.527+00:00"},</v>
+        <v>{"name":"落日慕","number":"C000000050","phone":"0965873214","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2022-12-28T00:34:03.527+00:00"},</v>
       </c>
       <c r="R54" s="2" t="s">
-        <v>763</v>
+        <v>718</v>
       </c>
     </row>
     <row r="55" spans="2:18" x14ac:dyDescent="0.4">
       <c r="M55" s="1"/>
       <c r="R55" s="2" t="s">
-        <v>663</v>
+        <v>568</v>
       </c>
     </row>
     <row r="56" spans="2:18" x14ac:dyDescent="0.4">

--- a/dbData/originData.xlsx
+++ b/dbData/originData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\OneDrive\桌面\網頁學習相關\六角專題班\love_in_no_words_back_end\dbData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6B79E03-61CC-4454-BF97-0203387488D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6263C48F-DB4F-45AC-98CA-6A7D25F3B7C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{5FA7A088-30AA-4EDF-87C5-72AD43B1CDFD}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{5FA7A088-30AA-4EDF-87C5-72AD43B1CDFD}"/>
   </bookViews>
   <sheets>
     <sheet name="users" sheetId="1" r:id="rId1"/>
@@ -230,96 +230,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>A000000001</t>
-  </si>
-  <si>
-    <t>A000000002</t>
-  </si>
-  <si>
-    <t>A000000003</t>
-  </si>
-  <si>
-    <t>A000000004</t>
-  </si>
-  <si>
-    <t>A000000005</t>
-  </si>
-  <si>
-    <t>A000000006</t>
-  </si>
-  <si>
-    <t>A000000007</t>
-  </si>
-  <si>
-    <t>A000000008</t>
-  </si>
-  <si>
-    <t>A000000009</t>
-  </si>
-  <si>
-    <t>A000000010</t>
-  </si>
-  <si>
-    <t>A000000011</t>
-  </si>
-  <si>
-    <t>A000000012</t>
-  </si>
-  <si>
-    <t>A000000013</t>
-  </si>
-  <si>
-    <t>A000000014</t>
-  </si>
-  <si>
-    <t>A000000015</t>
-  </si>
-  <si>
-    <t>A000000016</t>
-  </si>
-  <si>
-    <t>A000000017</t>
-  </si>
-  <si>
-    <t>A000000018</t>
-  </si>
-  <si>
-    <t>A000000019</t>
-  </si>
-  <si>
-    <t>A000000020</t>
-  </si>
-  <si>
-    <t>A000000021</t>
-  </si>
-  <si>
-    <t>A000000022</t>
-  </si>
-  <si>
-    <t>A000000023</t>
-  </si>
-  <si>
-    <t>A000000024</t>
-  </si>
-  <si>
-    <t>A000000025</t>
-  </si>
-  <si>
-    <t>A000000026</t>
-  </si>
-  <si>
-    <t>A000000027</t>
-  </si>
-  <si>
-    <t>A000000028</t>
-  </si>
-  <si>
-    <t>A000000029</t>
-  </si>
-  <si>
-    <t>A000000030</t>
-  </si>
-  <si>
     <t>1. 0902563847</t>
   </si>
   <si>
@@ -913,96 +823,6 @@
     <t>C000000020</t>
   </si>
   <si>
-    <t>C000000021</t>
-  </si>
-  <si>
-    <t>C000000022</t>
-  </si>
-  <si>
-    <t>C000000023</t>
-  </si>
-  <si>
-    <t>C000000024</t>
-  </si>
-  <si>
-    <t>C000000025</t>
-  </si>
-  <si>
-    <t>C000000026</t>
-  </si>
-  <si>
-    <t>C000000027</t>
-  </si>
-  <si>
-    <t>C000000028</t>
-  </si>
-  <si>
-    <t>C000000029</t>
-  </si>
-  <si>
-    <t>C000000030</t>
-  </si>
-  <si>
-    <t>C000000031</t>
-  </si>
-  <si>
-    <t>C000000032</t>
-  </si>
-  <si>
-    <t>C000000033</t>
-  </si>
-  <si>
-    <t>C000000034</t>
-  </si>
-  <si>
-    <t>C000000035</t>
-  </si>
-  <si>
-    <t>C000000036</t>
-  </si>
-  <si>
-    <t>C000000037</t>
-  </si>
-  <si>
-    <t>C000000038</t>
-  </si>
-  <si>
-    <t>C000000039</t>
-  </si>
-  <si>
-    <t>C000000040</t>
-  </si>
-  <si>
-    <t>C000000041</t>
-  </si>
-  <si>
-    <t>C000000042</t>
-  </si>
-  <si>
-    <t>C000000043</t>
-  </si>
-  <si>
-    <t>C000000044</t>
-  </si>
-  <si>
-    <t>C000000045</t>
-  </si>
-  <si>
-    <t>C000000046</t>
-  </si>
-  <si>
-    <t>C000000047</t>
-  </si>
-  <si>
-    <t>C000000048</t>
-  </si>
-  <si>
-    <t>C000000049</t>
-  </si>
-  <si>
-    <t>C000000050</t>
-  </si>
-  <si>
     <t>4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1769,456 +1589,636 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{"name":"紅綠藍","number":"A000000002","phone":"0928746916","titleNo":2,"title":"店員","password":"$2a$13$","isDisabled":false,"isDeleted":false,"createdAt":"2023-03-10T00:44:44.764+00:00"},</t>
-  </si>
-  <si>
-    <t>{"name":"靈魂歌","number":"A000000003","phone":"0915627043","titleNo":2,"title":"店員","password":"$2a$14$","isDisabled":false,"isDeleted":false,"createdAt":"2022-11-27T14:41:57.206+00:00"},</t>
-  </si>
-  <si>
-    <t>{"name":"雲山水","number":"A000000004","phone":"0945832167","titleNo":2,"title":"店員","password":"$2a$15$","isDisabled":false,"isDeleted":false,"createdAt":"2022-08-12T08:11:58.453+00:00"},</t>
-  </si>
-  <si>
-    <t>{"name":"落花滿","number":"A000000005","phone":"0936472180","titleNo":2,"title":"店員","password":"$2a$16$","isDisabled":false,"isDeleted":false,"createdAt":"2023-03-09T06:16:27.553+00:00"},</t>
-  </si>
-  <si>
-    <t>{"name":"風雅詩","number":"A000000006","phone":"0947526398","titleNo":2,"title":"店員","password":"$2a$17$","isDisabled":false,"isDeleted":false,"createdAt":"2022-09-07T17:42:17.010+00:00"},</t>
-  </si>
-  <si>
-    <t>{"name":"清心福","number":"A000000007","phone":"0957643280","titleNo":2,"title":"店員","password":"$2a$18$","isDisabled":false,"isDeleted":false,"createdAt":"2023-03-20T05:58:38.050+00:00"},</t>
-  </si>
-  <si>
-    <t>{"name":"天幸福","number":"A000000008","phone":"0942879163","titleNo":2,"title":"店員","password":"$2a$19$","isDisabled":false,"isDeleted":false,"createdAt":"2022-08-16T23:52:32.186+00:00"},</t>
-  </si>
-  <si>
-    <t>{"name":"海天地","number":"A000000009","phone":"0975431862","titleNo":2,"title":"店員","password":"$2a$20$","isDisabled":false,"isDeleted":false,"createdAt":"2022-09-22T16:11:57.066+00:00"},</t>
-  </si>
-  <si>
-    <t>{"name":"雨露霜","number":"A000000010","phone":"0958371246","titleNo":2,"title":"店員","password":"$2a$21$","isDisabled":false,"isDeleted":false,"createdAt":"2023-03-22T14:42:41.307+00:00"},</t>
-  </si>
-  <si>
-    <t>{"name":"碧水潭","number":"A000000011","phone":"0928175306","titleNo":2,"title":"店員","password":"$2a$22$","isDisabled":false,"isDeleted":false,"createdAt":"2023-03-05T14:56:36.193+00:00"},</t>
-  </si>
-  <si>
-    <t>{"name":"玉清明","number":"A000000012","phone":"0982764190","titleNo":2,"title":"店員","password":"$2a$23$","isDisabled":false,"isDeleted":false,"createdAt":"2022-09-17T12:01:26.378+00:00"},</t>
-  </si>
-  <si>
-    <t>{"name":"花樹林","number":"A000000013","phone":"0925176038","titleNo":2,"title":"店員","password":"$2a$24$","isDisabled":false,"isDeleted":false,"createdAt":"2022-08-27T08:08:28.325+00:00"},</t>
-  </si>
-  <si>
-    <t>{"name":"莫忘我","number":"A000000014","phone":"0934621857","titleNo":2,"title":"店員","password":"$2a$25$","isDisabled":false,"isDeleted":false,"createdAt":"2022-09-18T19:59:28.817+00:00"},</t>
-  </si>
-  <si>
-    <t>{"name":"夜星辰","number":"A000000015","phone":"0953164782","titleNo":2,"title":"店員","password":"$2a$26$","isDisabled":false,"isDeleted":false,"createdAt":"2023-03-07T19:29:55.573+00:00"},</t>
-  </si>
-  <si>
-    <t>{"name":"雲深處","number":"A000000016","phone":"0908673195","titleNo":2,"title":"店員","password":"$2a$27$","isDisabled":false,"isDeleted":false,"createdAt":"2022-09-28T00:01:25.430+00:00"},</t>
-  </si>
-  <si>
-    <t>{"name":"碧海天","number":"A000000017","phone":"0934528067","titleNo":2,"title":"店員","password":"$2a$28$","isDisabled":false,"isDeleted":false,"createdAt":"2022-10-05T01:23:36.620+00:00"},</t>
-  </si>
-  <si>
-    <t>{"name":"春花香","number":"A000000018","phone":"0943621587","titleNo":2,"title":"店員","password":"$2a$29$","isDisabled":false,"isDeleted":false,"createdAt":"2022-12-16T04:22:56.472+00:00"},</t>
-  </si>
-  <si>
-    <t>{"name":"紅梅雪","number":"A000000019","phone":"0975268431","titleNo":2,"title":"店員","password":"$2a$30$","isDisabled":false,"isDeleted":false,"createdAt":"2022-11-03T22:43:38.292+00:00"},</t>
-  </si>
-  <si>
-    <t>{"name":"紫薇仙","number":"A000000020","phone":"0974820315","titleNo":2,"title":"店員","password":"$2a$31$","isDisabled":false,"isDeleted":false,"createdAt":"2022-12-11T09:06:17.449+00:00"},</t>
-  </si>
-  <si>
-    <t>{"name":"梅花鶯","number":"A000000021","phone":"0918634257","titleNo":2,"title":"店員","password":"$2a$32$","isDisabled":false,"isDeleted":false,"createdAt":"2022-11-15T23:25:28.472+00:00"},</t>
-  </si>
-  <si>
-    <t>{"name":"雲半天","number":"A000000022","phone":"0914275386","titleNo":2,"title":"店員","password":"$2a$33$","isDisabled":false,"isDeleted":false,"createdAt":"2022-11-08T13:18:58.676+00:00"},</t>
-  </si>
-  <si>
-    <t>{"name":"海闊天","number":"A000000023","phone":"0982746315","titleNo":2,"title":"店員","password":"$2a$34$","isDisabled":false,"isDeleted":false,"createdAt":"2022-08-22T06:08:12.461+00:00"},</t>
-  </si>
-  <si>
-    <t>{"name":"星火燎","number":"A000000024","phone":"0914265083","titleNo":2,"title":"店員","password":"$2a$35$","isDisabled":false,"isDeleted":false,"createdAt":"2023-04-10T20:45:29.958+00:00"},</t>
-  </si>
-  <si>
-    <t>{"name":"落葉歸","number":"A000000025","phone":"0978426315","titleNo":2,"title":"店員","password":"$2a$36$","isDisabled":false,"isDeleted":false,"createdAt":"2022-11-09T05:47:03.264+00:00"},</t>
-  </si>
-  <si>
-    <t>{"name":"龍飛燕","number":"A000000026","phone":"0963182457","titleNo":2,"title":"店員","password":"$2a$37$","isDisabled":false,"isDeleted":false,"createdAt":"2022-12-16T11:45:18.400+00:00"},</t>
-  </si>
-  <si>
-    <t>{"name":"雪蓮花","number":"A000000027","phone":"0986314275","titleNo":2,"title":"店員","password":"$2a$38$","isDisabled":false,"isDeleted":false,"createdAt":"2022-12-18T20:13:56.630+00:00"},</t>
-  </si>
-  <si>
-    <t>{"name":"桃花塢","number":"A000000028","phone":"0923184705","titleNo":2,"title":"店員","password":"$2a$39$","isDisabled":false,"isDeleted":false,"createdAt":"2023-03-20T14:22:32.534+00:00"},</t>
-  </si>
-  <si>
-    <t>{"name":"虹彩霓","number":"A000000029","phone":"0938562471","titleNo":2,"title":"店員","password":"$2a$40$","isDisabled":false,"isDeleted":false,"createdAt":"2022-09-27T06:12:35.528+00:00"},</t>
-  </si>
-  <si>
-    <t>{"name":"碧空山","number":"A000000030","phone":"0963185427","titleNo":2,"title":"店員","password":"$2a$41$","isDisabled":false,"isDeleted":false,"createdAt":"2022-09-24T21:07:54.041+00:00"},</t>
-  </si>
-  <si>
-    <t>{"name":"神仙境","number":"B000000001","phone":"0913275640","titleNo":3,"title":"廚師","password":"$2a$42$","isDisabled":false,"isDeleted":false,"createdAt":"2022-11-03T02:20:27.520+00:00"},</t>
-  </si>
-  <si>
-    <t>{"name":"女俠客","number":"B000000002","phone":"0928354167","titleNo":3,"title":"廚師","password":"$2a$43$","isDisabled":false,"isDeleted":false,"createdAt":"2022-09-23T16:34:22.396+00:00"},</t>
-  </si>
-  <si>
-    <t>{"name":"玉琴曲","number":"B000000003","phone":"0938562147","titleNo":3,"title":"廚師","password":"$2a$44$","isDisabled":false,"isDeleted":false,"createdAt":"2022-10-06T08:08:54.794+00:00"},</t>
-  </si>
-  <si>
-    <t>{"name":"雪莊主","number":"B000000004","phone":"0915473286","titleNo":3,"title":"廚師","password":"$2a$45$","isDisabled":false,"isDeleted":false,"createdAt":"2022-09-10T16:48:07.034+00:00"},</t>
-  </si>
-  <si>
-    <t>{"name":"飛鳥想","number":"B000000005","phone":"0956714283","titleNo":3,"title":"廚師","password":"$2a$46$","isDisabled":false,"isDeleted":false,"createdAt":"2022-10-27T01:03:02.509+00:00"},</t>
-  </si>
-  <si>
-    <t>{"name":"春水源","number":"B000000006","phone":"0974286315","titleNo":3,"title":"廚師","password":"$2a$47$","isDisabled":false,"isDeleted":false,"createdAt":"2022-03-20T14:15:34.221+00:00"},</t>
-  </si>
-  <si>
-    <t>{"name":"月傾城","number":"B000000007","phone":"0987312465","titleNo":3,"title":"廚師","password":"$2a$48$","isDisabled":false,"isDeleted":false,"createdAt":"2021-12-14T23:50:09.605+00:00"},</t>
-  </si>
-  <si>
-    <t>{"name":"傾國妃","number":"B000000008","phone":"0925384617","titleNo":3,"title":"廚師","password":"$2a$49$","isDisabled":false,"isDeleted":false,"createdAt":"2023-01-31T21:33:22.703+00:00"},</t>
-  </si>
-  <si>
-    <t>{"name":"飛天舞","number":"B000000009","phone":"0987416235","titleNo":3,"title":"廚師","password":"$2a$50$","isDisabled":false,"isDeleted":false,"createdAt":"2021-10-29T06:25:01.906+00:00"},</t>
-  </si>
-  <si>
-    <t>{"name":"靈龍鳳","number":"B000000010","phone":"0956487312","titleNo":3,"title":"廚師","password":"$2a$51$","isDisabled":false,"isDeleted":false,"createdAt":"2022-09-14T16:43:08.933+00:00"},</t>
-  </si>
-  <si>
-    <t>{"name":"帝皇后","number":"B000000011","phone":"0975426831","titleNo":3,"title":"廚師","password":"$2a$52$","isDisabled":false,"isDeleted":false,"createdAt":"2023-03-23T10:51:51.779+00:00"},</t>
-  </si>
-  <si>
-    <t>{"name":"竹林寺","number":"B000000012","phone":"0973125468","titleNo":3,"title":"廚師","password":"$2a$53$","isDisabled":false,"isDeleted":false,"createdAt":"2022-10-16T17:26:34.926+00:00"},</t>
-  </si>
-  <si>
-    <t>{"name":"白雪糕","number":"B000000013","phone":"0912563478","titleNo":3,"title":"廚師","password":"$2a$54$","isDisabled":false,"isDeleted":false,"createdAt":"2021-08-26T07:39:13.491+00:00"},</t>
-  </si>
-  <si>
-    <t>{"name":"雨雪霜","number":"B000000014","phone":"0942316578","titleNo":3,"title":"廚師","password":"$2a$55$","isDisabled":false,"isDeleted":false,"createdAt":"2021-12-31T12:41:47.066+00:00"},</t>
-  </si>
-  <si>
-    <t>{"name":"燕雀安","number":"B000000015","phone":"0942761538","titleNo":3,"title":"廚師","password":"$2a$56$","isDisabled":false,"isDeleted":false,"createdAt":"2022-06-13T18:07:16.927+00:00"},</t>
-  </si>
-  <si>
-    <t>{"name":"雪藏龍","number":"B000000016","phone":"0946218375","titleNo":3,"title":"廚師","password":"$2a$57$","isDisabled":false,"isDeleted":false,"createdAt":"2022-02-12T07:26:24.855+00:00"},</t>
-  </si>
-  <si>
-    <t>{"name":"雲水月","number":"B000000017","phone":"0943186527","titleNo":3,"title":"廚師","password":"$2a$58$","isDisabled":false,"isDeleted":false,"createdAt":"2021-10-28T08:01:02.832+00:00"},</t>
-  </si>
-  <si>
-    <t>{"name":"雪夜狐","number":"B000000018","phone":"0951847623","titleNo":3,"title":"廚師","password":"$2a$59$","isDisabled":false,"isDeleted":false,"createdAt":"2023-04-08T23:17:47.289+00:00"},</t>
-  </si>
-  <si>
-    <t>{"name":"草原狼","number":"B000000019","phone":"0932764150","titleNo":3,"title":"廚師","password":"$2a$60$","isDisabled":false,"isDeleted":false,"createdAt":"2022-06-21T05:28:50.537+00:00"},</t>
-  </si>
-  <si>
-    <t>{"name":"狂風怒","number":"B000000020","phone":"0973125864","titleNo":3,"title":"廚師","password":"$2a$61$","isDisabled":false,"isDeleted":false,"createdAt":"2022-10-04T19:07:36.137+00:00"}</t>
+    <t>0902846781</t>
+  </si>
+  <si>
+    <t>0928765432</t>
+  </si>
+  <si>
+    <t>0989154896</t>
+  </si>
+  <si>
+    <t>0902213574</t>
+  </si>
+  <si>
+    <t>0937723502</t>
+  </si>
+  <si>
+    <t>0933543285</t>
+  </si>
+  <si>
+    <t>0964687456</t>
+  </si>
+  <si>
+    <t>0937645289</t>
+  </si>
+  <si>
+    <t>0955432569</t>
+  </si>
+  <si>
+    <t>0988542895</t>
+  </si>
+  <si>
+    <t>0968594321</t>
+  </si>
+  <si>
+    <t>0928596412</t>
+  </si>
+  <si>
+    <t>0975348962</t>
+  </si>
+  <si>
+    <t>0962358714</t>
+  </si>
+  <si>
+    <t>0945812376</t>
+  </si>
+  <si>
+    <t>0943192675</t>
+  </si>
+  <si>
+    <t>0989275631</t>
+  </si>
+  <si>
+    <t>0918675423</t>
+  </si>
+  <si>
+    <t>0921753486</t>
+  </si>
+  <si>
+    <t>0941837692</t>
+  </si>
+  <si>
+    <t>0968325471</t>
+  </si>
+  <si>
+    <t>0943685741</t>
+  </si>
+  <si>
+    <t>0973548691</t>
+  </si>
+  <si>
+    <t>0921384765</t>
+  </si>
+  <si>
+    <t>0962874531</t>
+  </si>
+  <si>
+    <t>0938567124</t>
+  </si>
+  <si>
+    <t>0956782143</t>
+  </si>
+  <si>
+    <t>0978345162</t>
+  </si>
+  <si>
+    <t>0983657142</t>
+  </si>
+  <si>
+    <t>0912673548</t>
+  </si>
+  <si>
+    <t>0963851742</t>
+  </si>
+  <si>
+    <t>0925176843</t>
+  </si>
+  <si>
+    <t>0954213867</t>
+  </si>
+  <si>
+    <t>0945128367</t>
+  </si>
+  <si>
+    <t>0941852637</t>
+  </si>
+  <si>
+    <t>0916458327</t>
+  </si>
+  <si>
+    <t>0987316548</t>
+  </si>
+  <si>
+    <t>0916573842</t>
+  </si>
+  <si>
+    <t>0981654372</t>
+  </si>
+  <si>
+    <t>0967853412</t>
+  </si>
+  <si>
+    <t>0937452168</t>
+  </si>
+  <si>
+    <t>0982734651</t>
+  </si>
+  <si>
+    <t>0938574612</t>
+  </si>
+  <si>
+    <t>0962571348</t>
+  </si>
+  <si>
+    <t>0941385762</t>
+  </si>
+  <si>
+    <t>0957831642</t>
+  </si>
+  <si>
+    <t>0972365418</t>
+  </si>
+  <si>
+    <t>0915732846</t>
+  </si>
+  <si>
+    <t>0982175364</t>
+  </si>
+  <si>
+    <t>0965873214</t>
+  </si>
+  <si>
+    <t>B000000021</t>
+  </si>
+  <si>
+    <t>B000000022</t>
+  </si>
+  <si>
+    <t>B000000023</t>
+  </si>
+  <si>
+    <t>B000000024</t>
+  </si>
+  <si>
+    <t>B000000025</t>
+  </si>
+  <si>
+    <t>B000000026</t>
+  </si>
+  <si>
+    <t>B000000027</t>
+  </si>
+  <si>
+    <t>B000000028</t>
+  </si>
+  <si>
+    <t>B000000029</t>
+  </si>
+  <si>
+    <t>B000000030</t>
+  </si>
+  <si>
+    <t>D000000001</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{"name":"明珠玉","number":"A000000000","phone":"0902563847","titleNo":2,"title":"店員","password":"$2a$12$","isDisabled":false,"isDeleted":false,"createdAt":"2022-10-14T18:49:13.859+00:00"},</t>
+    <t>D000000002</t>
+  </si>
+  <si>
+    <t>D000000003</t>
+  </si>
+  <si>
+    <t>D000000004</t>
+  </si>
+  <si>
+    <t>D000000005</t>
+  </si>
+  <si>
+    <t>D000000006</t>
+  </si>
+  <si>
+    <t>D000000007</t>
+  </si>
+  <si>
+    <t>D000000008</t>
+  </si>
+  <si>
+    <t>D000000009</t>
+  </si>
+  <si>
+    <t>D000000010</t>
+  </si>
+  <si>
+    <t>D000000011</t>
+  </si>
+  <si>
+    <t>D000000012</t>
+  </si>
+  <si>
+    <t>D000000013</t>
+  </si>
+  <si>
+    <t>D000000014</t>
+  </si>
+  <si>
+    <t>D000000015</t>
+  </si>
+  <si>
+    <t>D000000016</t>
+  </si>
+  <si>
+    <t>D000000017</t>
+  </si>
+  <si>
+    <t>D000000018</t>
+  </si>
+  <si>
+    <t>D000000019</t>
+  </si>
+  <si>
+    <t>D000000020</t>
+  </si>
+  <si>
+    <t>D000000021</t>
+  </si>
+  <si>
+    <t>D000000022</t>
+  </si>
+  <si>
+    <t>D000000023</t>
+  </si>
+  <si>
+    <t>D000000024</t>
+  </si>
+  <si>
+    <t>D000000025</t>
+  </si>
+  <si>
+    <t>D000000026</t>
+  </si>
+  <si>
+    <t>D000000027</t>
+  </si>
+  <si>
+    <t>D000000028</t>
+  </si>
+  <si>
+    <t>D000000029</t>
+  </si>
+  <si>
+    <t>D000000030</t>
+  </si>
+  <si>
+    <t>D000000031</t>
+  </si>
+  <si>
+    <t>D000000032</t>
+  </si>
+  <si>
+    <t>D000000033</t>
+  </si>
+  <si>
+    <t>D000000034</t>
+  </si>
+  <si>
+    <t>D000000035</t>
+  </si>
+  <si>
+    <t>D000000036</t>
+  </si>
+  <si>
+    <t>D000000037</t>
+  </si>
+  <si>
+    <t>D000000038</t>
+  </si>
+  <si>
+    <t>D000000039</t>
+  </si>
+  <si>
+    <t>D000000040</t>
+  </si>
+  <si>
+    <t>D000000041</t>
+  </si>
+  <si>
+    <t>D000000042</t>
+  </si>
+  <si>
+    <t>D000000043</t>
+  </si>
+  <si>
+    <t>D000000044</t>
+  </si>
+  <si>
+    <t>D000000045</t>
+  </si>
+  <si>
+    <t>D000000046</t>
+  </si>
+  <si>
+    <t>D000000047</t>
+  </si>
+  <si>
+    <t>D000000048</t>
+  </si>
+  <si>
+    <t>D000000049</t>
+  </si>
+  <si>
+    <t>D000000050</t>
+  </si>
+  <si>
+    <t>{"name":"明珠玉","number":"B000000001","phone":"0902563847","titleNo":2,"title":"店員","password":"$2a$12$","isDisabled":false,"isDeleted":false,"createdAt":"2022-10-14T18:49:13.859+00:00"},</t>
+  </si>
+  <si>
+    <t>{"name":"紅綠藍","number":"B000000002","phone":"0928746916","titleNo":2,"title":"店員","password":"$2a$13$","isDisabled":false,"isDeleted":false,"createdAt":"2023-03-10T00:44:44.764+00:00"},</t>
+  </si>
+  <si>
+    <t>{"name":"靈魂歌","number":"B000000003","phone":"0915627043","titleNo":2,"title":"店員","password":"$2a$14$","isDisabled":false,"isDeleted":false,"createdAt":"2022-11-27T14:41:57.206+00:00"},</t>
+  </si>
+  <si>
+    <t>{"name":"雲山水","number":"B000000004","phone":"0945832167","titleNo":2,"title":"店員","password":"$2a$15$","isDisabled":false,"isDeleted":false,"createdAt":"2022-08-12T08:11:58.453+00:00"},</t>
+  </si>
+  <si>
+    <t>{"name":"落花滿","number":"B000000005","phone":"0936472180","titleNo":2,"title":"店員","password":"$2a$16$","isDisabled":false,"isDeleted":false,"createdAt":"2023-03-09T06:16:27.553+00:00"},</t>
+  </si>
+  <si>
+    <t>{"name":"風雅詩","number":"B000000006","phone":"0947526398","titleNo":2,"title":"店員","password":"$2a$17$","isDisabled":false,"isDeleted":false,"createdAt":"2022-09-07T17:42:17.010+00:00"},</t>
+  </si>
+  <si>
+    <t>{"name":"清心福","number":"B000000007","phone":"0957643280","titleNo":2,"title":"店員","password":"$2a$18$","isDisabled":false,"isDeleted":false,"createdAt":"2023-03-20T05:58:38.050+00:00"},</t>
+  </si>
+  <si>
+    <t>{"name":"天幸福","number":"B000000008","phone":"0942879163","titleNo":2,"title":"店員","password":"$2a$19$","isDisabled":false,"isDeleted":false,"createdAt":"2022-08-16T23:52:32.186+00:00"},</t>
+  </si>
+  <si>
+    <t>{"name":"海天地","number":"B000000009","phone":"0975431862","titleNo":2,"title":"店員","password":"$2a$20$","isDisabled":false,"isDeleted":false,"createdAt":"2022-09-22T16:11:57.066+00:00"},</t>
+  </si>
+  <si>
+    <t>{"name":"雨露霜","number":"B000000010","phone":"0958371246","titleNo":2,"title":"店員","password":"$2a$21$","isDisabled":false,"isDeleted":false,"createdAt":"2023-03-22T14:42:41.307+00:00"},</t>
+  </si>
+  <si>
+    <t>{"name":"碧水潭","number":"B000000011","phone":"0928175306","titleNo":2,"title":"店員","password":"$2a$22$","isDisabled":false,"isDeleted":false,"createdAt":"2023-03-05T14:56:36.193+00:00"},</t>
+  </si>
+  <si>
+    <t>{"name":"玉清明","number":"B000000012","phone":"0982764190","titleNo":2,"title":"店員","password":"$2a$23$","isDisabled":false,"isDeleted":false,"createdAt":"2022-09-17T12:01:26.378+00:00"},</t>
+  </si>
+  <si>
+    <t>{"name":"花樹林","number":"B000000013","phone":"0925176038","titleNo":2,"title":"店員","password":"$2a$24$","isDisabled":false,"isDeleted":false,"createdAt":"2022-08-27T08:08:28.325+00:00"},</t>
+  </si>
+  <si>
+    <t>{"name":"莫忘我","number":"B000000014","phone":"0934621857","titleNo":2,"title":"店員","password":"$2a$25$","isDisabled":false,"isDeleted":false,"createdAt":"2022-09-18T19:59:28.817+00:00"},</t>
+  </si>
+  <si>
+    <t>{"name":"夜星辰","number":"B000000015","phone":"0953164782","titleNo":2,"title":"店員","password":"$2a$26$","isDisabled":false,"isDeleted":false,"createdAt":"2023-03-07T19:29:55.573+00:00"},</t>
+  </si>
+  <si>
+    <t>{"name":"雲深處","number":"B000000016","phone":"0908673195","titleNo":2,"title":"店員","password":"$2a$27$","isDisabled":false,"isDeleted":false,"createdAt":"2022-09-28T00:01:25.430+00:00"},</t>
+  </si>
+  <si>
+    <t>{"name":"碧海天","number":"B000000017","phone":"0934528067","titleNo":2,"title":"店員","password":"$2a$28$","isDisabled":false,"isDeleted":false,"createdAt":"2022-10-05T01:23:36.620+00:00"},</t>
+  </si>
+  <si>
+    <t>{"name":"春花香","number":"B000000018","phone":"0943621587","titleNo":2,"title":"店員","password":"$2a$29$","isDisabled":false,"isDeleted":false,"createdAt":"2022-12-16T04:22:56.472+00:00"},</t>
+  </si>
+  <si>
+    <t>{"name":"紅梅雪","number":"B000000019","phone":"0975268431","titleNo":2,"title":"店員","password":"$2a$30$","isDisabled":false,"isDeleted":false,"createdAt":"2022-11-03T22:43:38.292+00:00"},</t>
+  </si>
+  <si>
+    <t>{"name":"紫薇仙","number":"B000000020","phone":"0974820315","titleNo":2,"title":"店員","password":"$2a$31$","isDisabled":false,"isDeleted":false,"createdAt":"2022-12-11T09:06:17.449+00:00"},</t>
+  </si>
+  <si>
+    <t>{"name":"梅花鶯","number":"B000000021","phone":"0918634257","titleNo":2,"title":"店員","password":"$2a$32$","isDisabled":false,"isDeleted":false,"createdAt":"2022-11-15T23:25:28.472+00:00"},</t>
+  </si>
+  <si>
+    <t>{"name":"雲半天","number":"B000000022","phone":"0914275386","titleNo":2,"title":"店員","password":"$2a$33$","isDisabled":false,"isDeleted":false,"createdAt":"2022-11-08T13:18:58.676+00:00"},</t>
+  </si>
+  <si>
+    <t>{"name":"海闊天","number":"B000000023","phone":"0982746315","titleNo":2,"title":"店員","password":"$2a$34$","isDisabled":false,"isDeleted":false,"createdAt":"2022-08-22T06:08:12.461+00:00"},</t>
+  </si>
+  <si>
+    <t>{"name":"星火燎","number":"B000000024","phone":"0914265083","titleNo":2,"title":"店員","password":"$2a$35$","isDisabled":false,"isDeleted":false,"createdAt":"2023-04-10T20:45:29.958+00:00"},</t>
+  </si>
+  <si>
+    <t>{"name":"落葉歸","number":"B000000025","phone":"0978426315","titleNo":2,"title":"店員","password":"$2a$36$","isDisabled":false,"isDeleted":false,"createdAt":"2022-11-09T05:47:03.264+00:00"},</t>
+  </si>
+  <si>
+    <t>{"name":"龍飛燕","number":"B000000026","phone":"0963182457","titleNo":2,"title":"店員","password":"$2a$37$","isDisabled":false,"isDeleted":false,"createdAt":"2022-12-16T11:45:18.400+00:00"},</t>
+  </si>
+  <si>
+    <t>{"name":"雪蓮花","number":"B000000027","phone":"0986314275","titleNo":2,"title":"店員","password":"$2a$38$","isDisabled":false,"isDeleted":false,"createdAt":"2022-12-18T20:13:56.630+00:00"},</t>
+  </si>
+  <si>
+    <t>{"name":"桃花塢","number":"B000000028","phone":"0923184705","titleNo":2,"title":"店員","password":"$2a$39$","isDisabled":false,"isDeleted":false,"createdAt":"2023-03-20T14:22:32.534+00:00"},</t>
+  </si>
+  <si>
+    <t>{"name":"虹彩霓","number":"B000000029","phone":"0938562471","titleNo":2,"title":"店員","password":"$2a$40$","isDisabled":false,"isDeleted":false,"createdAt":"2022-09-27T06:12:35.528+00:00"},</t>
+  </si>
+  <si>
+    <t>{"name":"碧空山","number":"B000000030","phone":"0963185427","titleNo":2,"title":"店員","password":"$2a$41$","isDisabled":false,"isDeleted":false,"createdAt":"2022-09-24T21:07:54.041+00:00"},</t>
+  </si>
+  <si>
+    <t>{"name":"神仙境","number":"C000000001","phone":"0913275640","titleNo":3,"title":"廚師","password":"$2a$42$","isDisabled":false,"isDeleted":false,"createdAt":"2022-11-03T02:20:27.520+00:00"},</t>
+  </si>
+  <si>
+    <t>{"name":"女俠客","number":"C000000002","phone":"0928354167","titleNo":3,"title":"廚師","password":"$2a$43$","isDisabled":false,"isDeleted":false,"createdAt":"2022-09-23T16:34:22.396+00:00"},</t>
+  </si>
+  <si>
+    <t>{"name":"玉琴曲","number":"C000000003","phone":"0938562147","titleNo":3,"title":"廚師","password":"$2a$44$","isDisabled":false,"isDeleted":false,"createdAt":"2022-10-06T08:08:54.794+00:00"},</t>
+  </si>
+  <si>
+    <t>{"name":"雪莊主","number":"C000000004","phone":"0915473286","titleNo":3,"title":"廚師","password":"$2a$45$","isDisabled":false,"isDeleted":false,"createdAt":"2022-09-10T16:48:07.034+00:00"},</t>
+  </si>
+  <si>
+    <t>{"name":"飛鳥想","number":"C000000005","phone":"0956714283","titleNo":3,"title":"廚師","password":"$2a$46$","isDisabled":false,"isDeleted":false,"createdAt":"2022-10-27T01:03:02.509+00:00"},</t>
+  </si>
+  <si>
+    <t>{"name":"春水源","number":"C000000006","phone":"0974286315","titleNo":3,"title":"廚師","password":"$2a$47$","isDisabled":false,"isDeleted":false,"createdAt":"2022-03-20T14:15:34.221+00:00"},</t>
+  </si>
+  <si>
+    <t>{"name":"月傾城","number":"C000000007","phone":"0987312465","titleNo":3,"title":"廚師","password":"$2a$48$","isDisabled":false,"isDeleted":false,"createdAt":"2021-12-14T23:50:09.605+00:00"},</t>
+  </si>
+  <si>
+    <t>{"name":"傾國妃","number":"C000000008","phone":"0925384617","titleNo":3,"title":"廚師","password":"$2a$49$","isDisabled":false,"isDeleted":false,"createdAt":"2023-01-31T21:33:22.703+00:00"},</t>
+  </si>
+  <si>
+    <t>{"name":"飛天舞","number":"C000000009","phone":"0987416235","titleNo":3,"title":"廚師","password":"$2a$50$","isDisabled":false,"isDeleted":false,"createdAt":"2021-10-29T06:25:01.906+00:00"},</t>
+  </si>
+  <si>
+    <t>{"name":"靈龍鳳","number":"C000000010","phone":"0956487312","titleNo":3,"title":"廚師","password":"$2a$51$","isDisabled":false,"isDeleted":false,"createdAt":"2022-09-14T16:43:08.933+00:00"},</t>
+  </si>
+  <si>
+    <t>{"name":"帝皇后","number":"C000000011","phone":"0975426831","titleNo":3,"title":"廚師","password":"$2a$52$","isDisabled":false,"isDeleted":false,"createdAt":"2023-03-23T10:51:51.779+00:00"},</t>
+  </si>
+  <si>
+    <t>{"name":"竹林寺","number":"C000000012","phone":"0973125468","titleNo":3,"title":"廚師","password":"$2a$53$","isDisabled":false,"isDeleted":false,"createdAt":"2022-10-16T17:26:34.926+00:00"},</t>
+  </si>
+  <si>
+    <t>{"name":"白雪糕","number":"C000000013","phone":"0912563478","titleNo":3,"title":"廚師","password":"$2a$54$","isDisabled":false,"isDeleted":false,"createdAt":"2021-08-26T07:39:13.491+00:00"},</t>
+  </si>
+  <si>
+    <t>{"name":"雨雪霜","number":"C000000014","phone":"0942316578","titleNo":3,"title":"廚師","password":"$2a$55$","isDisabled":false,"isDeleted":false,"createdAt":"2021-12-31T12:41:47.066+00:00"},</t>
+  </si>
+  <si>
+    <t>{"name":"燕雀安","number":"C000000015","phone":"0942761538","titleNo":3,"title":"廚師","password":"$2a$56$","isDisabled":false,"isDeleted":false,"createdAt":"2022-06-13T18:07:16.927+00:00"},</t>
+  </si>
+  <si>
+    <t>{"name":"雪藏龍","number":"C000000016","phone":"0946218375","titleNo":3,"title":"廚師","password":"$2a$57$","isDisabled":false,"isDeleted":false,"createdAt":"2022-02-12T07:26:24.855+00:00"},</t>
+  </si>
+  <si>
+    <t>{"name":"雲水月","number":"C000000017","phone":"0943186527","titleNo":3,"title":"廚師","password":"$2a$58$","isDisabled":false,"isDeleted":false,"createdAt":"2021-10-28T08:01:02.832+00:00"},</t>
+  </si>
+  <si>
+    <t>{"name":"雪夜狐","number":"C000000018","phone":"0951847623","titleNo":3,"title":"廚師","password":"$2a$59$","isDisabled":false,"isDeleted":false,"createdAt":"2023-04-08T23:17:47.289+00:00"},</t>
+  </si>
+  <si>
+    <t>{"name":"草原狼","number":"C000000019","phone":"0932764150","titleNo":3,"title":"廚師","password":"$2a$60$","isDisabled":false,"isDeleted":false,"createdAt":"2022-06-21T05:28:50.537+00:00"},</t>
+  </si>
+  <si>
+    <t>{"name":"紅梅香","number":"D000000001","phone":"0902846781","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2021-11-16T04:33:12.354+00:00"},</t>
+  </si>
+  <si>
+    <t>{"name":"花開半","number":"D000000002","phone":"0928765432","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2022-06-01T21:39:16.913+00:00"},</t>
+  </si>
+  <si>
+    <t>{"name":"雪月風","number":"D000000003","phone":"0989154896","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2022-02-15T22:24:18.970+00:00"},</t>
+  </si>
+  <si>
+    <t>{"name":"陽光樂","number":"D000000004","phone":"0902213574","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2022-08-22T11:44:26.424+00:00"},</t>
+  </si>
+  <si>
+    <t>{"name":"花開結","number":"D000000005","phone":"0937723502","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2021-10-15T07:30:19.703+00:00"},</t>
+  </si>
+  <si>
+    <t>{"name":"天香慕","number":"D000000006","phone":"0933543285","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2022-03-29T22:11:47.662+00:00"},</t>
+  </si>
+  <si>
+    <t>{"name":"紅塵客","number":"D000000007","phone":"0964687456","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2021-11-23T15:23:01.228+00:00"},</t>
+  </si>
+  <si>
+    <t>{"name":"琴瑟音","number":"D000000008","phone":"0937645289","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2022-06-06T14:13:27.097+00:00"},</t>
+  </si>
+  <si>
+    <t>{"name":"愛如花","number":"D000000009","phone":"0955432569","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2021-12-17T05:17:57.586+00:00"},</t>
+  </si>
+  <si>
+    <t>{"name":"深海潛","number":"D000000010","phone":"0988542895","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2022-08-04T02:52:55.810+00:00"},</t>
+  </si>
+  <si>
+    <t>{"name":"雨蘭香","number":"D000000011","phone":"0968594321","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2022-03-24T04:22:07.955+00:00"},</t>
+  </si>
+  <si>
+    <t>{"name":"紫陽花","number":"D000000012","phone":"0928596412","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2022-08-25T18:15:32.166+00:00"},</t>
+  </si>
+  <si>
+    <t>{"name":"仙女飛","number":"D000000013","phone":"0975348962","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2022-02-05T09:53:39.014+00:00"},</t>
+  </si>
+  <si>
+    <t>{"name":"雲霧裡","number":"D000000014","phone":"0962358714","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2022-01-21T19:10:03.173+00:00"},</t>
+  </si>
+  <si>
+    <t>{"name":"靈狐仙","number":"D000000015","phone":"0945812376","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2022-03-31T13:19:19.930+00:00"},</t>
+  </si>
+  <si>
+    <t>{"name":"夜雨香","number":"D000000016","phone":"0943192675","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2022-01-28T18:20:50.973+00:00"},</t>
+  </si>
+  <si>
+    <t>{"name":"美人香","number":"D000000017","phone":"0989275631","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2021-11-12T11:48:16.759+00:00"},</t>
+  </si>
+  <si>
+    <t>{"name":"時光倒","number":"D000000018","phone":"0918675423","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2022-01-20T09:05:31.541+00:00"},</t>
+  </si>
+  <si>
+    <t>{"name":"楓葉紅","number":"D000000019","phone":"0921753486","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2022-04-09T01:23:27.904+00:00"},</t>
+  </si>
+  <si>
+    <t>{"name":"愛情路","number":"D000000020","phone":"0941837692","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2021-08-28T02:28:13.324+00:00"},</t>
+  </si>
+  <si>
+    <t>{"name":"梅花雪","number":"D000000021","phone":"0968325471","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2022-10-05T11:34:27.820+00:00"},</t>
+  </si>
+  <si>
+    <t>{"name":"雲中仙","number":"D000000022","phone":"0943685741","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2023-02-05T02:29:14.874+00:00"},</t>
+  </si>
+  <si>
+    <t>{"name":"風雨聲","number":"D000000023","phone":"0973548691","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2023-02-18T03:48:35.504+00:00"},</t>
+  </si>
+  <si>
+    <t>{"name":"桃花緣","number":"D000000024","phone":"0921384765","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2022-10-18T03:12:21.701+00:00"},</t>
+  </si>
+  <si>
+    <t>{"name":"花開花","number":"D000000025","phone":"0962874531","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2022-11-13T22:42:37.486+00:00"},</t>
+  </si>
+  <si>
+    <t>{"name":"天地月","number":"D000000026","phone":"0938567124","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2022-10-16T01:32:03.803+00:00"},</t>
+  </si>
+  <si>
+    <t>{"name":"紫金花","number":"D000000027","phone":"0956782143","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2023-02-06T22:09:31.420+00:00"},</t>
+  </si>
+  <si>
+    <t>{"name":"飛天燕","number":"D000000028","phone":"0978345162","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2022-10-08T08:48:21.518+00:00"},</t>
+  </si>
+  <si>
+    <t>{"name":"紫雲霞","number":"D000000029","phone":"0983657142","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2022-11-25T14:59:56.031+00:00"},</t>
+  </si>
+  <si>
+    <t>{"name":"青山翠","number":"D000000030","phone":"0912673548","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2023-03-07T12:55:36.945+00:00"},</t>
+  </si>
+  <si>
+    <t>{"name":"水墨畫","number":"D000000031","phone":"0963851742","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2022-12-05T21:31:36.919+00:00"},</t>
+  </si>
+  <si>
+    <t>{"name":"蝶戀花","number":"D000000032","phone":"0925176843","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2023-03-02T16:43:49.845+00:00"},</t>
+  </si>
+  <si>
+    <t>{"name":"桃花心","number":"D000000033","phone":"0954213867","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2023-03-22T09:13:24.863+00:00"},</t>
+  </si>
+  <si>
+    <t>{"name":"梅花寒","number":"D000000034","phone":"0945128367","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2022-12-27T01:45:24.083+00:00"},</t>
+  </si>
+  <si>
+    <t>{"name":"雲海深","number":"D000000035","phone":"0941852637","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2022-12-18T04:22:38.697+00:00"},</t>
+  </si>
+  <si>
+    <t>{"name":"雨花石","number":"D000000036","phone":"0916458327","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2023-03-17T09:10:45.040+00:00"},</t>
+  </si>
+  <si>
+    <t>{"name":"星空夜","number":"D000000037","phone":"0987316548","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2022-11-24T13:08:29.524+00:00"},</t>
+  </si>
+  <si>
+    <t>{"name":"金玉滿","number":"D000000038","phone":"0916573842","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2023-01-17T02:02:06.772+00:00"},</t>
+  </si>
+  <si>
+    <t>{"name":"紫竹林","number":"D000000039","phone":"0981654372","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2022-12-25T23:12:11.261+00:00"},</t>
+  </si>
+  <si>
+    <t>{"name":"青青草","number":"D000000040","phone":"0967853412","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2022-10-22T18:45:39.505+00:00"},</t>
+  </si>
+  <si>
+    <t>{"name":"紫羅蘭","number":"D000000041","phone":"0937452168","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2023-03-15T16:33:57.583+00:00"},</t>
+  </si>
+  <si>
+    <t>{"name":"白蘭花","number":"D000000042","phone":"0982734651","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2023-01-06T02:22:11.967+00:00"},</t>
+  </si>
+  <si>
+    <t>{"name":"花海深","number":"D000000043","phone":"0938574612","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2022-10-10T05:28:54.427+00:00"},</t>
+  </si>
+  <si>
+    <t>{"name":"飛燕舞","number":"D000000044","phone":"0962571348","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2022-10-26T17:34:52.986+00:00"},</t>
+  </si>
+  <si>
+    <t>{"name":"玉樹林","number":"D000000045","phone":"0941385762","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2022-11-08T07:51:33.562+00:00"},</t>
+  </si>
+  <si>
+    <t>{"name":"春風吹","number":"D000000046","phone":"0957831642","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2023-02-07T22:33:24.423+00:00"},</t>
+  </si>
+  <si>
+    <t>{"name":"雪山飛","number":"D000000047","phone":"0972365418","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2023-03-20T06:50:01.294+00:00"},</t>
+  </si>
+  <si>
+    <t>{"name":"玫瑰花","number":"D000000048","phone":"0915732846","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2023-03-24T13:06:39.383+00:00"},</t>
+  </si>
+  <si>
+    <t>{"name":"夜色靜","number":"D000000049","phone":"0982175364","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2022-11-18T06:21:05.648+00:00"},</t>
+  </si>
+  <si>
+    <t>{"name":"落日慕","number":"D000000050","phone":"0965873214","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2022-12-28T00:34:03.527+00:00"}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0902846781</t>
-  </si>
-  <si>
-    <t>0928765432</t>
-  </si>
-  <si>
-    <t>0989154896</t>
-  </si>
-  <si>
-    <t>0902213574</t>
-  </si>
-  <si>
-    <t>0937723502</t>
-  </si>
-  <si>
-    <t>0933543285</t>
-  </si>
-  <si>
-    <t>0964687456</t>
-  </si>
-  <si>
-    <t>0937645289</t>
-  </si>
-  <si>
-    <t>0955432569</t>
-  </si>
-  <si>
-    <t>0988542895</t>
-  </si>
-  <si>
-    <t>0968594321</t>
-  </si>
-  <si>
-    <t>0928596412</t>
-  </si>
-  <si>
-    <t>0975348962</t>
-  </si>
-  <si>
-    <t>0962358714</t>
-  </si>
-  <si>
-    <t>0945812376</t>
-  </si>
-  <si>
-    <t>0943192675</t>
-  </si>
-  <si>
-    <t>0989275631</t>
-  </si>
-  <si>
-    <t>0918675423</t>
-  </si>
-  <si>
-    <t>0921753486</t>
-  </si>
-  <si>
-    <t>0941837692</t>
-  </si>
-  <si>
-    <t>0968325471</t>
-  </si>
-  <si>
-    <t>0943685741</t>
-  </si>
-  <si>
-    <t>0973548691</t>
-  </si>
-  <si>
-    <t>0921384765</t>
-  </si>
-  <si>
-    <t>0962874531</t>
-  </si>
-  <si>
-    <t>0938567124</t>
-  </si>
-  <si>
-    <t>0956782143</t>
-  </si>
-  <si>
-    <t>0978345162</t>
-  </si>
-  <si>
-    <t>0983657142</t>
-  </si>
-  <si>
-    <t>0912673548</t>
-  </si>
-  <si>
-    <t>0963851742</t>
-  </si>
-  <si>
-    <t>0925176843</t>
-  </si>
-  <si>
-    <t>0954213867</t>
-  </si>
-  <si>
-    <t>0945128367</t>
-  </si>
-  <si>
-    <t>0941852637</t>
-  </si>
-  <si>
-    <t>0916458327</t>
-  </si>
-  <si>
-    <t>0987316548</t>
-  </si>
-  <si>
-    <t>0916573842</t>
-  </si>
-  <si>
-    <t>0981654372</t>
-  </si>
-  <si>
-    <t>0967853412</t>
-  </si>
-  <si>
-    <t>0937452168</t>
-  </si>
-  <si>
-    <t>0982734651</t>
-  </si>
-  <si>
-    <t>0938574612</t>
-  </si>
-  <si>
-    <t>0962571348</t>
-  </si>
-  <si>
-    <t>0941385762</t>
-  </si>
-  <si>
-    <t>0957831642</t>
-  </si>
-  <si>
-    <t>0972365418</t>
-  </si>
-  <si>
-    <t>0915732846</t>
-  </si>
-  <si>
-    <t>0982175364</t>
-  </si>
-  <si>
-    <t>0965873214</t>
-  </si>
-  <si>
-    <t>{"name":"紅梅香","number":"C000000001","phone":"0902846781","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2021-11-16T04:33:12.354+00:00"},</t>
-  </si>
-  <si>
-    <t>{"name":"花開半","number":"C000000002","phone":"0928765432","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2022-06-01T21:39:16.913+00:00"},</t>
-  </si>
-  <si>
-    <t>{"name":"雪月風","number":"C000000003","phone":"0989154896","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2022-02-15T22:24:18.970+00:00"},</t>
-  </si>
-  <si>
-    <t>{"name":"陽光樂","number":"C000000004","phone":"0902213574","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2022-08-22T11:44:26.424+00:00"},</t>
-  </si>
-  <si>
-    <t>{"name":"花開結","number":"C000000005","phone":"0937723502","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2021-10-15T07:30:19.703+00:00"},</t>
-  </si>
-  <si>
-    <t>{"name":"天香慕","number":"C000000006","phone":"0933543285","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2022-03-29T22:11:47.662+00:00"},</t>
-  </si>
-  <si>
-    <t>{"name":"紅塵客","number":"C000000007","phone":"0964687456","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2021-11-23T15:23:01.228+00:00"},</t>
-  </si>
-  <si>
-    <t>{"name":"琴瑟音","number":"C000000008","phone":"0937645289","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2022-06-06T14:13:27.097+00:00"},</t>
-  </si>
-  <si>
-    <t>{"name":"愛如花","number":"C000000009","phone":"0955432569","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2021-12-17T05:17:57.586+00:00"},</t>
-  </si>
-  <si>
-    <t>{"name":"深海潛","number":"C000000010","phone":"0988542895","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2022-08-04T02:52:55.810+00:00"},</t>
-  </si>
-  <si>
-    <t>{"name":"雨蘭香","number":"C000000011","phone":"0968594321","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2022-03-24T04:22:07.955+00:00"},</t>
-  </si>
-  <si>
-    <t>{"name":"紫陽花","number":"C000000012","phone":"0928596412","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2022-08-25T18:15:32.166+00:00"},</t>
-  </si>
-  <si>
-    <t>{"name":"仙女飛","number":"C000000013","phone":"0975348962","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2022-02-05T09:53:39.014+00:00"},</t>
-  </si>
-  <si>
-    <t>{"name":"雲霧裡","number":"C000000014","phone":"0962358714","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2022-01-21T19:10:03.173+00:00"},</t>
-  </si>
-  <si>
-    <t>{"name":"靈狐仙","number":"C000000015","phone":"0945812376","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2022-03-31T13:19:19.930+00:00"},</t>
-  </si>
-  <si>
-    <t>{"name":"夜雨香","number":"C000000016","phone":"0943192675","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2022-01-28T18:20:50.973+00:00"},</t>
-  </si>
-  <si>
-    <t>{"name":"美人香","number":"C000000017","phone":"0989275631","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2021-11-12T11:48:16.759+00:00"},</t>
-  </si>
-  <si>
-    <t>{"name":"時光倒","number":"C000000018","phone":"0918675423","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2022-01-20T09:05:31.541+00:00"},</t>
-  </si>
-  <si>
-    <t>{"name":"楓葉紅","number":"C000000019","phone":"0921753486","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2022-04-09T01:23:27.904+00:00"},</t>
-  </si>
-  <si>
-    <t>{"name":"愛情路","number":"C000000020","phone":"0941837692","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2021-08-28T02:28:13.324+00:00"},</t>
-  </si>
-  <si>
-    <t>{"name":"梅花雪","number":"C000000021","phone":"0968325471","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2022-10-05T11:34:27.820+00:00"},</t>
-  </si>
-  <si>
-    <t>{"name":"雲中仙","number":"C000000022","phone":"0943685741","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2023-02-05T02:29:14.874+00:00"},</t>
-  </si>
-  <si>
-    <t>{"name":"風雨聲","number":"C000000023","phone":"0973548691","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2023-02-18T03:48:35.504+00:00"},</t>
-  </si>
-  <si>
-    <t>{"name":"桃花緣","number":"C000000024","phone":"0921384765","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2022-10-18T03:12:21.701+00:00"},</t>
-  </si>
-  <si>
-    <t>{"name":"花開花","number":"C000000025","phone":"0962874531","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2022-11-13T22:42:37.486+00:00"},</t>
-  </si>
-  <si>
-    <t>{"name":"天地月","number":"C000000026","phone":"0938567124","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2022-10-16T01:32:03.803+00:00"},</t>
-  </si>
-  <si>
-    <t>{"name":"紫金花","number":"C000000027","phone":"0956782143","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2023-02-06T22:09:31.420+00:00"},</t>
-  </si>
-  <si>
-    <t>{"name":"飛天燕","number":"C000000028","phone":"0978345162","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2022-10-08T08:48:21.518+00:00"},</t>
-  </si>
-  <si>
-    <t>{"name":"紫雲霞","number":"C000000029","phone":"0983657142","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2022-11-25T14:59:56.031+00:00"},</t>
-  </si>
-  <si>
-    <t>{"name":"青山翠","number":"C000000030","phone":"0912673548","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2023-03-07T12:55:36.945+00:00"},</t>
-  </si>
-  <si>
-    <t>{"name":"水墨畫","number":"C000000031","phone":"0963851742","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2022-12-05T21:31:36.919+00:00"},</t>
-  </si>
-  <si>
-    <t>{"name":"蝶戀花","number":"C000000032","phone":"0925176843","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2023-03-02T16:43:49.845+00:00"},</t>
-  </si>
-  <si>
-    <t>{"name":"桃花心","number":"C000000033","phone":"0954213867","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2023-03-22T09:13:24.863+00:00"},</t>
-  </si>
-  <si>
-    <t>{"name":"梅花寒","number":"C000000034","phone":"0945128367","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2022-12-27T01:45:24.083+00:00"},</t>
-  </si>
-  <si>
-    <t>{"name":"雲海深","number":"C000000035","phone":"0941852637","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2022-12-18T04:22:38.697+00:00"},</t>
-  </si>
-  <si>
-    <t>{"name":"雨花石","number":"C000000036","phone":"0916458327","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2023-03-17T09:10:45.040+00:00"},</t>
-  </si>
-  <si>
-    <t>{"name":"星空夜","number":"C000000037","phone":"0987316548","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2022-11-24T13:08:29.524+00:00"},</t>
-  </si>
-  <si>
-    <t>{"name":"金玉滿","number":"C000000038","phone":"0916573842","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2023-01-17T02:02:06.772+00:00"},</t>
-  </si>
-  <si>
-    <t>{"name":"紫竹林","number":"C000000039","phone":"0981654372","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2022-12-25T23:12:11.261+00:00"},</t>
-  </si>
-  <si>
-    <t>{"name":"青青草","number":"C000000040","phone":"0967853412","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2022-10-22T18:45:39.505+00:00"},</t>
-  </si>
-  <si>
-    <t>{"name":"紫羅蘭","number":"C000000041","phone":"0937452168","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2023-03-15T16:33:57.583+00:00"},</t>
-  </si>
-  <si>
-    <t>{"name":"白蘭花","number":"C000000042","phone":"0982734651","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2023-01-06T02:22:11.967+00:00"},</t>
-  </si>
-  <si>
-    <t>{"name":"花海深","number":"C000000043","phone":"0938574612","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2022-10-10T05:28:54.427+00:00"},</t>
-  </si>
-  <si>
-    <t>{"name":"飛燕舞","number":"C000000044","phone":"0962571348","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2022-10-26T17:34:52.986+00:00"},</t>
-  </si>
-  <si>
-    <t>{"name":"玉樹林","number":"C000000045","phone":"0941385762","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2022-11-08T07:51:33.562+00:00"},</t>
-  </si>
-  <si>
-    <t>{"name":"春風吹","number":"C000000046","phone":"0957831642","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2023-02-07T22:33:24.423+00:00"},</t>
-  </si>
-  <si>
-    <t>{"name":"雪山飛","number":"C000000047","phone":"0972365418","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2023-03-20T06:50:01.294+00:00"},</t>
-  </si>
-  <si>
-    <t>{"name":"玫瑰花","number":"C000000048","phone":"0915732846","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2023-03-24T13:06:39.383+00:00"},</t>
-  </si>
-  <si>
-    <t>{"name":"夜色靜","number":"C000000049","phone":"0982175364","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2022-11-18T06:21:05.648+00:00"},</t>
-  </si>
-  <si>
-    <t>{"name":"落日慕","number":"C000000050","phone":"0965873214","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2022-12-28T00:34:03.527+00:00"}</t>
+    <t>{"name":"狂風怒","number":"C000000020","phone":"0973125864","titleNo":3,"title":"廚師","password":"$2a$61$","isDisabled":false,"isDeleted":false,"createdAt":"2022-10-04T19:07:36.137+00:00"}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2284,7 +2284,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2298,9 +2298,6 @@
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
@@ -2622,8 +2619,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F8FE226-86DD-44BA-A705-7678BBEC2ADC}">
   <dimension ref="A4:S109"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="F64" sqref="F64"/>
+    <sheetView tabSelected="1" topLeftCell="G41" workbookViewId="0">
+      <selection activeCell="S55" sqref="S55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
@@ -2632,11 +2629,11 @@
     <col min="4" max="4" width="9.90625" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.90625" style="2" customWidth="1"/>
     <col min="6" max="7" width="12.54296875" style="2" customWidth="1"/>
-    <col min="8" max="8" width="15.6328125" style="5" customWidth="1"/>
+    <col min="8" max="8" width="15.6328125" customWidth="1"/>
     <col min="9" max="11" width="8.7265625" style="2"/>
     <col min="12" max="12" width="9.81640625" style="2" customWidth="1"/>
     <col min="13" max="16" width="8.7265625" style="2"/>
-    <col min="17" max="17" width="9.90625" style="5" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.90625" bestFit="1" customWidth="1"/>
     <col min="18" max="16384" width="8.7265625" style="2"/>
   </cols>
   <sheetData>
@@ -2645,15 +2642,15 @@
         <v>1</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>502</v>
+        <v>442</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>2</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>502</v>
-      </c>
-      <c r="H4" s="5" t="s">
+        <v>442</v>
+      </c>
+      <c r="H4" t="s">
         <v>3</v>
       </c>
       <c r="I4" s="2" t="s">
@@ -2674,13 +2671,13 @@
       <c r="N4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="S4" s="5" t="s">
+      <c r="S4" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B5" s="1" t="s">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>59</v>
@@ -2690,47 +2687,47 @@
         <v>明珠玉</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>316</v>
+        <v>256</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>60</v>
+        <v>162</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>416</v>
-      </c>
-      <c r="H5" s="5" t="str">
+        <v>356</v>
+      </c>
+      <c r="H5" t="str">
         <f>RIGHT(B5,10)</f>
         <v>0902563847</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>140</v>
+        <v>110</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>141</v>
+        <v>111</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>142</v>
+        <v>112</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>214</v>
+        <v>184</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>214</v>
+        <v>184</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>467</v>
-      </c>
-      <c r="Q5" s="5" t="str">
+        <v>407</v>
+      </c>
+      <c r="Q5" t="str">
         <f>"{""name"":"""&amp;E5&amp;""",""number"":"""&amp;F5&amp;""",""phone"":"""&amp;H5&amp;""",""titleNo"":"&amp;I5&amp;",""title"":"&amp;J5&amp;",""password"":"&amp;K5&amp;",""isDisabled"":"&amp;L5&amp;",""isDeleted"":"&amp;M5&amp;",""createdAt"":"""&amp;N5&amp;"""},"</f>
-        <v>{"name":"明珠玉","number":"A000000001","phone":"0902563847","titleNo":2,"title":"店員","password":"$2a$12$","isDisabled":false,"isDeleted":false,"createdAt":"2022-10-14T18:49:13.859+00:00"},</v>
+        <v>{"name":"明珠玉","number":"B000000001","phone":"0902563847","titleNo":2,"title":"店員","password":"$2a$12$","isDisabled":false,"isDeleted":false,"createdAt":"2022-10-14T18:49:13.859+00:00"},</v>
       </c>
       <c r="S5" s="2" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
     </row>
     <row r="6" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B6" s="1" t="s">
-        <v>91</v>
+        <v>61</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>10</v>
@@ -2740,97 +2737,97 @@
         <v>紅綠藍</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>317</v>
+        <v>257</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>61</v>
+        <v>163</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>417</v>
-      </c>
-      <c r="H6" s="5" t="str">
-        <f t="shared" ref="H6:H69" si="0">RIGHT(B6,10)</f>
+        <v>357</v>
+      </c>
+      <c r="H6" t="str">
+        <f t="shared" ref="H6:H54" si="0">RIGHT(B6,10)</f>
         <v>0928746916</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>140</v>
+        <v>110</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>141</v>
+        <v>111</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>143</v>
+        <v>113</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>214</v>
+        <v>184</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>214</v>
+        <v>184</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>468</v>
-      </c>
-      <c r="Q6" s="5" t="str">
+        <v>408</v>
+      </c>
+      <c r="Q6" t="str">
         <f t="shared" ref="Q6:Q54" si="1">"{""name"":"""&amp;E6&amp;""",""number"":"""&amp;F6&amp;""",""phone"":"""&amp;H6&amp;""",""titleNo"":"&amp;I6&amp;",""title"":"&amp;J6&amp;",""password"":"&amp;K6&amp;",""isDisabled"":"&amp;L6&amp;",""isDeleted"":"&amp;M6&amp;",""createdAt"":"""&amp;N6&amp;"""},"</f>
-        <v>{"name":"紅綠藍","number":"A000000002","phone":"0928746916","titleNo":2,"title":"店員","password":"$2a$13$","isDisabled":false,"isDeleted":false,"createdAt":"2023-03-10T00:44:44.764+00:00"},</v>
+        <v>{"name":"紅綠藍","number":"B000000002","phone":"0928746916","titleNo":2,"title":"店員","password":"$2a$13$","isDisabled":false,"isDeleted":false,"createdAt":"2023-03-10T00:44:44.764+00:00"},</v>
       </c>
       <c r="S6" s="2" t="s">
-        <v>569</v>
+        <v>620</v>
       </c>
     </row>
     <row r="7" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B7" s="1" t="s">
-        <v>92</v>
+        <v>62</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D7" s="2" t="str">
-        <f t="shared" ref="D7:E70" si="2">RIGHT(C7,3)</f>
+        <f t="shared" ref="D7:D54" si="2">RIGHT(C7,3)</f>
         <v>靈魂歌</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>318</v>
+        <v>258</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>62</v>
+        <v>164</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>418</v>
-      </c>
-      <c r="H7" s="5" t="str">
+        <v>358</v>
+      </c>
+      <c r="H7" t="str">
         <f t="shared" si="0"/>
         <v>0915627043</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>140</v>
+        <v>110</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>141</v>
+        <v>111</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>144</v>
+        <v>114</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>214</v>
+        <v>184</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>214</v>
+        <v>184</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>469</v>
-      </c>
-      <c r="Q7" s="5" t="str">
+        <v>409</v>
+      </c>
+      <c r="Q7" t="str">
         <f t="shared" si="1"/>
-        <v>{"name":"靈魂歌","number":"A000000003","phone":"0915627043","titleNo":2,"title":"店員","password":"$2a$14$","isDisabled":false,"isDeleted":false,"createdAt":"2022-11-27T14:41:57.206+00:00"},</v>
+        <v>{"name":"靈魂歌","number":"B000000003","phone":"0915627043","titleNo":2,"title":"店員","password":"$2a$14$","isDisabled":false,"isDeleted":false,"createdAt":"2022-11-27T14:41:57.206+00:00"},</v>
       </c>
       <c r="S7" s="2" t="s">
-        <v>570</v>
+        <v>621</v>
       </c>
     </row>
     <row r="8" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B8" s="1" t="s">
-        <v>93</v>
+        <v>63</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>12</v>
@@ -2840,47 +2837,47 @@
         <v>雲山水</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>319</v>
+        <v>259</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>63</v>
+        <v>165</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>419</v>
-      </c>
-      <c r="H8" s="5" t="str">
+        <v>359</v>
+      </c>
+      <c r="H8" t="str">
         <f t="shared" si="0"/>
         <v>0945832167</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>140</v>
+        <v>110</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>141</v>
+        <v>111</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>145</v>
+        <v>115</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>214</v>
+        <v>184</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>214</v>
+        <v>184</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>470</v>
-      </c>
-      <c r="Q8" s="5" t="str">
+        <v>410</v>
+      </c>
+      <c r="Q8" t="str">
         <f t="shared" si="1"/>
-        <v>{"name":"雲山水","number":"A000000004","phone":"0945832167","titleNo":2,"title":"店員","password":"$2a$15$","isDisabled":false,"isDeleted":false,"createdAt":"2022-08-12T08:11:58.453+00:00"},</v>
+        <v>{"name":"雲山水","number":"B000000004","phone":"0945832167","titleNo":2,"title":"店員","password":"$2a$15$","isDisabled":false,"isDeleted":false,"createdAt":"2022-08-12T08:11:58.453+00:00"},</v>
       </c>
       <c r="S8" s="2" t="s">
-        <v>571</v>
+        <v>622</v>
       </c>
     </row>
     <row r="9" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B9" s="1" t="s">
-        <v>94</v>
+        <v>64</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>13</v>
@@ -2890,47 +2887,47 @@
         <v>落花滿</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>320</v>
+        <v>260</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>64</v>
+        <v>166</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>420</v>
-      </c>
-      <c r="H9" s="5" t="str">
+        <v>360</v>
+      </c>
+      <c r="H9" t="str">
         <f t="shared" si="0"/>
         <v>0936472180</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>140</v>
+        <v>110</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>141</v>
+        <v>111</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>146</v>
+        <v>116</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>214</v>
+        <v>184</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>214</v>
+        <v>184</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>471</v>
-      </c>
-      <c r="Q9" s="5" t="str">
+        <v>411</v>
+      </c>
+      <c r="Q9" t="str">
         <f t="shared" si="1"/>
-        <v>{"name":"落花滿","number":"A000000005","phone":"0936472180","titleNo":2,"title":"店員","password":"$2a$16$","isDisabled":false,"isDeleted":false,"createdAt":"2023-03-09T06:16:27.553+00:00"},</v>
+        <v>{"name":"落花滿","number":"B000000005","phone":"0936472180","titleNo":2,"title":"店員","password":"$2a$16$","isDisabled":false,"isDeleted":false,"createdAt":"2023-03-09T06:16:27.553+00:00"},</v>
       </c>
       <c r="S9" s="2" t="s">
-        <v>572</v>
+        <v>623</v>
       </c>
     </row>
     <row r="10" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B10" s="1" t="s">
-        <v>95</v>
+        <v>65</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>14</v>
@@ -2940,47 +2937,47 @@
         <v>風雅詩</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>321</v>
+        <v>261</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>65</v>
+        <v>167</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>421</v>
-      </c>
-      <c r="H10" s="5" t="str">
+        <v>361</v>
+      </c>
+      <c r="H10" t="str">
         <f t="shared" si="0"/>
         <v>0947526398</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>140</v>
+        <v>110</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>141</v>
+        <v>111</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>147</v>
+        <v>117</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>214</v>
+        <v>184</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>214</v>
+        <v>184</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>472</v>
-      </c>
-      <c r="Q10" s="5" t="str">
+        <v>412</v>
+      </c>
+      <c r="Q10" t="str">
         <f t="shared" si="1"/>
-        <v>{"name":"風雅詩","number":"A000000006","phone":"0947526398","titleNo":2,"title":"店員","password":"$2a$17$","isDisabled":false,"isDeleted":false,"createdAt":"2022-09-07T17:42:17.010+00:00"},</v>
+        <v>{"name":"風雅詩","number":"B000000006","phone":"0947526398","titleNo":2,"title":"店員","password":"$2a$17$","isDisabled":false,"isDeleted":false,"createdAt":"2022-09-07T17:42:17.010+00:00"},</v>
       </c>
       <c r="S10" s="2" t="s">
-        <v>573</v>
+        <v>624</v>
       </c>
     </row>
     <row r="11" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B11" s="1" t="s">
-        <v>96</v>
+        <v>66</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>15</v>
@@ -2990,47 +2987,47 @@
         <v>清心福</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>322</v>
+        <v>262</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>66</v>
+        <v>168</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>422</v>
-      </c>
-      <c r="H11" s="5" t="str">
+        <v>362</v>
+      </c>
+      <c r="H11" t="str">
         <f t="shared" si="0"/>
         <v>0957643280</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>140</v>
+        <v>110</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>141</v>
+        <v>111</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>148</v>
+        <v>118</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>214</v>
+        <v>184</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>214</v>
+        <v>184</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="Q11" s="5" t="str">
+        <v>413</v>
+      </c>
+      <c r="Q11" t="str">
         <f t="shared" si="1"/>
-        <v>{"name":"清心福","number":"A000000007","phone":"0957643280","titleNo":2,"title":"店員","password":"$2a$18$","isDisabled":false,"isDeleted":false,"createdAt":"2023-03-20T05:58:38.050+00:00"},</v>
+        <v>{"name":"清心福","number":"B000000007","phone":"0957643280","titleNo":2,"title":"店員","password":"$2a$18$","isDisabled":false,"isDeleted":false,"createdAt":"2023-03-20T05:58:38.050+00:00"},</v>
       </c>
       <c r="S11" s="2" t="s">
-        <v>574</v>
+        <v>625</v>
       </c>
     </row>
     <row r="12" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B12" s="1" t="s">
-        <v>97</v>
+        <v>67</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>16</v>
@@ -3040,47 +3037,47 @@
         <v>天幸福</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>323</v>
+        <v>263</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>67</v>
+        <v>169</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>423</v>
-      </c>
-      <c r="H12" s="5" t="str">
+        <v>363</v>
+      </c>
+      <c r="H12" t="str">
         <f t="shared" si="0"/>
         <v>0942879163</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>140</v>
+        <v>110</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>141</v>
+        <v>111</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>149</v>
+        <v>119</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>214</v>
+        <v>184</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>214</v>
+        <v>184</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="Q12" s="5" t="str">
+        <v>414</v>
+      </c>
+      <c r="Q12" t="str">
         <f t="shared" si="1"/>
-        <v>{"name":"天幸福","number":"A000000008","phone":"0942879163","titleNo":2,"title":"店員","password":"$2a$19$","isDisabled":false,"isDeleted":false,"createdAt":"2022-08-16T23:52:32.186+00:00"},</v>
+        <v>{"name":"天幸福","number":"B000000008","phone":"0942879163","titleNo":2,"title":"店員","password":"$2a$19$","isDisabled":false,"isDeleted":false,"createdAt":"2022-08-16T23:52:32.186+00:00"},</v>
       </c>
       <c r="S12" s="2" t="s">
-        <v>575</v>
+        <v>626</v>
       </c>
     </row>
     <row r="13" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B13" s="1" t="s">
-        <v>98</v>
+        <v>68</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>17</v>
@@ -3090,47 +3087,47 @@
         <v>海天地</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>324</v>
+        <v>264</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>68</v>
+        <v>170</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>424</v>
-      </c>
-      <c r="H13" s="5" t="str">
+        <v>364</v>
+      </c>
+      <c r="H13" t="str">
         <f t="shared" si="0"/>
         <v>0975431862</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>140</v>
+        <v>110</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>141</v>
+        <v>111</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>214</v>
+        <v>184</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>214</v>
+        <v>184</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>475</v>
-      </c>
-      <c r="Q13" s="5" t="str">
+        <v>415</v>
+      </c>
+      <c r="Q13" t="str">
         <f t="shared" si="1"/>
-        <v>{"name":"海天地","number":"A000000009","phone":"0975431862","titleNo":2,"title":"店員","password":"$2a$20$","isDisabled":false,"isDeleted":false,"createdAt":"2022-09-22T16:11:57.066+00:00"},</v>
+        <v>{"name":"海天地","number":"B000000009","phone":"0975431862","titleNo":2,"title":"店員","password":"$2a$20$","isDisabled":false,"isDeleted":false,"createdAt":"2022-09-22T16:11:57.066+00:00"},</v>
       </c>
       <c r="S13" s="2" t="s">
-        <v>576</v>
+        <v>627</v>
       </c>
     </row>
     <row r="14" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B14" s="1" t="s">
-        <v>99</v>
+        <v>69</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>18</v>
@@ -3140,47 +3137,47 @@
         <v>雨露霜</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>325</v>
+        <v>265</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>69</v>
+        <v>171</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>425</v>
-      </c>
-      <c r="H14" s="5" t="str">
+        <v>365</v>
+      </c>
+      <c r="H14" t="str">
         <f t="shared" si="0"/>
         <v>0958371246</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>140</v>
+        <v>110</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>141</v>
+        <v>111</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>151</v>
+        <v>121</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>214</v>
+        <v>184</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>214</v>
+        <v>184</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>476</v>
-      </c>
-      <c r="Q14" s="5" t="str">
+        <v>416</v>
+      </c>
+      <c r="Q14" t="str">
         <f t="shared" si="1"/>
-        <v>{"name":"雨露霜","number":"A000000010","phone":"0958371246","titleNo":2,"title":"店員","password":"$2a$21$","isDisabled":false,"isDeleted":false,"createdAt":"2023-03-22T14:42:41.307+00:00"},</v>
+        <v>{"name":"雨露霜","number":"B000000010","phone":"0958371246","titleNo":2,"title":"店員","password":"$2a$21$","isDisabled":false,"isDeleted":false,"createdAt":"2023-03-22T14:42:41.307+00:00"},</v>
       </c>
       <c r="S14" s="2" t="s">
-        <v>577</v>
+        <v>628</v>
       </c>
     </row>
     <row r="15" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B15" s="1" t="s">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>19</v>
@@ -3190,47 +3187,47 @@
         <v>碧水潭</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>326</v>
+        <v>266</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>70</v>
+        <v>172</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>426</v>
-      </c>
-      <c r="H15" s="5" t="str">
+        <v>366</v>
+      </c>
+      <c r="H15" t="str">
         <f t="shared" si="0"/>
         <v>0928175306</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>140</v>
+        <v>110</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>141</v>
+        <v>111</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>152</v>
+        <v>122</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>214</v>
+        <v>184</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>214</v>
+        <v>184</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>477</v>
-      </c>
-      <c r="Q15" s="5" t="str">
+        <v>417</v>
+      </c>
+      <c r="Q15" t="str">
         <f t="shared" si="1"/>
-        <v>{"name":"碧水潭","number":"A000000011","phone":"0928175306","titleNo":2,"title":"店員","password":"$2a$22$","isDisabled":false,"isDeleted":false,"createdAt":"2023-03-05T14:56:36.193+00:00"},</v>
+        <v>{"name":"碧水潭","number":"B000000011","phone":"0928175306","titleNo":2,"title":"店員","password":"$2a$22$","isDisabled":false,"isDeleted":false,"createdAt":"2023-03-05T14:56:36.193+00:00"},</v>
       </c>
       <c r="S15" s="2" t="s">
-        <v>578</v>
+        <v>629</v>
       </c>
     </row>
     <row r="16" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B16" s="1" t="s">
-        <v>101</v>
+        <v>71</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>20</v>
@@ -3240,47 +3237,47 @@
         <v>玉清明</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>327</v>
+        <v>267</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>71</v>
+        <v>173</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>427</v>
-      </c>
-      <c r="H16" s="5" t="str">
+        <v>367</v>
+      </c>
+      <c r="H16" t="str">
         <f t="shared" si="0"/>
         <v>0982764190</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>140</v>
+        <v>110</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>141</v>
+        <v>111</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>153</v>
+        <v>123</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>214</v>
+        <v>184</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>214</v>
+        <v>184</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>478</v>
-      </c>
-      <c r="Q16" s="5" t="str">
+        <v>418</v>
+      </c>
+      <c r="Q16" t="str">
         <f t="shared" si="1"/>
-        <v>{"name":"玉清明","number":"A000000012","phone":"0982764190","titleNo":2,"title":"店員","password":"$2a$23$","isDisabled":false,"isDeleted":false,"createdAt":"2022-09-17T12:01:26.378+00:00"},</v>
+        <v>{"name":"玉清明","number":"B000000012","phone":"0982764190","titleNo":2,"title":"店員","password":"$2a$23$","isDisabled":false,"isDeleted":false,"createdAt":"2022-09-17T12:01:26.378+00:00"},</v>
       </c>
       <c r="S16" s="2" t="s">
-        <v>579</v>
+        <v>630</v>
       </c>
     </row>
     <row r="17" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B17" s="1" t="s">
-        <v>102</v>
+        <v>72</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>21</v>
@@ -3290,47 +3287,47 @@
         <v>花樹林</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>328</v>
+        <v>268</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>72</v>
+        <v>174</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>428</v>
-      </c>
-      <c r="H17" s="5" t="str">
+        <v>368</v>
+      </c>
+      <c r="H17" t="str">
         <f t="shared" si="0"/>
         <v>0925176038</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>140</v>
+        <v>110</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>141</v>
+        <v>111</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>154</v>
+        <v>124</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>214</v>
+        <v>184</v>
       </c>
       <c r="M17" s="2" t="s">
-        <v>214</v>
+        <v>184</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>479</v>
-      </c>
-      <c r="Q17" s="5" t="str">
+        <v>419</v>
+      </c>
+      <c r="Q17" t="str">
         <f t="shared" si="1"/>
-        <v>{"name":"花樹林","number":"A000000013","phone":"0925176038","titleNo":2,"title":"店員","password":"$2a$24$","isDisabled":false,"isDeleted":false,"createdAt":"2022-08-27T08:08:28.325+00:00"},</v>
+        <v>{"name":"花樹林","number":"B000000013","phone":"0925176038","titleNo":2,"title":"店員","password":"$2a$24$","isDisabled":false,"isDeleted":false,"createdAt":"2022-08-27T08:08:28.325+00:00"},</v>
       </c>
       <c r="S17" s="2" t="s">
-        <v>580</v>
+        <v>631</v>
       </c>
     </row>
     <row r="18" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B18" s="1" t="s">
-        <v>103</v>
+        <v>73</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>22</v>
@@ -3340,47 +3337,47 @@
         <v>莫忘我</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>329</v>
+        <v>269</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>73</v>
+        <v>175</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>429</v>
-      </c>
-      <c r="H18" s="5" t="str">
+        <v>369</v>
+      </c>
+      <c r="H18" t="str">
         <f t="shared" si="0"/>
         <v>0934621857</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>140</v>
+        <v>110</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>141</v>
+        <v>111</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>155</v>
+        <v>125</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>214</v>
+        <v>184</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>214</v>
+        <v>184</v>
       </c>
       <c r="N18" s="1" t="s">
-        <v>480</v>
-      </c>
-      <c r="Q18" s="5" t="str">
+        <v>420</v>
+      </c>
+      <c r="Q18" t="str">
         <f t="shared" si="1"/>
-        <v>{"name":"莫忘我","number":"A000000014","phone":"0934621857","titleNo":2,"title":"店員","password":"$2a$25$","isDisabled":false,"isDeleted":false,"createdAt":"2022-09-18T19:59:28.817+00:00"},</v>
+        <v>{"name":"莫忘我","number":"B000000014","phone":"0934621857","titleNo":2,"title":"店員","password":"$2a$25$","isDisabled":false,"isDeleted":false,"createdAt":"2022-09-18T19:59:28.817+00:00"},</v>
       </c>
       <c r="S18" s="2" t="s">
-        <v>581</v>
+        <v>632</v>
       </c>
     </row>
     <row r="19" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B19" s="1" t="s">
-        <v>104</v>
+        <v>74</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>23</v>
@@ -3390,47 +3387,47 @@
         <v>夜星辰</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>330</v>
+        <v>270</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>74</v>
+        <v>176</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>430</v>
-      </c>
-      <c r="H19" s="5" t="str">
+        <v>370</v>
+      </c>
+      <c r="H19" t="str">
         <f t="shared" si="0"/>
         <v>0953164782</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>140</v>
+        <v>110</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>141</v>
+        <v>111</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>156</v>
+        <v>126</v>
       </c>
       <c r="L19" s="2" t="s">
-        <v>214</v>
+        <v>184</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>214</v>
+        <v>184</v>
       </c>
       <c r="N19" s="1" t="s">
-        <v>481</v>
-      </c>
-      <c r="Q19" s="5" t="str">
+        <v>421</v>
+      </c>
+      <c r="Q19" t="str">
         <f t="shared" si="1"/>
-        <v>{"name":"夜星辰","number":"A000000015","phone":"0953164782","titleNo":2,"title":"店員","password":"$2a$26$","isDisabled":false,"isDeleted":false,"createdAt":"2023-03-07T19:29:55.573+00:00"},</v>
+        <v>{"name":"夜星辰","number":"B000000015","phone":"0953164782","titleNo":2,"title":"店員","password":"$2a$26$","isDisabled":false,"isDeleted":false,"createdAt":"2023-03-07T19:29:55.573+00:00"},</v>
       </c>
       <c r="S19" s="2" t="s">
-        <v>582</v>
+        <v>633</v>
       </c>
     </row>
     <row r="20" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B20" s="1" t="s">
-        <v>105</v>
+        <v>75</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>24</v>
@@ -3440,47 +3437,47 @@
         <v>雲深處</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>331</v>
+        <v>271</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>75</v>
+        <v>177</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>431</v>
-      </c>
-      <c r="H20" s="5" t="str">
+        <v>371</v>
+      </c>
+      <c r="H20" t="str">
         <f t="shared" si="0"/>
         <v>0908673195</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>140</v>
+        <v>110</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>141</v>
+        <v>111</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>157</v>
+        <v>127</v>
       </c>
       <c r="L20" s="2" t="s">
-        <v>214</v>
+        <v>184</v>
       </c>
       <c r="M20" s="2" t="s">
-        <v>214</v>
+        <v>184</v>
       </c>
       <c r="N20" s="1" t="s">
-        <v>482</v>
-      </c>
-      <c r="Q20" s="5" t="str">
+        <v>422</v>
+      </c>
+      <c r="Q20" t="str">
         <f t="shared" si="1"/>
-        <v>{"name":"雲深處","number":"A000000016","phone":"0908673195","titleNo":2,"title":"店員","password":"$2a$27$","isDisabled":false,"isDeleted":false,"createdAt":"2022-09-28T00:01:25.430+00:00"},</v>
+        <v>{"name":"雲深處","number":"B000000016","phone":"0908673195","titleNo":2,"title":"店員","password":"$2a$27$","isDisabled":false,"isDeleted":false,"createdAt":"2022-09-28T00:01:25.430+00:00"},</v>
       </c>
       <c r="S20" s="2" t="s">
-        <v>583</v>
+        <v>634</v>
       </c>
     </row>
     <row r="21" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B21" s="1" t="s">
-        <v>106</v>
+        <v>76</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>25</v>
@@ -3490,47 +3487,47 @@
         <v>碧海天</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>332</v>
+        <v>272</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>76</v>
+        <v>178</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>432</v>
-      </c>
-      <c r="H21" s="5" t="str">
+        <v>372</v>
+      </c>
+      <c r="H21" t="str">
         <f t="shared" si="0"/>
         <v>0934528067</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>140</v>
+        <v>110</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>141</v>
+        <v>111</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>158</v>
+        <v>128</v>
       </c>
       <c r="L21" s="2" t="s">
-        <v>214</v>
+        <v>184</v>
       </c>
       <c r="M21" s="2" t="s">
-        <v>214</v>
+        <v>184</v>
       </c>
       <c r="N21" s="1" t="s">
-        <v>483</v>
-      </c>
-      <c r="Q21" s="5" t="str">
+        <v>423</v>
+      </c>
+      <c r="Q21" t="str">
         <f t="shared" si="1"/>
-        <v>{"name":"碧海天","number":"A000000017","phone":"0934528067","titleNo":2,"title":"店員","password":"$2a$28$","isDisabled":false,"isDeleted":false,"createdAt":"2022-10-05T01:23:36.620+00:00"},</v>
+        <v>{"name":"碧海天","number":"B000000017","phone":"0934528067","titleNo":2,"title":"店員","password":"$2a$28$","isDisabled":false,"isDeleted":false,"createdAt":"2022-10-05T01:23:36.620+00:00"},</v>
       </c>
       <c r="S21" s="2" t="s">
-        <v>584</v>
+        <v>635</v>
       </c>
     </row>
     <row r="22" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B22" s="1" t="s">
-        <v>107</v>
+        <v>77</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>26</v>
@@ -3540,47 +3537,47 @@
         <v>春花香</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>333</v>
+        <v>273</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>77</v>
+        <v>179</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>433</v>
-      </c>
-      <c r="H22" s="5" t="str">
+        <v>373</v>
+      </c>
+      <c r="H22" t="str">
         <f t="shared" si="0"/>
         <v>0943621587</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>140</v>
+        <v>110</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>141</v>
+        <v>111</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>159</v>
+        <v>129</v>
       </c>
       <c r="L22" s="2" t="s">
-        <v>214</v>
+        <v>184</v>
       </c>
       <c r="M22" s="2" t="s">
-        <v>214</v>
+        <v>184</v>
       </c>
       <c r="N22" s="1" t="s">
-        <v>484</v>
-      </c>
-      <c r="Q22" s="5" t="str">
+        <v>424</v>
+      </c>
+      <c r="Q22" t="str">
         <f t="shared" si="1"/>
-        <v>{"name":"春花香","number":"A000000018","phone":"0943621587","titleNo":2,"title":"店員","password":"$2a$29$","isDisabled":false,"isDeleted":false,"createdAt":"2022-12-16T04:22:56.472+00:00"},</v>
+        <v>{"name":"春花香","number":"B000000018","phone":"0943621587","titleNo":2,"title":"店員","password":"$2a$29$","isDisabled":false,"isDeleted":false,"createdAt":"2022-12-16T04:22:56.472+00:00"},</v>
       </c>
       <c r="S22" s="2" t="s">
-        <v>585</v>
+        <v>636</v>
       </c>
     </row>
     <row r="23" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B23" s="1" t="s">
-        <v>108</v>
+        <v>78</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>27</v>
@@ -3590,47 +3587,47 @@
         <v>紅梅雪</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>334</v>
+        <v>274</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>78</v>
+        <v>180</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>434</v>
-      </c>
-      <c r="H23" s="5" t="str">
+        <v>374</v>
+      </c>
+      <c r="H23" t="str">
         <f t="shared" si="0"/>
         <v>0975268431</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>140</v>
+        <v>110</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>141</v>
+        <v>111</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>160</v>
+        <v>130</v>
       </c>
       <c r="L23" s="2" t="s">
-        <v>214</v>
+        <v>184</v>
       </c>
       <c r="M23" s="2" t="s">
-        <v>214</v>
+        <v>184</v>
       </c>
       <c r="N23" s="1" t="s">
-        <v>485</v>
-      </c>
-      <c r="Q23" s="5" t="str">
+        <v>425</v>
+      </c>
+      <c r="Q23" t="str">
         <f t="shared" si="1"/>
-        <v>{"name":"紅梅雪","number":"A000000019","phone":"0975268431","titleNo":2,"title":"店員","password":"$2a$30$","isDisabled":false,"isDeleted":false,"createdAt":"2022-11-03T22:43:38.292+00:00"},</v>
+        <v>{"name":"紅梅雪","number":"B000000019","phone":"0975268431","titleNo":2,"title":"店員","password":"$2a$30$","isDisabled":false,"isDeleted":false,"createdAt":"2022-11-03T22:43:38.292+00:00"},</v>
       </c>
       <c r="S23" s="2" t="s">
-        <v>586</v>
+        <v>637</v>
       </c>
     </row>
     <row r="24" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B24" s="1" t="s">
-        <v>109</v>
+        <v>79</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>28</v>
@@ -3640,47 +3637,47 @@
         <v>紫薇仙</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>335</v>
+        <v>275</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>79</v>
+        <v>181</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>435</v>
-      </c>
-      <c r="H24" s="5" t="str">
+        <v>375</v>
+      </c>
+      <c r="H24" t="str">
         <f t="shared" si="0"/>
         <v>0974820315</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>140</v>
+        <v>110</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>141</v>
+        <v>111</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>161</v>
+        <v>131</v>
       </c>
       <c r="L24" s="2" t="s">
-        <v>214</v>
+        <v>184</v>
       </c>
       <c r="M24" s="2" t="s">
-        <v>214</v>
+        <v>184</v>
       </c>
       <c r="N24" s="1" t="s">
-        <v>486</v>
-      </c>
-      <c r="Q24" s="5" t="str">
+        <v>426</v>
+      </c>
+      <c r="Q24" t="str">
         <f t="shared" si="1"/>
-        <v>{"name":"紫薇仙","number":"A000000020","phone":"0974820315","titleNo":2,"title":"店員","password":"$2a$31$","isDisabled":false,"isDeleted":false,"createdAt":"2022-12-11T09:06:17.449+00:00"},</v>
+        <v>{"name":"紫薇仙","number":"B000000020","phone":"0974820315","titleNo":2,"title":"店員","password":"$2a$31$","isDisabled":false,"isDeleted":false,"createdAt":"2022-12-11T09:06:17.449+00:00"},</v>
       </c>
       <c r="S24" s="2" t="s">
-        <v>587</v>
+        <v>638</v>
       </c>
     </row>
     <row r="25" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B25" s="1" t="s">
-        <v>110</v>
+        <v>80</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>29</v>
@@ -3690,47 +3687,47 @@
         <v>梅花鶯</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>336</v>
+        <v>276</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>80</v>
+        <v>559</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>436</v>
-      </c>
-      <c r="H25" s="5" t="str">
+        <v>376</v>
+      </c>
+      <c r="H25" t="str">
         <f t="shared" si="0"/>
         <v>0918634257</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>140</v>
+        <v>110</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>141</v>
+        <v>111</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>162</v>
+        <v>132</v>
       </c>
       <c r="L25" s="2" t="s">
-        <v>214</v>
+        <v>184</v>
       </c>
       <c r="M25" s="2" t="s">
-        <v>214</v>
+        <v>184</v>
       </c>
       <c r="N25" s="1" t="s">
-        <v>487</v>
-      </c>
-      <c r="Q25" s="5" t="str">
+        <v>427</v>
+      </c>
+      <c r="Q25" t="str">
         <f t="shared" si="1"/>
-        <v>{"name":"梅花鶯","number":"A000000021","phone":"0918634257","titleNo":2,"title":"店員","password":"$2a$32$","isDisabled":false,"isDeleted":false,"createdAt":"2022-11-15T23:25:28.472+00:00"},</v>
+        <v>{"name":"梅花鶯","number":"B000000021","phone":"0918634257","titleNo":2,"title":"店員","password":"$2a$32$","isDisabled":false,"isDeleted":false,"createdAt":"2022-11-15T23:25:28.472+00:00"},</v>
       </c>
       <c r="S25" s="2" t="s">
-        <v>588</v>
+        <v>639</v>
       </c>
     </row>
     <row r="26" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B26" s="1" t="s">
-        <v>111</v>
+        <v>81</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>30</v>
@@ -3740,47 +3737,47 @@
         <v>雲半天</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>337</v>
+        <v>277</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>81</v>
+        <v>560</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>437</v>
-      </c>
-      <c r="H26" s="5" t="str">
+        <v>377</v>
+      </c>
+      <c r="H26" t="str">
         <f t="shared" si="0"/>
         <v>0914275386</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>140</v>
+        <v>110</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>141</v>
+        <v>111</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>163</v>
+        <v>133</v>
       </c>
       <c r="L26" s="2" t="s">
-        <v>214</v>
+        <v>184</v>
       </c>
       <c r="M26" s="2" t="s">
-        <v>214</v>
+        <v>184</v>
       </c>
       <c r="N26" s="1" t="s">
-        <v>488</v>
-      </c>
-      <c r="Q26" s="5" t="str">
+        <v>428</v>
+      </c>
+      <c r="Q26" t="str">
         <f t="shared" si="1"/>
-        <v>{"name":"雲半天","number":"A000000022","phone":"0914275386","titleNo":2,"title":"店員","password":"$2a$33$","isDisabled":false,"isDeleted":false,"createdAt":"2022-11-08T13:18:58.676+00:00"},</v>
+        <v>{"name":"雲半天","number":"B000000022","phone":"0914275386","titleNo":2,"title":"店員","password":"$2a$33$","isDisabled":false,"isDeleted":false,"createdAt":"2022-11-08T13:18:58.676+00:00"},</v>
       </c>
       <c r="S26" s="2" t="s">
-        <v>589</v>
+        <v>640</v>
       </c>
     </row>
     <row r="27" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B27" s="1" t="s">
-        <v>112</v>
+        <v>82</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>31</v>
@@ -3790,47 +3787,47 @@
         <v>海闊天</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>338</v>
+        <v>278</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>82</v>
+        <v>561</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>438</v>
-      </c>
-      <c r="H27" s="5" t="str">
+        <v>378</v>
+      </c>
+      <c r="H27" t="str">
         <f t="shared" si="0"/>
         <v>0982746315</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>140</v>
+        <v>110</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>141</v>
+        <v>111</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>164</v>
+        <v>134</v>
       </c>
       <c r="L27" s="2" t="s">
-        <v>214</v>
+        <v>184</v>
       </c>
       <c r="M27" s="2" t="s">
-        <v>214</v>
+        <v>184</v>
       </c>
       <c r="N27" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="Q27" s="5" t="str">
+        <v>429</v>
+      </c>
+      <c r="Q27" t="str">
         <f t="shared" si="1"/>
-        <v>{"name":"海闊天","number":"A000000023","phone":"0982746315","titleNo":2,"title":"店員","password":"$2a$34$","isDisabled":false,"isDeleted":false,"createdAt":"2022-08-22T06:08:12.461+00:00"},</v>
+        <v>{"name":"海闊天","number":"B000000023","phone":"0982746315","titleNo":2,"title":"店員","password":"$2a$34$","isDisabled":false,"isDeleted":false,"createdAt":"2022-08-22T06:08:12.461+00:00"},</v>
       </c>
       <c r="S27" s="2" t="s">
-        <v>590</v>
+        <v>641</v>
       </c>
     </row>
     <row r="28" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B28" s="1" t="s">
-        <v>113</v>
+        <v>83</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>32</v>
@@ -3840,47 +3837,47 @@
         <v>星火燎</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>339</v>
+        <v>279</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>83</v>
+        <v>562</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>439</v>
-      </c>
-      <c r="H28" s="5" t="str">
+        <v>379</v>
+      </c>
+      <c r="H28" t="str">
         <f t="shared" si="0"/>
         <v>0914265083</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>140</v>
+        <v>110</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>141</v>
+        <v>111</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>165</v>
+        <v>135</v>
       </c>
       <c r="L28" s="2" t="s">
-        <v>214</v>
+        <v>184</v>
       </c>
       <c r="M28" s="2" t="s">
-        <v>214</v>
+        <v>184</v>
       </c>
       <c r="N28" s="1" t="s">
-        <v>490</v>
-      </c>
-      <c r="Q28" s="5" t="str">
+        <v>430</v>
+      </c>
+      <c r="Q28" t="str">
         <f t="shared" si="1"/>
-        <v>{"name":"星火燎","number":"A000000024","phone":"0914265083","titleNo":2,"title":"店員","password":"$2a$35$","isDisabled":false,"isDeleted":false,"createdAt":"2023-04-10T20:45:29.958+00:00"},</v>
+        <v>{"name":"星火燎","number":"B000000024","phone":"0914265083","titleNo":2,"title":"店員","password":"$2a$35$","isDisabled":false,"isDeleted":false,"createdAt":"2023-04-10T20:45:29.958+00:00"},</v>
       </c>
       <c r="S28" s="2" t="s">
-        <v>591</v>
+        <v>642</v>
       </c>
     </row>
     <row r="29" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B29" s="1" t="s">
-        <v>114</v>
+        <v>84</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>33</v>
@@ -3890,47 +3887,47 @@
         <v>落葉歸</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>340</v>
+        <v>280</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>84</v>
+        <v>563</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>440</v>
-      </c>
-      <c r="H29" s="5" t="str">
+        <v>380</v>
+      </c>
+      <c r="H29" t="str">
         <f t="shared" si="0"/>
         <v>0978426315</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>140</v>
+        <v>110</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>141</v>
+        <v>111</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>166</v>
+        <v>136</v>
       </c>
       <c r="L29" s="2" t="s">
-        <v>214</v>
+        <v>184</v>
       </c>
       <c r="M29" s="2" t="s">
-        <v>214</v>
+        <v>184</v>
       </c>
       <c r="N29" s="1" t="s">
-        <v>491</v>
-      </c>
-      <c r="Q29" s="5" t="str">
+        <v>431</v>
+      </c>
+      <c r="Q29" t="str">
         <f t="shared" si="1"/>
-        <v>{"name":"落葉歸","number":"A000000025","phone":"0978426315","titleNo":2,"title":"店員","password":"$2a$36$","isDisabled":false,"isDeleted":false,"createdAt":"2022-11-09T05:47:03.264+00:00"},</v>
+        <v>{"name":"落葉歸","number":"B000000025","phone":"0978426315","titleNo":2,"title":"店員","password":"$2a$36$","isDisabled":false,"isDeleted":false,"createdAt":"2022-11-09T05:47:03.264+00:00"},</v>
       </c>
       <c r="S29" s="2" t="s">
-        <v>592</v>
+        <v>643</v>
       </c>
     </row>
     <row r="30" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B30" s="1" t="s">
-        <v>115</v>
+        <v>85</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>34</v>
@@ -3940,47 +3937,47 @@
         <v>龍飛燕</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>341</v>
+        <v>281</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>85</v>
+        <v>564</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>441</v>
-      </c>
-      <c r="H30" s="5" t="str">
+        <v>381</v>
+      </c>
+      <c r="H30" t="str">
         <f t="shared" si="0"/>
         <v>0963182457</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>140</v>
+        <v>110</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>141</v>
+        <v>111</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>167</v>
+        <v>137</v>
       </c>
       <c r="L30" s="2" t="s">
-        <v>214</v>
+        <v>184</v>
       </c>
       <c r="M30" s="2" t="s">
-        <v>214</v>
+        <v>184</v>
       </c>
       <c r="N30" s="1" t="s">
-        <v>492</v>
-      </c>
-      <c r="Q30" s="5" t="str">
+        <v>432</v>
+      </c>
+      <c r="Q30" t="str">
         <f t="shared" si="1"/>
-        <v>{"name":"龍飛燕","number":"A000000026","phone":"0963182457","titleNo":2,"title":"店員","password":"$2a$37$","isDisabled":false,"isDeleted":false,"createdAt":"2022-12-16T11:45:18.400+00:00"},</v>
+        <v>{"name":"龍飛燕","number":"B000000026","phone":"0963182457","titleNo":2,"title":"店員","password":"$2a$37$","isDisabled":false,"isDeleted":false,"createdAt":"2022-12-16T11:45:18.400+00:00"},</v>
       </c>
       <c r="S30" s="2" t="s">
-        <v>593</v>
+        <v>644</v>
       </c>
     </row>
     <row r="31" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B31" s="1" t="s">
-        <v>116</v>
+        <v>86</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>35</v>
@@ -3990,47 +3987,47 @@
         <v>雪蓮花</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>342</v>
+        <v>282</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>86</v>
+        <v>565</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>442</v>
-      </c>
-      <c r="H31" s="5" t="str">
+        <v>382</v>
+      </c>
+      <c r="H31" t="str">
         <f t="shared" si="0"/>
         <v>0986314275</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>140</v>
+        <v>110</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>141</v>
+        <v>111</v>
       </c>
       <c r="K31" s="2" t="s">
-        <v>168</v>
+        <v>138</v>
       </c>
       <c r="L31" s="2" t="s">
-        <v>214</v>
+        <v>184</v>
       </c>
       <c r="M31" s="2" t="s">
-        <v>214</v>
+        <v>184</v>
       </c>
       <c r="N31" s="1" t="s">
-        <v>493</v>
-      </c>
-      <c r="Q31" s="5" t="str">
+        <v>433</v>
+      </c>
+      <c r="Q31" t="str">
         <f t="shared" si="1"/>
-        <v>{"name":"雪蓮花","number":"A000000027","phone":"0986314275","titleNo":2,"title":"店員","password":"$2a$38$","isDisabled":false,"isDeleted":false,"createdAt":"2022-12-18T20:13:56.630+00:00"},</v>
+        <v>{"name":"雪蓮花","number":"B000000027","phone":"0986314275","titleNo":2,"title":"店員","password":"$2a$38$","isDisabled":false,"isDeleted":false,"createdAt":"2022-12-18T20:13:56.630+00:00"},</v>
       </c>
       <c r="S31" s="2" t="s">
-        <v>594</v>
+        <v>645</v>
       </c>
     </row>
     <row r="32" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B32" s="1" t="s">
-        <v>117</v>
+        <v>87</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>36</v>
@@ -4040,47 +4037,47 @@
         <v>桃花塢</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>343</v>
+        <v>283</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>87</v>
+        <v>566</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>443</v>
-      </c>
-      <c r="H32" s="5" t="str">
+        <v>383</v>
+      </c>
+      <c r="H32" t="str">
         <f t="shared" si="0"/>
         <v>0923184705</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>140</v>
+        <v>110</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>141</v>
+        <v>111</v>
       </c>
       <c r="K32" s="2" t="s">
-        <v>169</v>
+        <v>139</v>
       </c>
       <c r="L32" s="2" t="s">
-        <v>214</v>
+        <v>184</v>
       </c>
       <c r="M32" s="2" t="s">
-        <v>214</v>
+        <v>184</v>
       </c>
       <c r="N32" s="1" t="s">
-        <v>494</v>
-      </c>
-      <c r="Q32" s="5" t="str">
+        <v>434</v>
+      </c>
+      <c r="Q32" t="str">
         <f t="shared" si="1"/>
-        <v>{"name":"桃花塢","number":"A000000028","phone":"0923184705","titleNo":2,"title":"店員","password":"$2a$39$","isDisabled":false,"isDeleted":false,"createdAt":"2023-03-20T14:22:32.534+00:00"},</v>
+        <v>{"name":"桃花塢","number":"B000000028","phone":"0923184705","titleNo":2,"title":"店員","password":"$2a$39$","isDisabled":false,"isDeleted":false,"createdAt":"2023-03-20T14:22:32.534+00:00"},</v>
       </c>
       <c r="S32" s="2" t="s">
-        <v>595</v>
+        <v>646</v>
       </c>
     </row>
     <row r="33" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B33" s="1" t="s">
-        <v>118</v>
+        <v>88</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>37</v>
@@ -4090,47 +4087,47 @@
         <v>虹彩霓</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>344</v>
+        <v>284</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>88</v>
+        <v>567</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>444</v>
-      </c>
-      <c r="H33" s="5" t="str">
+        <v>384</v>
+      </c>
+      <c r="H33" t="str">
         <f t="shared" si="0"/>
         <v>0938562471</v>
       </c>
       <c r="I33" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="J33" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="K33" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="J33" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="K33" s="2" t="s">
-        <v>170</v>
-      </c>
       <c r="L33" s="2" t="s">
-        <v>214</v>
+        <v>184</v>
       </c>
       <c r="M33" s="2" t="s">
-        <v>214</v>
+        <v>184</v>
       </c>
       <c r="N33" s="1" t="s">
-        <v>495</v>
-      </c>
-      <c r="Q33" s="5" t="str">
+        <v>435</v>
+      </c>
+      <c r="Q33" t="str">
         <f t="shared" si="1"/>
-        <v>{"name":"虹彩霓","number":"A000000029","phone":"0938562471","titleNo":2,"title":"店員","password":"$2a$40$","isDisabled":false,"isDeleted":false,"createdAt":"2022-09-27T06:12:35.528+00:00"},</v>
+        <v>{"name":"虹彩霓","number":"B000000029","phone":"0938562471","titleNo":2,"title":"店員","password":"$2a$40$","isDisabled":false,"isDeleted":false,"createdAt":"2022-09-27T06:12:35.528+00:00"},</v>
       </c>
       <c r="S33" s="2" t="s">
-        <v>596</v>
+        <v>647</v>
       </c>
     </row>
     <row r="34" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B34" s="1" t="s">
-        <v>119</v>
+        <v>89</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>38</v>
@@ -4140,47 +4137,47 @@
         <v>碧空山</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>345</v>
+        <v>285</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>89</v>
+        <v>568</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>445</v>
-      </c>
-      <c r="H34" s="5" t="str">
+        <v>385</v>
+      </c>
+      <c r="H34" t="str">
         <f t="shared" si="0"/>
         <v>0963185427</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>140</v>
+        <v>110</v>
       </c>
       <c r="J34" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="K34" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="K34" s="2" t="s">
-        <v>171</v>
-      </c>
       <c r="L34" s="2" t="s">
-        <v>214</v>
+        <v>184</v>
       </c>
       <c r="M34" s="2" t="s">
-        <v>214</v>
+        <v>184</v>
       </c>
       <c r="N34" s="1" t="s">
-        <v>496</v>
-      </c>
-      <c r="Q34" s="5" t="str">
+        <v>436</v>
+      </c>
+      <c r="Q34" t="str">
         <f t="shared" si="1"/>
-        <v>{"name":"碧空山","number":"A000000030","phone":"0963185427","titleNo":2,"title":"店員","password":"$2a$41$","isDisabled":false,"isDeleted":false,"createdAt":"2022-09-24T21:07:54.041+00:00"},</v>
+        <v>{"name":"碧空山","number":"B000000030","phone":"0963185427","titleNo":2,"title":"店員","password":"$2a$41$","isDisabled":false,"isDeleted":false,"createdAt":"2022-09-24T21:07:54.041+00:00"},</v>
       </c>
       <c r="S34" s="2" t="s">
-        <v>597</v>
+        <v>648</v>
       </c>
     </row>
     <row r="35" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B35" s="1" t="s">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>39</v>
@@ -4190,47 +4187,47 @@
         <v>神仙境</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>346</v>
+        <v>286</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>192</v>
+        <v>235</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>446</v>
-      </c>
-      <c r="H35" s="5" t="str">
+        <v>386</v>
+      </c>
+      <c r="H35" t="str">
         <f t="shared" si="0"/>
         <v>0913275640</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>212</v>
+        <v>182</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>213</v>
+        <v>183</v>
       </c>
       <c r="K35" s="2" t="s">
-        <v>172</v>
+        <v>142</v>
       </c>
       <c r="L35" s="2" t="s">
-        <v>214</v>
+        <v>184</v>
       </c>
       <c r="M35" s="2" t="s">
-        <v>214</v>
+        <v>184</v>
       </c>
       <c r="N35" s="1" t="s">
-        <v>497</v>
-      </c>
-      <c r="Q35" s="5" t="str">
+        <v>437</v>
+      </c>
+      <c r="Q35" t="str">
         <f t="shared" si="1"/>
-        <v>{"name":"神仙境","number":"B000000001","phone":"0913275640","titleNo":3,"title":"廚師","password":"$2a$42$","isDisabled":false,"isDeleted":false,"createdAt":"2022-11-03T02:20:27.520+00:00"},</v>
+        <v>{"name":"神仙境","number":"C000000001","phone":"0913275640","titleNo":3,"title":"廚師","password":"$2a$42$","isDisabled":false,"isDeleted":false,"createdAt":"2022-11-03T02:20:27.520+00:00"},</v>
       </c>
       <c r="S35" s="2" t="s">
-        <v>598</v>
+        <v>649</v>
       </c>
     </row>
     <row r="36" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B36" s="1" t="s">
-        <v>121</v>
+        <v>91</v>
       </c>
       <c r="C36" s="3" t="s">
         <v>40</v>
@@ -4240,47 +4237,47 @@
         <v>女俠客</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>347</v>
+        <v>287</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>193</v>
+        <v>236</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>447</v>
-      </c>
-      <c r="H36" s="5" t="str">
+        <v>387</v>
+      </c>
+      <c r="H36" t="str">
         <f t="shared" si="0"/>
         <v>0928354167</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>212</v>
+        <v>182</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>213</v>
+        <v>183</v>
       </c>
       <c r="K36" s="2" t="s">
-        <v>173</v>
+        <v>143</v>
       </c>
       <c r="L36" s="2" t="s">
-        <v>214</v>
+        <v>184</v>
       </c>
       <c r="M36" s="2" t="s">
-        <v>214</v>
+        <v>184</v>
       </c>
       <c r="N36" s="1" t="s">
-        <v>498</v>
-      </c>
-      <c r="Q36" s="5" t="str">
+        <v>438</v>
+      </c>
+      <c r="Q36" t="str">
         <f t="shared" si="1"/>
-        <v>{"name":"女俠客","number":"B000000002","phone":"0928354167","titleNo":3,"title":"廚師","password":"$2a$43$","isDisabled":false,"isDeleted":false,"createdAt":"2022-09-23T16:34:22.396+00:00"},</v>
+        <v>{"name":"女俠客","number":"C000000002","phone":"0928354167","titleNo":3,"title":"廚師","password":"$2a$43$","isDisabled":false,"isDeleted":false,"createdAt":"2022-09-23T16:34:22.396+00:00"},</v>
       </c>
       <c r="S36" s="2" t="s">
-        <v>599</v>
+        <v>650</v>
       </c>
     </row>
     <row r="37" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B37" s="1" t="s">
-        <v>122</v>
+        <v>92</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>41</v>
@@ -4290,47 +4287,47 @@
         <v>玉琴曲</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>348</v>
+        <v>288</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>194</v>
+        <v>237</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>448</v>
-      </c>
-      <c r="H37" s="5" t="str">
+        <v>388</v>
+      </c>
+      <c r="H37" t="str">
         <f t="shared" si="0"/>
         <v>0938562147</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>212</v>
+        <v>182</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>213</v>
+        <v>183</v>
       </c>
       <c r="K37" s="2" t="s">
-        <v>174</v>
+        <v>144</v>
       </c>
       <c r="L37" s="2" t="s">
-        <v>214</v>
+        <v>184</v>
       </c>
       <c r="M37" s="2" t="s">
-        <v>214</v>
+        <v>184</v>
       </c>
       <c r="N37" s="1" t="s">
-        <v>499</v>
-      </c>
-      <c r="Q37" s="5" t="str">
+        <v>439</v>
+      </c>
+      <c r="Q37" t="str">
         <f t="shared" si="1"/>
-        <v>{"name":"玉琴曲","number":"B000000003","phone":"0938562147","titleNo":3,"title":"廚師","password":"$2a$44$","isDisabled":false,"isDeleted":false,"createdAt":"2022-10-06T08:08:54.794+00:00"},</v>
+        <v>{"name":"玉琴曲","number":"C000000003","phone":"0938562147","titleNo":3,"title":"廚師","password":"$2a$44$","isDisabled":false,"isDeleted":false,"createdAt":"2022-10-06T08:08:54.794+00:00"},</v>
       </c>
       <c r="S37" s="2" t="s">
-        <v>600</v>
+        <v>651</v>
       </c>
     </row>
     <row r="38" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B38" s="1" t="s">
-        <v>123</v>
+        <v>93</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>42</v>
@@ -4340,47 +4337,47 @@
         <v>雪莊主</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>349</v>
+        <v>289</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>195</v>
+        <v>238</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>449</v>
-      </c>
-      <c r="H38" s="5" t="str">
+        <v>389</v>
+      </c>
+      <c r="H38" t="str">
         <f t="shared" si="0"/>
         <v>0915473286</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>212</v>
+        <v>182</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>213</v>
+        <v>183</v>
       </c>
       <c r="K38" s="2" t="s">
-        <v>175</v>
+        <v>145</v>
       </c>
       <c r="L38" s="2" t="s">
-        <v>214</v>
+        <v>184</v>
       </c>
       <c r="M38" s="2" t="s">
-        <v>214</v>
+        <v>184</v>
       </c>
       <c r="N38" s="1" t="s">
-        <v>500</v>
-      </c>
-      <c r="Q38" s="5" t="str">
+        <v>440</v>
+      </c>
+      <c r="Q38" t="str">
         <f t="shared" si="1"/>
-        <v>{"name":"雪莊主","number":"B000000004","phone":"0915473286","titleNo":3,"title":"廚師","password":"$2a$45$","isDisabled":false,"isDeleted":false,"createdAt":"2022-09-10T16:48:07.034+00:00"},</v>
+        <v>{"name":"雪莊主","number":"C000000004","phone":"0915473286","titleNo":3,"title":"廚師","password":"$2a$45$","isDisabled":false,"isDeleted":false,"createdAt":"2022-09-10T16:48:07.034+00:00"},</v>
       </c>
       <c r="S38" s="2" t="s">
-        <v>601</v>
+        <v>652</v>
       </c>
     </row>
     <row r="39" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B39" s="1" t="s">
-        <v>124</v>
+        <v>94</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>43</v>
@@ -4390,47 +4387,47 @@
         <v>飛鳥想</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>350</v>
+        <v>290</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>196</v>
+        <v>239</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>450</v>
-      </c>
-      <c r="H39" s="5" t="str">
+        <v>390</v>
+      </c>
+      <c r="H39" t="str">
         <f t="shared" si="0"/>
         <v>0956714283</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>212</v>
+        <v>182</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>213</v>
+        <v>183</v>
       </c>
       <c r="K39" s="2" t="s">
-        <v>176</v>
+        <v>146</v>
       </c>
       <c r="L39" s="2" t="s">
-        <v>214</v>
+        <v>184</v>
       </c>
       <c r="M39" s="2" t="s">
-        <v>214</v>
+        <v>184</v>
       </c>
       <c r="N39" s="1" t="s">
-        <v>501</v>
-      </c>
-      <c r="Q39" s="5" t="str">
+        <v>441</v>
+      </c>
+      <c r="Q39" t="str">
         <f t="shared" si="1"/>
-        <v>{"name":"飛鳥想","number":"B000000005","phone":"0956714283","titleNo":3,"title":"廚師","password":"$2a$46$","isDisabled":false,"isDeleted":false,"createdAt":"2022-10-27T01:03:02.509+00:00"},</v>
+        <v>{"name":"飛鳥想","number":"C000000005","phone":"0956714283","titleNo":3,"title":"廚師","password":"$2a$46$","isDisabled":false,"isDeleted":false,"createdAt":"2022-10-27T01:03:02.509+00:00"},</v>
       </c>
       <c r="S39" s="2" t="s">
-        <v>602</v>
+        <v>653</v>
       </c>
     </row>
     <row r="40" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B40" s="1" t="s">
-        <v>125</v>
+        <v>95</v>
       </c>
       <c r="C40" s="3" t="s">
         <v>44</v>
@@ -4440,47 +4437,47 @@
         <v>春水源</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>351</v>
+        <v>291</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>197</v>
+        <v>240</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>451</v>
-      </c>
-      <c r="H40" s="5" t="str">
+        <v>391</v>
+      </c>
+      <c r="H40" t="str">
         <f t="shared" si="0"/>
         <v>0974286315</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>212</v>
+        <v>182</v>
       </c>
       <c r="J40" s="2" t="s">
-        <v>213</v>
+        <v>183</v>
       </c>
       <c r="K40" s="2" t="s">
-        <v>177</v>
+        <v>147</v>
       </c>
       <c r="L40" s="2" t="s">
-        <v>214</v>
+        <v>184</v>
       </c>
       <c r="M40" s="2" t="s">
-        <v>214</v>
+        <v>184</v>
       </c>
       <c r="N40" s="1" t="s">
-        <v>503</v>
-      </c>
-      <c r="Q40" s="5" t="str">
+        <v>443</v>
+      </c>
+      <c r="Q40" t="str">
         <f t="shared" si="1"/>
-        <v>{"name":"春水源","number":"B000000006","phone":"0974286315","titleNo":3,"title":"廚師","password":"$2a$47$","isDisabled":false,"isDeleted":false,"createdAt":"2022-03-20T14:15:34.221+00:00"},</v>
+        <v>{"name":"春水源","number":"C000000006","phone":"0974286315","titleNo":3,"title":"廚師","password":"$2a$47$","isDisabled":false,"isDeleted":false,"createdAt":"2022-03-20T14:15:34.221+00:00"},</v>
       </c>
       <c r="S40" s="2" t="s">
-        <v>603</v>
+        <v>654</v>
       </c>
     </row>
     <row r="41" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B41" s="1" t="s">
-        <v>126</v>
+        <v>96</v>
       </c>
       <c r="C41" s="3" t="s">
         <v>45</v>
@@ -4490,47 +4487,47 @@
         <v>月傾城</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>352</v>
+        <v>292</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>198</v>
+        <v>241</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>452</v>
-      </c>
-      <c r="H41" s="5" t="str">
+        <v>392</v>
+      </c>
+      <c r="H41" t="str">
         <f t="shared" si="0"/>
         <v>0987312465</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>212</v>
+        <v>182</v>
       </c>
       <c r="J41" s="2" t="s">
-        <v>213</v>
+        <v>183</v>
       </c>
       <c r="K41" s="2" t="s">
-        <v>178</v>
+        <v>148</v>
       </c>
       <c r="L41" s="2" t="s">
-        <v>214</v>
+        <v>184</v>
       </c>
       <c r="M41" s="2" t="s">
-        <v>214</v>
+        <v>184</v>
       </c>
       <c r="N41" s="1" t="s">
-        <v>504</v>
-      </c>
-      <c r="Q41" s="5" t="str">
+        <v>444</v>
+      </c>
+      <c r="Q41" t="str">
         <f t="shared" si="1"/>
-        <v>{"name":"月傾城","number":"B000000007","phone":"0987312465","titleNo":3,"title":"廚師","password":"$2a$48$","isDisabled":false,"isDeleted":false,"createdAt":"2021-12-14T23:50:09.605+00:00"},</v>
+        <v>{"name":"月傾城","number":"C000000007","phone":"0987312465","titleNo":3,"title":"廚師","password":"$2a$48$","isDisabled":false,"isDeleted":false,"createdAt":"2021-12-14T23:50:09.605+00:00"},</v>
       </c>
       <c r="S41" s="2" t="s">
-        <v>604</v>
+        <v>655</v>
       </c>
     </row>
     <row r="42" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B42" s="1" t="s">
-        <v>127</v>
+        <v>97</v>
       </c>
       <c r="C42" s="3" t="s">
         <v>46</v>
@@ -4540,47 +4537,47 @@
         <v>傾國妃</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>353</v>
+        <v>293</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>199</v>
+        <v>242</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>453</v>
-      </c>
-      <c r="H42" s="5" t="str">
+        <v>393</v>
+      </c>
+      <c r="H42" t="str">
         <f t="shared" si="0"/>
         <v>0925384617</v>
       </c>
       <c r="I42" s="2" t="s">
-        <v>212</v>
+        <v>182</v>
       </c>
       <c r="J42" s="2" t="s">
-        <v>213</v>
+        <v>183</v>
       </c>
       <c r="K42" s="2" t="s">
-        <v>179</v>
+        <v>149</v>
       </c>
       <c r="L42" s="2" t="s">
-        <v>214</v>
+        <v>184</v>
       </c>
       <c r="M42" s="2" t="s">
-        <v>214</v>
+        <v>184</v>
       </c>
       <c r="N42" s="1" t="s">
-        <v>505</v>
-      </c>
-      <c r="Q42" s="5" t="str">
+        <v>445</v>
+      </c>
+      <c r="Q42" t="str">
         <f t="shared" si="1"/>
-        <v>{"name":"傾國妃","number":"B000000008","phone":"0925384617","titleNo":3,"title":"廚師","password":"$2a$49$","isDisabled":false,"isDeleted":false,"createdAt":"2023-01-31T21:33:22.703+00:00"},</v>
+        <v>{"name":"傾國妃","number":"C000000008","phone":"0925384617","titleNo":3,"title":"廚師","password":"$2a$49$","isDisabled":false,"isDeleted":false,"createdAt":"2023-01-31T21:33:22.703+00:00"},</v>
       </c>
       <c r="S42" s="2" t="s">
-        <v>605</v>
+        <v>656</v>
       </c>
     </row>
     <row r="43" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B43" s="1" t="s">
-        <v>128</v>
+        <v>98</v>
       </c>
       <c r="C43" s="3" t="s">
         <v>47</v>
@@ -4590,47 +4587,47 @@
         <v>飛天舞</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>354</v>
+        <v>294</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>200</v>
+        <v>243</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>454</v>
-      </c>
-      <c r="H43" s="5" t="str">
+        <v>394</v>
+      </c>
+      <c r="H43" t="str">
         <f t="shared" si="0"/>
         <v>0987416235</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>212</v>
+        <v>182</v>
       </c>
       <c r="J43" s="2" t="s">
-        <v>213</v>
+        <v>183</v>
       </c>
       <c r="K43" s="2" t="s">
-        <v>180</v>
+        <v>150</v>
       </c>
       <c r="L43" s="2" t="s">
-        <v>214</v>
+        <v>184</v>
       </c>
       <c r="M43" s="2" t="s">
-        <v>214</v>
+        <v>184</v>
       </c>
       <c r="N43" s="1" t="s">
-        <v>506</v>
-      </c>
-      <c r="Q43" s="5" t="str">
+        <v>446</v>
+      </c>
+      <c r="Q43" t="str">
         <f t="shared" si="1"/>
-        <v>{"name":"飛天舞","number":"B000000009","phone":"0987416235","titleNo":3,"title":"廚師","password":"$2a$50$","isDisabled":false,"isDeleted":false,"createdAt":"2021-10-29T06:25:01.906+00:00"},</v>
+        <v>{"name":"飛天舞","number":"C000000009","phone":"0987416235","titleNo":3,"title":"廚師","password":"$2a$50$","isDisabled":false,"isDeleted":false,"createdAt":"2021-10-29T06:25:01.906+00:00"},</v>
       </c>
       <c r="S43" s="2" t="s">
-        <v>606</v>
+        <v>657</v>
       </c>
     </row>
     <row r="44" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B44" s="1" t="s">
-        <v>129</v>
+        <v>99</v>
       </c>
       <c r="C44" s="3" t="s">
         <v>48</v>
@@ -4640,47 +4637,47 @@
         <v>靈龍鳳</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>355</v>
+        <v>295</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>201</v>
+        <v>244</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>455</v>
-      </c>
-      <c r="H44" s="5" t="str">
+        <v>395</v>
+      </c>
+      <c r="H44" t="str">
         <f t="shared" si="0"/>
         <v>0956487312</v>
       </c>
       <c r="I44" s="2" t="s">
-        <v>212</v>
+        <v>182</v>
       </c>
       <c r="J44" s="2" t="s">
-        <v>213</v>
+        <v>183</v>
       </c>
       <c r="K44" s="2" t="s">
-        <v>181</v>
+        <v>151</v>
       </c>
       <c r="L44" s="2" t="s">
-        <v>214</v>
+        <v>184</v>
       </c>
       <c r="M44" s="2" t="s">
-        <v>214</v>
+        <v>184</v>
       </c>
       <c r="N44" s="1" t="s">
-        <v>507</v>
-      </c>
-      <c r="Q44" s="5" t="str">
+        <v>447</v>
+      </c>
+      <c r="Q44" t="str">
         <f t="shared" si="1"/>
-        <v>{"name":"靈龍鳳","number":"B000000010","phone":"0956487312","titleNo":3,"title":"廚師","password":"$2a$51$","isDisabled":false,"isDeleted":false,"createdAt":"2022-09-14T16:43:08.933+00:00"},</v>
+        <v>{"name":"靈龍鳳","number":"C000000010","phone":"0956487312","titleNo":3,"title":"廚師","password":"$2a$51$","isDisabled":false,"isDeleted":false,"createdAt":"2022-09-14T16:43:08.933+00:00"},</v>
       </c>
       <c r="S44" s="2" t="s">
-        <v>607</v>
+        <v>658</v>
       </c>
     </row>
     <row r="45" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B45" s="1" t="s">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="C45" s="3" t="s">
         <v>49</v>
@@ -4690,47 +4687,47 @@
         <v>帝皇后</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>356</v>
+        <v>296</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>202</v>
+        <v>245</v>
       </c>
       <c r="G45" s="4" t="s">
-        <v>456</v>
-      </c>
-      <c r="H45" s="5" t="str">
+        <v>396</v>
+      </c>
+      <c r="H45" t="str">
         <f t="shared" si="0"/>
         <v>0975426831</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>212</v>
+        <v>182</v>
       </c>
       <c r="J45" s="2" t="s">
-        <v>213</v>
+        <v>183</v>
       </c>
       <c r="K45" s="2" t="s">
-        <v>182</v>
+        <v>152</v>
       </c>
       <c r="L45" s="2" t="s">
-        <v>214</v>
+        <v>184</v>
       </c>
       <c r="M45" s="2" t="s">
-        <v>214</v>
+        <v>184</v>
       </c>
       <c r="N45" s="1" t="s">
-        <v>508</v>
-      </c>
-      <c r="Q45" s="5" t="str">
+        <v>448</v>
+      </c>
+      <c r="Q45" t="str">
         <f t="shared" si="1"/>
-        <v>{"name":"帝皇后","number":"B000000011","phone":"0975426831","titleNo":3,"title":"廚師","password":"$2a$52$","isDisabled":false,"isDeleted":false,"createdAt":"2023-03-23T10:51:51.779+00:00"},</v>
+        <v>{"name":"帝皇后","number":"C000000011","phone":"0975426831","titleNo":3,"title":"廚師","password":"$2a$52$","isDisabled":false,"isDeleted":false,"createdAt":"2023-03-23T10:51:51.779+00:00"},</v>
       </c>
       <c r="S45" s="2" t="s">
-        <v>608</v>
+        <v>659</v>
       </c>
     </row>
     <row r="46" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B46" s="1" t="s">
-        <v>131</v>
+        <v>101</v>
       </c>
       <c r="C46" s="3" t="s">
         <v>50</v>
@@ -4740,47 +4737,47 @@
         <v>竹林寺</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>357</v>
+        <v>297</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>203</v>
+        <v>246</v>
       </c>
       <c r="G46" s="4" t="s">
-        <v>457</v>
-      </c>
-      <c r="H46" s="5" t="str">
+        <v>397</v>
+      </c>
+      <c r="H46" t="str">
         <f t="shared" si="0"/>
         <v>0973125468</v>
       </c>
       <c r="I46" s="2" t="s">
-        <v>212</v>
+        <v>182</v>
       </c>
       <c r="J46" s="2" t="s">
-        <v>213</v>
+        <v>183</v>
       </c>
       <c r="K46" s="2" t="s">
-        <v>183</v>
+        <v>153</v>
       </c>
       <c r="L46" s="2" t="s">
-        <v>214</v>
+        <v>184</v>
       </c>
       <c r="M46" s="2" t="s">
-        <v>214</v>
+        <v>184</v>
       </c>
       <c r="N46" s="1" t="s">
-        <v>509</v>
-      </c>
-      <c r="Q46" s="5" t="str">
+        <v>449</v>
+      </c>
+      <c r="Q46" t="str">
         <f t="shared" si="1"/>
-        <v>{"name":"竹林寺","number":"B000000012","phone":"0973125468","titleNo":3,"title":"廚師","password":"$2a$53$","isDisabled":false,"isDeleted":false,"createdAt":"2022-10-16T17:26:34.926+00:00"},</v>
+        <v>{"name":"竹林寺","number":"C000000012","phone":"0973125468","titleNo":3,"title":"廚師","password":"$2a$53$","isDisabled":false,"isDeleted":false,"createdAt":"2022-10-16T17:26:34.926+00:00"},</v>
       </c>
       <c r="S46" s="2" t="s">
-        <v>609</v>
+        <v>660</v>
       </c>
     </row>
     <row r="47" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B47" s="1" t="s">
-        <v>132</v>
+        <v>102</v>
       </c>
       <c r="C47" s="3" t="s">
         <v>51</v>
@@ -4790,47 +4787,47 @@
         <v>白雪糕</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>358</v>
+        <v>298</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>204</v>
+        <v>247</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>458</v>
-      </c>
-      <c r="H47" s="5" t="str">
+        <v>398</v>
+      </c>
+      <c r="H47" t="str">
         <f t="shared" si="0"/>
         <v>0912563478</v>
       </c>
       <c r="I47" s="2" t="s">
-        <v>212</v>
+        <v>182</v>
       </c>
       <c r="J47" s="2" t="s">
-        <v>213</v>
+        <v>183</v>
       </c>
       <c r="K47" s="2" t="s">
-        <v>184</v>
+        <v>154</v>
       </c>
       <c r="L47" s="2" t="s">
-        <v>214</v>
+        <v>184</v>
       </c>
       <c r="M47" s="2" t="s">
-        <v>214</v>
+        <v>184</v>
       </c>
       <c r="N47" s="1" t="s">
-        <v>510</v>
-      </c>
-      <c r="Q47" s="5" t="str">
+        <v>450</v>
+      </c>
+      <c r="Q47" t="str">
         <f t="shared" si="1"/>
-        <v>{"name":"白雪糕","number":"B000000013","phone":"0912563478","titleNo":3,"title":"廚師","password":"$2a$54$","isDisabled":false,"isDeleted":false,"createdAt":"2021-08-26T07:39:13.491+00:00"},</v>
+        <v>{"name":"白雪糕","number":"C000000013","phone":"0912563478","titleNo":3,"title":"廚師","password":"$2a$54$","isDisabled":false,"isDeleted":false,"createdAt":"2021-08-26T07:39:13.491+00:00"},</v>
       </c>
       <c r="S47" s="2" t="s">
-        <v>610</v>
+        <v>661</v>
       </c>
     </row>
     <row r="48" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B48" s="1" t="s">
-        <v>133</v>
+        <v>103</v>
       </c>
       <c r="C48" s="3" t="s">
         <v>52</v>
@@ -4840,47 +4837,47 @@
         <v>雨雪霜</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>359</v>
+        <v>299</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>205</v>
+        <v>248</v>
       </c>
       <c r="G48" s="4" t="s">
-        <v>459</v>
-      </c>
-      <c r="H48" s="5" t="str">
+        <v>399</v>
+      </c>
+      <c r="H48" t="str">
         <f t="shared" si="0"/>
         <v>0942316578</v>
       </c>
       <c r="I48" s="2" t="s">
-        <v>212</v>
+        <v>182</v>
       </c>
       <c r="J48" s="2" t="s">
-        <v>213</v>
+        <v>183</v>
       </c>
       <c r="K48" s="2" t="s">
-        <v>185</v>
+        <v>155</v>
       </c>
       <c r="L48" s="2" t="s">
-        <v>214</v>
+        <v>184</v>
       </c>
       <c r="M48" s="2" t="s">
-        <v>214</v>
+        <v>184</v>
       </c>
       <c r="N48" s="1" t="s">
-        <v>511</v>
-      </c>
-      <c r="Q48" s="5" t="str">
+        <v>451</v>
+      </c>
+      <c r="Q48" t="str">
         <f t="shared" si="1"/>
-        <v>{"name":"雨雪霜","number":"B000000014","phone":"0942316578","titleNo":3,"title":"廚師","password":"$2a$55$","isDisabled":false,"isDeleted":false,"createdAt":"2021-12-31T12:41:47.066+00:00"},</v>
+        <v>{"name":"雨雪霜","number":"C000000014","phone":"0942316578","titleNo":3,"title":"廚師","password":"$2a$55$","isDisabled":false,"isDeleted":false,"createdAt":"2021-12-31T12:41:47.066+00:00"},</v>
       </c>
       <c r="S48" s="2" t="s">
-        <v>611</v>
+        <v>662</v>
       </c>
     </row>
     <row r="49" spans="1:19" x14ac:dyDescent="0.4">
       <c r="B49" s="1" t="s">
-        <v>134</v>
+        <v>104</v>
       </c>
       <c r="C49" s="3" t="s">
         <v>53</v>
@@ -4890,47 +4887,47 @@
         <v>燕雀安</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>360</v>
+        <v>300</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>206</v>
+        <v>249</v>
       </c>
       <c r="G49" s="4" t="s">
-        <v>460</v>
-      </c>
-      <c r="H49" s="5" t="str">
+        <v>400</v>
+      </c>
+      <c r="H49" t="str">
         <f t="shared" si="0"/>
         <v>0942761538</v>
       </c>
       <c r="I49" s="2" t="s">
-        <v>212</v>
+        <v>182</v>
       </c>
       <c r="J49" s="2" t="s">
-        <v>213</v>
+        <v>183</v>
       </c>
       <c r="K49" s="2" t="s">
-        <v>186</v>
+        <v>156</v>
       </c>
       <c r="L49" s="2" t="s">
-        <v>214</v>
+        <v>184</v>
       </c>
       <c r="M49" s="2" t="s">
-        <v>214</v>
+        <v>184</v>
       </c>
       <c r="N49" s="1" t="s">
-        <v>512</v>
-      </c>
-      <c r="Q49" s="5" t="str">
+        <v>452</v>
+      </c>
+      <c r="Q49" t="str">
         <f t="shared" si="1"/>
-        <v>{"name":"燕雀安","number":"B000000015","phone":"0942761538","titleNo":3,"title":"廚師","password":"$2a$56$","isDisabled":false,"isDeleted":false,"createdAt":"2022-06-13T18:07:16.927+00:00"},</v>
+        <v>{"name":"燕雀安","number":"C000000015","phone":"0942761538","titleNo":3,"title":"廚師","password":"$2a$56$","isDisabled":false,"isDeleted":false,"createdAt":"2022-06-13T18:07:16.927+00:00"},</v>
       </c>
       <c r="S49" s="2" t="s">
-        <v>612</v>
+        <v>663</v>
       </c>
     </row>
     <row r="50" spans="1:19" x14ac:dyDescent="0.4">
       <c r="B50" s="1" t="s">
-        <v>135</v>
+        <v>105</v>
       </c>
       <c r="C50" s="3" t="s">
         <v>54</v>
@@ -4940,47 +4937,47 @@
         <v>雪藏龍</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>361</v>
+        <v>301</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>207</v>
+        <v>250</v>
       </c>
       <c r="G50" s="4" t="s">
-        <v>461</v>
-      </c>
-      <c r="H50" s="5" t="str">
+        <v>401</v>
+      </c>
+      <c r="H50" t="str">
         <f t="shared" si="0"/>
         <v>0946218375</v>
       </c>
       <c r="I50" s="2" t="s">
-        <v>212</v>
+        <v>182</v>
       </c>
       <c r="J50" s="2" t="s">
-        <v>213</v>
+        <v>183</v>
       </c>
       <c r="K50" s="2" t="s">
-        <v>187</v>
+        <v>157</v>
       </c>
       <c r="L50" s="2" t="s">
-        <v>214</v>
+        <v>184</v>
       </c>
       <c r="M50" s="2" t="s">
-        <v>214</v>
+        <v>184</v>
       </c>
       <c r="N50" s="1" t="s">
-        <v>513</v>
-      </c>
-      <c r="Q50" s="5" t="str">
+        <v>453</v>
+      </c>
+      <c r="Q50" t="str">
         <f t="shared" si="1"/>
-        <v>{"name":"雪藏龍","number":"B000000016","phone":"0946218375","titleNo":3,"title":"廚師","password":"$2a$57$","isDisabled":false,"isDeleted":false,"createdAt":"2022-02-12T07:26:24.855+00:00"},</v>
+        <v>{"name":"雪藏龍","number":"C000000016","phone":"0946218375","titleNo":3,"title":"廚師","password":"$2a$57$","isDisabled":false,"isDeleted":false,"createdAt":"2022-02-12T07:26:24.855+00:00"},</v>
       </c>
       <c r="S50" s="2" t="s">
-        <v>613</v>
+        <v>664</v>
       </c>
     </row>
     <row r="51" spans="1:19" x14ac:dyDescent="0.4">
       <c r="B51" s="1" t="s">
-        <v>136</v>
+        <v>106</v>
       </c>
       <c r="C51" s="3" t="s">
         <v>55</v>
@@ -4990,47 +4987,47 @@
         <v>雲水月</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>362</v>
+        <v>302</v>
       </c>
       <c r="F51" s="4" t="s">
-        <v>208</v>
+        <v>251</v>
       </c>
       <c r="G51" s="4" t="s">
-        <v>462</v>
-      </c>
-      <c r="H51" s="5" t="str">
+        <v>402</v>
+      </c>
+      <c r="H51" t="str">
         <f t="shared" si="0"/>
         <v>0943186527</v>
       </c>
       <c r="I51" s="2" t="s">
-        <v>212</v>
+        <v>182</v>
       </c>
       <c r="J51" s="2" t="s">
-        <v>213</v>
+        <v>183</v>
       </c>
       <c r="K51" s="2" t="s">
-        <v>188</v>
+        <v>158</v>
       </c>
       <c r="L51" s="2" t="s">
-        <v>214</v>
+        <v>184</v>
       </c>
       <c r="M51" s="2" t="s">
-        <v>214</v>
+        <v>184</v>
       </c>
       <c r="N51" s="1" t="s">
-        <v>514</v>
-      </c>
-      <c r="Q51" s="5" t="str">
+        <v>454</v>
+      </c>
+      <c r="Q51" t="str">
         <f t="shared" si="1"/>
-        <v>{"name":"雲水月","number":"B000000017","phone":"0943186527","titleNo":3,"title":"廚師","password":"$2a$58$","isDisabled":false,"isDeleted":false,"createdAt":"2021-10-28T08:01:02.832+00:00"},</v>
+        <v>{"name":"雲水月","number":"C000000017","phone":"0943186527","titleNo":3,"title":"廚師","password":"$2a$58$","isDisabled":false,"isDeleted":false,"createdAt":"2021-10-28T08:01:02.832+00:00"},</v>
       </c>
       <c r="S51" s="2" t="s">
-        <v>614</v>
+        <v>665</v>
       </c>
     </row>
     <row r="52" spans="1:19" x14ac:dyDescent="0.4">
       <c r="B52" s="1" t="s">
-        <v>137</v>
+        <v>107</v>
       </c>
       <c r="C52" s="3" t="s">
         <v>56</v>
@@ -5040,47 +5037,47 @@
         <v>雪夜狐</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>363</v>
+        <v>303</v>
       </c>
       <c r="F52" s="4" t="s">
-        <v>209</v>
+        <v>252</v>
       </c>
       <c r="G52" s="4" t="s">
-        <v>463</v>
-      </c>
-      <c r="H52" s="5" t="str">
+        <v>403</v>
+      </c>
+      <c r="H52" t="str">
         <f t="shared" si="0"/>
         <v>0951847623</v>
       </c>
       <c r="I52" s="2" t="s">
-        <v>212</v>
+        <v>182</v>
       </c>
       <c r="J52" s="2" t="s">
-        <v>213</v>
+        <v>183</v>
       </c>
       <c r="K52" s="2" t="s">
-        <v>189</v>
+        <v>159</v>
       </c>
       <c r="L52" s="2" t="s">
-        <v>214</v>
+        <v>184</v>
       </c>
       <c r="M52" s="2" t="s">
-        <v>214</v>
+        <v>184</v>
       </c>
       <c r="N52" s="1" t="s">
-        <v>515</v>
-      </c>
-      <c r="Q52" s="5" t="str">
+        <v>455</v>
+      </c>
+      <c r="Q52" t="str">
         <f t="shared" si="1"/>
-        <v>{"name":"雪夜狐","number":"B000000018","phone":"0951847623","titleNo":3,"title":"廚師","password":"$2a$59$","isDisabled":false,"isDeleted":false,"createdAt":"2023-04-08T23:17:47.289+00:00"},</v>
+        <v>{"name":"雪夜狐","number":"C000000018","phone":"0951847623","titleNo":3,"title":"廚師","password":"$2a$59$","isDisabled":false,"isDeleted":false,"createdAt":"2023-04-08T23:17:47.289+00:00"},</v>
       </c>
       <c r="S52" s="2" t="s">
-        <v>615</v>
+        <v>666</v>
       </c>
     </row>
     <row r="53" spans="1:19" x14ac:dyDescent="0.4">
       <c r="B53" s="1" t="s">
-        <v>138</v>
+        <v>108</v>
       </c>
       <c r="C53" s="3" t="s">
         <v>57</v>
@@ -5090,48 +5087,48 @@
         <v>草原狼</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>364</v>
+        <v>304</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>210</v>
+        <v>253</v>
       </c>
       <c r="G53" s="4" t="s">
-        <v>464</v>
-      </c>
-      <c r="H53" s="5" t="str">
+        <v>404</v>
+      </c>
+      <c r="H53" t="str">
         <f t="shared" si="0"/>
         <v>0932764150</v>
       </c>
       <c r="I53" s="2" t="s">
-        <v>212</v>
+        <v>182</v>
       </c>
       <c r="J53" s="2" t="s">
-        <v>213</v>
+        <v>183</v>
       </c>
       <c r="K53" s="2" t="s">
-        <v>190</v>
+        <v>160</v>
       </c>
       <c r="L53" s="2" t="s">
-        <v>214</v>
+        <v>184</v>
       </c>
       <c r="M53" s="2" t="s">
-        <v>214</v>
+        <v>184</v>
       </c>
       <c r="N53" s="1" t="s">
-        <v>516</v>
-      </c>
-      <c r="Q53" s="5" t="str">
+        <v>456</v>
+      </c>
+      <c r="Q53" t="str">
         <f t="shared" si="1"/>
-        <v>{"name":"草原狼","number":"B000000019","phone":"0932764150","titleNo":3,"title":"廚師","password":"$2a$60$","isDisabled":false,"isDeleted":false,"createdAt":"2022-06-21T05:28:50.537+00:00"},</v>
+        <v>{"name":"草原狼","number":"C000000019","phone":"0932764150","titleNo":3,"title":"廚師","password":"$2a$60$","isDisabled":false,"isDeleted":false,"createdAt":"2022-06-21T05:28:50.537+00:00"},</v>
       </c>
       <c r="S53" s="2" t="s">
-        <v>616</v>
+        <v>667</v>
       </c>
     </row>
     <row r="54" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A54" s="6"/>
+      <c r="A54" s="5"/>
       <c r="B54" s="1" t="s">
-        <v>139</v>
+        <v>109</v>
       </c>
       <c r="C54" s="3" t="s">
         <v>58</v>
@@ -5141,42 +5138,42 @@
         <v>狂風怒</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>365</v>
+        <v>305</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>211</v>
+        <v>254</v>
       </c>
       <c r="G54" s="4" t="s">
-        <v>465</v>
-      </c>
-      <c r="H54" s="5" t="str">
+        <v>405</v>
+      </c>
+      <c r="H54" t="str">
         <f t="shared" si="0"/>
         <v>0973125864</v>
       </c>
       <c r="I54" s="2" t="s">
-        <v>212</v>
+        <v>182</v>
       </c>
       <c r="J54" s="2" t="s">
-        <v>213</v>
+        <v>183</v>
       </c>
       <c r="K54" s="2" t="s">
-        <v>191</v>
+        <v>161</v>
       </c>
       <c r="L54" s="2" t="s">
-        <v>214</v>
+        <v>184</v>
       </c>
       <c r="M54" s="2" t="s">
-        <v>214</v>
+        <v>184</v>
       </c>
       <c r="N54" s="1" t="s">
-        <v>517</v>
-      </c>
-      <c r="Q54" s="5" t="str">
+        <v>457</v>
+      </c>
+      <c r="Q54" t="str">
         <f t="shared" si="1"/>
-        <v>{"name":"狂風怒","number":"B000000020","phone":"0973125864","titleNo":3,"title":"廚師","password":"$2a$61$","isDisabled":false,"isDeleted":false,"createdAt":"2022-10-04T19:07:36.137+00:00"},</v>
+        <v>{"name":"狂風怒","number":"C000000020","phone":"0973125864","titleNo":3,"title":"廚師","password":"$2a$61$","isDisabled":false,"isDeleted":false,"createdAt":"2022-10-04T19:07:36.137+00:00"},</v>
       </c>
       <c r="S54" s="2" t="s">
-        <v>617</v>
+        <v>718</v>
       </c>
     </row>
     <row r="55" spans="1:19" x14ac:dyDescent="0.4">
@@ -5186,7 +5183,7 @@
       <c r="G55" s="4"/>
       <c r="N55" s="1"/>
       <c r="S55" s="2" t="s">
-        <v>568</v>
+        <v>508</v>
       </c>
     </row>
     <row r="56" spans="1:19" x14ac:dyDescent="0.4">
@@ -5557,8 +5554,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22F99467-EB2D-44F4-BB36-E4DD2F52E660}">
   <dimension ref="B4:R59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="P4" sqref="P4"/>
+    <sheetView topLeftCell="F42" workbookViewId="0">
+      <selection activeCell="R55" sqref="R55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
@@ -5569,11 +5566,11 @@
     <col min="4" max="4" width="9.90625" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.90625" style="2" customWidth="1"/>
     <col min="6" max="7" width="12.54296875" style="2" customWidth="1"/>
-    <col min="8" max="8" width="15.6328125" style="5" customWidth="1"/>
+    <col min="8" max="8" width="15.6328125" customWidth="1"/>
     <col min="9" max="10" width="8.7265625" style="2"/>
     <col min="11" max="11" width="9.81640625" style="2" customWidth="1"/>
     <col min="12" max="15" width="8.7265625" style="2"/>
-    <col min="16" max="16" width="9.90625" style="5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.90625" bestFit="1" customWidth="1"/>
     <col min="17" max="16384" width="8.7265625" style="2"/>
   </cols>
   <sheetData>
@@ -5582,15 +5579,15 @@
         <v>1</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>502</v>
+        <v>442</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>2</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>502</v>
-      </c>
-      <c r="H4" s="5" t="s">
+        <v>442</v>
+      </c>
+      <c r="H4" t="s">
         <v>3</v>
       </c>
       <c r="I4" s="2" t="s">
@@ -5608,7 +5605,7 @@
       <c r="M4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="R4" s="5" t="s">
+      <c r="R4" t="s">
         <v>0</v>
       </c>
     </row>
@@ -5617,46 +5614,46 @@
         <v>902846781</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>215</v>
+        <v>185</v>
       </c>
       <c r="D5" s="2" t="str">
-        <f t="shared" ref="D5:E20" si="0">RIGHT(C5,3)</f>
+        <f t="shared" ref="D5:D20" si="0">RIGHT(C5,3)</f>
         <v>紅梅香</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>366</v>
+        <v>306</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>265</v>
+        <v>569</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>619</v>
-      </c>
-      <c r="H5" s="5" t="str">
+        <v>509</v>
+      </c>
+      <c r="H5" t="str">
         <f>"0"&amp;B5</f>
         <v>0902846781</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>315</v>
+        <v>255</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>466</v>
+        <v>406</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>214</v>
+        <v>184</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>214</v>
+        <v>184</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>518</v>
-      </c>
-      <c r="P5" s="5" t="str">
-        <f>"{""name"":"""&amp;E5&amp;""",""number"":"""&amp;F5&amp;""",""phone"":"""&amp;H5&amp;""",""titleNo"":"&amp;I5&amp;",""title"":"&amp;J5&amp;",""isDisabled"":"&amp;K5&amp;",""isDeleted"":"&amp;L5&amp;",""createdAt"":"""&amp;M5&amp;"""},"</f>
-        <v>{"name":"紅梅香","number":"C000000001","phone":"0902846781","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2021-11-16T04:33:12.354+00:00"},</v>
+        <v>458</v>
+      </c>
+      <c r="P5" t="str">
+        <f t="shared" ref="P5:P36" si="1">"{""name"":"""&amp;E5&amp;""",""number"":"""&amp;F5&amp;""",""phone"":"""&amp;H5&amp;""",""titleNo"":"&amp;I5&amp;",""title"":"&amp;J5&amp;",""isDisabled"":"&amp;K5&amp;",""isDeleted"":"&amp;L5&amp;",""createdAt"":"""&amp;M5&amp;"""},"</f>
+        <v>{"name":"紅梅香","number":"D000000001","phone":"0902846781","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2021-11-16T04:33:12.354+00:00"},</v>
       </c>
       <c r="R5" s="2" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="6" spans="2:18" x14ac:dyDescent="0.4">
@@ -5664,46 +5661,46 @@
         <v>928765432</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>216</v>
+        <v>186</v>
       </c>
       <c r="D6" s="2" t="str">
         <f t="shared" si="0"/>
         <v>花開半</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>367</v>
+        <v>307</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>266</v>
+        <v>570</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>620</v>
-      </c>
-      <c r="H6" s="5" t="str">
-        <f t="shared" ref="H6:H54" si="1">"0"&amp;B6</f>
+        <v>510</v>
+      </c>
+      <c r="H6" t="str">
+        <f t="shared" ref="H6:H54" si="2">"0"&amp;B6</f>
         <v>0928765432</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>315</v>
+        <v>255</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>466</v>
+        <v>406</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>214</v>
+        <v>184</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>214</v>
+        <v>184</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>519</v>
-      </c>
-      <c r="P6" s="5" t="str">
-        <f>"{""name"":"""&amp;E6&amp;""",""number"":"""&amp;F6&amp;""",""phone"":"""&amp;H6&amp;""",""titleNo"":"&amp;I6&amp;",""title"":"&amp;J6&amp;",""isDisabled"":"&amp;K6&amp;",""isDeleted"":"&amp;L6&amp;",""createdAt"":"""&amp;M6&amp;"""},"</f>
-        <v>{"name":"花開半","number":"C000000002","phone":"0928765432","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2022-06-01T21:39:16.913+00:00"},</v>
+        <v>459</v>
+      </c>
+      <c r="P6" t="str">
+        <f t="shared" si="1"/>
+        <v>{"name":"花開半","number":"D000000002","phone":"0928765432","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2022-06-01T21:39:16.913+00:00"},</v>
       </c>
       <c r="R6" s="2" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="7" spans="2:18" x14ac:dyDescent="0.4">
@@ -5711,46 +5708,46 @@
         <v>989154896</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>217</v>
+        <v>187</v>
       </c>
       <c r="D7" s="2" t="str">
         <f t="shared" si="0"/>
         <v>雪月風</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>368</v>
+        <v>308</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>267</v>
+        <v>571</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>621</v>
-      </c>
-      <c r="H7" s="5" t="str">
+        <v>511</v>
+      </c>
+      <c r="H7" t="str">
+        <f t="shared" si="2"/>
+        <v>0989154896</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="P7" t="str">
         <f t="shared" si="1"/>
-        <v>0989154896</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>466</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="M7" s="1" t="s">
-        <v>520</v>
-      </c>
-      <c r="P7" s="5" t="str">
-        <f>"{""name"":"""&amp;E7&amp;""",""number"":"""&amp;F7&amp;""",""phone"":"""&amp;H7&amp;""",""titleNo"":"&amp;I7&amp;",""title"":"&amp;J7&amp;",""isDisabled"":"&amp;K7&amp;",""isDeleted"":"&amp;L7&amp;",""createdAt"":"""&amp;M7&amp;"""},"</f>
-        <v>{"name":"雪月風","number":"C000000003","phone":"0989154896","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2022-02-15T22:24:18.970+00:00"},</v>
+        <v>{"name":"雪月風","number":"D000000003","phone":"0989154896","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2022-02-15T22:24:18.970+00:00"},</v>
       </c>
       <c r="R7" s="2" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="8" spans="2:18" x14ac:dyDescent="0.4">
@@ -5758,46 +5755,46 @@
         <v>902213574</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>218</v>
+        <v>188</v>
       </c>
       <c r="D8" s="2" t="str">
         <f t="shared" si="0"/>
         <v>陽光樂</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>369</v>
+        <v>309</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>268</v>
+        <v>572</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>622</v>
-      </c>
-      <c r="H8" s="5" t="str">
+        <v>512</v>
+      </c>
+      <c r="H8" t="str">
+        <f t="shared" si="2"/>
+        <v>0902213574</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="P8" t="str">
         <f t="shared" si="1"/>
-        <v>0902213574</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>466</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="L8" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="M8" s="1" t="s">
-        <v>521</v>
-      </c>
-      <c r="P8" s="5" t="str">
-        <f>"{""name"":"""&amp;E8&amp;""",""number"":"""&amp;F8&amp;""",""phone"":"""&amp;H8&amp;""",""titleNo"":"&amp;I8&amp;",""title"":"&amp;J8&amp;",""isDisabled"":"&amp;K8&amp;",""isDeleted"":"&amp;L8&amp;",""createdAt"":"""&amp;M8&amp;"""},"</f>
-        <v>{"name":"陽光樂","number":"C000000004","phone":"0902213574","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2022-08-22T11:44:26.424+00:00"},</v>
+        <v>{"name":"陽光樂","number":"D000000004","phone":"0902213574","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2022-08-22T11:44:26.424+00:00"},</v>
       </c>
       <c r="R8" s="2" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="9" spans="2:18" x14ac:dyDescent="0.4">
@@ -5805,46 +5802,46 @@
         <v>937723502</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>219</v>
+        <v>189</v>
       </c>
       <c r="D9" s="2" t="str">
         <f t="shared" si="0"/>
         <v>花開結</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>370</v>
+        <v>310</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>269</v>
+        <v>573</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>623</v>
-      </c>
-      <c r="H9" s="5" t="str">
+        <v>513</v>
+      </c>
+      <c r="H9" t="str">
+        <f t="shared" si="2"/>
+        <v>0937723502</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="P9" t="str">
         <f t="shared" si="1"/>
-        <v>0937723502</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>466</v>
-      </c>
-      <c r="K9" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="L9" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="M9" s="1" t="s">
-        <v>522</v>
-      </c>
-      <c r="P9" s="5" t="str">
-        <f>"{""name"":"""&amp;E9&amp;""",""number"":"""&amp;F9&amp;""",""phone"":"""&amp;H9&amp;""",""titleNo"":"&amp;I9&amp;",""title"":"&amp;J9&amp;",""isDisabled"":"&amp;K9&amp;",""isDeleted"":"&amp;L9&amp;",""createdAt"":"""&amp;M9&amp;"""},"</f>
-        <v>{"name":"花開結","number":"C000000005","phone":"0937723502","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2021-10-15T07:30:19.703+00:00"},</v>
+        <v>{"name":"花開結","number":"D000000005","phone":"0937723502","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2021-10-15T07:30:19.703+00:00"},</v>
       </c>
       <c r="R9" s="2" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
     <row r="10" spans="2:18" x14ac:dyDescent="0.4">
@@ -5852,46 +5849,46 @@
         <v>933543285</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>220</v>
+        <v>190</v>
       </c>
       <c r="D10" s="2" t="str">
         <f t="shared" si="0"/>
         <v>天香慕</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>371</v>
+        <v>311</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>270</v>
+        <v>574</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>624</v>
-      </c>
-      <c r="H10" s="5" t="str">
+        <v>514</v>
+      </c>
+      <c r="H10" t="str">
+        <f t="shared" si="2"/>
+        <v>0933543285</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="P10" t="str">
         <f t="shared" si="1"/>
-        <v>0933543285</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>466</v>
-      </c>
-      <c r="K10" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="L10" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="M10" s="1" t="s">
-        <v>523</v>
-      </c>
-      <c r="P10" s="5" t="str">
-        <f>"{""name"":"""&amp;E10&amp;""",""number"":"""&amp;F10&amp;""",""phone"":"""&amp;H10&amp;""",""titleNo"":"&amp;I10&amp;",""title"":"&amp;J10&amp;",""isDisabled"":"&amp;K10&amp;",""isDeleted"":"&amp;L10&amp;",""createdAt"":"""&amp;M10&amp;"""},"</f>
-        <v>{"name":"天香慕","number":"C000000006","phone":"0933543285","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2022-03-29T22:11:47.662+00:00"},</v>
+        <v>{"name":"天香慕","number":"D000000006","phone":"0933543285","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2022-03-29T22:11:47.662+00:00"},</v>
       </c>
       <c r="R10" s="2" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="11" spans="2:18" x14ac:dyDescent="0.4">
@@ -5899,46 +5896,46 @@
         <v>964687456</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>221</v>
+        <v>191</v>
       </c>
       <c r="D11" s="2" t="str">
         <f t="shared" si="0"/>
         <v>紅塵客</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>372</v>
+        <v>312</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>271</v>
+        <v>575</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>625</v>
-      </c>
-      <c r="H11" s="5" t="str">
+        <v>515</v>
+      </c>
+      <c r="H11" t="str">
+        <f t="shared" si="2"/>
+        <v>0964687456</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="P11" t="str">
         <f t="shared" si="1"/>
-        <v>0964687456</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="J11" s="2" t="s">
-        <v>466</v>
-      </c>
-      <c r="K11" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="L11" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="M11" s="1" t="s">
-        <v>524</v>
-      </c>
-      <c r="P11" s="5" t="str">
-        <f>"{""name"":"""&amp;E11&amp;""",""number"":"""&amp;F11&amp;""",""phone"":"""&amp;H11&amp;""",""titleNo"":"&amp;I11&amp;",""title"":"&amp;J11&amp;",""isDisabled"":"&amp;K11&amp;",""isDeleted"":"&amp;L11&amp;",""createdAt"":"""&amp;M11&amp;"""},"</f>
-        <v>{"name":"紅塵客","number":"C000000007","phone":"0964687456","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2021-11-23T15:23:01.228+00:00"},</v>
+        <v>{"name":"紅塵客","number":"D000000007","phone":"0964687456","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2021-11-23T15:23:01.228+00:00"},</v>
       </c>
       <c r="R11" s="2" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="12" spans="2:18" x14ac:dyDescent="0.4">
@@ -5946,46 +5943,46 @@
         <v>937645289</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>222</v>
+        <v>192</v>
       </c>
       <c r="D12" s="2" t="str">
         <f t="shared" si="0"/>
         <v>琴瑟音</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>373</v>
+        <v>313</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>272</v>
+        <v>576</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>626</v>
-      </c>
-      <c r="H12" s="5" t="str">
+        <v>516</v>
+      </c>
+      <c r="H12" t="str">
+        <f t="shared" si="2"/>
+        <v>0937645289</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="P12" t="str">
         <f t="shared" si="1"/>
-        <v>0937645289</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="J12" s="2" t="s">
-        <v>466</v>
-      </c>
-      <c r="K12" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="L12" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="M12" s="1" t="s">
-        <v>525</v>
-      </c>
-      <c r="P12" s="5" t="str">
-        <f>"{""name"":"""&amp;E12&amp;""",""number"":"""&amp;F12&amp;""",""phone"":"""&amp;H12&amp;""",""titleNo"":"&amp;I12&amp;",""title"":"&amp;J12&amp;",""isDisabled"":"&amp;K12&amp;",""isDeleted"":"&amp;L12&amp;",""createdAt"":"""&amp;M12&amp;"""},"</f>
-        <v>{"name":"琴瑟音","number":"C000000008","phone":"0937645289","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2022-06-06T14:13:27.097+00:00"},</v>
+        <v>{"name":"琴瑟音","number":"D000000008","phone":"0937645289","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2022-06-06T14:13:27.097+00:00"},</v>
       </c>
       <c r="R12" s="2" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="13" spans="2:18" x14ac:dyDescent="0.4">
@@ -5993,46 +5990,46 @@
         <v>955432569</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>223</v>
+        <v>193</v>
       </c>
       <c r="D13" s="2" t="str">
         <f t="shared" si="0"/>
         <v>愛如花</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>374</v>
+        <v>314</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>273</v>
+        <v>577</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>627</v>
-      </c>
-      <c r="H13" s="5" t="str">
+        <v>517</v>
+      </c>
+      <c r="H13" t="str">
+        <f t="shared" si="2"/>
+        <v>0955432569</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="P13" t="str">
         <f t="shared" si="1"/>
-        <v>0955432569</v>
-      </c>
-      <c r="I13" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="J13" s="2" t="s">
-        <v>466</v>
-      </c>
-      <c r="K13" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="L13" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="M13" s="1" t="s">
-        <v>526</v>
-      </c>
-      <c r="P13" s="5" t="str">
-        <f>"{""name"":"""&amp;E13&amp;""",""number"":"""&amp;F13&amp;""",""phone"":"""&amp;H13&amp;""",""titleNo"":"&amp;I13&amp;",""title"":"&amp;J13&amp;",""isDisabled"":"&amp;K13&amp;",""isDeleted"":"&amp;L13&amp;",""createdAt"":"""&amp;M13&amp;"""},"</f>
-        <v>{"name":"愛如花","number":"C000000009","phone":"0955432569","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2021-12-17T05:17:57.586+00:00"},</v>
+        <v>{"name":"愛如花","number":"D000000009","phone":"0955432569","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2021-12-17T05:17:57.586+00:00"},</v>
       </c>
       <c r="R13" s="2" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="14" spans="2:18" x14ac:dyDescent="0.4">
@@ -6040,46 +6037,46 @@
         <v>988542895</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>224</v>
+        <v>194</v>
       </c>
       <c r="D14" s="2" t="str">
         <f t="shared" si="0"/>
         <v>深海潛</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>375</v>
+        <v>315</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>274</v>
+        <v>578</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>628</v>
-      </c>
-      <c r="H14" s="5" t="str">
+        <v>518</v>
+      </c>
+      <c r="H14" t="str">
+        <f t="shared" si="2"/>
+        <v>0988542895</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="P14" t="str">
         <f t="shared" si="1"/>
-        <v>0988542895</v>
-      </c>
-      <c r="I14" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="J14" s="2" t="s">
-        <v>466</v>
-      </c>
-      <c r="K14" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="L14" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="M14" s="1" t="s">
-        <v>527</v>
-      </c>
-      <c r="P14" s="5" t="str">
-        <f>"{""name"":"""&amp;E14&amp;""",""number"":"""&amp;F14&amp;""",""phone"":"""&amp;H14&amp;""",""titleNo"":"&amp;I14&amp;",""title"":"&amp;J14&amp;",""isDisabled"":"&amp;K14&amp;",""isDeleted"":"&amp;L14&amp;",""createdAt"":"""&amp;M14&amp;"""},"</f>
-        <v>{"name":"深海潛","number":"C000000010","phone":"0988542895","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2022-08-04T02:52:55.810+00:00"},</v>
+        <v>{"name":"深海潛","number":"D000000010","phone":"0988542895","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2022-08-04T02:52:55.810+00:00"},</v>
       </c>
       <c r="R14" s="2" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="15" spans="2:18" x14ac:dyDescent="0.4">
@@ -6087,46 +6084,46 @@
         <v>968594321</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>225</v>
+        <v>195</v>
       </c>
       <c r="D15" s="2" t="str">
         <f t="shared" si="0"/>
         <v>雨蘭香</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>376</v>
+        <v>316</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>275</v>
+        <v>579</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>629</v>
-      </c>
-      <c r="H15" s="5" t="str">
+        <v>519</v>
+      </c>
+      <c r="H15" t="str">
+        <f t="shared" si="2"/>
+        <v>0968594321</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="P15" t="str">
         <f t="shared" si="1"/>
-        <v>0968594321</v>
-      </c>
-      <c r="I15" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="J15" s="2" t="s">
-        <v>466</v>
-      </c>
-      <c r="K15" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="L15" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="M15" s="1" t="s">
-        <v>528</v>
-      </c>
-      <c r="P15" s="5" t="str">
-        <f>"{""name"":"""&amp;E15&amp;""",""number"":"""&amp;F15&amp;""",""phone"":"""&amp;H15&amp;""",""titleNo"":"&amp;I15&amp;",""title"":"&amp;J15&amp;",""isDisabled"":"&amp;K15&amp;",""isDeleted"":"&amp;L15&amp;",""createdAt"":"""&amp;M15&amp;"""},"</f>
-        <v>{"name":"雨蘭香","number":"C000000011","phone":"0968594321","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2022-03-24T04:22:07.955+00:00"},</v>
+        <v>{"name":"雨蘭香","number":"D000000011","phone":"0968594321","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2022-03-24T04:22:07.955+00:00"},</v>
       </c>
       <c r="R15" s="2" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="16" spans="2:18" x14ac:dyDescent="0.4">
@@ -6134,46 +6131,46 @@
         <v>928596412</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>226</v>
+        <v>196</v>
       </c>
       <c r="D16" s="2" t="str">
         <f t="shared" si="0"/>
         <v>紫陽花</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>377</v>
+        <v>317</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>276</v>
+        <v>580</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>630</v>
-      </c>
-      <c r="H16" s="5" t="str">
+        <v>520</v>
+      </c>
+      <c r="H16" t="str">
+        <f t="shared" si="2"/>
+        <v>0928596412</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="P16" t="str">
         <f t="shared" si="1"/>
-        <v>0928596412</v>
-      </c>
-      <c r="I16" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="J16" s="2" t="s">
-        <v>466</v>
-      </c>
-      <c r="K16" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="L16" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="M16" s="1" t="s">
-        <v>529</v>
-      </c>
-      <c r="P16" s="5" t="str">
-        <f>"{""name"":"""&amp;E16&amp;""",""number"":"""&amp;F16&amp;""",""phone"":"""&amp;H16&amp;""",""titleNo"":"&amp;I16&amp;",""title"":"&amp;J16&amp;",""isDisabled"":"&amp;K16&amp;",""isDeleted"":"&amp;L16&amp;",""createdAt"":"""&amp;M16&amp;"""},"</f>
-        <v>{"name":"紫陽花","number":"C000000012","phone":"0928596412","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2022-08-25T18:15:32.166+00:00"},</v>
+        <v>{"name":"紫陽花","number":"D000000012","phone":"0928596412","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2022-08-25T18:15:32.166+00:00"},</v>
       </c>
       <c r="R16" s="2" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="17" spans="2:18" x14ac:dyDescent="0.4">
@@ -6181,46 +6178,46 @@
         <v>975348962</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>227</v>
+        <v>197</v>
       </c>
       <c r="D17" s="2" t="str">
         <f t="shared" si="0"/>
         <v>仙女飛</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>378</v>
+        <v>318</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>277</v>
+        <v>581</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>631</v>
-      </c>
-      <c r="H17" s="5" t="str">
+        <v>521</v>
+      </c>
+      <c r="H17" t="str">
+        <f t="shared" si="2"/>
+        <v>0975348962</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="P17" t="str">
         <f t="shared" si="1"/>
-        <v>0975348962</v>
-      </c>
-      <c r="I17" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="J17" s="2" t="s">
-        <v>466</v>
-      </c>
-      <c r="K17" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="L17" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="M17" s="1" t="s">
-        <v>530</v>
-      </c>
-      <c r="P17" s="5" t="str">
-        <f>"{""name"":"""&amp;E17&amp;""",""number"":"""&amp;F17&amp;""",""phone"":"""&amp;H17&amp;""",""titleNo"":"&amp;I17&amp;",""title"":"&amp;J17&amp;",""isDisabled"":"&amp;K17&amp;",""isDeleted"":"&amp;L17&amp;",""createdAt"":"""&amp;M17&amp;"""},"</f>
-        <v>{"name":"仙女飛","number":"C000000013","phone":"0975348962","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2022-02-05T09:53:39.014+00:00"},</v>
+        <v>{"name":"仙女飛","number":"D000000013","phone":"0975348962","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2022-02-05T09:53:39.014+00:00"},</v>
       </c>
       <c r="R17" s="2" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
     </row>
     <row r="18" spans="2:18" x14ac:dyDescent="0.4">
@@ -6228,46 +6225,46 @@
         <v>962358714</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>228</v>
+        <v>198</v>
       </c>
       <c r="D18" s="2" t="str">
         <f t="shared" si="0"/>
         <v>雲霧裡</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>379</v>
+        <v>319</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>278</v>
+        <v>582</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>632</v>
-      </c>
-      <c r="H18" s="5" t="str">
+        <v>522</v>
+      </c>
+      <c r="H18" t="str">
+        <f t="shared" si="2"/>
+        <v>0962358714</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="M18" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="P18" t="str">
         <f t="shared" si="1"/>
-        <v>0962358714</v>
-      </c>
-      <c r="I18" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="J18" s="2" t="s">
-        <v>466</v>
-      </c>
-      <c r="K18" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="L18" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="M18" s="1" t="s">
-        <v>531</v>
-      </c>
-      <c r="P18" s="5" t="str">
-        <f>"{""name"":"""&amp;E18&amp;""",""number"":"""&amp;F18&amp;""",""phone"":"""&amp;H18&amp;""",""titleNo"":"&amp;I18&amp;",""title"":"&amp;J18&amp;",""isDisabled"":"&amp;K18&amp;",""isDeleted"":"&amp;L18&amp;",""createdAt"":"""&amp;M18&amp;"""},"</f>
-        <v>{"name":"雲霧裡","number":"C000000014","phone":"0962358714","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2022-01-21T19:10:03.173+00:00"},</v>
+        <v>{"name":"雲霧裡","number":"D000000014","phone":"0962358714","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2022-01-21T19:10:03.173+00:00"},</v>
       </c>
       <c r="R18" s="2" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="19" spans="2:18" x14ac:dyDescent="0.4">
@@ -6275,46 +6272,46 @@
         <v>945812376</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>229</v>
+        <v>199</v>
       </c>
       <c r="D19" s="2" t="str">
         <f t="shared" si="0"/>
         <v>靈狐仙</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>380</v>
+        <v>320</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>279</v>
+        <v>583</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>633</v>
-      </c>
-      <c r="H19" s="5" t="str">
+        <v>523</v>
+      </c>
+      <c r="H19" t="str">
+        <f t="shared" si="2"/>
+        <v>0945812376</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="L19" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="M19" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="P19" t="str">
         <f t="shared" si="1"/>
-        <v>0945812376</v>
-      </c>
-      <c r="I19" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="J19" s="2" t="s">
-        <v>466</v>
-      </c>
-      <c r="K19" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="L19" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="M19" s="1" t="s">
-        <v>532</v>
-      </c>
-      <c r="P19" s="5" t="str">
-        <f>"{""name"":"""&amp;E19&amp;""",""number"":"""&amp;F19&amp;""",""phone"":"""&amp;H19&amp;""",""titleNo"":"&amp;I19&amp;",""title"":"&amp;J19&amp;",""isDisabled"":"&amp;K19&amp;",""isDeleted"":"&amp;L19&amp;",""createdAt"":"""&amp;M19&amp;"""},"</f>
-        <v>{"name":"靈狐仙","number":"C000000015","phone":"0945812376","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2022-03-31T13:19:19.930+00:00"},</v>
+        <v>{"name":"靈狐仙","number":"D000000015","phone":"0945812376","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2022-03-31T13:19:19.930+00:00"},</v>
       </c>
       <c r="R19" s="2" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="20" spans="2:18" x14ac:dyDescent="0.4">
@@ -6322,46 +6319,46 @@
         <v>943192675</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>230</v>
+        <v>200</v>
       </c>
       <c r="D20" s="2" t="str">
         <f t="shared" si="0"/>
         <v>夜雨香</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>381</v>
+        <v>321</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>280</v>
+        <v>584</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>634</v>
-      </c>
-      <c r="H20" s="5" t="str">
+        <v>524</v>
+      </c>
+      <c r="H20" t="str">
+        <f t="shared" si="2"/>
+        <v>0943192675</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="L20" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="M20" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="P20" t="str">
         <f t="shared" si="1"/>
-        <v>0943192675</v>
-      </c>
-      <c r="I20" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="J20" s="2" t="s">
-        <v>466</v>
-      </c>
-      <c r="K20" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="L20" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="M20" s="1" t="s">
-        <v>533</v>
-      </c>
-      <c r="P20" s="5" t="str">
-        <f>"{""name"":"""&amp;E20&amp;""",""number"":"""&amp;F20&amp;""",""phone"":"""&amp;H20&amp;""",""titleNo"":"&amp;I20&amp;",""title"":"&amp;J20&amp;",""isDisabled"":"&amp;K20&amp;",""isDeleted"":"&amp;L20&amp;",""createdAt"":"""&amp;M20&amp;"""},"</f>
-        <v>{"name":"夜雨香","number":"C000000016","phone":"0943192675","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2022-01-28T18:20:50.973+00:00"},</v>
+        <v>{"name":"夜雨香","number":"D000000016","phone":"0943192675","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2022-01-28T18:20:50.973+00:00"},</v>
       </c>
       <c r="R20" s="2" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="21" spans="2:18" x14ac:dyDescent="0.4">
@@ -6369,46 +6366,46 @@
         <v>989275631</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>231</v>
+        <v>201</v>
       </c>
       <c r="D21" s="2" t="str">
-        <f t="shared" ref="D21:E36" si="2">RIGHT(C21,3)</f>
+        <f t="shared" ref="D21:D36" si="3">RIGHT(C21,3)</f>
         <v>美人香</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>382</v>
+        <v>322</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>281</v>
+        <v>585</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>635</v>
-      </c>
-      <c r="H21" s="5" t="str">
+        <v>525</v>
+      </c>
+      <c r="H21" t="str">
+        <f t="shared" si="2"/>
+        <v>0989275631</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="L21" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="M21" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="P21" t="str">
         <f t="shared" si="1"/>
-        <v>0989275631</v>
-      </c>
-      <c r="I21" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="J21" s="2" t="s">
-        <v>466</v>
-      </c>
-      <c r="K21" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="L21" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="M21" s="1" t="s">
-        <v>534</v>
-      </c>
-      <c r="P21" s="5" t="str">
-        <f>"{""name"":"""&amp;E21&amp;""",""number"":"""&amp;F21&amp;""",""phone"":"""&amp;H21&amp;""",""titleNo"":"&amp;I21&amp;",""title"":"&amp;J21&amp;",""isDisabled"":"&amp;K21&amp;",""isDeleted"":"&amp;L21&amp;",""createdAt"":"""&amp;M21&amp;"""},"</f>
-        <v>{"name":"美人香","number":"C000000017","phone":"0989275631","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2021-11-12T11:48:16.759+00:00"},</v>
+        <v>{"name":"美人香","number":"D000000017","phone":"0989275631","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2021-11-12T11:48:16.759+00:00"},</v>
       </c>
       <c r="R21" s="2" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="22" spans="2:18" x14ac:dyDescent="0.4">
@@ -6416,46 +6413,46 @@
         <v>918675423</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>232</v>
+        <v>202</v>
       </c>
       <c r="D22" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>時光倒</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>383</v>
+        <v>323</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>282</v>
+        <v>586</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>636</v>
-      </c>
-      <c r="H22" s="5" t="str">
+        <v>526</v>
+      </c>
+      <c r="H22" t="str">
+        <f t="shared" si="2"/>
+        <v>0918675423</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="L22" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="M22" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="P22" t="str">
         <f t="shared" si="1"/>
-        <v>0918675423</v>
-      </c>
-      <c r="I22" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="J22" s="2" t="s">
-        <v>466</v>
-      </c>
-      <c r="K22" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="L22" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="M22" s="1" t="s">
-        <v>535</v>
-      </c>
-      <c r="P22" s="5" t="str">
-        <f>"{""name"":"""&amp;E22&amp;""",""number"":"""&amp;F22&amp;""",""phone"":"""&amp;H22&amp;""",""titleNo"":"&amp;I22&amp;",""title"":"&amp;J22&amp;",""isDisabled"":"&amp;K22&amp;",""isDeleted"":"&amp;L22&amp;",""createdAt"":"""&amp;M22&amp;"""},"</f>
-        <v>{"name":"時光倒","number":"C000000018","phone":"0918675423","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2022-01-20T09:05:31.541+00:00"},</v>
+        <v>{"name":"時光倒","number":"D000000018","phone":"0918675423","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2022-01-20T09:05:31.541+00:00"},</v>
       </c>
       <c r="R22" s="2" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
     </row>
     <row r="23" spans="2:18" x14ac:dyDescent="0.4">
@@ -6463,46 +6460,46 @@
         <v>921753486</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>233</v>
+        <v>203</v>
       </c>
       <c r="D23" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>楓葉紅</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>384</v>
+        <v>324</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>283</v>
+        <v>587</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>637</v>
-      </c>
-      <c r="H23" s="5" t="str">
+        <v>527</v>
+      </c>
+      <c r="H23" t="str">
+        <f t="shared" si="2"/>
+        <v>0921753486</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="K23" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="L23" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="M23" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="P23" t="str">
         <f t="shared" si="1"/>
-        <v>0921753486</v>
-      </c>
-      <c r="I23" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="J23" s="2" t="s">
-        <v>466</v>
-      </c>
-      <c r="K23" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="L23" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="M23" s="1" t="s">
-        <v>536</v>
-      </c>
-      <c r="P23" s="5" t="str">
-        <f>"{""name"":"""&amp;E23&amp;""",""number"":"""&amp;F23&amp;""",""phone"":"""&amp;H23&amp;""",""titleNo"":"&amp;I23&amp;",""title"":"&amp;J23&amp;",""isDisabled"":"&amp;K23&amp;",""isDeleted"":"&amp;L23&amp;",""createdAt"":"""&amp;M23&amp;"""},"</f>
-        <v>{"name":"楓葉紅","number":"C000000019","phone":"0921753486","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2022-04-09T01:23:27.904+00:00"},</v>
+        <v>{"name":"楓葉紅","number":"D000000019","phone":"0921753486","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2022-04-09T01:23:27.904+00:00"},</v>
       </c>
       <c r="R23" s="2" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="24" spans="2:18" x14ac:dyDescent="0.4">
@@ -6510,46 +6507,46 @@
         <v>941837692</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>234</v>
+        <v>204</v>
       </c>
       <c r="D24" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>愛情路</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>385</v>
+        <v>325</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>284</v>
+        <v>588</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>638</v>
-      </c>
-      <c r="H24" s="5" t="str">
+        <v>528</v>
+      </c>
+      <c r="H24" t="str">
+        <f t="shared" si="2"/>
+        <v>0941837692</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="K24" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="L24" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="M24" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="P24" t="str">
         <f t="shared" si="1"/>
-        <v>0941837692</v>
-      </c>
-      <c r="I24" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="J24" s="2" t="s">
-        <v>466</v>
-      </c>
-      <c r="K24" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="L24" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="M24" s="1" t="s">
-        <v>537</v>
-      </c>
-      <c r="P24" s="5" t="str">
-        <f>"{""name"":"""&amp;E24&amp;""",""number"":"""&amp;F24&amp;""",""phone"":"""&amp;H24&amp;""",""titleNo"":"&amp;I24&amp;",""title"":"&amp;J24&amp;",""isDisabled"":"&amp;K24&amp;",""isDeleted"":"&amp;L24&amp;",""createdAt"":"""&amp;M24&amp;"""},"</f>
-        <v>{"name":"愛情路","number":"C000000020","phone":"0941837692","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2021-08-28T02:28:13.324+00:00"},</v>
+        <v>{"name":"愛情路","number":"D000000020","phone":"0941837692","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2021-08-28T02:28:13.324+00:00"},</v>
       </c>
       <c r="R24" s="2" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="25" spans="2:18" x14ac:dyDescent="0.4">
@@ -6557,46 +6554,46 @@
         <v>968325471</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>235</v>
+        <v>205</v>
       </c>
       <c r="D25" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>梅花雪</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>386</v>
+        <v>326</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>285</v>
+        <v>589</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>639</v>
-      </c>
-      <c r="H25" s="5" t="str">
+        <v>529</v>
+      </c>
+      <c r="H25" t="str">
+        <f t="shared" si="2"/>
+        <v>0968325471</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="K25" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="L25" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="M25" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="P25" t="str">
         <f t="shared" si="1"/>
-        <v>0968325471</v>
-      </c>
-      <c r="I25" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="J25" s="2" t="s">
-        <v>466</v>
-      </c>
-      <c r="K25" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="L25" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="M25" s="1" t="s">
-        <v>538</v>
-      </c>
-      <c r="P25" s="5" t="str">
-        <f>"{""name"":"""&amp;E25&amp;""",""number"":"""&amp;F25&amp;""",""phone"":"""&amp;H25&amp;""",""titleNo"":"&amp;I25&amp;",""title"":"&amp;J25&amp;",""isDisabled"":"&amp;K25&amp;",""isDeleted"":"&amp;L25&amp;",""createdAt"":"""&amp;M25&amp;"""},"</f>
-        <v>{"name":"梅花雪","number":"C000000021","phone":"0968325471","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2022-10-05T11:34:27.820+00:00"},</v>
+        <v>{"name":"梅花雪","number":"D000000021","phone":"0968325471","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2022-10-05T11:34:27.820+00:00"},</v>
       </c>
       <c r="R25" s="2" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="26" spans="2:18" x14ac:dyDescent="0.4">
@@ -6604,46 +6601,46 @@
         <v>943685741</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>236</v>
+        <v>206</v>
       </c>
       <c r="D26" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>雲中仙</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>387</v>
+        <v>327</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>286</v>
+        <v>590</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>640</v>
-      </c>
-      <c r="H26" s="5" t="str">
+        <v>530</v>
+      </c>
+      <c r="H26" t="str">
+        <f t="shared" si="2"/>
+        <v>0943685741</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="K26" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="L26" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="M26" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="P26" t="str">
         <f t="shared" si="1"/>
-        <v>0943685741</v>
-      </c>
-      <c r="I26" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="J26" s="2" t="s">
-        <v>466</v>
-      </c>
-      <c r="K26" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="L26" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="M26" s="1" t="s">
-        <v>539</v>
-      </c>
-      <c r="P26" s="5" t="str">
-        <f>"{""name"":"""&amp;E26&amp;""",""number"":"""&amp;F26&amp;""",""phone"":"""&amp;H26&amp;""",""titleNo"":"&amp;I26&amp;",""title"":"&amp;J26&amp;",""isDisabled"":"&amp;K26&amp;",""isDeleted"":"&amp;L26&amp;",""createdAt"":"""&amp;M26&amp;"""},"</f>
-        <v>{"name":"雲中仙","number":"C000000022","phone":"0943685741","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2023-02-05T02:29:14.874+00:00"},</v>
+        <v>{"name":"雲中仙","number":"D000000022","phone":"0943685741","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2023-02-05T02:29:14.874+00:00"},</v>
       </c>
       <c r="R26" s="2" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
     </row>
     <row r="27" spans="2:18" x14ac:dyDescent="0.4">
@@ -6651,46 +6648,46 @@
         <v>973548691</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>237</v>
+        <v>207</v>
       </c>
       <c r="D27" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>風雨聲</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>388</v>
+        <v>328</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>287</v>
+        <v>591</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>641</v>
-      </c>
-      <c r="H27" s="5" t="str">
+        <v>531</v>
+      </c>
+      <c r="H27" t="str">
+        <f t="shared" si="2"/>
+        <v>0973548691</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="K27" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="L27" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="M27" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="P27" t="str">
         <f t="shared" si="1"/>
-        <v>0973548691</v>
-      </c>
-      <c r="I27" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="J27" s="2" t="s">
-        <v>466</v>
-      </c>
-      <c r="K27" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="L27" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="M27" s="1" t="s">
-        <v>540</v>
-      </c>
-      <c r="P27" s="5" t="str">
-        <f>"{""name"":"""&amp;E27&amp;""",""number"":"""&amp;F27&amp;""",""phone"":"""&amp;H27&amp;""",""titleNo"":"&amp;I27&amp;",""title"":"&amp;J27&amp;",""isDisabled"":"&amp;K27&amp;",""isDeleted"":"&amp;L27&amp;",""createdAt"":"""&amp;M27&amp;"""},"</f>
-        <v>{"name":"風雨聲","number":"C000000023","phone":"0973548691","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2023-02-18T03:48:35.504+00:00"},</v>
+        <v>{"name":"風雨聲","number":"D000000023","phone":"0973548691","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2023-02-18T03:48:35.504+00:00"},</v>
       </c>
       <c r="R27" s="2" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
     </row>
     <row r="28" spans="2:18" x14ac:dyDescent="0.4">
@@ -6698,46 +6695,46 @@
         <v>921384765</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>238</v>
+        <v>208</v>
       </c>
       <c r="D28" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>桃花緣</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>389</v>
+        <v>329</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>288</v>
+        <v>592</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>642</v>
-      </c>
-      <c r="H28" s="5" t="str">
+        <v>532</v>
+      </c>
+      <c r="H28" t="str">
+        <f t="shared" si="2"/>
+        <v>0921384765</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="J28" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="K28" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="L28" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="M28" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="P28" t="str">
         <f t="shared" si="1"/>
-        <v>0921384765</v>
-      </c>
-      <c r="I28" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="J28" s="2" t="s">
-        <v>466</v>
-      </c>
-      <c r="K28" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="L28" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="M28" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="P28" s="5" t="str">
-        <f>"{""name"":"""&amp;E28&amp;""",""number"":"""&amp;F28&amp;""",""phone"":"""&amp;H28&amp;""",""titleNo"":"&amp;I28&amp;",""title"":"&amp;J28&amp;",""isDisabled"":"&amp;K28&amp;",""isDeleted"":"&amp;L28&amp;",""createdAt"":"""&amp;M28&amp;"""},"</f>
-        <v>{"name":"桃花緣","number":"C000000024","phone":"0921384765","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2022-10-18T03:12:21.701+00:00"},</v>
+        <v>{"name":"桃花緣","number":"D000000024","phone":"0921384765","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2022-10-18T03:12:21.701+00:00"},</v>
       </c>
       <c r="R28" s="2" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="29" spans="2:18" x14ac:dyDescent="0.4">
@@ -6745,46 +6742,46 @@
         <v>962874531</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>239</v>
+        <v>209</v>
       </c>
       <c r="D29" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>花開花</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>390</v>
+        <v>330</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>289</v>
+        <v>593</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>643</v>
-      </c>
-      <c r="H29" s="5" t="str">
+        <v>533</v>
+      </c>
+      <c r="H29" t="str">
+        <f t="shared" si="2"/>
+        <v>0962874531</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="K29" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="L29" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="M29" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="P29" t="str">
         <f t="shared" si="1"/>
-        <v>0962874531</v>
-      </c>
-      <c r="I29" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="J29" s="2" t="s">
-        <v>466</v>
-      </c>
-      <c r="K29" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="L29" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="M29" s="1" t="s">
-        <v>542</v>
-      </c>
-      <c r="P29" s="5" t="str">
-        <f>"{""name"":"""&amp;E29&amp;""",""number"":"""&amp;F29&amp;""",""phone"":"""&amp;H29&amp;""",""titleNo"":"&amp;I29&amp;",""title"":"&amp;J29&amp;",""isDisabled"":"&amp;K29&amp;",""isDeleted"":"&amp;L29&amp;",""createdAt"":"""&amp;M29&amp;"""},"</f>
-        <v>{"name":"花開花","number":"C000000025","phone":"0962874531","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2022-11-13T22:42:37.486+00:00"},</v>
+        <v>{"name":"花開花","number":"D000000025","phone":"0962874531","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2022-11-13T22:42:37.486+00:00"},</v>
       </c>
       <c r="R29" s="2" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="30" spans="2:18" x14ac:dyDescent="0.4">
@@ -6792,46 +6789,46 @@
         <v>938567124</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>240</v>
+        <v>210</v>
       </c>
       <c r="D30" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>天地月</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>391</v>
+        <v>331</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>290</v>
+        <v>594</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>644</v>
-      </c>
-      <c r="H30" s="5" t="str">
+        <v>534</v>
+      </c>
+      <c r="H30" t="str">
+        <f t="shared" si="2"/>
+        <v>0938567124</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="J30" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="K30" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="L30" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="M30" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="P30" t="str">
         <f t="shared" si="1"/>
-        <v>0938567124</v>
-      </c>
-      <c r="I30" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="J30" s="2" t="s">
-        <v>466</v>
-      </c>
-      <c r="K30" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="L30" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="M30" s="1" t="s">
-        <v>543</v>
-      </c>
-      <c r="P30" s="5" t="str">
-        <f>"{""name"":"""&amp;E30&amp;""",""number"":"""&amp;F30&amp;""",""phone"":"""&amp;H30&amp;""",""titleNo"":"&amp;I30&amp;",""title"":"&amp;J30&amp;",""isDisabled"":"&amp;K30&amp;",""isDeleted"":"&amp;L30&amp;",""createdAt"":"""&amp;M30&amp;"""},"</f>
-        <v>{"name":"天地月","number":"C000000026","phone":"0938567124","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2022-10-16T01:32:03.803+00:00"},</v>
+        <v>{"name":"天地月","number":"D000000026","phone":"0938567124","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2022-10-16T01:32:03.803+00:00"},</v>
       </c>
       <c r="R30" s="2" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="31" spans="2:18" x14ac:dyDescent="0.4">
@@ -6839,46 +6836,46 @@
         <v>956782143</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>241</v>
+        <v>211</v>
       </c>
       <c r="D31" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>紫金花</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>392</v>
+        <v>332</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>291</v>
+        <v>595</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>645</v>
-      </c>
-      <c r="H31" s="5" t="str">
+        <v>535</v>
+      </c>
+      <c r="H31" t="str">
+        <f t="shared" si="2"/>
+        <v>0956782143</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="J31" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="K31" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="L31" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="M31" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="P31" t="str">
         <f t="shared" si="1"/>
-        <v>0956782143</v>
-      </c>
-      <c r="I31" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="J31" s="2" t="s">
-        <v>466</v>
-      </c>
-      <c r="K31" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="L31" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="M31" s="1" t="s">
-        <v>544</v>
-      </c>
-      <c r="P31" s="5" t="str">
-        <f>"{""name"":"""&amp;E31&amp;""",""number"":"""&amp;F31&amp;""",""phone"":"""&amp;H31&amp;""",""titleNo"":"&amp;I31&amp;",""title"":"&amp;J31&amp;",""isDisabled"":"&amp;K31&amp;",""isDeleted"":"&amp;L31&amp;",""createdAt"":"""&amp;M31&amp;"""},"</f>
-        <v>{"name":"紫金花","number":"C000000027","phone":"0956782143","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2023-02-06T22:09:31.420+00:00"},</v>
+        <v>{"name":"紫金花","number":"D000000027","phone":"0956782143","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2023-02-06T22:09:31.420+00:00"},</v>
       </c>
       <c r="R31" s="2" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="32" spans="2:18" x14ac:dyDescent="0.4">
@@ -6886,46 +6883,46 @@
         <v>978345162</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>242</v>
+        <v>212</v>
       </c>
       <c r="D32" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>飛天燕</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>393</v>
+        <v>333</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>292</v>
+        <v>596</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>646</v>
-      </c>
-      <c r="H32" s="5" t="str">
+        <v>536</v>
+      </c>
+      <c r="H32" t="str">
+        <f t="shared" si="2"/>
+        <v>0978345162</v>
+      </c>
+      <c r="I32" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="J32" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="K32" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="L32" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="M32" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="P32" t="str">
         <f t="shared" si="1"/>
-        <v>0978345162</v>
-      </c>
-      <c r="I32" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="J32" s="2" t="s">
-        <v>466</v>
-      </c>
-      <c r="K32" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="L32" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="M32" s="1" t="s">
-        <v>545</v>
-      </c>
-      <c r="P32" s="5" t="str">
-        <f>"{""name"":"""&amp;E32&amp;""",""number"":"""&amp;F32&amp;""",""phone"":"""&amp;H32&amp;""",""titleNo"":"&amp;I32&amp;",""title"":"&amp;J32&amp;",""isDisabled"":"&amp;K32&amp;",""isDeleted"":"&amp;L32&amp;",""createdAt"":"""&amp;M32&amp;"""},"</f>
-        <v>{"name":"飛天燕","number":"C000000028","phone":"0978345162","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2022-10-08T08:48:21.518+00:00"},</v>
+        <v>{"name":"飛天燕","number":"D000000028","phone":"0978345162","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2022-10-08T08:48:21.518+00:00"},</v>
       </c>
       <c r="R32" s="2" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="33" spans="2:18" x14ac:dyDescent="0.4">
@@ -6933,46 +6930,46 @@
         <v>983657142</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>243</v>
+        <v>213</v>
       </c>
       <c r="D33" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>紫雲霞</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>394</v>
+        <v>334</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>293</v>
+        <v>597</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>647</v>
-      </c>
-      <c r="H33" s="5" t="str">
+        <v>537</v>
+      </c>
+      <c r="H33" t="str">
+        <f t="shared" si="2"/>
+        <v>0983657142</v>
+      </c>
+      <c r="I33" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="J33" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="K33" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="L33" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="M33" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="P33" t="str">
         <f t="shared" si="1"/>
-        <v>0983657142</v>
-      </c>
-      <c r="I33" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="J33" s="2" t="s">
-        <v>466</v>
-      </c>
-      <c r="K33" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="L33" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="M33" s="1" t="s">
-        <v>546</v>
-      </c>
-      <c r="P33" s="5" t="str">
-        <f>"{""name"":"""&amp;E33&amp;""",""number"":"""&amp;F33&amp;""",""phone"":"""&amp;H33&amp;""",""titleNo"":"&amp;I33&amp;",""title"":"&amp;J33&amp;",""isDisabled"":"&amp;K33&amp;",""isDeleted"":"&amp;L33&amp;",""createdAt"":"""&amp;M33&amp;"""},"</f>
-        <v>{"name":"紫雲霞","number":"C000000029","phone":"0983657142","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2022-11-25T14:59:56.031+00:00"},</v>
+        <v>{"name":"紫雲霞","number":"D000000029","phone":"0983657142","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2022-11-25T14:59:56.031+00:00"},</v>
       </c>
       <c r="R33" s="2" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="34" spans="2:18" x14ac:dyDescent="0.4">
@@ -6980,46 +6977,46 @@
         <v>912673548</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>244</v>
+        <v>214</v>
       </c>
       <c r="D34" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>青山翠</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>395</v>
+        <v>335</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>294</v>
+        <v>598</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>648</v>
-      </c>
-      <c r="H34" s="5" t="str">
+        <v>538</v>
+      </c>
+      <c r="H34" t="str">
+        <f t="shared" si="2"/>
+        <v>0912673548</v>
+      </c>
+      <c r="I34" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="J34" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="K34" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="L34" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="M34" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="P34" t="str">
         <f t="shared" si="1"/>
-        <v>0912673548</v>
-      </c>
-      <c r="I34" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="J34" s="2" t="s">
-        <v>466</v>
-      </c>
-      <c r="K34" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="L34" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="M34" s="1" t="s">
-        <v>547</v>
-      </c>
-      <c r="P34" s="5" t="str">
-        <f>"{""name"":"""&amp;E34&amp;""",""number"":"""&amp;F34&amp;""",""phone"":"""&amp;H34&amp;""",""titleNo"":"&amp;I34&amp;",""title"":"&amp;J34&amp;",""isDisabled"":"&amp;K34&amp;",""isDeleted"":"&amp;L34&amp;",""createdAt"":"""&amp;M34&amp;"""},"</f>
-        <v>{"name":"青山翠","number":"C000000030","phone":"0912673548","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2023-03-07T12:55:36.945+00:00"},</v>
+        <v>{"name":"青山翠","number":"D000000030","phone":"0912673548","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2023-03-07T12:55:36.945+00:00"},</v>
       </c>
       <c r="R34" s="2" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="35" spans="2:18" x14ac:dyDescent="0.4">
@@ -7027,46 +7024,46 @@
         <v>963851742</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>245</v>
+        <v>215</v>
       </c>
       <c r="D35" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>水墨畫</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>396</v>
+        <v>336</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>295</v>
+        <v>599</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>649</v>
-      </c>
-      <c r="H35" s="5" t="str">
+        <v>539</v>
+      </c>
+      <c r="H35" t="str">
+        <f t="shared" si="2"/>
+        <v>0963851742</v>
+      </c>
+      <c r="I35" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="J35" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="K35" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="L35" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="M35" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="P35" t="str">
         <f t="shared" si="1"/>
-        <v>0963851742</v>
-      </c>
-      <c r="I35" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="J35" s="2" t="s">
-        <v>466</v>
-      </c>
-      <c r="K35" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="L35" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="M35" s="1" t="s">
-        <v>548</v>
-      </c>
-      <c r="P35" s="5" t="str">
-        <f>"{""name"":"""&amp;E35&amp;""",""number"":"""&amp;F35&amp;""",""phone"":"""&amp;H35&amp;""",""titleNo"":"&amp;I35&amp;",""title"":"&amp;J35&amp;",""isDisabled"":"&amp;K35&amp;",""isDeleted"":"&amp;L35&amp;",""createdAt"":"""&amp;M35&amp;"""},"</f>
-        <v>{"name":"水墨畫","number":"C000000031","phone":"0963851742","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2022-12-05T21:31:36.919+00:00"},</v>
+        <v>{"name":"水墨畫","number":"D000000031","phone":"0963851742","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2022-12-05T21:31:36.919+00:00"},</v>
       </c>
       <c r="R35" s="2" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="36" spans="2:18" x14ac:dyDescent="0.4">
@@ -7074,46 +7071,46 @@
         <v>925176843</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>246</v>
+        <v>216</v>
       </c>
       <c r="D36" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>蝶戀花</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>397</v>
+        <v>337</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>296</v>
+        <v>600</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>650</v>
-      </c>
-      <c r="H36" s="5" t="str">
+        <v>540</v>
+      </c>
+      <c r="H36" t="str">
+        <f t="shared" si="2"/>
+        <v>0925176843</v>
+      </c>
+      <c r="I36" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="J36" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="K36" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="L36" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="M36" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="P36" t="str">
         <f t="shared" si="1"/>
-        <v>0925176843</v>
-      </c>
-      <c r="I36" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="J36" s="2" t="s">
-        <v>466</v>
-      </c>
-      <c r="K36" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="L36" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="M36" s="1" t="s">
-        <v>549</v>
-      </c>
-      <c r="P36" s="5" t="str">
-        <f>"{""name"":"""&amp;E36&amp;""",""number"":"""&amp;F36&amp;""",""phone"":"""&amp;H36&amp;""",""titleNo"":"&amp;I36&amp;",""title"":"&amp;J36&amp;",""isDisabled"":"&amp;K36&amp;",""isDeleted"":"&amp;L36&amp;",""createdAt"":"""&amp;M36&amp;"""},"</f>
-        <v>{"name":"蝶戀花","number":"C000000032","phone":"0925176843","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2023-03-02T16:43:49.845+00:00"},</v>
+        <v>{"name":"蝶戀花","number":"D000000032","phone":"0925176843","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2023-03-02T16:43:49.845+00:00"},</v>
       </c>
       <c r="R36" s="2" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
     </row>
     <row r="37" spans="2:18" x14ac:dyDescent="0.4">
@@ -7121,46 +7118,46 @@
         <v>954213867</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>247</v>
+        <v>217</v>
       </c>
       <c r="D37" s="2" t="str">
-        <f t="shared" ref="D37:E52" si="3">RIGHT(C37,3)</f>
+        <f t="shared" ref="D37:D52" si="4">RIGHT(C37,3)</f>
         <v>桃花心</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>398</v>
+        <v>338</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>297</v>
+        <v>601</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>651</v>
-      </c>
-      <c r="H37" s="5" t="str">
-        <f t="shared" si="1"/>
+        <v>541</v>
+      </c>
+      <c r="H37" t="str">
+        <f t="shared" si="2"/>
         <v>0954213867</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>315</v>
+        <v>255</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>466</v>
+        <v>406</v>
       </c>
       <c r="K37" s="2" t="s">
-        <v>214</v>
+        <v>184</v>
       </c>
       <c r="L37" s="2" t="s">
-        <v>214</v>
+        <v>184</v>
       </c>
       <c r="M37" s="1" t="s">
-        <v>550</v>
-      </c>
-      <c r="P37" s="5" t="str">
-        <f>"{""name"":"""&amp;E37&amp;""",""number"":"""&amp;F37&amp;""",""phone"":"""&amp;H37&amp;""",""titleNo"":"&amp;I37&amp;",""title"":"&amp;J37&amp;",""isDisabled"":"&amp;K37&amp;",""isDeleted"":"&amp;L37&amp;",""createdAt"":"""&amp;M37&amp;"""},"</f>
-        <v>{"name":"桃花心","number":"C000000033","phone":"0954213867","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2023-03-22T09:13:24.863+00:00"},</v>
+        <v>490</v>
+      </c>
+      <c r="P37" t="str">
+        <f t="shared" ref="P37:P54" si="5">"{""name"":"""&amp;E37&amp;""",""number"":"""&amp;F37&amp;""",""phone"":"""&amp;H37&amp;""",""titleNo"":"&amp;I37&amp;",""title"":"&amp;J37&amp;",""isDisabled"":"&amp;K37&amp;",""isDeleted"":"&amp;L37&amp;",""createdAt"":"""&amp;M37&amp;"""},"</f>
+        <v>{"name":"桃花心","number":"D000000033","phone":"0954213867","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2023-03-22T09:13:24.863+00:00"},</v>
       </c>
       <c r="R37" s="2" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="38" spans="2:18" x14ac:dyDescent="0.4">
@@ -7168,46 +7165,46 @@
         <v>945128367</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>248</v>
+        <v>218</v>
       </c>
       <c r="D38" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>梅花寒</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>399</v>
+        <v>339</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>298</v>
+        <v>602</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>652</v>
-      </c>
-      <c r="H38" s="5" t="str">
-        <f t="shared" si="1"/>
+        <v>542</v>
+      </c>
+      <c r="H38" t="str">
+        <f t="shared" si="2"/>
         <v>0945128367</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>315</v>
+        <v>255</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>466</v>
+        <v>406</v>
       </c>
       <c r="K38" s="2" t="s">
-        <v>214</v>
+        <v>184</v>
       </c>
       <c r="L38" s="2" t="s">
-        <v>214</v>
+        <v>184</v>
       </c>
       <c r="M38" s="1" t="s">
-        <v>551</v>
-      </c>
-      <c r="P38" s="5" t="str">
-        <f>"{""name"":"""&amp;E38&amp;""",""number"":"""&amp;F38&amp;""",""phone"":"""&amp;H38&amp;""",""titleNo"":"&amp;I38&amp;",""title"":"&amp;J38&amp;",""isDisabled"":"&amp;K38&amp;",""isDeleted"":"&amp;L38&amp;",""createdAt"":"""&amp;M38&amp;"""},"</f>
-        <v>{"name":"梅花寒","number":"C000000034","phone":"0945128367","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2022-12-27T01:45:24.083+00:00"},</v>
+        <v>491</v>
+      </c>
+      <c r="P38" t="str">
+        <f t="shared" si="5"/>
+        <v>{"name":"梅花寒","number":"D000000034","phone":"0945128367","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2022-12-27T01:45:24.083+00:00"},</v>
       </c>
       <c r="R38" s="2" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
     </row>
     <row r="39" spans="2:18" x14ac:dyDescent="0.4">
@@ -7215,46 +7212,46 @@
         <v>941852637</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>249</v>
+        <v>219</v>
       </c>
       <c r="D39" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>雲海深</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>400</v>
+        <v>340</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>299</v>
+        <v>603</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>653</v>
-      </c>
-      <c r="H39" s="5" t="str">
-        <f t="shared" si="1"/>
+        <v>543</v>
+      </c>
+      <c r="H39" t="str">
+        <f t="shared" si="2"/>
         <v>0941852637</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>315</v>
+        <v>255</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>466</v>
+        <v>406</v>
       </c>
       <c r="K39" s="2" t="s">
-        <v>214</v>
+        <v>184</v>
       </c>
       <c r="L39" s="2" t="s">
-        <v>214</v>
+        <v>184</v>
       </c>
       <c r="M39" s="1" t="s">
-        <v>552</v>
-      </c>
-      <c r="P39" s="5" t="str">
-        <f>"{""name"":"""&amp;E39&amp;""",""number"":"""&amp;F39&amp;""",""phone"":"""&amp;H39&amp;""",""titleNo"":"&amp;I39&amp;",""title"":"&amp;J39&amp;",""isDisabled"":"&amp;K39&amp;",""isDeleted"":"&amp;L39&amp;",""createdAt"":"""&amp;M39&amp;"""},"</f>
-        <v>{"name":"雲海深","number":"C000000035","phone":"0941852637","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2022-12-18T04:22:38.697+00:00"},</v>
+        <v>492</v>
+      </c>
+      <c r="P39" t="str">
+        <f t="shared" si="5"/>
+        <v>{"name":"雲海深","number":"D000000035","phone":"0941852637","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2022-12-18T04:22:38.697+00:00"},</v>
       </c>
       <c r="R39" s="2" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="40" spans="2:18" x14ac:dyDescent="0.4">
@@ -7262,46 +7259,46 @@
         <v>916458327</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>250</v>
+        <v>220</v>
       </c>
       <c r="D40" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>雨花石</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>401</v>
+        <v>341</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>300</v>
+        <v>604</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>654</v>
-      </c>
-      <c r="H40" s="5" t="str">
-        <f t="shared" si="1"/>
+        <v>544</v>
+      </c>
+      <c r="H40" t="str">
+        <f t="shared" si="2"/>
         <v>0916458327</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>315</v>
+        <v>255</v>
       </c>
       <c r="J40" s="2" t="s">
-        <v>466</v>
+        <v>406</v>
       </c>
       <c r="K40" s="2" t="s">
-        <v>214</v>
+        <v>184</v>
       </c>
       <c r="L40" s="2" t="s">
-        <v>214</v>
+        <v>184</v>
       </c>
       <c r="M40" s="1" t="s">
-        <v>553</v>
-      </c>
-      <c r="P40" s="5" t="str">
-        <f>"{""name"":"""&amp;E40&amp;""",""number"":"""&amp;F40&amp;""",""phone"":"""&amp;H40&amp;""",""titleNo"":"&amp;I40&amp;",""title"":"&amp;J40&amp;",""isDisabled"":"&amp;K40&amp;",""isDeleted"":"&amp;L40&amp;",""createdAt"":"""&amp;M40&amp;"""},"</f>
-        <v>{"name":"雨花石","number":"C000000036","phone":"0916458327","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2023-03-17T09:10:45.040+00:00"},</v>
+        <v>493</v>
+      </c>
+      <c r="P40" t="str">
+        <f t="shared" si="5"/>
+        <v>{"name":"雨花石","number":"D000000036","phone":"0916458327","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2023-03-17T09:10:45.040+00:00"},</v>
       </c>
       <c r="R40" s="2" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
     </row>
     <row r="41" spans="2:18" x14ac:dyDescent="0.4">
@@ -7309,46 +7306,46 @@
         <v>987316548</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>251</v>
+        <v>221</v>
       </c>
       <c r="D41" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>星空夜</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>402</v>
+        <v>342</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>301</v>
+        <v>605</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>655</v>
-      </c>
-      <c r="H41" s="5" t="str">
-        <f t="shared" si="1"/>
+        <v>545</v>
+      </c>
+      <c r="H41" t="str">
+        <f t="shared" si="2"/>
         <v>0987316548</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>315</v>
+        <v>255</v>
       </c>
       <c r="J41" s="2" t="s">
-        <v>466</v>
+        <v>406</v>
       </c>
       <c r="K41" s="2" t="s">
-        <v>214</v>
+        <v>184</v>
       </c>
       <c r="L41" s="2" t="s">
-        <v>214</v>
+        <v>184</v>
       </c>
       <c r="M41" s="1" t="s">
-        <v>554</v>
-      </c>
-      <c r="P41" s="5" t="str">
-        <f>"{""name"":"""&amp;E41&amp;""",""number"":"""&amp;F41&amp;""",""phone"":"""&amp;H41&amp;""",""titleNo"":"&amp;I41&amp;",""title"":"&amp;J41&amp;",""isDisabled"":"&amp;K41&amp;",""isDeleted"":"&amp;L41&amp;",""createdAt"":"""&amp;M41&amp;"""},"</f>
-        <v>{"name":"星空夜","number":"C000000037","phone":"0987316548","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2022-11-24T13:08:29.524+00:00"},</v>
+        <v>494</v>
+      </c>
+      <c r="P41" t="str">
+        <f t="shared" si="5"/>
+        <v>{"name":"星空夜","number":"D000000037","phone":"0987316548","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2022-11-24T13:08:29.524+00:00"},</v>
       </c>
       <c r="R41" s="2" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="42" spans="2:18" x14ac:dyDescent="0.4">
@@ -7356,46 +7353,46 @@
         <v>916573842</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>252</v>
+        <v>222</v>
       </c>
       <c r="D42" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>金玉滿</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>403</v>
+        <v>343</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>302</v>
+        <v>606</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>656</v>
-      </c>
-      <c r="H42" s="5" t="str">
-        <f t="shared" si="1"/>
+        <v>546</v>
+      </c>
+      <c r="H42" t="str">
+        <f t="shared" si="2"/>
         <v>0916573842</v>
       </c>
       <c r="I42" s="2" t="s">
-        <v>315</v>
+        <v>255</v>
       </c>
       <c r="J42" s="2" t="s">
-        <v>466</v>
+        <v>406</v>
       </c>
       <c r="K42" s="2" t="s">
-        <v>214</v>
+        <v>184</v>
       </c>
       <c r="L42" s="2" t="s">
-        <v>214</v>
+        <v>184</v>
       </c>
       <c r="M42" s="1" t="s">
-        <v>555</v>
-      </c>
-      <c r="P42" s="5" t="str">
-        <f>"{""name"":"""&amp;E42&amp;""",""number"":"""&amp;F42&amp;""",""phone"":"""&amp;H42&amp;""",""titleNo"":"&amp;I42&amp;",""title"":"&amp;J42&amp;",""isDisabled"":"&amp;K42&amp;",""isDeleted"":"&amp;L42&amp;",""createdAt"":"""&amp;M42&amp;"""},"</f>
-        <v>{"name":"金玉滿","number":"C000000038","phone":"0916573842","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2023-01-17T02:02:06.772+00:00"},</v>
+        <v>495</v>
+      </c>
+      <c r="P42" t="str">
+        <f t="shared" si="5"/>
+        <v>{"name":"金玉滿","number":"D000000038","phone":"0916573842","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2023-01-17T02:02:06.772+00:00"},</v>
       </c>
       <c r="R42" s="2" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
     </row>
     <row r="43" spans="2:18" x14ac:dyDescent="0.4">
@@ -7403,46 +7400,46 @@
         <v>981654372</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>253</v>
+        <v>223</v>
       </c>
       <c r="D43" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>紫竹林</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>404</v>
+        <v>344</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>303</v>
+        <v>607</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>657</v>
-      </c>
-      <c r="H43" s="5" t="str">
-        <f t="shared" si="1"/>
+        <v>547</v>
+      </c>
+      <c r="H43" t="str">
+        <f t="shared" si="2"/>
         <v>0981654372</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>315</v>
+        <v>255</v>
       </c>
       <c r="J43" s="2" t="s">
-        <v>466</v>
+        <v>406</v>
       </c>
       <c r="K43" s="2" t="s">
-        <v>214</v>
+        <v>184</v>
       </c>
       <c r="L43" s="2" t="s">
-        <v>214</v>
+        <v>184</v>
       </c>
       <c r="M43" s="1" t="s">
-        <v>556</v>
-      </c>
-      <c r="P43" s="5" t="str">
-        <f>"{""name"":"""&amp;E43&amp;""",""number"":"""&amp;F43&amp;""",""phone"":"""&amp;H43&amp;""",""titleNo"":"&amp;I43&amp;",""title"":"&amp;J43&amp;",""isDisabled"":"&amp;K43&amp;",""isDeleted"":"&amp;L43&amp;",""createdAt"":"""&amp;M43&amp;"""},"</f>
-        <v>{"name":"紫竹林","number":"C000000039","phone":"0981654372","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2022-12-25T23:12:11.261+00:00"},</v>
+        <v>496</v>
+      </c>
+      <c r="P43" t="str">
+        <f t="shared" si="5"/>
+        <v>{"name":"紫竹林","number":"D000000039","phone":"0981654372","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2022-12-25T23:12:11.261+00:00"},</v>
       </c>
       <c r="R43" s="2" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="44" spans="2:18" x14ac:dyDescent="0.4">
@@ -7450,46 +7447,46 @@
         <v>967853412</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>254</v>
+        <v>224</v>
       </c>
       <c r="D44" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>青青草</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>405</v>
+        <v>345</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>304</v>
+        <v>608</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>658</v>
-      </c>
-      <c r="H44" s="5" t="str">
-        <f t="shared" si="1"/>
+        <v>548</v>
+      </c>
+      <c r="H44" t="str">
+        <f t="shared" si="2"/>
         <v>0967853412</v>
       </c>
       <c r="I44" s="2" t="s">
-        <v>315</v>
+        <v>255</v>
       </c>
       <c r="J44" s="2" t="s">
-        <v>466</v>
+        <v>406</v>
       </c>
       <c r="K44" s="2" t="s">
-        <v>214</v>
+        <v>184</v>
       </c>
       <c r="L44" s="2" t="s">
-        <v>214</v>
+        <v>184</v>
       </c>
       <c r="M44" s="1" t="s">
-        <v>557</v>
-      </c>
-      <c r="P44" s="5" t="str">
-        <f>"{""name"":"""&amp;E44&amp;""",""number"":"""&amp;F44&amp;""",""phone"":"""&amp;H44&amp;""",""titleNo"":"&amp;I44&amp;",""title"":"&amp;J44&amp;",""isDisabled"":"&amp;K44&amp;",""isDeleted"":"&amp;L44&amp;",""createdAt"":"""&amp;M44&amp;"""},"</f>
-        <v>{"name":"青青草","number":"C000000040","phone":"0967853412","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2022-10-22T18:45:39.505+00:00"},</v>
+        <v>497</v>
+      </c>
+      <c r="P44" t="str">
+        <f t="shared" si="5"/>
+        <v>{"name":"青青草","number":"D000000040","phone":"0967853412","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2022-10-22T18:45:39.505+00:00"},</v>
       </c>
       <c r="R44" s="2" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="45" spans="2:18" x14ac:dyDescent="0.4">
@@ -7497,46 +7494,46 @@
         <v>937452168</v>
       </c>
       <c r="C45" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="D45" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>紫羅蘭</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="F45" s="4" t="s">
+        <v>609</v>
+      </c>
+      <c r="G45" s="4" t="s">
+        <v>549</v>
+      </c>
+      <c r="H45" t="str">
+        <f t="shared" si="2"/>
+        <v>0937452168</v>
+      </c>
+      <c r="I45" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="D45" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>紫羅蘭</v>
-      </c>
-      <c r="E45" s="2" t="s">
+      <c r="J45" s="2" t="s">
         <v>406</v>
       </c>
-      <c r="F45" s="4" t="s">
-        <v>305</v>
-      </c>
-      <c r="G45" s="4" t="s">
-        <v>659</v>
-      </c>
-      <c r="H45" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>0937452168</v>
-      </c>
-      <c r="I45" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="J45" s="2" t="s">
-        <v>466</v>
-      </c>
       <c r="K45" s="2" t="s">
-        <v>214</v>
+        <v>184</v>
       </c>
       <c r="L45" s="2" t="s">
-        <v>214</v>
+        <v>184</v>
       </c>
       <c r="M45" s="1" t="s">
-        <v>558</v>
-      </c>
-      <c r="P45" s="5" t="str">
-        <f>"{""name"":"""&amp;E45&amp;""",""number"":"""&amp;F45&amp;""",""phone"":"""&amp;H45&amp;""",""titleNo"":"&amp;I45&amp;",""title"":"&amp;J45&amp;",""isDisabled"":"&amp;K45&amp;",""isDeleted"":"&amp;L45&amp;",""createdAt"":"""&amp;M45&amp;"""},"</f>
-        <v>{"name":"紫羅蘭","number":"C000000041","phone":"0937452168","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2023-03-15T16:33:57.583+00:00"},</v>
+        <v>498</v>
+      </c>
+      <c r="P45" t="str">
+        <f t="shared" si="5"/>
+        <v>{"name":"紫羅蘭","number":"D000000041","phone":"0937452168","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2023-03-15T16:33:57.583+00:00"},</v>
       </c>
       <c r="R45" s="2" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="46" spans="2:18" x14ac:dyDescent="0.4">
@@ -7544,46 +7541,46 @@
         <v>982734651</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>256</v>
+        <v>226</v>
       </c>
       <c r="D46" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>白蘭花</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>407</v>
+        <v>347</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>306</v>
+        <v>610</v>
       </c>
       <c r="G46" s="4" t="s">
-        <v>660</v>
-      </c>
-      <c r="H46" s="5" t="str">
-        <f t="shared" si="1"/>
+        <v>550</v>
+      </c>
+      <c r="H46" t="str">
+        <f t="shared" si="2"/>
         <v>0982734651</v>
       </c>
       <c r="I46" s="2" t="s">
-        <v>315</v>
+        <v>255</v>
       </c>
       <c r="J46" s="2" t="s">
-        <v>466</v>
+        <v>406</v>
       </c>
       <c r="K46" s="2" t="s">
-        <v>214</v>
+        <v>184</v>
       </c>
       <c r="L46" s="2" t="s">
-        <v>214</v>
+        <v>184</v>
       </c>
       <c r="M46" s="1" t="s">
-        <v>559</v>
-      </c>
-      <c r="P46" s="5" t="str">
-        <f>"{""name"":"""&amp;E46&amp;""",""number"":"""&amp;F46&amp;""",""phone"":"""&amp;H46&amp;""",""titleNo"":"&amp;I46&amp;",""title"":"&amp;J46&amp;",""isDisabled"":"&amp;K46&amp;",""isDeleted"":"&amp;L46&amp;",""createdAt"":"""&amp;M46&amp;"""},"</f>
-        <v>{"name":"白蘭花","number":"C000000042","phone":"0982734651","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2023-01-06T02:22:11.967+00:00"},</v>
+        <v>499</v>
+      </c>
+      <c r="P46" t="str">
+        <f t="shared" si="5"/>
+        <v>{"name":"白蘭花","number":"D000000042","phone":"0982734651","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2023-01-06T02:22:11.967+00:00"},</v>
       </c>
       <c r="R46" s="2" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
     </row>
     <row r="47" spans="2:18" x14ac:dyDescent="0.4">
@@ -7591,46 +7588,46 @@
         <v>938574612</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>257</v>
+        <v>227</v>
       </c>
       <c r="D47" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>花海深</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>408</v>
+        <v>348</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>307</v>
+        <v>611</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>661</v>
-      </c>
-      <c r="H47" s="5" t="str">
-        <f t="shared" si="1"/>
+        <v>551</v>
+      </c>
+      <c r="H47" t="str">
+        <f t="shared" si="2"/>
         <v>0938574612</v>
       </c>
       <c r="I47" s="2" t="s">
-        <v>315</v>
+        <v>255</v>
       </c>
       <c r="J47" s="2" t="s">
-        <v>466</v>
+        <v>406</v>
       </c>
       <c r="K47" s="2" t="s">
-        <v>214</v>
+        <v>184</v>
       </c>
       <c r="L47" s="2" t="s">
-        <v>214</v>
+        <v>184</v>
       </c>
       <c r="M47" s="1" t="s">
-        <v>560</v>
-      </c>
-      <c r="P47" s="5" t="str">
-        <f>"{""name"":"""&amp;E47&amp;""",""number"":"""&amp;F47&amp;""",""phone"":"""&amp;H47&amp;""",""titleNo"":"&amp;I47&amp;",""title"":"&amp;J47&amp;",""isDisabled"":"&amp;K47&amp;",""isDeleted"":"&amp;L47&amp;",""createdAt"":"""&amp;M47&amp;"""},"</f>
-        <v>{"name":"花海深","number":"C000000043","phone":"0938574612","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2022-10-10T05:28:54.427+00:00"},</v>
+        <v>500</v>
+      </c>
+      <c r="P47" t="str">
+        <f t="shared" si="5"/>
+        <v>{"name":"花海深","number":"D000000043","phone":"0938574612","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2022-10-10T05:28:54.427+00:00"},</v>
       </c>
       <c r="R47" s="2" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="48" spans="2:18" x14ac:dyDescent="0.4">
@@ -7638,46 +7635,46 @@
         <v>962571348</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>258</v>
+        <v>228</v>
       </c>
       <c r="D48" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>飛燕舞</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>409</v>
+        <v>349</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>308</v>
+        <v>612</v>
       </c>
       <c r="G48" s="4" t="s">
-        <v>662</v>
-      </c>
-      <c r="H48" s="5" t="str">
-        <f t="shared" si="1"/>
+        <v>552</v>
+      </c>
+      <c r="H48" t="str">
+        <f t="shared" si="2"/>
         <v>0962571348</v>
       </c>
       <c r="I48" s="2" t="s">
-        <v>315</v>
+        <v>255</v>
       </c>
       <c r="J48" s="2" t="s">
-        <v>466</v>
+        <v>406</v>
       </c>
       <c r="K48" s="2" t="s">
-        <v>214</v>
+        <v>184</v>
       </c>
       <c r="L48" s="2" t="s">
-        <v>214</v>
+        <v>184</v>
       </c>
       <c r="M48" s="1" t="s">
-        <v>561</v>
-      </c>
-      <c r="P48" s="5" t="str">
-        <f>"{""name"":"""&amp;E48&amp;""",""number"":"""&amp;F48&amp;""",""phone"":"""&amp;H48&amp;""",""titleNo"":"&amp;I48&amp;",""title"":"&amp;J48&amp;",""isDisabled"":"&amp;K48&amp;",""isDeleted"":"&amp;L48&amp;",""createdAt"":"""&amp;M48&amp;"""},"</f>
-        <v>{"name":"飛燕舞","number":"C000000044","phone":"0962571348","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2022-10-26T17:34:52.986+00:00"},</v>
+        <v>501</v>
+      </c>
+      <c r="P48" t="str">
+        <f t="shared" si="5"/>
+        <v>{"name":"飛燕舞","number":"D000000044","phone":"0962571348","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2022-10-26T17:34:52.986+00:00"},</v>
       </c>
       <c r="R48" s="2" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
     </row>
     <row r="49" spans="2:18" x14ac:dyDescent="0.4">
@@ -7685,46 +7682,46 @@
         <v>941385762</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>259</v>
+        <v>229</v>
       </c>
       <c r="D49" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>玉樹林</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>410</v>
+        <v>350</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>309</v>
+        <v>613</v>
       </c>
       <c r="G49" s="4" t="s">
-        <v>663</v>
-      </c>
-      <c r="H49" s="5" t="str">
-        <f t="shared" si="1"/>
+        <v>553</v>
+      </c>
+      <c r="H49" t="str">
+        <f t="shared" si="2"/>
         <v>0941385762</v>
       </c>
       <c r="I49" s="2" t="s">
-        <v>315</v>
+        <v>255</v>
       </c>
       <c r="J49" s="2" t="s">
-        <v>466</v>
+        <v>406</v>
       </c>
       <c r="K49" s="2" t="s">
-        <v>214</v>
+        <v>184</v>
       </c>
       <c r="L49" s="2" t="s">
-        <v>214</v>
+        <v>184</v>
       </c>
       <c r="M49" s="1" t="s">
-        <v>562</v>
-      </c>
-      <c r="P49" s="5" t="str">
-        <f>"{""name"":"""&amp;E49&amp;""",""number"":"""&amp;F49&amp;""",""phone"":"""&amp;H49&amp;""",""titleNo"":"&amp;I49&amp;",""title"":"&amp;J49&amp;",""isDisabled"":"&amp;K49&amp;",""isDeleted"":"&amp;L49&amp;",""createdAt"":"""&amp;M49&amp;"""},"</f>
-        <v>{"name":"玉樹林","number":"C000000045","phone":"0941385762","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2022-11-08T07:51:33.562+00:00"},</v>
+        <v>502</v>
+      </c>
+      <c r="P49" t="str">
+        <f t="shared" si="5"/>
+        <v>{"name":"玉樹林","number":"D000000045","phone":"0941385762","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2022-11-08T07:51:33.562+00:00"},</v>
       </c>
       <c r="R49" s="2" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="50" spans="2:18" x14ac:dyDescent="0.4">
@@ -7732,46 +7729,46 @@
         <v>957831642</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>260</v>
+        <v>230</v>
       </c>
       <c r="D50" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>春風吹</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>411</v>
+        <v>351</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>310</v>
+        <v>614</v>
       </c>
       <c r="G50" s="4" t="s">
-        <v>664</v>
-      </c>
-      <c r="H50" s="5" t="str">
-        <f t="shared" si="1"/>
+        <v>554</v>
+      </c>
+      <c r="H50" t="str">
+        <f t="shared" si="2"/>
         <v>0957831642</v>
       </c>
       <c r="I50" s="2" t="s">
-        <v>315</v>
+        <v>255</v>
       </c>
       <c r="J50" s="2" t="s">
-        <v>466</v>
+        <v>406</v>
       </c>
       <c r="K50" s="2" t="s">
-        <v>214</v>
+        <v>184</v>
       </c>
       <c r="L50" s="2" t="s">
-        <v>214</v>
+        <v>184</v>
       </c>
       <c r="M50" s="1" t="s">
-        <v>563</v>
-      </c>
-      <c r="P50" s="5" t="str">
-        <f>"{""name"":"""&amp;E50&amp;""",""number"":"""&amp;F50&amp;""",""phone"":"""&amp;H50&amp;""",""titleNo"":"&amp;I50&amp;",""title"":"&amp;J50&amp;",""isDisabled"":"&amp;K50&amp;",""isDeleted"":"&amp;L50&amp;",""createdAt"":"""&amp;M50&amp;"""},"</f>
-        <v>{"name":"春風吹","number":"C000000046","phone":"0957831642","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2023-02-07T22:33:24.423+00:00"},</v>
+        <v>503</v>
+      </c>
+      <c r="P50" t="str">
+        <f t="shared" si="5"/>
+        <v>{"name":"春風吹","number":"D000000046","phone":"0957831642","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2023-02-07T22:33:24.423+00:00"},</v>
       </c>
       <c r="R50" s="2" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
     </row>
     <row r="51" spans="2:18" x14ac:dyDescent="0.4">
@@ -7779,46 +7776,46 @@
         <v>972365418</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>261</v>
+        <v>231</v>
       </c>
       <c r="D51" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>雪山飛</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>412</v>
+        <v>352</v>
       </c>
       <c r="F51" s="4" t="s">
-        <v>311</v>
+        <v>615</v>
       </c>
       <c r="G51" s="4" t="s">
-        <v>665</v>
-      </c>
-      <c r="H51" s="5" t="str">
-        <f t="shared" si="1"/>
+        <v>555</v>
+      </c>
+      <c r="H51" t="str">
+        <f t="shared" si="2"/>
         <v>0972365418</v>
       </c>
       <c r="I51" s="2" t="s">
-        <v>315</v>
+        <v>255</v>
       </c>
       <c r="J51" s="2" t="s">
-        <v>466</v>
+        <v>406</v>
       </c>
       <c r="K51" s="2" t="s">
-        <v>214</v>
+        <v>184</v>
       </c>
       <c r="L51" s="2" t="s">
-        <v>214</v>
+        <v>184</v>
       </c>
       <c r="M51" s="1" t="s">
-        <v>564</v>
-      </c>
-      <c r="P51" s="5" t="str">
-        <f>"{""name"":"""&amp;E51&amp;""",""number"":"""&amp;F51&amp;""",""phone"":"""&amp;H51&amp;""",""titleNo"":"&amp;I51&amp;",""title"":"&amp;J51&amp;",""isDisabled"":"&amp;K51&amp;",""isDeleted"":"&amp;L51&amp;",""createdAt"":"""&amp;M51&amp;"""},"</f>
-        <v>{"name":"雪山飛","number":"C000000047","phone":"0972365418","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2023-03-20T06:50:01.294+00:00"},</v>
+        <v>504</v>
+      </c>
+      <c r="P51" t="str">
+        <f t="shared" si="5"/>
+        <v>{"name":"雪山飛","number":"D000000047","phone":"0972365418","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2023-03-20T06:50:01.294+00:00"},</v>
       </c>
       <c r="R51" s="2" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
     </row>
     <row r="52" spans="2:18" x14ac:dyDescent="0.4">
@@ -7826,46 +7823,46 @@
         <v>915732846</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>262</v>
+        <v>232</v>
       </c>
       <c r="D52" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>玫瑰花</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>413</v>
+        <v>353</v>
       </c>
       <c r="F52" s="4" t="s">
-        <v>312</v>
+        <v>616</v>
       </c>
       <c r="G52" s="4" t="s">
-        <v>666</v>
-      </c>
-      <c r="H52" s="5" t="str">
-        <f t="shared" si="1"/>
+        <v>556</v>
+      </c>
+      <c r="H52" t="str">
+        <f t="shared" si="2"/>
         <v>0915732846</v>
       </c>
       <c r="I52" s="2" t="s">
-        <v>315</v>
+        <v>255</v>
       </c>
       <c r="J52" s="2" t="s">
-        <v>466</v>
+        <v>406</v>
       </c>
       <c r="K52" s="2" t="s">
-        <v>214</v>
+        <v>184</v>
       </c>
       <c r="L52" s="2" t="s">
-        <v>214</v>
+        <v>184</v>
       </c>
       <c r="M52" s="1" t="s">
-        <v>565</v>
-      </c>
-      <c r="P52" s="5" t="str">
-        <f>"{""name"":"""&amp;E52&amp;""",""number"":"""&amp;F52&amp;""",""phone"":"""&amp;H52&amp;""",""titleNo"":"&amp;I52&amp;",""title"":"&amp;J52&amp;",""isDisabled"":"&amp;K52&amp;",""isDeleted"":"&amp;L52&amp;",""createdAt"":"""&amp;M52&amp;"""},"</f>
-        <v>{"name":"玫瑰花","number":"C000000048","phone":"0915732846","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2023-03-24T13:06:39.383+00:00"},</v>
+        <v>505</v>
+      </c>
+      <c r="P52" t="str">
+        <f t="shared" si="5"/>
+        <v>{"name":"玫瑰花","number":"D000000048","phone":"0915732846","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2023-03-24T13:06:39.383+00:00"},</v>
       </c>
       <c r="R52" s="2" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
     </row>
     <row r="53" spans="2:18" x14ac:dyDescent="0.4">
@@ -7873,46 +7870,46 @@
         <v>982175364</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>263</v>
+        <v>233</v>
       </c>
       <c r="D53" s="2" t="str">
-        <f t="shared" ref="D53:E54" si="4">RIGHT(C53,3)</f>
+        <f t="shared" ref="D53:D54" si="6">RIGHT(C53,3)</f>
         <v>夜色靜</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>414</v>
+        <v>354</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>313</v>
+        <v>617</v>
       </c>
       <c r="G53" s="4" t="s">
-        <v>667</v>
-      </c>
-      <c r="H53" s="5" t="str">
-        <f t="shared" si="1"/>
+        <v>557</v>
+      </c>
+      <c r="H53" t="str">
+        <f t="shared" si="2"/>
         <v>0982175364</v>
       </c>
       <c r="I53" s="2" t="s">
-        <v>315</v>
+        <v>255</v>
       </c>
       <c r="J53" s="2" t="s">
-        <v>466</v>
+        <v>406</v>
       </c>
       <c r="K53" s="2" t="s">
-        <v>214</v>
+        <v>184</v>
       </c>
       <c r="L53" s="2" t="s">
-        <v>214</v>
+        <v>184</v>
       </c>
       <c r="M53" s="1" t="s">
-        <v>566</v>
-      </c>
-      <c r="P53" s="5" t="str">
-        <f>"{""name"":"""&amp;E53&amp;""",""number"":"""&amp;F53&amp;""",""phone"":"""&amp;H53&amp;""",""titleNo"":"&amp;I53&amp;",""title"":"&amp;J53&amp;",""isDisabled"":"&amp;K53&amp;",""isDeleted"":"&amp;L53&amp;",""createdAt"":"""&amp;M53&amp;"""},"</f>
-        <v>{"name":"夜色靜","number":"C000000049","phone":"0982175364","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2022-11-18T06:21:05.648+00:00"},</v>
+        <v>506</v>
+      </c>
+      <c r="P53" t="str">
+        <f t="shared" si="5"/>
+        <v>{"name":"夜色靜","number":"D000000049","phone":"0982175364","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2022-11-18T06:21:05.648+00:00"},</v>
       </c>
       <c r="R53" s="2" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
     </row>
     <row r="54" spans="2:18" x14ac:dyDescent="0.4">
@@ -7920,52 +7917,52 @@
         <v>965873214</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>264</v>
+        <v>234</v>
       </c>
       <c r="D54" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>落日慕</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>415</v>
+        <v>355</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>314</v>
+        <v>618</v>
       </c>
       <c r="G54" s="4" t="s">
-        <v>668</v>
-      </c>
-      <c r="H54" s="5" t="str">
-        <f t="shared" si="1"/>
+        <v>558</v>
+      </c>
+      <c r="H54" t="str">
+        <f t="shared" si="2"/>
         <v>0965873214</v>
       </c>
       <c r="I54" s="2" t="s">
-        <v>315</v>
+        <v>255</v>
       </c>
       <c r="J54" s="2" t="s">
-        <v>466</v>
+        <v>406</v>
       </c>
       <c r="K54" s="2" t="s">
-        <v>214</v>
+        <v>184</v>
       </c>
       <c r="L54" s="2" t="s">
-        <v>214</v>
+        <v>184</v>
       </c>
       <c r="M54" s="1" t="s">
-        <v>567</v>
-      </c>
-      <c r="P54" s="5" t="str">
-        <f>"{""name"":"""&amp;E54&amp;""",""number"":"""&amp;F54&amp;""",""phone"":"""&amp;H54&amp;""",""titleNo"":"&amp;I54&amp;",""title"":"&amp;J54&amp;",""isDisabled"":"&amp;K54&amp;",""isDeleted"":"&amp;L54&amp;",""createdAt"":"""&amp;M54&amp;"""},"</f>
-        <v>{"name":"落日慕","number":"C000000050","phone":"0965873214","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2022-12-28T00:34:03.527+00:00"},</v>
+        <v>507</v>
+      </c>
+      <c r="P54" t="str">
+        <f t="shared" si="5"/>
+        <v>{"name":"落日慕","number":"D000000050","phone":"0965873214","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2022-12-28T00:34:03.527+00:00"},</v>
       </c>
       <c r="R54" s="2" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="55" spans="2:18" x14ac:dyDescent="0.4">
       <c r="M55" s="1"/>
       <c r="R55" s="2" t="s">
-        <v>568</v>
+        <v>508</v>
       </c>
     </row>
     <row r="56" spans="2:18" x14ac:dyDescent="0.4">

--- a/dbData/originData.xlsx
+++ b/dbData/originData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\OneDrive\桌面\網頁學習相關\六角專題班\love_in_no_words_back_end\dbData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6263C48F-DB4F-45AC-98CA-6A7D25F3B7C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{339BCE98-A90C-4CAD-AA66-C75D163FE980}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{5FA7A088-30AA-4EDF-87C5-72AD43B1CDFD}"/>
   </bookViews>
@@ -762,67 +762,6 @@
     <t>100. 落日慕</t>
   </si>
   <si>
-    <t>C000000001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C000000002</t>
-  </si>
-  <si>
-    <t>C000000003</t>
-  </si>
-  <si>
-    <t>C000000004</t>
-  </si>
-  <si>
-    <t>C000000005</t>
-  </si>
-  <si>
-    <t>C000000006</t>
-  </si>
-  <si>
-    <t>C000000007</t>
-  </si>
-  <si>
-    <t>C000000008</t>
-  </si>
-  <si>
-    <t>C000000009</t>
-  </si>
-  <si>
-    <t>C000000010</t>
-  </si>
-  <si>
-    <t>C000000011</t>
-  </si>
-  <si>
-    <t>C000000012</t>
-  </si>
-  <si>
-    <t>C000000013</t>
-  </si>
-  <si>
-    <t>C000000014</t>
-  </si>
-  <si>
-    <t>C000000015</t>
-  </si>
-  <si>
-    <t>C000000016</t>
-  </si>
-  <si>
-    <t>C000000017</t>
-  </si>
-  <si>
-    <t>C000000018</t>
-  </si>
-  <si>
-    <t>C000000019</t>
-  </si>
-  <si>
-    <t>C000000020</t>
-  </si>
-  <si>
     <t>4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1281,310 +1220,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2022-10-14T18:49:13.859+00:00</t>
-  </si>
-  <si>
-    <t>2023-03-10T00:44:44.764+00:00</t>
-  </si>
-  <si>
-    <t>2022-11-27T14:41:57.206+00:00</t>
-  </si>
-  <si>
-    <t>2022-08-12T08:11:58.453+00:00</t>
-  </si>
-  <si>
-    <t>2023-03-09T06:16:27.553+00:00</t>
-  </si>
-  <si>
-    <t>2022-09-07T17:42:17.010+00:00</t>
-  </si>
-  <si>
-    <t>2023-03-20T05:58:38.050+00:00</t>
-  </si>
-  <si>
-    <t>2022-08-16T23:52:32.186+00:00</t>
-  </si>
-  <si>
-    <t>2022-09-22T16:11:57.066+00:00</t>
-  </si>
-  <si>
-    <t>2023-03-22T14:42:41.307+00:00</t>
-  </si>
-  <si>
-    <t>2023-03-05T14:56:36.193+00:00</t>
-  </si>
-  <si>
-    <t>2022-09-17T12:01:26.378+00:00</t>
-  </si>
-  <si>
-    <t>2022-08-27T08:08:28.325+00:00</t>
-  </si>
-  <si>
-    <t>2022-09-18T19:59:28.817+00:00</t>
-  </si>
-  <si>
-    <t>2023-03-07T19:29:55.573+00:00</t>
-  </si>
-  <si>
-    <t>2022-09-28T00:01:25.430+00:00</t>
-  </si>
-  <si>
-    <t>2022-10-05T01:23:36.620+00:00</t>
-  </si>
-  <si>
-    <t>2022-12-16T04:22:56.472+00:00</t>
-  </si>
-  <si>
-    <t>2022-11-03T22:43:38.292+00:00</t>
-  </si>
-  <si>
-    <t>2022-12-11T09:06:17.449+00:00</t>
-  </si>
-  <si>
-    <t>2022-11-15T23:25:28.472+00:00</t>
-  </si>
-  <si>
-    <t>2022-11-08T13:18:58.676+00:00</t>
-  </si>
-  <si>
-    <t>2022-08-22T06:08:12.461+00:00</t>
-  </si>
-  <si>
-    <t>2023-04-10T20:45:29.958+00:00</t>
-  </si>
-  <si>
-    <t>2022-11-09T05:47:03.264+00:00</t>
-  </si>
-  <si>
-    <t>2022-12-16T11:45:18.400+00:00</t>
-  </si>
-  <si>
-    <t>2022-12-18T20:13:56.630+00:00</t>
-  </si>
-  <si>
-    <t>2023-03-20T14:22:32.534+00:00</t>
-  </si>
-  <si>
-    <t>2022-09-27T06:12:35.528+00:00</t>
-  </si>
-  <si>
-    <t>2022-09-24T21:07:54.041+00:00</t>
-  </si>
-  <si>
-    <t>2022-11-03T02:20:27.520+00:00</t>
-  </si>
-  <si>
-    <t>2022-09-23T16:34:22.396+00:00</t>
-  </si>
-  <si>
-    <t>2022-10-06T08:08:54.794+00:00</t>
-  </si>
-  <si>
-    <t>2022-09-10T16:48:07.034+00:00</t>
-  </si>
-  <si>
-    <t>2022-10-27T01:03:02.509+00:00</t>
-  </si>
-  <si>
     <t>純文字</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2022-03-20T14:15:34.221+00:00</t>
-  </si>
-  <si>
-    <t>2021-12-14T23:50:09.605+00:00</t>
-  </si>
-  <si>
-    <t>2023-01-31T21:33:22.703+00:00</t>
-  </si>
-  <si>
-    <t>2021-10-29T06:25:01.906+00:00</t>
-  </si>
-  <si>
-    <t>2022-09-14T16:43:08.933+00:00</t>
-  </si>
-  <si>
-    <t>2023-03-23T10:51:51.779+00:00</t>
-  </si>
-  <si>
-    <t>2022-10-16T17:26:34.926+00:00</t>
-  </si>
-  <si>
-    <t>2021-08-26T07:39:13.491+00:00</t>
-  </si>
-  <si>
-    <t>2021-12-31T12:41:47.066+00:00</t>
-  </si>
-  <si>
-    <t>2022-06-13T18:07:16.927+00:00</t>
-  </si>
-  <si>
-    <t>2022-02-12T07:26:24.855+00:00</t>
-  </si>
-  <si>
-    <t>2021-10-28T08:01:02.832+00:00</t>
-  </si>
-  <si>
-    <t>2023-04-08T23:17:47.289+00:00</t>
-  </si>
-  <si>
-    <t>2022-06-21T05:28:50.537+00:00</t>
-  </si>
-  <si>
-    <t>2022-10-04T19:07:36.137+00:00</t>
-  </si>
-  <si>
-    <t>2021-11-16T04:33:12.354+00:00</t>
-  </si>
-  <si>
-    <t>2022-06-01T21:39:16.913+00:00</t>
-  </si>
-  <si>
-    <t>2022-02-15T22:24:18.970+00:00</t>
-  </si>
-  <si>
-    <t>2022-08-22T11:44:26.424+00:00</t>
-  </si>
-  <si>
-    <t>2021-10-15T07:30:19.703+00:00</t>
-  </si>
-  <si>
-    <t>2022-03-29T22:11:47.662+00:00</t>
-  </si>
-  <si>
-    <t>2021-11-23T15:23:01.228+00:00</t>
-  </si>
-  <si>
-    <t>2022-06-06T14:13:27.097+00:00</t>
-  </si>
-  <si>
-    <t>2021-12-17T05:17:57.586+00:00</t>
-  </si>
-  <si>
-    <t>2022-08-04T02:52:55.810+00:00</t>
-  </si>
-  <si>
-    <t>2022-03-24T04:22:07.955+00:00</t>
-  </si>
-  <si>
-    <t>2022-08-25T18:15:32.166+00:00</t>
-  </si>
-  <si>
-    <t>2022-02-05T09:53:39.014+00:00</t>
-  </si>
-  <si>
-    <t>2022-01-21T19:10:03.173+00:00</t>
-  </si>
-  <si>
-    <t>2022-03-31T13:19:19.930+00:00</t>
-  </si>
-  <si>
-    <t>2022-01-28T18:20:50.973+00:00</t>
-  </si>
-  <si>
-    <t>2021-11-12T11:48:16.759+00:00</t>
-  </si>
-  <si>
-    <t>2022-01-20T09:05:31.541+00:00</t>
-  </si>
-  <si>
-    <t>2022-04-09T01:23:27.904+00:00</t>
-  </si>
-  <si>
-    <t>2021-08-28T02:28:13.324+00:00</t>
-  </si>
-  <si>
-    <t>2022-10-05T11:34:27.820+00:00</t>
-  </si>
-  <si>
-    <t>2023-02-05T02:29:14.874+00:00</t>
-  </si>
-  <si>
-    <t>2023-02-18T03:48:35.504+00:00</t>
-  </si>
-  <si>
-    <t>2022-10-18T03:12:21.701+00:00</t>
-  </si>
-  <si>
-    <t>2022-11-13T22:42:37.486+00:00</t>
-  </si>
-  <si>
-    <t>2022-10-16T01:32:03.803+00:00</t>
-  </si>
-  <si>
-    <t>2023-02-06T22:09:31.420+00:00</t>
-  </si>
-  <si>
-    <t>2022-10-08T08:48:21.518+00:00</t>
-  </si>
-  <si>
-    <t>2022-11-25T14:59:56.031+00:00</t>
-  </si>
-  <si>
-    <t>2023-03-07T12:55:36.945+00:00</t>
-  </si>
-  <si>
-    <t>2022-12-05T21:31:36.919+00:00</t>
-  </si>
-  <si>
-    <t>2023-03-02T16:43:49.845+00:00</t>
-  </si>
-  <si>
-    <t>2023-03-22T09:13:24.863+00:00</t>
-  </si>
-  <si>
-    <t>2022-12-27T01:45:24.083+00:00</t>
-  </si>
-  <si>
-    <t>2022-12-18T04:22:38.697+00:00</t>
-  </si>
-  <si>
-    <t>2023-03-17T09:10:45.040+00:00</t>
-  </si>
-  <si>
-    <t>2022-11-24T13:08:29.524+00:00</t>
-  </si>
-  <si>
-    <t>2023-01-17T02:02:06.772+00:00</t>
-  </si>
-  <si>
-    <t>2022-12-25T23:12:11.261+00:00</t>
-  </si>
-  <si>
-    <t>2022-10-22T18:45:39.505+00:00</t>
-  </si>
-  <si>
-    <t>2023-03-15T16:33:57.583+00:00</t>
-  </si>
-  <si>
-    <t>2023-01-06T02:22:11.967+00:00</t>
-  </si>
-  <si>
-    <t>2022-10-10T05:28:54.427+00:00</t>
-  </si>
-  <si>
-    <t>2022-10-26T17:34:52.986+00:00</t>
-  </si>
-  <si>
-    <t>2022-11-08T07:51:33.562+00:00</t>
-  </si>
-  <si>
-    <t>2023-02-07T22:33:24.423+00:00</t>
-  </si>
-  <si>
-    <t>2023-03-20T06:50:01.294+00:00</t>
-  </si>
-  <si>
-    <t>2023-03-24T13:06:39.383+00:00</t>
-  </si>
-  <si>
-    <t>2022-11-18T06:21:05.648+00:00</t>
-  </si>
-  <si>
-    <t>2022-12-28T00:34:03.527+00:00</t>
-  </si>
-  <si>
     <t>]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1769,457 +1408,815 @@
     <t>B000000030</t>
   </si>
   <si>
-    <t>D000000001</t>
+    <t>A000000003</t>
+  </si>
+  <si>
+    <t>A000000004</t>
+  </si>
+  <si>
+    <t>A000000005</t>
+  </si>
+  <si>
+    <t>A000000006</t>
+  </si>
+  <si>
+    <t>A000000007</t>
+  </si>
+  <si>
+    <t>A000000008</t>
+  </si>
+  <si>
+    <t>A000000009</t>
+  </si>
+  <si>
+    <t>A000000010</t>
+  </si>
+  <si>
+    <t>A000000011</t>
+  </si>
+  <si>
+    <t>A000000012</t>
+  </si>
+  <si>
+    <t>A000000013</t>
+  </si>
+  <si>
+    <t>A000000014</t>
+  </si>
+  <si>
+    <t>A000000015</t>
+  </si>
+  <si>
+    <t>A000000016</t>
+  </si>
+  <si>
+    <t>A000000017</t>
+  </si>
+  <si>
+    <t>A000000018</t>
+  </si>
+  <si>
+    <t>A000000019</t>
+  </si>
+  <si>
+    <t>A000000020</t>
+  </si>
+  <si>
+    <t>A000000021</t>
+  </si>
+  <si>
+    <t>A000000022</t>
+  </si>
+  <si>
+    <t>A000000023</t>
+  </si>
+  <si>
+    <t>A000000024</t>
+  </si>
+  <si>
+    <t>A000000025</t>
+  </si>
+  <si>
+    <t>A000000026</t>
+  </si>
+  <si>
+    <t>A000000027</t>
+  </si>
+  <si>
+    <t>A000000028</t>
+  </si>
+  <si>
+    <t>A000000029</t>
+  </si>
+  <si>
+    <t>A000000030</t>
+  </si>
+  <si>
+    <t>A000000031</t>
+  </si>
+  <si>
+    <t>A000000032</t>
+  </si>
+  <si>
+    <t>A000000033</t>
+  </si>
+  <si>
+    <t>A000000034</t>
+  </si>
+  <si>
+    <t>A000000035</t>
+  </si>
+  <si>
+    <t>A000000036</t>
+  </si>
+  <si>
+    <t>A000000037</t>
+  </si>
+  <si>
+    <t>A000000038</t>
+  </si>
+  <si>
+    <t>A000000039</t>
+  </si>
+  <si>
+    <t>A000000040</t>
+  </si>
+  <si>
+    <t>A000000041</t>
+  </si>
+  <si>
+    <t>A000000042</t>
+  </si>
+  <si>
+    <t>A000000043</t>
+  </si>
+  <si>
+    <t>A000000044</t>
+  </si>
+  <si>
+    <t>A000000045</t>
+  </si>
+  <si>
+    <t>A000000046</t>
+  </si>
+  <si>
+    <t>A000000047</t>
+  </si>
+  <si>
+    <t>A000000048</t>
+  </si>
+  <si>
+    <t>A000000049</t>
+  </si>
+  <si>
+    <t>A000000050</t>
+  </si>
+  <si>
+    <t>B000000031</t>
+  </si>
+  <si>
+    <t>B000000032</t>
+  </si>
+  <si>
+    <t>B000000033</t>
+  </si>
+  <si>
+    <t>B000000034</t>
+  </si>
+  <si>
+    <t>B000000035</t>
+  </si>
+  <si>
+    <t>B000000036</t>
+  </si>
+  <si>
+    <t>B000000037</t>
+  </si>
+  <si>
+    <t>B000000038</t>
+  </si>
+  <si>
+    <t>B000000039</t>
+  </si>
+  <si>
+    <t>B000000040</t>
+  </si>
+  <si>
+    <t>B000000041</t>
+  </si>
+  <si>
+    <t>B000000042</t>
+  </si>
+  <si>
+    <t>B000000043</t>
+  </si>
+  <si>
+    <t>B000000044</t>
+  </si>
+  <si>
+    <t>B000000045</t>
+  </si>
+  <si>
+    <t>B000000046</t>
+  </si>
+  <si>
+    <t>B000000047</t>
+  </si>
+  <si>
+    <t>B000000048</t>
+  </si>
+  <si>
+    <t>B000000049</t>
+  </si>
+  <si>
+    <t>B000000050</t>
+  </si>
+  <si>
+    <t>2000-03-06T09:12:15.587+00:00</t>
+  </si>
+  <si>
+    <t>2000-09-29T01:32:44.913+00:00</t>
+  </si>
+  <si>
+    <t>2001-04-28T15:10:21.938+00:00</t>
+  </si>
+  <si>
+    <t>2001-08-12T23:49:53.706+00:00</t>
+  </si>
+  <si>
+    <t>2002-02-06T02:08:23.665+00:00</t>
+  </si>
+  <si>
+    <t>2002-05-09T06:17:48.195+00:00</t>
+  </si>
+  <si>
+    <t>2002-11-06T03:23:20.851+00:00</t>
+  </si>
+  <si>
+    <t>2003-02-18T14:51:57.418+00:00</t>
+  </si>
+  <si>
+    <t>2003-09-06T20:41:55.400+00:00</t>
+  </si>
+  <si>
+    <t>2004-01-20T04:08:07.901+00:00</t>
+  </si>
+  <si>
+    <t>2004-05-23T09:44:10.137+00:00</t>
+  </si>
+  <si>
+    <t>2004-11-19T20:14:59.123+00:00</t>
+  </si>
+  <si>
+    <t>2005-03-14T05:01:43.017+00:00</t>
+  </si>
+  <si>
+    <t>2005-09-28T01:39:54.016+00:00</t>
+  </si>
+  <si>
+    <t>2006-04-02T17:36:26.284+00:00</t>
+  </si>
+  <si>
+    <t>2006-07-13T03:26:07.562+00:00</t>
+  </si>
+  <si>
+    <t>2007-01-03T05:51:14.130+00:00</t>
+  </si>
+  <si>
+    <t>2007-05-29T22:57:03.119+00:00</t>
+  </si>
+  <si>
+    <t>2007-11-17T15:06:49.564+00:00</t>
+  </si>
+  <si>
+    <t>2008-04-26T07:32:22.089+00:00</t>
+  </si>
+  <si>
+    <t>2008-08-14T01:05:49.602+00:00</t>
+  </si>
+  <si>
+    <t>2009-02-06T20:11:16.802+00:00</t>
+  </si>
+  <si>
+    <t>2009-05-10T14:58:49.383+00:00</t>
+  </si>
+  <si>
+    <t>2009-11-16T05:13:57.458+00:00</t>
+  </si>
+  <si>
+    <t>2010-03-14T14:50:24.901+00:00</t>
+  </si>
+  <si>
+    <t>2010-10-02T23:16:23.166+00:00</t>
+  </si>
+  <si>
+    <t>2011-03-10T06:25:47.766+00:00</t>
+  </si>
+  <si>
+    <t>2011-06-24T13:06:09.583+00:00</t>
+  </si>
+  <si>
+    <t>2011-12-13T14:55:38.102+00:00</t>
+  </si>
+  <si>
+    <t>2012-06-06T16:58:02.062+00:00</t>
+  </si>
+  <si>
+    <t>2012-09-26T09:06:18.331+00:00</t>
+  </si>
+  <si>
+    <t>2013-03-20T07:47:32.690+00:00</t>
+  </si>
+  <si>
+    <t>2013-07-08T19:02:06.226+00:00</t>
+  </si>
+  <si>
+    <t>2013-12-28T10:22:16.178+00:00</t>
+  </si>
+  <si>
+    <t>2014-06-14T07:56:22.222+00:00</t>
+  </si>
+  <si>
+    <t>2019-02-04T11:25:45.620+00:00</t>
+  </si>
+  <si>
+    <t>2019-02-10T02:39:15.702+00:00</t>
+  </si>
+  <si>
+    <t>2019-02-17T21:50:38.816+00:00</t>
+  </si>
+  <si>
+    <t>2019-03-05T16:10:02.345+00:00</t>
+  </si>
+  <si>
+    <t>2019-03-20T09:55:23.019+00:00</t>
+  </si>
+  <si>
+    <t>2019-03-23T18:30:12.278+00:00</t>
+  </si>
+  <si>
+    <t>2019-04-07T14:02:49.893+00:00</t>
+  </si>
+  <si>
+    <t>2019-04-17T04:59:31.225+00:00</t>
+  </si>
+  <si>
+    <t>2019-05-01T20:37:12.500+00:00</t>
+  </si>
+  <si>
+    <t>2019-05-13T12:44:33.100+00:00</t>
+  </si>
+  <si>
+    <t>2019-05-24T03:09:57.405+00:00</t>
+  </si>
+  <si>
+    <t>2019-06-06T23:15:05.168+00:00</t>
+  </si>
+  <si>
+    <t>2019-06-14T08:51:22.416+00:00</t>
+  </si>
+  <si>
+    <t>2019-06-25T22:13:59.667+00:00</t>
+  </si>
+  <si>
+    <t>2019-07-06T19:27:03.214+00:00</t>
+  </si>
+  <si>
+    <t>2019-07-16T08:08:58.702+00:00</t>
+  </si>
+  <si>
+    <t>2019-07-28T05:33:18.458+00:00</t>
+  </si>
+  <si>
+    <t>2019-08-03T18:49:41.092+00:00</t>
+  </si>
+  <si>
+    <t>2019-08-18T12:36:22.764+00:00</t>
+  </si>
+  <si>
+    <t>2019-09-01T07:20:17.985+00:00</t>
+  </si>
+  <si>
+    <t>2019-09-08T22:10:29.186+00:00</t>
+  </si>
+  <si>
+    <t>2019-09-21T16:47:53.504+00:00</t>
+  </si>
+  <si>
+    <t>2019-10-03T11:12:59.137+00:00</t>
+  </si>
+  <si>
+    <t>2019-10-17T06:08:45.150+00:00</t>
+  </si>
+  <si>
+    <t>2019-10-28T23:22:27.526+00:00</t>
+  </si>
+  <si>
+    <t>2019-11-08T19:42:49.708+00:00</t>
+  </si>
+  <si>
+    <t>2019-11-22T14:53:56.917+00:00</t>
+  </si>
+  <si>
+    <t>2019-11-28T03:57:39.045+00:00</t>
+  </si>
+  <si>
+    <t>2019-12-10T01:35:26.276+00:00</t>
+  </si>
+  <si>
+    <t>2019-12-18T19:44:06.789+00:00</t>
+  </si>
+  <si>
+    <t>2020-01-02T10:14:55.399+00:00</t>
+  </si>
+  <si>
+    <t>2020-01-12T02:27:17.772+00:00</t>
+  </si>
+  <si>
+    <t>2020-01-25T01:55:45.442+00:00</t>
+  </si>
+  <si>
+    <t>2020-02-03T18:10:14.524+00:00</t>
+  </si>
+  <si>
+    <t>2020-02-12T08:36:59.023+00:00</t>
+  </si>
+  <si>
+    <t>2020-02-26T02:34:05.955+00:00</t>
+  </si>
+  <si>
+    <t>2020-03-21T07:12:32.091+00:00</t>
+  </si>
+  <si>
+    <t>2020-04-17T12:45:39.209+00:00</t>
+  </si>
+  <si>
+    <t>2020-05-23T01:23:50.642+00:00</t>
+  </si>
+  <si>
+    <t>2020-06-13T18:10:21.225+00:00</t>
+  </si>
+  <si>
+    <t>2020-07-26T08:59:37.512+00:00</t>
+  </si>
+  <si>
+    <t>2020-08-20T19:34:59.662+00:00</t>
+  </si>
+  <si>
+    <t>2020-09-15T04:50:43.891+00:00</t>
+  </si>
+  <si>
+    <t>2020-10-29T17:13:48.412+00:00</t>
+  </si>
+  <si>
+    <t>2020-11-25T08:46:29.927+00:00</t>
+  </si>
+  <si>
+    <t>2020-12-12T03:20:22.255+00:00</t>
+  </si>
+  <si>
+    <t>2021-01-06T15:22:02.118+00:00</t>
+  </si>
+  <si>
+    <t>2021-02-10T07:30:05.882+00:00</t>
+  </si>
+  <si>
+    <t>2021-03-07T18:01:28.232+00:00</t>
+  </si>
+  <si>
+    <t>2021-04-19T10:17:49.659+00:00</t>
+  </si>
+  <si>
+    <t>2021-05-12T02:39:25.682+00:00</t>
+  </si>
+  <si>
+    <t>2021-06-28T08:23:58.081+00:00</t>
+  </si>
+  <si>
+    <t>2021-07-14T20:59:18.994+00:00</t>
+  </si>
+  <si>
+    <t>2021-08-01T16:15:31.414+00:00</t>
+  </si>
+  <si>
+    <t>2021-09-04T12:29:38.056+00:00</t>
+  </si>
+  <si>
+    <t>2021-10-15T14:57:39.620+00:00</t>
+  </si>
+  <si>
+    <t>2021-11-03T08:23:09.741+00:00</t>
+  </si>
+  <si>
+    <t>2021-12-06T23:41:23.008+00:00</t>
+  </si>
+  <si>
+    <t>2022-01-08T03:35:32.195+00:00</t>
+  </si>
+  <si>
+    <t>2022-02-12T14:14:42.018+00:00</t>
+  </si>
+  <si>
+    <t>2022-03-11T03:50:25.498+00:00</t>
+  </si>
+  <si>
+    <t>2022-04-19T21:26:57.840+00:00</t>
+  </si>
+  <si>
+    <t>2022-05-14T16:02:31.556+00:00</t>
+  </si>
+  <si>
+    <t>2022-06-08T03:47:49.231+00:00</t>
+  </si>
+  <si>
+    <t>2022-07-20T15:16:28.944+00:00</t>
+  </si>
+  <si>
+    <t>{"name":"紅梅香","number":"B000000001","phone":"0902846781","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2019-07-16T08:08:58.702+00:00"},</t>
+  </si>
+  <si>
+    <t>{"name":"花開半","number":"B000000002","phone":"0928765432","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2019-07-28T05:33:18.458+00:00"},</t>
+  </si>
+  <si>
+    <t>{"name":"雪月風","number":"B000000003","phone":"0989154896","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2019-08-03T18:49:41.092+00:00"},</t>
+  </si>
+  <si>
+    <t>{"name":"陽光樂","number":"B000000004","phone":"0902213574","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2019-08-18T12:36:22.764+00:00"},</t>
+  </si>
+  <si>
+    <t>{"name":"花開結","number":"B000000005","phone":"0937723502","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2019-09-01T07:20:17.985+00:00"},</t>
+  </si>
+  <si>
+    <t>{"name":"天香慕","number":"B000000006","phone":"0933543285","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2019-09-08T22:10:29.186+00:00"},</t>
+  </si>
+  <si>
+    <t>{"name":"紅塵客","number":"B000000007","phone":"0964687456","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2019-09-21T16:47:53.504+00:00"},</t>
+  </si>
+  <si>
+    <t>{"name":"琴瑟音","number":"B000000008","phone":"0937645289","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2019-10-03T11:12:59.137+00:00"},</t>
+  </si>
+  <si>
+    <t>{"name":"愛如花","number":"B000000009","phone":"0955432569","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2019-10-17T06:08:45.150+00:00"},</t>
+  </si>
+  <si>
+    <t>{"name":"深海潛","number":"B000000010","phone":"0988542895","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2019-10-28T23:22:27.526+00:00"},</t>
+  </si>
+  <si>
+    <t>{"name":"雨蘭香","number":"B000000011","phone":"0968594321","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2019-11-08T19:42:49.708+00:00"},</t>
+  </si>
+  <si>
+    <t>{"name":"紫陽花","number":"B000000012","phone":"0928596412","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2019-11-22T14:53:56.917+00:00"},</t>
+  </si>
+  <si>
+    <t>{"name":"仙女飛","number":"B000000013","phone":"0975348962","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2019-11-28T03:57:39.045+00:00"},</t>
+  </si>
+  <si>
+    <t>{"name":"雲霧裡","number":"B000000014","phone":"0962358714","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2019-12-10T01:35:26.276+00:00"},</t>
+  </si>
+  <si>
+    <t>{"name":"靈狐仙","number":"B000000015","phone":"0945812376","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2019-12-18T19:44:06.789+00:00"},</t>
+  </si>
+  <si>
+    <t>{"name":"夜雨香","number":"B000000016","phone":"0943192675","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2020-01-02T10:14:55.399+00:00"},</t>
+  </si>
+  <si>
+    <t>{"name":"美人香","number":"B000000017","phone":"0989275631","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2020-01-12T02:27:17.772+00:00"},</t>
+  </si>
+  <si>
+    <t>{"name":"時光倒","number":"B000000018","phone":"0918675423","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2020-01-25T01:55:45.442+00:00"},</t>
+  </si>
+  <si>
+    <t>{"name":"楓葉紅","number":"B000000019","phone":"0921753486","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2020-02-03T18:10:14.524+00:00"},</t>
+  </si>
+  <si>
+    <t>{"name":"愛情路","number":"B000000020","phone":"0941837692","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2020-02-12T08:36:59.023+00:00"},</t>
+  </si>
+  <si>
+    <t>{"name":"梅花雪","number":"B000000021","phone":"0968325471","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2020-02-26T02:34:05.955+00:00"},</t>
+  </si>
+  <si>
+    <t>{"name":"雲中仙","number":"B000000022","phone":"0943685741","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2020-03-21T07:12:32.091+00:00"},</t>
+  </si>
+  <si>
+    <t>{"name":"風雨聲","number":"B000000023","phone":"0973548691","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2020-04-17T12:45:39.209+00:00"},</t>
+  </si>
+  <si>
+    <t>{"name":"桃花緣","number":"B000000024","phone":"0921384765","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2020-05-23T01:23:50.642+00:00"},</t>
+  </si>
+  <si>
+    <t>{"name":"花開花","number":"B000000025","phone":"0962874531","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2020-06-13T18:10:21.225+00:00"},</t>
+  </si>
+  <si>
+    <t>{"name":"天地月","number":"B000000026","phone":"0938567124","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2020-07-26T08:59:37.512+00:00"},</t>
+  </si>
+  <si>
+    <t>{"name":"紫金花","number":"B000000027","phone":"0956782143","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2020-08-20T19:34:59.662+00:00"},</t>
+  </si>
+  <si>
+    <t>{"name":"飛天燕","number":"B000000028","phone":"0978345162","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2020-09-15T04:50:43.891+00:00"},</t>
+  </si>
+  <si>
+    <t>{"name":"紫雲霞","number":"B000000029","phone":"0983657142","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2020-10-29T17:13:48.412+00:00"},</t>
+  </si>
+  <si>
+    <t>{"name":"青山翠","number":"B000000030","phone":"0912673548","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2020-11-25T08:46:29.927+00:00"},</t>
+  </si>
+  <si>
+    <t>{"name":"水墨畫","number":"B000000031","phone":"0963851742","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2020-12-12T03:20:22.255+00:00"},</t>
+  </si>
+  <si>
+    <t>{"name":"蝶戀花","number":"B000000032","phone":"0925176843","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2021-01-06T15:22:02.118+00:00"},</t>
+  </si>
+  <si>
+    <t>{"name":"桃花心","number":"B000000033","phone":"0954213867","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2021-02-10T07:30:05.882+00:00"},</t>
+  </si>
+  <si>
+    <t>{"name":"梅花寒","number":"B000000034","phone":"0945128367","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2021-03-07T18:01:28.232+00:00"},</t>
+  </si>
+  <si>
+    <t>{"name":"雲海深","number":"B000000035","phone":"0941852637","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2021-04-19T10:17:49.659+00:00"},</t>
+  </si>
+  <si>
+    <t>{"name":"雨花石","number":"B000000036","phone":"0916458327","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2021-05-12T02:39:25.682+00:00"},</t>
+  </si>
+  <si>
+    <t>{"name":"星空夜","number":"B000000037","phone":"0987316548","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2021-06-28T08:23:58.081+00:00"},</t>
+  </si>
+  <si>
+    <t>{"name":"金玉滿","number":"B000000038","phone":"0916573842","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2021-07-14T20:59:18.994+00:00"},</t>
+  </si>
+  <si>
+    <t>{"name":"紫竹林","number":"B000000039","phone":"0981654372","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2021-08-01T16:15:31.414+00:00"},</t>
+  </si>
+  <si>
+    <t>{"name":"青青草","number":"B000000040","phone":"0967853412","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2021-09-04T12:29:38.056+00:00"},</t>
+  </si>
+  <si>
+    <t>{"name":"紫羅蘭","number":"B000000041","phone":"0937452168","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2021-10-15T14:57:39.620+00:00"},</t>
+  </si>
+  <si>
+    <t>{"name":"白蘭花","number":"B000000042","phone":"0982734651","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2021-11-03T08:23:09.741+00:00"},</t>
+  </si>
+  <si>
+    <t>{"name":"花海深","number":"B000000043","phone":"0938574612","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2021-12-06T23:41:23.008+00:00"},</t>
+  </si>
+  <si>
+    <t>{"name":"飛燕舞","number":"B000000044","phone":"0962571348","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2022-01-08T03:35:32.195+00:00"},</t>
+  </si>
+  <si>
+    <t>{"name":"玉樹林","number":"B000000045","phone":"0941385762","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2022-02-12T14:14:42.018+00:00"},</t>
+  </si>
+  <si>
+    <t>{"name":"春風吹","number":"B000000046","phone":"0957831642","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2022-03-11T03:50:25.498+00:00"},</t>
+  </si>
+  <si>
+    <t>{"name":"雪山飛","number":"B000000047","phone":"0972365418","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2022-04-19T21:26:57.840+00:00"},</t>
+  </si>
+  <si>
+    <t>{"name":"玫瑰花","number":"B000000048","phone":"0915732846","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2022-05-14T16:02:31.556+00:00"},</t>
+  </si>
+  <si>
+    <t>{"name":"夜色靜","number":"B000000049","phone":"0982175364","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2022-06-08T03:47:49.231+00:00"},</t>
+  </si>
+  <si>
+    <t>{"name":"落日慕","number":"B000000050","phone":"0965873214","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2022-07-20T15:16:28.944+00:00"},</t>
+  </si>
+  <si>
+    <t>A000000002</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>D000000002</t>
-  </si>
-  <si>
-    <t>D000000003</t>
-  </si>
-  <si>
-    <t>D000000004</t>
-  </si>
-  <si>
-    <t>D000000005</t>
-  </si>
-  <si>
-    <t>D000000006</t>
-  </si>
-  <si>
-    <t>D000000007</t>
-  </si>
-  <si>
-    <t>D000000008</t>
-  </si>
-  <si>
-    <t>D000000009</t>
-  </si>
-  <si>
-    <t>D000000010</t>
-  </si>
-  <si>
-    <t>D000000011</t>
-  </si>
-  <si>
-    <t>D000000012</t>
-  </si>
-  <si>
-    <t>D000000013</t>
-  </si>
-  <si>
-    <t>D000000014</t>
-  </si>
-  <si>
-    <t>D000000015</t>
-  </si>
-  <si>
-    <t>D000000016</t>
-  </si>
-  <si>
-    <t>D000000017</t>
-  </si>
-  <si>
-    <t>D000000018</t>
-  </si>
-  <si>
-    <t>D000000019</t>
-  </si>
-  <si>
-    <t>D000000020</t>
-  </si>
-  <si>
-    <t>D000000021</t>
-  </si>
-  <si>
-    <t>D000000022</t>
-  </si>
-  <si>
-    <t>D000000023</t>
-  </si>
-  <si>
-    <t>D000000024</t>
-  </si>
-  <si>
-    <t>D000000025</t>
-  </si>
-  <si>
-    <t>D000000026</t>
-  </si>
-  <si>
-    <t>D000000027</t>
-  </si>
-  <si>
-    <t>D000000028</t>
-  </si>
-  <si>
-    <t>D000000029</t>
-  </si>
-  <si>
-    <t>D000000030</t>
-  </si>
-  <si>
-    <t>D000000031</t>
-  </si>
-  <si>
-    <t>D000000032</t>
-  </si>
-  <si>
-    <t>D000000033</t>
-  </si>
-  <si>
-    <t>D000000034</t>
-  </si>
-  <si>
-    <t>D000000035</t>
-  </si>
-  <si>
-    <t>D000000036</t>
-  </si>
-  <si>
-    <t>D000000037</t>
-  </si>
-  <si>
-    <t>D000000038</t>
-  </si>
-  <si>
-    <t>D000000039</t>
-  </si>
-  <si>
-    <t>D000000040</t>
-  </si>
-  <si>
-    <t>D000000041</t>
-  </si>
-  <si>
-    <t>D000000042</t>
-  </si>
-  <si>
-    <t>D000000043</t>
-  </si>
-  <si>
-    <t>D000000044</t>
-  </si>
-  <si>
-    <t>D000000045</t>
-  </si>
-  <si>
-    <t>D000000046</t>
-  </si>
-  <si>
-    <t>D000000047</t>
-  </si>
-  <si>
-    <t>D000000048</t>
-  </si>
-  <si>
-    <t>D000000049</t>
-  </si>
-  <si>
-    <t>D000000050</t>
-  </si>
-  <si>
-    <t>{"name":"明珠玉","number":"B000000001","phone":"0902563847","titleNo":2,"title":"店員","password":"$2a$12$","isDisabled":false,"isDeleted":false,"createdAt":"2022-10-14T18:49:13.859+00:00"},</t>
-  </si>
-  <si>
-    <t>{"name":"紅綠藍","number":"B000000002","phone":"0928746916","titleNo":2,"title":"店員","password":"$2a$13$","isDisabled":false,"isDeleted":false,"createdAt":"2023-03-10T00:44:44.764+00:00"},</t>
-  </si>
-  <si>
-    <t>{"name":"靈魂歌","number":"B000000003","phone":"0915627043","titleNo":2,"title":"店員","password":"$2a$14$","isDisabled":false,"isDeleted":false,"createdAt":"2022-11-27T14:41:57.206+00:00"},</t>
-  </si>
-  <si>
-    <t>{"name":"雲山水","number":"B000000004","phone":"0945832167","titleNo":2,"title":"店員","password":"$2a$15$","isDisabled":false,"isDeleted":false,"createdAt":"2022-08-12T08:11:58.453+00:00"},</t>
-  </si>
-  <si>
-    <t>{"name":"落花滿","number":"B000000005","phone":"0936472180","titleNo":2,"title":"店員","password":"$2a$16$","isDisabled":false,"isDeleted":false,"createdAt":"2023-03-09T06:16:27.553+00:00"},</t>
-  </si>
-  <si>
-    <t>{"name":"風雅詩","number":"B000000006","phone":"0947526398","titleNo":2,"title":"店員","password":"$2a$17$","isDisabled":false,"isDeleted":false,"createdAt":"2022-09-07T17:42:17.010+00:00"},</t>
-  </si>
-  <si>
-    <t>{"name":"清心福","number":"B000000007","phone":"0957643280","titleNo":2,"title":"店員","password":"$2a$18$","isDisabled":false,"isDeleted":false,"createdAt":"2023-03-20T05:58:38.050+00:00"},</t>
-  </si>
-  <si>
-    <t>{"name":"天幸福","number":"B000000008","phone":"0942879163","titleNo":2,"title":"店員","password":"$2a$19$","isDisabled":false,"isDeleted":false,"createdAt":"2022-08-16T23:52:32.186+00:00"},</t>
-  </si>
-  <si>
-    <t>{"name":"海天地","number":"B000000009","phone":"0975431862","titleNo":2,"title":"店員","password":"$2a$20$","isDisabled":false,"isDeleted":false,"createdAt":"2022-09-22T16:11:57.066+00:00"},</t>
-  </si>
-  <si>
-    <t>{"name":"雨露霜","number":"B000000010","phone":"0958371246","titleNo":2,"title":"店員","password":"$2a$21$","isDisabled":false,"isDeleted":false,"createdAt":"2023-03-22T14:42:41.307+00:00"},</t>
-  </si>
-  <si>
-    <t>{"name":"碧水潭","number":"B000000011","phone":"0928175306","titleNo":2,"title":"店員","password":"$2a$22$","isDisabled":false,"isDeleted":false,"createdAt":"2023-03-05T14:56:36.193+00:00"},</t>
-  </si>
-  <si>
-    <t>{"name":"玉清明","number":"B000000012","phone":"0982764190","titleNo":2,"title":"店員","password":"$2a$23$","isDisabled":false,"isDeleted":false,"createdAt":"2022-09-17T12:01:26.378+00:00"},</t>
-  </si>
-  <si>
-    <t>{"name":"花樹林","number":"B000000013","phone":"0925176038","titleNo":2,"title":"店員","password":"$2a$24$","isDisabled":false,"isDeleted":false,"createdAt":"2022-08-27T08:08:28.325+00:00"},</t>
-  </si>
-  <si>
-    <t>{"name":"莫忘我","number":"B000000014","phone":"0934621857","titleNo":2,"title":"店員","password":"$2a$25$","isDisabled":false,"isDeleted":false,"createdAt":"2022-09-18T19:59:28.817+00:00"},</t>
-  </si>
-  <si>
-    <t>{"name":"夜星辰","number":"B000000015","phone":"0953164782","titleNo":2,"title":"店員","password":"$2a$26$","isDisabled":false,"isDeleted":false,"createdAt":"2023-03-07T19:29:55.573+00:00"},</t>
-  </si>
-  <si>
-    <t>{"name":"雲深處","number":"B000000016","phone":"0908673195","titleNo":2,"title":"店員","password":"$2a$27$","isDisabled":false,"isDeleted":false,"createdAt":"2022-09-28T00:01:25.430+00:00"},</t>
-  </si>
-  <si>
-    <t>{"name":"碧海天","number":"B000000017","phone":"0934528067","titleNo":2,"title":"店員","password":"$2a$28$","isDisabled":false,"isDeleted":false,"createdAt":"2022-10-05T01:23:36.620+00:00"},</t>
-  </si>
-  <si>
-    <t>{"name":"春花香","number":"B000000018","phone":"0943621587","titleNo":2,"title":"店員","password":"$2a$29$","isDisabled":false,"isDeleted":false,"createdAt":"2022-12-16T04:22:56.472+00:00"},</t>
-  </si>
-  <si>
-    <t>{"name":"紅梅雪","number":"B000000019","phone":"0975268431","titleNo":2,"title":"店員","password":"$2a$30$","isDisabled":false,"isDeleted":false,"createdAt":"2022-11-03T22:43:38.292+00:00"},</t>
-  </si>
-  <si>
-    <t>{"name":"紫薇仙","number":"B000000020","phone":"0974820315","titleNo":2,"title":"店員","password":"$2a$31$","isDisabled":false,"isDeleted":false,"createdAt":"2022-12-11T09:06:17.449+00:00"},</t>
-  </si>
-  <si>
-    <t>{"name":"梅花鶯","number":"B000000021","phone":"0918634257","titleNo":2,"title":"店員","password":"$2a$32$","isDisabled":false,"isDeleted":false,"createdAt":"2022-11-15T23:25:28.472+00:00"},</t>
-  </si>
-  <si>
-    <t>{"name":"雲半天","number":"B000000022","phone":"0914275386","titleNo":2,"title":"店員","password":"$2a$33$","isDisabled":false,"isDeleted":false,"createdAt":"2022-11-08T13:18:58.676+00:00"},</t>
-  </si>
-  <si>
-    <t>{"name":"海闊天","number":"B000000023","phone":"0982746315","titleNo":2,"title":"店員","password":"$2a$34$","isDisabled":false,"isDeleted":false,"createdAt":"2022-08-22T06:08:12.461+00:00"},</t>
-  </si>
-  <si>
-    <t>{"name":"星火燎","number":"B000000024","phone":"0914265083","titleNo":2,"title":"店員","password":"$2a$35$","isDisabled":false,"isDeleted":false,"createdAt":"2023-04-10T20:45:29.958+00:00"},</t>
-  </si>
-  <si>
-    <t>{"name":"落葉歸","number":"B000000025","phone":"0978426315","titleNo":2,"title":"店員","password":"$2a$36$","isDisabled":false,"isDeleted":false,"createdAt":"2022-11-09T05:47:03.264+00:00"},</t>
-  </si>
-  <si>
-    <t>{"name":"龍飛燕","number":"B000000026","phone":"0963182457","titleNo":2,"title":"店員","password":"$2a$37$","isDisabled":false,"isDeleted":false,"createdAt":"2022-12-16T11:45:18.400+00:00"},</t>
-  </si>
-  <si>
-    <t>{"name":"雪蓮花","number":"B000000027","phone":"0986314275","titleNo":2,"title":"店員","password":"$2a$38$","isDisabled":false,"isDeleted":false,"createdAt":"2022-12-18T20:13:56.630+00:00"},</t>
-  </si>
-  <si>
-    <t>{"name":"桃花塢","number":"B000000028","phone":"0923184705","titleNo":2,"title":"店員","password":"$2a$39$","isDisabled":false,"isDeleted":false,"createdAt":"2023-03-20T14:22:32.534+00:00"},</t>
-  </si>
-  <si>
-    <t>{"name":"虹彩霓","number":"B000000029","phone":"0938562471","titleNo":2,"title":"店員","password":"$2a$40$","isDisabled":false,"isDeleted":false,"createdAt":"2022-09-27T06:12:35.528+00:00"},</t>
-  </si>
-  <si>
-    <t>{"name":"碧空山","number":"B000000030","phone":"0963185427","titleNo":2,"title":"店員","password":"$2a$41$","isDisabled":false,"isDeleted":false,"createdAt":"2022-09-24T21:07:54.041+00:00"},</t>
-  </si>
-  <si>
-    <t>{"name":"神仙境","number":"C000000001","phone":"0913275640","titleNo":3,"title":"廚師","password":"$2a$42$","isDisabled":false,"isDeleted":false,"createdAt":"2022-11-03T02:20:27.520+00:00"},</t>
-  </si>
-  <si>
-    <t>{"name":"女俠客","number":"C000000002","phone":"0928354167","titleNo":3,"title":"廚師","password":"$2a$43$","isDisabled":false,"isDeleted":false,"createdAt":"2022-09-23T16:34:22.396+00:00"},</t>
-  </si>
-  <si>
-    <t>{"name":"玉琴曲","number":"C000000003","phone":"0938562147","titleNo":3,"title":"廚師","password":"$2a$44$","isDisabled":false,"isDeleted":false,"createdAt":"2022-10-06T08:08:54.794+00:00"},</t>
-  </si>
-  <si>
-    <t>{"name":"雪莊主","number":"C000000004","phone":"0915473286","titleNo":3,"title":"廚師","password":"$2a$45$","isDisabled":false,"isDeleted":false,"createdAt":"2022-09-10T16:48:07.034+00:00"},</t>
-  </si>
-  <si>
-    <t>{"name":"飛鳥想","number":"C000000005","phone":"0956714283","titleNo":3,"title":"廚師","password":"$2a$46$","isDisabled":false,"isDeleted":false,"createdAt":"2022-10-27T01:03:02.509+00:00"},</t>
-  </si>
-  <si>
-    <t>{"name":"春水源","number":"C000000006","phone":"0974286315","titleNo":3,"title":"廚師","password":"$2a$47$","isDisabled":false,"isDeleted":false,"createdAt":"2022-03-20T14:15:34.221+00:00"},</t>
-  </si>
-  <si>
-    <t>{"name":"月傾城","number":"C000000007","phone":"0987312465","titleNo":3,"title":"廚師","password":"$2a$48$","isDisabled":false,"isDeleted":false,"createdAt":"2021-12-14T23:50:09.605+00:00"},</t>
-  </si>
-  <si>
-    <t>{"name":"傾國妃","number":"C000000008","phone":"0925384617","titleNo":3,"title":"廚師","password":"$2a$49$","isDisabled":false,"isDeleted":false,"createdAt":"2023-01-31T21:33:22.703+00:00"},</t>
-  </si>
-  <si>
-    <t>{"name":"飛天舞","number":"C000000009","phone":"0987416235","titleNo":3,"title":"廚師","password":"$2a$50$","isDisabled":false,"isDeleted":false,"createdAt":"2021-10-29T06:25:01.906+00:00"},</t>
-  </si>
-  <si>
-    <t>{"name":"靈龍鳳","number":"C000000010","phone":"0956487312","titleNo":3,"title":"廚師","password":"$2a$51$","isDisabled":false,"isDeleted":false,"createdAt":"2022-09-14T16:43:08.933+00:00"},</t>
-  </si>
-  <si>
-    <t>{"name":"帝皇后","number":"C000000011","phone":"0975426831","titleNo":3,"title":"廚師","password":"$2a$52$","isDisabled":false,"isDeleted":false,"createdAt":"2023-03-23T10:51:51.779+00:00"},</t>
-  </si>
-  <si>
-    <t>{"name":"竹林寺","number":"C000000012","phone":"0973125468","titleNo":3,"title":"廚師","password":"$2a$53$","isDisabled":false,"isDeleted":false,"createdAt":"2022-10-16T17:26:34.926+00:00"},</t>
-  </si>
-  <si>
-    <t>{"name":"白雪糕","number":"C000000013","phone":"0912563478","titleNo":3,"title":"廚師","password":"$2a$54$","isDisabled":false,"isDeleted":false,"createdAt":"2021-08-26T07:39:13.491+00:00"},</t>
-  </si>
-  <si>
-    <t>{"name":"雨雪霜","number":"C000000014","phone":"0942316578","titleNo":3,"title":"廚師","password":"$2a$55$","isDisabled":false,"isDeleted":false,"createdAt":"2021-12-31T12:41:47.066+00:00"},</t>
-  </si>
-  <si>
-    <t>{"name":"燕雀安","number":"C000000015","phone":"0942761538","titleNo":3,"title":"廚師","password":"$2a$56$","isDisabled":false,"isDeleted":false,"createdAt":"2022-06-13T18:07:16.927+00:00"},</t>
-  </si>
-  <si>
-    <t>{"name":"雪藏龍","number":"C000000016","phone":"0946218375","titleNo":3,"title":"廚師","password":"$2a$57$","isDisabled":false,"isDeleted":false,"createdAt":"2022-02-12T07:26:24.855+00:00"},</t>
-  </si>
-  <si>
-    <t>{"name":"雲水月","number":"C000000017","phone":"0943186527","titleNo":3,"title":"廚師","password":"$2a$58$","isDisabled":false,"isDeleted":false,"createdAt":"2021-10-28T08:01:02.832+00:00"},</t>
-  </si>
-  <si>
-    <t>{"name":"雪夜狐","number":"C000000018","phone":"0951847623","titleNo":3,"title":"廚師","password":"$2a$59$","isDisabled":false,"isDeleted":false,"createdAt":"2023-04-08T23:17:47.289+00:00"},</t>
-  </si>
-  <si>
-    <t>{"name":"草原狼","number":"C000000019","phone":"0932764150","titleNo":3,"title":"廚師","password":"$2a$60$","isDisabled":false,"isDeleted":false,"createdAt":"2022-06-21T05:28:50.537+00:00"},</t>
-  </si>
-  <si>
-    <t>{"name":"紅梅香","number":"D000000001","phone":"0902846781","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2021-11-16T04:33:12.354+00:00"},</t>
-  </si>
-  <si>
-    <t>{"name":"花開半","number":"D000000002","phone":"0928765432","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2022-06-01T21:39:16.913+00:00"},</t>
-  </si>
-  <si>
-    <t>{"name":"雪月風","number":"D000000003","phone":"0989154896","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2022-02-15T22:24:18.970+00:00"},</t>
-  </si>
-  <si>
-    <t>{"name":"陽光樂","number":"D000000004","phone":"0902213574","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2022-08-22T11:44:26.424+00:00"},</t>
-  </si>
-  <si>
-    <t>{"name":"花開結","number":"D000000005","phone":"0937723502","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2021-10-15T07:30:19.703+00:00"},</t>
-  </si>
-  <si>
-    <t>{"name":"天香慕","number":"D000000006","phone":"0933543285","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2022-03-29T22:11:47.662+00:00"},</t>
-  </si>
-  <si>
-    <t>{"name":"紅塵客","number":"D000000007","phone":"0964687456","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2021-11-23T15:23:01.228+00:00"},</t>
-  </si>
-  <si>
-    <t>{"name":"琴瑟音","number":"D000000008","phone":"0937645289","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2022-06-06T14:13:27.097+00:00"},</t>
-  </si>
-  <si>
-    <t>{"name":"愛如花","number":"D000000009","phone":"0955432569","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2021-12-17T05:17:57.586+00:00"},</t>
-  </si>
-  <si>
-    <t>{"name":"深海潛","number":"D000000010","phone":"0988542895","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2022-08-04T02:52:55.810+00:00"},</t>
-  </si>
-  <si>
-    <t>{"name":"雨蘭香","number":"D000000011","phone":"0968594321","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2022-03-24T04:22:07.955+00:00"},</t>
-  </si>
-  <si>
-    <t>{"name":"紫陽花","number":"D000000012","phone":"0928596412","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2022-08-25T18:15:32.166+00:00"},</t>
-  </si>
-  <si>
-    <t>{"name":"仙女飛","number":"D000000013","phone":"0975348962","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2022-02-05T09:53:39.014+00:00"},</t>
-  </si>
-  <si>
-    <t>{"name":"雲霧裡","number":"D000000014","phone":"0962358714","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2022-01-21T19:10:03.173+00:00"},</t>
-  </si>
-  <si>
-    <t>{"name":"靈狐仙","number":"D000000015","phone":"0945812376","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2022-03-31T13:19:19.930+00:00"},</t>
-  </si>
-  <si>
-    <t>{"name":"夜雨香","number":"D000000016","phone":"0943192675","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2022-01-28T18:20:50.973+00:00"},</t>
-  </si>
-  <si>
-    <t>{"name":"美人香","number":"D000000017","phone":"0989275631","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2021-11-12T11:48:16.759+00:00"},</t>
-  </si>
-  <si>
-    <t>{"name":"時光倒","number":"D000000018","phone":"0918675423","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2022-01-20T09:05:31.541+00:00"},</t>
-  </si>
-  <si>
-    <t>{"name":"楓葉紅","number":"D000000019","phone":"0921753486","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2022-04-09T01:23:27.904+00:00"},</t>
-  </si>
-  <si>
-    <t>{"name":"愛情路","number":"D000000020","phone":"0941837692","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2021-08-28T02:28:13.324+00:00"},</t>
-  </si>
-  <si>
-    <t>{"name":"梅花雪","number":"D000000021","phone":"0968325471","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2022-10-05T11:34:27.820+00:00"},</t>
-  </si>
-  <si>
-    <t>{"name":"雲中仙","number":"D000000022","phone":"0943685741","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2023-02-05T02:29:14.874+00:00"},</t>
-  </si>
-  <si>
-    <t>{"name":"風雨聲","number":"D000000023","phone":"0973548691","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2023-02-18T03:48:35.504+00:00"},</t>
-  </si>
-  <si>
-    <t>{"name":"桃花緣","number":"D000000024","phone":"0921384765","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2022-10-18T03:12:21.701+00:00"},</t>
-  </si>
-  <si>
-    <t>{"name":"花開花","number":"D000000025","phone":"0962874531","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2022-11-13T22:42:37.486+00:00"},</t>
-  </si>
-  <si>
-    <t>{"name":"天地月","number":"D000000026","phone":"0938567124","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2022-10-16T01:32:03.803+00:00"},</t>
-  </si>
-  <si>
-    <t>{"name":"紫金花","number":"D000000027","phone":"0956782143","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2023-02-06T22:09:31.420+00:00"},</t>
-  </si>
-  <si>
-    <t>{"name":"飛天燕","number":"D000000028","phone":"0978345162","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2022-10-08T08:48:21.518+00:00"},</t>
-  </si>
-  <si>
-    <t>{"name":"紫雲霞","number":"D000000029","phone":"0983657142","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2022-11-25T14:59:56.031+00:00"},</t>
-  </si>
-  <si>
-    <t>{"name":"青山翠","number":"D000000030","phone":"0912673548","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2023-03-07T12:55:36.945+00:00"},</t>
-  </si>
-  <si>
-    <t>{"name":"水墨畫","number":"D000000031","phone":"0963851742","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2022-12-05T21:31:36.919+00:00"},</t>
-  </si>
-  <si>
-    <t>{"name":"蝶戀花","number":"D000000032","phone":"0925176843","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2023-03-02T16:43:49.845+00:00"},</t>
-  </si>
-  <si>
-    <t>{"name":"桃花心","number":"D000000033","phone":"0954213867","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2023-03-22T09:13:24.863+00:00"},</t>
-  </si>
-  <si>
-    <t>{"name":"梅花寒","number":"D000000034","phone":"0945128367","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2022-12-27T01:45:24.083+00:00"},</t>
-  </si>
-  <si>
-    <t>{"name":"雲海深","number":"D000000035","phone":"0941852637","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2022-12-18T04:22:38.697+00:00"},</t>
-  </si>
-  <si>
-    <t>{"name":"雨花石","number":"D000000036","phone":"0916458327","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2023-03-17T09:10:45.040+00:00"},</t>
-  </si>
-  <si>
-    <t>{"name":"星空夜","number":"D000000037","phone":"0987316548","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2022-11-24T13:08:29.524+00:00"},</t>
-  </si>
-  <si>
-    <t>{"name":"金玉滿","number":"D000000038","phone":"0916573842","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2023-01-17T02:02:06.772+00:00"},</t>
-  </si>
-  <si>
-    <t>{"name":"紫竹林","number":"D000000039","phone":"0981654372","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2022-12-25T23:12:11.261+00:00"},</t>
-  </si>
-  <si>
-    <t>{"name":"青青草","number":"D000000040","phone":"0967853412","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2022-10-22T18:45:39.505+00:00"},</t>
-  </si>
-  <si>
-    <t>{"name":"紫羅蘭","number":"D000000041","phone":"0937452168","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2023-03-15T16:33:57.583+00:00"},</t>
-  </si>
-  <si>
-    <t>{"name":"白蘭花","number":"D000000042","phone":"0982734651","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2023-01-06T02:22:11.967+00:00"},</t>
-  </si>
-  <si>
-    <t>{"name":"花海深","number":"D000000043","phone":"0938574612","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2022-10-10T05:28:54.427+00:00"},</t>
-  </si>
-  <si>
-    <t>{"name":"飛燕舞","number":"D000000044","phone":"0962571348","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2022-10-26T17:34:52.986+00:00"},</t>
-  </si>
-  <si>
-    <t>{"name":"玉樹林","number":"D000000045","phone":"0941385762","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2022-11-08T07:51:33.562+00:00"},</t>
-  </si>
-  <si>
-    <t>{"name":"春風吹","number":"D000000046","phone":"0957831642","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2023-02-07T22:33:24.423+00:00"},</t>
-  </si>
-  <si>
-    <t>{"name":"雪山飛","number":"D000000047","phone":"0972365418","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2023-03-20T06:50:01.294+00:00"},</t>
-  </si>
-  <si>
-    <t>{"name":"玫瑰花","number":"D000000048","phone":"0915732846","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2023-03-24T13:06:39.383+00:00"},</t>
-  </si>
-  <si>
-    <t>{"name":"夜色靜","number":"D000000049","phone":"0982175364","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2022-11-18T06:21:05.648+00:00"},</t>
-  </si>
-  <si>
-    <t>{"name":"落日慕","number":"D000000050","phone":"0965873214","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2022-12-28T00:34:03.527+00:00"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"name":"狂風怒","number":"C000000020","phone":"0973125864","titleNo":3,"title":"廚師","password":"$2a$61$","isDisabled":false,"isDeleted":false,"createdAt":"2022-10-04T19:07:36.137+00:00"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>A000000051</t>
+  </si>
+  <si>
+    <t>{"name":"明珠玉","number":"A000000002","phone":"0902563847","titleNo":2,"title":"店員","password":"$2a$12$","isDisabled":false,"isDeleted":false,"createdAt":"2000-03-06T09:12:15.587+00:00"},</t>
+  </si>
+  <si>
+    <t>{"name":"紅綠藍","number":"A000000003","phone":"0928746916","titleNo":2,"title":"店員","password":"$2a$13$","isDisabled":false,"isDeleted":false,"createdAt":"2000-09-29T01:32:44.913+00:00"},</t>
+  </si>
+  <si>
+    <t>{"name":"靈魂歌","number":"A000000004","phone":"0915627043","titleNo":2,"title":"店員","password":"$2a$14$","isDisabled":false,"isDeleted":false,"createdAt":"2001-04-28T15:10:21.938+00:00"},</t>
+  </si>
+  <si>
+    <t>{"name":"雲山水","number":"A000000005","phone":"0945832167","titleNo":2,"title":"店員","password":"$2a$15$","isDisabled":false,"isDeleted":false,"createdAt":"2001-08-12T23:49:53.706+00:00"},</t>
+  </si>
+  <si>
+    <t>{"name":"落花滿","number":"A000000006","phone":"0936472180","titleNo":2,"title":"店員","password":"$2a$16$","isDisabled":false,"isDeleted":false,"createdAt":"2002-02-06T02:08:23.665+00:00"},</t>
+  </si>
+  <si>
+    <t>{"name":"風雅詩","number":"A000000007","phone":"0947526398","titleNo":2,"title":"店員","password":"$2a$17$","isDisabled":false,"isDeleted":false,"createdAt":"2002-05-09T06:17:48.195+00:00"},</t>
+  </si>
+  <si>
+    <t>{"name":"清心福","number":"A000000008","phone":"0957643280","titleNo":2,"title":"店員","password":"$2a$18$","isDisabled":false,"isDeleted":false,"createdAt":"2002-11-06T03:23:20.851+00:00"},</t>
+  </si>
+  <si>
+    <t>{"name":"天幸福","number":"A000000009","phone":"0942879163","titleNo":2,"title":"店員","password":"$2a$19$","isDisabled":false,"isDeleted":false,"createdAt":"2003-02-18T14:51:57.418+00:00"},</t>
+  </si>
+  <si>
+    <t>{"name":"海天地","number":"A000000010","phone":"0975431862","titleNo":2,"title":"店員","password":"$2a$20$","isDisabled":false,"isDeleted":false,"createdAt":"2003-09-06T20:41:55.400+00:00"},</t>
+  </si>
+  <si>
+    <t>{"name":"雨露霜","number":"A000000011","phone":"0958371246","titleNo":2,"title":"店員","password":"$2a$21$","isDisabled":false,"isDeleted":false,"createdAt":"2004-01-20T04:08:07.901+00:00"},</t>
+  </si>
+  <si>
+    <t>{"name":"碧水潭","number":"A000000012","phone":"0928175306","titleNo":2,"title":"店員","password":"$2a$22$","isDisabled":false,"isDeleted":false,"createdAt":"2004-05-23T09:44:10.137+00:00"},</t>
+  </si>
+  <si>
+    <t>{"name":"玉清明","number":"A000000013","phone":"0982764190","titleNo":2,"title":"店員","password":"$2a$23$","isDisabled":false,"isDeleted":false,"createdAt":"2004-11-19T20:14:59.123+00:00"},</t>
+  </si>
+  <si>
+    <t>{"name":"花樹林","number":"A000000014","phone":"0925176038","titleNo":2,"title":"店員","password":"$2a$24$","isDisabled":false,"isDeleted":false,"createdAt":"2005-03-14T05:01:43.017+00:00"},</t>
+  </si>
+  <si>
+    <t>{"name":"莫忘我","number":"A000000015","phone":"0934621857","titleNo":2,"title":"店員","password":"$2a$25$","isDisabled":false,"isDeleted":false,"createdAt":"2005-09-28T01:39:54.016+00:00"},</t>
+  </si>
+  <si>
+    <t>{"name":"夜星辰","number":"A000000016","phone":"0953164782","titleNo":2,"title":"店員","password":"$2a$26$","isDisabled":false,"isDeleted":false,"createdAt":"2006-04-02T17:36:26.284+00:00"},</t>
+  </si>
+  <si>
+    <t>{"name":"雲深處","number":"A000000017","phone":"0908673195","titleNo":2,"title":"店員","password":"$2a$27$","isDisabled":false,"isDeleted":false,"createdAt":"2006-07-13T03:26:07.562+00:00"},</t>
+  </si>
+  <si>
+    <t>{"name":"碧海天","number":"A000000018","phone":"0934528067","titleNo":2,"title":"店員","password":"$2a$28$","isDisabled":false,"isDeleted":false,"createdAt":"2007-01-03T05:51:14.130+00:00"},</t>
+  </si>
+  <si>
+    <t>{"name":"春花香","number":"A000000019","phone":"0943621587","titleNo":2,"title":"店員","password":"$2a$29$","isDisabled":false,"isDeleted":false,"createdAt":"2007-05-29T22:57:03.119+00:00"},</t>
+  </si>
+  <si>
+    <t>{"name":"紅梅雪","number":"A000000020","phone":"0975268431","titleNo":2,"title":"店員","password":"$2a$30$","isDisabled":false,"isDeleted":false,"createdAt":"2007-11-17T15:06:49.564+00:00"},</t>
+  </si>
+  <si>
+    <t>{"name":"紫薇仙","number":"A000000021","phone":"0974820315","titleNo":2,"title":"店員","password":"$2a$31$","isDisabled":false,"isDeleted":false,"createdAt":"2008-04-26T07:32:22.089+00:00"},</t>
+  </si>
+  <si>
+    <t>{"name":"梅花鶯","number":"A000000022","phone":"0918634257","titleNo":2,"title":"店員","password":"$2a$32$","isDisabled":false,"isDeleted":false,"createdAt":"2008-08-14T01:05:49.602+00:00"},</t>
+  </si>
+  <si>
+    <t>{"name":"雲半天","number":"A000000023","phone":"0914275386","titleNo":2,"title":"店員","password":"$2a$33$","isDisabled":false,"isDeleted":false,"createdAt":"2009-02-06T20:11:16.802+00:00"},</t>
+  </si>
+  <si>
+    <t>{"name":"海闊天","number":"A000000024","phone":"0982746315","titleNo":2,"title":"店員","password":"$2a$34$","isDisabled":false,"isDeleted":false,"createdAt":"2009-05-10T14:58:49.383+00:00"},</t>
+  </si>
+  <si>
+    <t>{"name":"星火燎","number":"A000000025","phone":"0914265083","titleNo":2,"title":"店員","password":"$2a$35$","isDisabled":false,"isDeleted":false,"createdAt":"2009-11-16T05:13:57.458+00:00"},</t>
+  </si>
+  <si>
+    <t>{"name":"落葉歸","number":"A000000026","phone":"0978426315","titleNo":2,"title":"店員","password":"$2a$36$","isDisabled":false,"isDeleted":false,"createdAt":"2010-03-14T14:50:24.901+00:00"},</t>
+  </si>
+  <si>
+    <t>{"name":"龍飛燕","number":"A000000027","phone":"0963182457","titleNo":2,"title":"店員","password":"$2a$37$","isDisabled":false,"isDeleted":false,"createdAt":"2010-10-02T23:16:23.166+00:00"},</t>
+  </si>
+  <si>
+    <t>{"name":"雪蓮花","number":"A000000028","phone":"0986314275","titleNo":2,"title":"店員","password":"$2a$38$","isDisabled":false,"isDeleted":false,"createdAt":"2011-03-10T06:25:47.766+00:00"},</t>
+  </si>
+  <si>
+    <t>{"name":"桃花塢","number":"A000000029","phone":"0923184705","titleNo":2,"title":"店員","password":"$2a$39$","isDisabled":false,"isDeleted":false,"createdAt":"2011-06-24T13:06:09.583+00:00"},</t>
+  </si>
+  <si>
+    <t>{"name":"虹彩霓","number":"A000000030","phone":"0938562471","titleNo":2,"title":"店員","password":"$2a$40$","isDisabled":false,"isDeleted":false,"createdAt":"2011-12-13T14:55:38.102+00:00"},</t>
+  </si>
+  <si>
+    <t>{"name":"碧空山","number":"A000000031","phone":"0963185427","titleNo":2,"title":"店員","password":"$2a$41$","isDisabled":false,"isDeleted":false,"createdAt":"2012-06-06T16:58:02.062+00:00"},</t>
+  </si>
+  <si>
+    <t>{"name":"神仙境","number":"A000000032","phone":"0913275640","titleNo":3,"title":"廚師","password":"$2a$42$","isDisabled":false,"isDeleted":false,"createdAt":"2012-09-26T09:06:18.331+00:00"},</t>
+  </si>
+  <si>
+    <t>{"name":"女俠客","number":"A000000033","phone":"0928354167","titleNo":3,"title":"廚師","password":"$2a$43$","isDisabled":false,"isDeleted":false,"createdAt":"2013-03-20T07:47:32.690+00:00"},</t>
+  </si>
+  <si>
+    <t>{"name":"玉琴曲","number":"A000000034","phone":"0938562147","titleNo":3,"title":"廚師","password":"$2a$44$","isDisabled":false,"isDeleted":false,"createdAt":"2013-07-08T19:02:06.226+00:00"},</t>
+  </si>
+  <si>
+    <t>{"name":"雪莊主","number":"A000000035","phone":"0915473286","titleNo":3,"title":"廚師","password":"$2a$45$","isDisabled":false,"isDeleted":false,"createdAt":"2013-12-28T10:22:16.178+00:00"},</t>
+  </si>
+  <si>
+    <t>{"name":"飛鳥想","number":"A000000036","phone":"0956714283","titleNo":3,"title":"廚師","password":"$2a$46$","isDisabled":false,"isDeleted":false,"createdAt":"2014-06-14T07:56:22.222+00:00"},</t>
+  </si>
+  <si>
+    <t>{"name":"春水源","number":"A000000037","phone":"0974286315","titleNo":3,"title":"廚師","password":"$2a$47$","isDisabled":false,"isDeleted":false,"createdAt":"2019-02-04T11:25:45.620+00:00"},</t>
+  </si>
+  <si>
+    <t>{"name":"月傾城","number":"A000000038","phone":"0987312465","titleNo":3,"title":"廚師","password":"$2a$48$","isDisabled":false,"isDeleted":false,"createdAt":"2019-02-10T02:39:15.702+00:00"},</t>
+  </si>
+  <si>
+    <t>{"name":"傾國妃","number":"A000000039","phone":"0925384617","titleNo":3,"title":"廚師","password":"$2a$49$","isDisabled":false,"isDeleted":false,"createdAt":"2019-02-17T21:50:38.816+00:00"},</t>
+  </si>
+  <si>
+    <t>{"name":"飛天舞","number":"A000000040","phone":"0987416235","titleNo":3,"title":"廚師","password":"$2a$50$","isDisabled":false,"isDeleted":false,"createdAt":"2019-03-05T16:10:02.345+00:00"},</t>
+  </si>
+  <si>
+    <t>{"name":"靈龍鳳","number":"A000000041","phone":"0956487312","titleNo":3,"title":"廚師","password":"$2a$51$","isDisabled":false,"isDeleted":false,"createdAt":"2019-03-20T09:55:23.019+00:00"},</t>
+  </si>
+  <si>
+    <t>{"name":"帝皇后","number":"A000000042","phone":"0975426831","titleNo":3,"title":"廚師","password":"$2a$52$","isDisabled":false,"isDeleted":false,"createdAt":"2019-03-23T18:30:12.278+00:00"},</t>
+  </si>
+  <si>
+    <t>{"name":"竹林寺","number":"A000000043","phone":"0973125468","titleNo":3,"title":"廚師","password":"$2a$53$","isDisabled":false,"isDeleted":false,"createdAt":"2019-04-07T14:02:49.893+00:00"},</t>
+  </si>
+  <si>
+    <t>{"name":"白雪糕","number":"A000000044","phone":"0912563478","titleNo":3,"title":"廚師","password":"$2a$54$","isDisabled":false,"isDeleted":false,"createdAt":"2019-04-17T04:59:31.225+00:00"},</t>
+  </si>
+  <si>
+    <t>{"name":"雨雪霜","number":"A000000045","phone":"0942316578","titleNo":3,"title":"廚師","password":"$2a$55$","isDisabled":false,"isDeleted":false,"createdAt":"2019-05-01T20:37:12.500+00:00"},</t>
+  </si>
+  <si>
+    <t>{"name":"燕雀安","number":"A000000046","phone":"0942761538","titleNo":3,"title":"廚師","password":"$2a$56$","isDisabled":false,"isDeleted":false,"createdAt":"2019-05-13T12:44:33.100+00:00"},</t>
+  </si>
+  <si>
+    <t>{"name":"雪藏龍","number":"A000000047","phone":"0946218375","titleNo":3,"title":"廚師","password":"$2a$57$","isDisabled":false,"isDeleted":false,"createdAt":"2019-05-24T03:09:57.405+00:00"},</t>
+  </si>
+  <si>
+    <t>{"name":"雲水月","number":"A000000048","phone":"0943186527","titleNo":3,"title":"廚師","password":"$2a$58$","isDisabled":false,"isDeleted":false,"createdAt":"2019-06-06T23:15:05.168+00:00"},</t>
+  </si>
+  <si>
+    <t>{"name":"雪夜狐","number":"A000000049","phone":"0951847623","titleNo":3,"title":"廚師","password":"$2a$59$","isDisabled":false,"isDeleted":false,"createdAt":"2019-06-14T08:51:22.416+00:00"},</t>
+  </si>
+  <si>
+    <t>{"name":"草原狼","number":"A000000050","phone":"0932764150","titleNo":3,"title":"廚師","password":"$2a$60$","isDisabled":false,"isDeleted":false,"createdAt":"2019-06-25T22:13:59.667+00:00"},</t>
+  </si>
+  <si>
+    <t>{"name":"狂風怒","number":"A000000051","phone":"0973125864","titleNo":3,"title":"廚師","password":"$2a$61$","isDisabled":false,"isDeleted":false,"createdAt":"2019-07-06T19:27:03.214+00:00"},</t>
   </si>
 </sst>
 </file>
@@ -2619,8 +2616,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F8FE226-86DD-44BA-A705-7678BBEC2ADC}">
   <dimension ref="A4:S109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G41" workbookViewId="0">
-      <selection activeCell="S55" sqref="S55"/>
+    <sheetView tabSelected="1" topLeftCell="F41" workbookViewId="0">
+      <selection activeCell="R51" sqref="R51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
@@ -2642,13 +2639,13 @@
         <v>1</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>442</v>
+        <v>387</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>2</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>442</v>
+        <v>387</v>
       </c>
       <c r="H4" t="s">
         <v>3</v>
@@ -2687,13 +2684,13 @@
         <v>明珠玉</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>256</v>
+        <v>236</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>162</v>
+        <v>667</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>356</v>
+        <v>336</v>
       </c>
       <c r="H5" t="str">
         <f>RIGHT(B5,10)</f>
@@ -2715,14 +2712,14 @@
         <v>184</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>407</v>
+        <v>517</v>
       </c>
       <c r="Q5" t="str">
         <f>"{""name"":"""&amp;E5&amp;""",""number"":"""&amp;F5&amp;""",""phone"":"""&amp;H5&amp;""",""titleNo"":"&amp;I5&amp;",""title"":"&amp;J5&amp;",""password"":"&amp;K5&amp;",""isDisabled"":"&amp;L5&amp;",""isDeleted"":"&amp;M5&amp;",""createdAt"":"""&amp;N5&amp;"""},"</f>
-        <v>{"name":"明珠玉","number":"B000000001","phone":"0902563847","titleNo":2,"title":"店員","password":"$2a$12$","isDisabled":false,"isDeleted":false,"createdAt":"2022-10-14T18:49:13.859+00:00"},</v>
+        <v>{"name":"明珠玉","number":"A000000002","phone":"0902563847","titleNo":2,"title":"店員","password":"$2a$12$","isDisabled":false,"isDeleted":false,"createdAt":"2000-03-06T09:12:15.587+00:00"},</v>
       </c>
       <c r="S5" s="2" t="s">
-        <v>619</v>
+        <v>669</v>
       </c>
     </row>
     <row r="6" spans="2:19" x14ac:dyDescent="0.4">
@@ -2737,16 +2734,16 @@
         <v>紅綠藍</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>257</v>
+        <v>237</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>163</v>
+        <v>449</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>357</v>
+        <v>337</v>
       </c>
       <c r="H6" t="str">
-        <f t="shared" ref="H6:H54" si="0">RIGHT(B6,10)</f>
+        <f>RIGHT(B6,10)</f>
         <v>0928746916</v>
       </c>
       <c r="I6" s="2" t="s">
@@ -2765,14 +2762,14 @@
         <v>184</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>408</v>
+        <v>518</v>
       </c>
       <c r="Q6" t="str">
-        <f t="shared" ref="Q6:Q54" si="1">"{""name"":"""&amp;E6&amp;""",""number"":"""&amp;F6&amp;""",""phone"":"""&amp;H6&amp;""",""titleNo"":"&amp;I6&amp;",""title"":"&amp;J6&amp;",""password"":"&amp;K6&amp;",""isDisabled"":"&amp;L6&amp;",""isDeleted"":"&amp;M6&amp;",""createdAt"":"""&amp;N6&amp;"""},"</f>
-        <v>{"name":"紅綠藍","number":"B000000002","phone":"0928746916","titleNo":2,"title":"店員","password":"$2a$13$","isDisabled":false,"isDeleted":false,"createdAt":"2023-03-10T00:44:44.764+00:00"},</v>
+        <f t="shared" ref="Q6:Q54" si="0">"{""name"":"""&amp;E6&amp;""",""number"":"""&amp;F6&amp;""",""phone"":"""&amp;H6&amp;""",""titleNo"":"&amp;I6&amp;",""title"":"&amp;J6&amp;",""password"":"&amp;K6&amp;",""isDisabled"":"&amp;L6&amp;",""isDeleted"":"&amp;M6&amp;",""createdAt"":"""&amp;N6&amp;"""},"</f>
+        <v>{"name":"紅綠藍","number":"A000000003","phone":"0928746916","titleNo":2,"title":"店員","password":"$2a$13$","isDisabled":false,"isDeleted":false,"createdAt":"2000-09-29T01:32:44.913+00:00"},</v>
       </c>
       <c r="S6" s="2" t="s">
-        <v>620</v>
+        <v>670</v>
       </c>
     </row>
     <row r="7" spans="2:19" x14ac:dyDescent="0.4">
@@ -2783,20 +2780,20 @@
         <v>11</v>
       </c>
       <c r="D7" s="2" t="str">
-        <f t="shared" ref="D7:D54" si="2">RIGHT(C7,3)</f>
+        <f t="shared" ref="D7:D54" si="1">RIGHT(C7,3)</f>
         <v>靈魂歌</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>258</v>
+        <v>238</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>164</v>
+        <v>450</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>358</v>
+        <v>338</v>
       </c>
       <c r="H7" t="str">
-        <f t="shared" si="0"/>
+        <f>RIGHT(B7,10)</f>
         <v>0915627043</v>
       </c>
       <c r="I7" s="2" t="s">
@@ -2815,14 +2812,14 @@
         <v>184</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>409</v>
+        <v>519</v>
       </c>
       <c r="Q7" t="str">
-        <f t="shared" si="1"/>
-        <v>{"name":"靈魂歌","number":"B000000003","phone":"0915627043","titleNo":2,"title":"店員","password":"$2a$14$","isDisabled":false,"isDeleted":false,"createdAt":"2022-11-27T14:41:57.206+00:00"},</v>
+        <f t="shared" si="0"/>
+        <v>{"name":"靈魂歌","number":"A000000004","phone":"0915627043","titleNo":2,"title":"店員","password":"$2a$14$","isDisabled":false,"isDeleted":false,"createdAt":"2001-04-28T15:10:21.938+00:00"},</v>
       </c>
       <c r="S7" s="2" t="s">
-        <v>621</v>
+        <v>671</v>
       </c>
     </row>
     <row r="8" spans="2:19" x14ac:dyDescent="0.4">
@@ -2833,20 +2830,20 @@
         <v>12</v>
       </c>
       <c r="D8" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>雲山水</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>259</v>
+        <v>239</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>165</v>
+        <v>451</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>359</v>
+        <v>339</v>
       </c>
       <c r="H8" t="str">
-        <f t="shared" si="0"/>
+        <f>RIGHT(B8,10)</f>
         <v>0945832167</v>
       </c>
       <c r="I8" s="2" t="s">
@@ -2865,14 +2862,14 @@
         <v>184</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>410</v>
+        <v>520</v>
       </c>
       <c r="Q8" t="str">
-        <f t="shared" si="1"/>
-        <v>{"name":"雲山水","number":"B000000004","phone":"0945832167","titleNo":2,"title":"店員","password":"$2a$15$","isDisabled":false,"isDeleted":false,"createdAt":"2022-08-12T08:11:58.453+00:00"},</v>
+        <f t="shared" si="0"/>
+        <v>{"name":"雲山水","number":"A000000005","phone":"0945832167","titleNo":2,"title":"店員","password":"$2a$15$","isDisabled":false,"isDeleted":false,"createdAt":"2001-08-12T23:49:53.706+00:00"},</v>
       </c>
       <c r="S8" s="2" t="s">
-        <v>622</v>
+        <v>672</v>
       </c>
     </row>
     <row r="9" spans="2:19" x14ac:dyDescent="0.4">
@@ -2883,20 +2880,20 @@
         <v>13</v>
       </c>
       <c r="D9" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>落花滿</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>166</v>
+        <v>452</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>360</v>
+        <v>340</v>
       </c>
       <c r="H9" t="str">
-        <f t="shared" si="0"/>
+        <f>RIGHT(B9,10)</f>
         <v>0936472180</v>
       </c>
       <c r="I9" s="2" t="s">
@@ -2915,14 +2912,14 @@
         <v>184</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>411</v>
+        <v>521</v>
       </c>
       <c r="Q9" t="str">
-        <f t="shared" si="1"/>
-        <v>{"name":"落花滿","number":"B000000005","phone":"0936472180","titleNo":2,"title":"店員","password":"$2a$16$","isDisabled":false,"isDeleted":false,"createdAt":"2023-03-09T06:16:27.553+00:00"},</v>
+        <f t="shared" si="0"/>
+        <v>{"name":"落花滿","number":"A000000006","phone":"0936472180","titleNo":2,"title":"店員","password":"$2a$16$","isDisabled":false,"isDeleted":false,"createdAt":"2002-02-06T02:08:23.665+00:00"},</v>
       </c>
       <c r="S9" s="2" t="s">
-        <v>623</v>
+        <v>673</v>
       </c>
     </row>
     <row r="10" spans="2:19" x14ac:dyDescent="0.4">
@@ -2933,20 +2930,20 @@
         <v>14</v>
       </c>
       <c r="D10" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>風雅詩</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>261</v>
+        <v>241</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>167</v>
+        <v>453</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>361</v>
+        <v>341</v>
       </c>
       <c r="H10" t="str">
-        <f t="shared" si="0"/>
+        <f>RIGHT(B10,10)</f>
         <v>0947526398</v>
       </c>
       <c r="I10" s="2" t="s">
@@ -2965,14 +2962,14 @@
         <v>184</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>412</v>
+        <v>522</v>
       </c>
       <c r="Q10" t="str">
-        <f t="shared" si="1"/>
-        <v>{"name":"風雅詩","number":"B000000006","phone":"0947526398","titleNo":2,"title":"店員","password":"$2a$17$","isDisabled":false,"isDeleted":false,"createdAt":"2022-09-07T17:42:17.010+00:00"},</v>
+        <f t="shared" si="0"/>
+        <v>{"name":"風雅詩","number":"A000000007","phone":"0947526398","titleNo":2,"title":"店員","password":"$2a$17$","isDisabled":false,"isDeleted":false,"createdAt":"2002-05-09T06:17:48.195+00:00"},</v>
       </c>
       <c r="S10" s="2" t="s">
-        <v>624</v>
+        <v>674</v>
       </c>
     </row>
     <row r="11" spans="2:19" x14ac:dyDescent="0.4">
@@ -2983,20 +2980,20 @@
         <v>15</v>
       </c>
       <c r="D11" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>清心福</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>262</v>
+        <v>242</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>168</v>
+        <v>454</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>362</v>
+        <v>342</v>
       </c>
       <c r="H11" t="str">
-        <f t="shared" si="0"/>
+        <f>RIGHT(B11,10)</f>
         <v>0957643280</v>
       </c>
       <c r="I11" s="2" t="s">
@@ -3015,14 +3012,14 @@
         <v>184</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>413</v>
+        <v>523</v>
       </c>
       <c r="Q11" t="str">
-        <f t="shared" si="1"/>
-        <v>{"name":"清心福","number":"B000000007","phone":"0957643280","titleNo":2,"title":"店員","password":"$2a$18$","isDisabled":false,"isDeleted":false,"createdAt":"2023-03-20T05:58:38.050+00:00"},</v>
+        <f t="shared" si="0"/>
+        <v>{"name":"清心福","number":"A000000008","phone":"0957643280","titleNo":2,"title":"店員","password":"$2a$18$","isDisabled":false,"isDeleted":false,"createdAt":"2002-11-06T03:23:20.851+00:00"},</v>
       </c>
       <c r="S11" s="2" t="s">
-        <v>625</v>
+        <v>675</v>
       </c>
     </row>
     <row r="12" spans="2:19" x14ac:dyDescent="0.4">
@@ -3033,20 +3030,20 @@
         <v>16</v>
       </c>
       <c r="D12" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>天幸福</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>263</v>
+        <v>243</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>169</v>
+        <v>455</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>363</v>
+        <v>343</v>
       </c>
       <c r="H12" t="str">
-        <f t="shared" si="0"/>
+        <f>RIGHT(B12,10)</f>
         <v>0942879163</v>
       </c>
       <c r="I12" s="2" t="s">
@@ -3065,14 +3062,14 @@
         <v>184</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>414</v>
+        <v>524</v>
       </c>
       <c r="Q12" t="str">
-        <f t="shared" si="1"/>
-        <v>{"name":"天幸福","number":"B000000008","phone":"0942879163","titleNo":2,"title":"店員","password":"$2a$19$","isDisabled":false,"isDeleted":false,"createdAt":"2022-08-16T23:52:32.186+00:00"},</v>
+        <f t="shared" si="0"/>
+        <v>{"name":"天幸福","number":"A000000009","phone":"0942879163","titleNo":2,"title":"店員","password":"$2a$19$","isDisabled":false,"isDeleted":false,"createdAt":"2003-02-18T14:51:57.418+00:00"},</v>
       </c>
       <c r="S12" s="2" t="s">
-        <v>626</v>
+        <v>676</v>
       </c>
     </row>
     <row r="13" spans="2:19" x14ac:dyDescent="0.4">
@@ -3083,20 +3080,20 @@
         <v>17</v>
       </c>
       <c r="D13" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>海天地</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>264</v>
+        <v>244</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>170</v>
+        <v>456</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>364</v>
+        <v>344</v>
       </c>
       <c r="H13" t="str">
-        <f t="shared" si="0"/>
+        <f>RIGHT(B13,10)</f>
         <v>0975431862</v>
       </c>
       <c r="I13" s="2" t="s">
@@ -3115,14 +3112,14 @@
         <v>184</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>415</v>
+        <v>525</v>
       </c>
       <c r="Q13" t="str">
-        <f t="shared" si="1"/>
-        <v>{"name":"海天地","number":"B000000009","phone":"0975431862","titleNo":2,"title":"店員","password":"$2a$20$","isDisabled":false,"isDeleted":false,"createdAt":"2022-09-22T16:11:57.066+00:00"},</v>
+        <f t="shared" si="0"/>
+        <v>{"name":"海天地","number":"A000000010","phone":"0975431862","titleNo":2,"title":"店員","password":"$2a$20$","isDisabled":false,"isDeleted":false,"createdAt":"2003-09-06T20:41:55.400+00:00"},</v>
       </c>
       <c r="S13" s="2" t="s">
-        <v>627</v>
+        <v>677</v>
       </c>
     </row>
     <row r="14" spans="2:19" x14ac:dyDescent="0.4">
@@ -3133,20 +3130,20 @@
         <v>18</v>
       </c>
       <c r="D14" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>雨露霜</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>265</v>
+        <v>245</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>171</v>
+        <v>457</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>365</v>
+        <v>345</v>
       </c>
       <c r="H14" t="str">
-        <f t="shared" si="0"/>
+        <f>RIGHT(B14,10)</f>
         <v>0958371246</v>
       </c>
       <c r="I14" s="2" t="s">
@@ -3165,14 +3162,14 @@
         <v>184</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>416</v>
+        <v>526</v>
       </c>
       <c r="Q14" t="str">
-        <f t="shared" si="1"/>
-        <v>{"name":"雨露霜","number":"B000000010","phone":"0958371246","titleNo":2,"title":"店員","password":"$2a$21$","isDisabled":false,"isDeleted":false,"createdAt":"2023-03-22T14:42:41.307+00:00"},</v>
+        <f t="shared" si="0"/>
+        <v>{"name":"雨露霜","number":"A000000011","phone":"0958371246","titleNo":2,"title":"店員","password":"$2a$21$","isDisabled":false,"isDeleted":false,"createdAt":"2004-01-20T04:08:07.901+00:00"},</v>
       </c>
       <c r="S14" s="2" t="s">
-        <v>628</v>
+        <v>678</v>
       </c>
     </row>
     <row r="15" spans="2:19" x14ac:dyDescent="0.4">
@@ -3183,20 +3180,20 @@
         <v>19</v>
       </c>
       <c r="D15" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>碧水潭</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>266</v>
+        <v>246</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>172</v>
+        <v>458</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>366</v>
+        <v>346</v>
       </c>
       <c r="H15" t="str">
-        <f t="shared" si="0"/>
+        <f>RIGHT(B15,10)</f>
         <v>0928175306</v>
       </c>
       <c r="I15" s="2" t="s">
@@ -3215,14 +3212,14 @@
         <v>184</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>417</v>
+        <v>527</v>
       </c>
       <c r="Q15" t="str">
-        <f t="shared" si="1"/>
-        <v>{"name":"碧水潭","number":"B000000011","phone":"0928175306","titleNo":2,"title":"店員","password":"$2a$22$","isDisabled":false,"isDeleted":false,"createdAt":"2023-03-05T14:56:36.193+00:00"},</v>
+        <f t="shared" si="0"/>
+        <v>{"name":"碧水潭","number":"A000000012","phone":"0928175306","titleNo":2,"title":"店員","password":"$2a$22$","isDisabled":false,"isDeleted":false,"createdAt":"2004-05-23T09:44:10.137+00:00"},</v>
       </c>
       <c r="S15" s="2" t="s">
-        <v>629</v>
+        <v>679</v>
       </c>
     </row>
     <row r="16" spans="2:19" x14ac:dyDescent="0.4">
@@ -3233,20 +3230,20 @@
         <v>20</v>
       </c>
       <c r="D16" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>玉清明</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>267</v>
+        <v>247</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>173</v>
+        <v>459</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>367</v>
+        <v>347</v>
       </c>
       <c r="H16" t="str">
-        <f t="shared" si="0"/>
+        <f>RIGHT(B16,10)</f>
         <v>0982764190</v>
       </c>
       <c r="I16" s="2" t="s">
@@ -3265,14 +3262,14 @@
         <v>184</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>418</v>
+        <v>528</v>
       </c>
       <c r="Q16" t="str">
-        <f t="shared" si="1"/>
-        <v>{"name":"玉清明","number":"B000000012","phone":"0982764190","titleNo":2,"title":"店員","password":"$2a$23$","isDisabled":false,"isDeleted":false,"createdAt":"2022-09-17T12:01:26.378+00:00"},</v>
+        <f t="shared" si="0"/>
+        <v>{"name":"玉清明","number":"A000000013","phone":"0982764190","titleNo":2,"title":"店員","password":"$2a$23$","isDisabled":false,"isDeleted":false,"createdAt":"2004-11-19T20:14:59.123+00:00"},</v>
       </c>
       <c r="S16" s="2" t="s">
-        <v>630</v>
+        <v>680</v>
       </c>
     </row>
     <row r="17" spans="2:19" x14ac:dyDescent="0.4">
@@ -3283,20 +3280,20 @@
         <v>21</v>
       </c>
       <c r="D17" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>花樹林</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>268</v>
+        <v>248</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>174</v>
+        <v>460</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>368</v>
+        <v>348</v>
       </c>
       <c r="H17" t="str">
-        <f t="shared" si="0"/>
+        <f>RIGHT(B17,10)</f>
         <v>0925176038</v>
       </c>
       <c r="I17" s="2" t="s">
@@ -3315,14 +3312,14 @@
         <v>184</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>419</v>
+        <v>529</v>
       </c>
       <c r="Q17" t="str">
-        <f t="shared" si="1"/>
-        <v>{"name":"花樹林","number":"B000000013","phone":"0925176038","titleNo":2,"title":"店員","password":"$2a$24$","isDisabled":false,"isDeleted":false,"createdAt":"2022-08-27T08:08:28.325+00:00"},</v>
+        <f t="shared" si="0"/>
+        <v>{"name":"花樹林","number":"A000000014","phone":"0925176038","titleNo":2,"title":"店員","password":"$2a$24$","isDisabled":false,"isDeleted":false,"createdAt":"2005-03-14T05:01:43.017+00:00"},</v>
       </c>
       <c r="S17" s="2" t="s">
-        <v>631</v>
+        <v>681</v>
       </c>
     </row>
     <row r="18" spans="2:19" x14ac:dyDescent="0.4">
@@ -3333,20 +3330,20 @@
         <v>22</v>
       </c>
       <c r="D18" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>莫忘我</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>269</v>
+        <v>249</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>175</v>
+        <v>461</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>369</v>
+        <v>349</v>
       </c>
       <c r="H18" t="str">
-        <f t="shared" si="0"/>
+        <f>RIGHT(B18,10)</f>
         <v>0934621857</v>
       </c>
       <c r="I18" s="2" t="s">
@@ -3365,14 +3362,14 @@
         <v>184</v>
       </c>
       <c r="N18" s="1" t="s">
-        <v>420</v>
+        <v>530</v>
       </c>
       <c r="Q18" t="str">
-        <f t="shared" si="1"/>
-        <v>{"name":"莫忘我","number":"B000000014","phone":"0934621857","titleNo":2,"title":"店員","password":"$2a$25$","isDisabled":false,"isDeleted":false,"createdAt":"2022-09-18T19:59:28.817+00:00"},</v>
+        <f t="shared" si="0"/>
+        <v>{"name":"莫忘我","number":"A000000015","phone":"0934621857","titleNo":2,"title":"店員","password":"$2a$25$","isDisabled":false,"isDeleted":false,"createdAt":"2005-09-28T01:39:54.016+00:00"},</v>
       </c>
       <c r="S18" s="2" t="s">
-        <v>632</v>
+        <v>682</v>
       </c>
     </row>
     <row r="19" spans="2:19" x14ac:dyDescent="0.4">
@@ -3383,20 +3380,20 @@
         <v>23</v>
       </c>
       <c r="D19" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>夜星辰</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>270</v>
+        <v>250</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>176</v>
+        <v>462</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>370</v>
+        <v>350</v>
       </c>
       <c r="H19" t="str">
-        <f t="shared" si="0"/>
+        <f>RIGHT(B19,10)</f>
         <v>0953164782</v>
       </c>
       <c r="I19" s="2" t="s">
@@ -3415,14 +3412,14 @@
         <v>184</v>
       </c>
       <c r="N19" s="1" t="s">
-        <v>421</v>
+        <v>531</v>
       </c>
       <c r="Q19" t="str">
-        <f t="shared" si="1"/>
-        <v>{"name":"夜星辰","number":"B000000015","phone":"0953164782","titleNo":2,"title":"店員","password":"$2a$26$","isDisabled":false,"isDeleted":false,"createdAt":"2023-03-07T19:29:55.573+00:00"},</v>
+        <f t="shared" si="0"/>
+        <v>{"name":"夜星辰","number":"A000000016","phone":"0953164782","titleNo":2,"title":"店員","password":"$2a$26$","isDisabled":false,"isDeleted":false,"createdAt":"2006-04-02T17:36:26.284+00:00"},</v>
       </c>
       <c r="S19" s="2" t="s">
-        <v>633</v>
+        <v>683</v>
       </c>
     </row>
     <row r="20" spans="2:19" x14ac:dyDescent="0.4">
@@ -3433,20 +3430,20 @@
         <v>24</v>
       </c>
       <c r="D20" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>雲深處</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>271</v>
+        <v>251</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>177</v>
+        <v>463</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>371</v>
+        <v>351</v>
       </c>
       <c r="H20" t="str">
-        <f t="shared" si="0"/>
+        <f>RIGHT(B20,10)</f>
         <v>0908673195</v>
       </c>
       <c r="I20" s="2" t="s">
@@ -3465,14 +3462,14 @@
         <v>184</v>
       </c>
       <c r="N20" s="1" t="s">
-        <v>422</v>
+        <v>532</v>
       </c>
       <c r="Q20" t="str">
-        <f t="shared" si="1"/>
-        <v>{"name":"雲深處","number":"B000000016","phone":"0908673195","titleNo":2,"title":"店員","password":"$2a$27$","isDisabled":false,"isDeleted":false,"createdAt":"2022-09-28T00:01:25.430+00:00"},</v>
+        <f t="shared" si="0"/>
+        <v>{"name":"雲深處","number":"A000000017","phone":"0908673195","titleNo":2,"title":"店員","password":"$2a$27$","isDisabled":false,"isDeleted":false,"createdAt":"2006-07-13T03:26:07.562+00:00"},</v>
       </c>
       <c r="S20" s="2" t="s">
-        <v>634</v>
+        <v>684</v>
       </c>
     </row>
     <row r="21" spans="2:19" x14ac:dyDescent="0.4">
@@ -3483,20 +3480,20 @@
         <v>25</v>
       </c>
       <c r="D21" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>碧海天</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>272</v>
+        <v>252</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>178</v>
+        <v>464</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>372</v>
+        <v>352</v>
       </c>
       <c r="H21" t="str">
-        <f t="shared" si="0"/>
+        <f>RIGHT(B21,10)</f>
         <v>0934528067</v>
       </c>
       <c r="I21" s="2" t="s">
@@ -3515,14 +3512,14 @@
         <v>184</v>
       </c>
       <c r="N21" s="1" t="s">
-        <v>423</v>
+        <v>533</v>
       </c>
       <c r="Q21" t="str">
-        <f t="shared" si="1"/>
-        <v>{"name":"碧海天","number":"B000000017","phone":"0934528067","titleNo":2,"title":"店員","password":"$2a$28$","isDisabled":false,"isDeleted":false,"createdAt":"2022-10-05T01:23:36.620+00:00"},</v>
+        <f t="shared" si="0"/>
+        <v>{"name":"碧海天","number":"A000000018","phone":"0934528067","titleNo":2,"title":"店員","password":"$2a$28$","isDisabled":false,"isDeleted":false,"createdAt":"2007-01-03T05:51:14.130+00:00"},</v>
       </c>
       <c r="S21" s="2" t="s">
-        <v>635</v>
+        <v>685</v>
       </c>
     </row>
     <row r="22" spans="2:19" x14ac:dyDescent="0.4">
@@ -3533,20 +3530,20 @@
         <v>26</v>
       </c>
       <c r="D22" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>春花香</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>273</v>
+        <v>253</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>179</v>
+        <v>465</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>373</v>
+        <v>353</v>
       </c>
       <c r="H22" t="str">
-        <f t="shared" si="0"/>
+        <f>RIGHT(B22,10)</f>
         <v>0943621587</v>
       </c>
       <c r="I22" s="2" t="s">
@@ -3565,14 +3562,14 @@
         <v>184</v>
       </c>
       <c r="N22" s="1" t="s">
-        <v>424</v>
+        <v>534</v>
       </c>
       <c r="Q22" t="str">
-        <f t="shared" si="1"/>
-        <v>{"name":"春花香","number":"B000000018","phone":"0943621587","titleNo":2,"title":"店員","password":"$2a$29$","isDisabled":false,"isDeleted":false,"createdAt":"2022-12-16T04:22:56.472+00:00"},</v>
+        <f t="shared" si="0"/>
+        <v>{"name":"春花香","number":"A000000019","phone":"0943621587","titleNo":2,"title":"店員","password":"$2a$29$","isDisabled":false,"isDeleted":false,"createdAt":"2007-05-29T22:57:03.119+00:00"},</v>
       </c>
       <c r="S22" s="2" t="s">
-        <v>636</v>
+        <v>686</v>
       </c>
     </row>
     <row r="23" spans="2:19" x14ac:dyDescent="0.4">
@@ -3583,20 +3580,20 @@
         <v>27</v>
       </c>
       <c r="D23" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>紅梅雪</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>274</v>
+        <v>254</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>180</v>
+        <v>466</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>374</v>
+        <v>354</v>
       </c>
       <c r="H23" t="str">
-        <f t="shared" si="0"/>
+        <f>RIGHT(B23,10)</f>
         <v>0975268431</v>
       </c>
       <c r="I23" s="2" t="s">
@@ -3615,14 +3612,14 @@
         <v>184</v>
       </c>
       <c r="N23" s="1" t="s">
-        <v>425</v>
+        <v>535</v>
       </c>
       <c r="Q23" t="str">
-        <f t="shared" si="1"/>
-        <v>{"name":"紅梅雪","number":"B000000019","phone":"0975268431","titleNo":2,"title":"店員","password":"$2a$30$","isDisabled":false,"isDeleted":false,"createdAt":"2022-11-03T22:43:38.292+00:00"},</v>
+        <f t="shared" si="0"/>
+        <v>{"name":"紅梅雪","number":"A000000020","phone":"0975268431","titleNo":2,"title":"店員","password":"$2a$30$","isDisabled":false,"isDeleted":false,"createdAt":"2007-11-17T15:06:49.564+00:00"},</v>
       </c>
       <c r="S23" s="2" t="s">
-        <v>637</v>
+        <v>687</v>
       </c>
     </row>
     <row r="24" spans="2:19" x14ac:dyDescent="0.4">
@@ -3633,20 +3630,20 @@
         <v>28</v>
       </c>
       <c r="D24" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>紫薇仙</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>275</v>
+        <v>255</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>181</v>
+        <v>467</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>375</v>
+        <v>355</v>
       </c>
       <c r="H24" t="str">
-        <f t="shared" si="0"/>
+        <f>RIGHT(B24,10)</f>
         <v>0974820315</v>
       </c>
       <c r="I24" s="2" t="s">
@@ -3665,14 +3662,14 @@
         <v>184</v>
       </c>
       <c r="N24" s="1" t="s">
-        <v>426</v>
+        <v>536</v>
       </c>
       <c r="Q24" t="str">
-        <f t="shared" si="1"/>
-        <v>{"name":"紫薇仙","number":"B000000020","phone":"0974820315","titleNo":2,"title":"店員","password":"$2a$31$","isDisabled":false,"isDeleted":false,"createdAt":"2022-12-11T09:06:17.449+00:00"},</v>
+        <f t="shared" si="0"/>
+        <v>{"name":"紫薇仙","number":"A000000021","phone":"0974820315","titleNo":2,"title":"店員","password":"$2a$31$","isDisabled":false,"isDeleted":false,"createdAt":"2008-04-26T07:32:22.089+00:00"},</v>
       </c>
       <c r="S24" s="2" t="s">
-        <v>638</v>
+        <v>688</v>
       </c>
     </row>
     <row r="25" spans="2:19" x14ac:dyDescent="0.4">
@@ -3683,20 +3680,20 @@
         <v>29</v>
       </c>
       <c r="D25" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>梅花鶯</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>276</v>
+        <v>256</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>559</v>
+        <v>468</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>376</v>
+        <v>356</v>
       </c>
       <c r="H25" t="str">
-        <f t="shared" si="0"/>
+        <f>RIGHT(B25,10)</f>
         <v>0918634257</v>
       </c>
       <c r="I25" s="2" t="s">
@@ -3715,14 +3712,14 @@
         <v>184</v>
       </c>
       <c r="N25" s="1" t="s">
-        <v>427</v>
+        <v>537</v>
       </c>
       <c r="Q25" t="str">
-        <f t="shared" si="1"/>
-        <v>{"name":"梅花鶯","number":"B000000021","phone":"0918634257","titleNo":2,"title":"店員","password":"$2a$32$","isDisabled":false,"isDeleted":false,"createdAt":"2022-11-15T23:25:28.472+00:00"},</v>
+        <f t="shared" si="0"/>
+        <v>{"name":"梅花鶯","number":"A000000022","phone":"0918634257","titleNo":2,"title":"店員","password":"$2a$32$","isDisabled":false,"isDeleted":false,"createdAt":"2008-08-14T01:05:49.602+00:00"},</v>
       </c>
       <c r="S25" s="2" t="s">
-        <v>639</v>
+        <v>689</v>
       </c>
     </row>
     <row r="26" spans="2:19" x14ac:dyDescent="0.4">
@@ -3733,20 +3730,20 @@
         <v>30</v>
       </c>
       <c r="D26" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>雲半天</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>277</v>
+        <v>257</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>560</v>
+        <v>469</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>377</v>
+        <v>357</v>
       </c>
       <c r="H26" t="str">
-        <f t="shared" si="0"/>
+        <f>RIGHT(B26,10)</f>
         <v>0914275386</v>
       </c>
       <c r="I26" s="2" t="s">
@@ -3765,14 +3762,14 @@
         <v>184</v>
       </c>
       <c r="N26" s="1" t="s">
-        <v>428</v>
+        <v>538</v>
       </c>
       <c r="Q26" t="str">
-        <f t="shared" si="1"/>
-        <v>{"name":"雲半天","number":"B000000022","phone":"0914275386","titleNo":2,"title":"店員","password":"$2a$33$","isDisabled":false,"isDeleted":false,"createdAt":"2022-11-08T13:18:58.676+00:00"},</v>
+        <f t="shared" si="0"/>
+        <v>{"name":"雲半天","number":"A000000023","phone":"0914275386","titleNo":2,"title":"店員","password":"$2a$33$","isDisabled":false,"isDeleted":false,"createdAt":"2009-02-06T20:11:16.802+00:00"},</v>
       </c>
       <c r="S26" s="2" t="s">
-        <v>640</v>
+        <v>690</v>
       </c>
     </row>
     <row r="27" spans="2:19" x14ac:dyDescent="0.4">
@@ -3783,20 +3780,20 @@
         <v>31</v>
       </c>
       <c r="D27" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>海闊天</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>278</v>
+        <v>258</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>561</v>
+        <v>470</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>378</v>
+        <v>358</v>
       </c>
       <c r="H27" t="str">
-        <f t="shared" si="0"/>
+        <f>RIGHT(B27,10)</f>
         <v>0982746315</v>
       </c>
       <c r="I27" s="2" t="s">
@@ -3815,14 +3812,14 @@
         <v>184</v>
       </c>
       <c r="N27" s="1" t="s">
-        <v>429</v>
+        <v>539</v>
       </c>
       <c r="Q27" t="str">
-        <f t="shared" si="1"/>
-        <v>{"name":"海闊天","number":"B000000023","phone":"0982746315","titleNo":2,"title":"店員","password":"$2a$34$","isDisabled":false,"isDeleted":false,"createdAt":"2022-08-22T06:08:12.461+00:00"},</v>
+        <f t="shared" si="0"/>
+        <v>{"name":"海闊天","number":"A000000024","phone":"0982746315","titleNo":2,"title":"店員","password":"$2a$34$","isDisabled":false,"isDeleted":false,"createdAt":"2009-05-10T14:58:49.383+00:00"},</v>
       </c>
       <c r="S27" s="2" t="s">
-        <v>641</v>
+        <v>691</v>
       </c>
     </row>
     <row r="28" spans="2:19" x14ac:dyDescent="0.4">
@@ -3833,20 +3830,20 @@
         <v>32</v>
       </c>
       <c r="D28" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>星火燎</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>279</v>
+        <v>259</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>562</v>
+        <v>471</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>379</v>
+        <v>359</v>
       </c>
       <c r="H28" t="str">
-        <f t="shared" si="0"/>
+        <f>RIGHT(B28,10)</f>
         <v>0914265083</v>
       </c>
       <c r="I28" s="2" t="s">
@@ -3865,14 +3862,14 @@
         <v>184</v>
       </c>
       <c r="N28" s="1" t="s">
-        <v>430</v>
+        <v>540</v>
       </c>
       <c r="Q28" t="str">
-        <f t="shared" si="1"/>
-        <v>{"name":"星火燎","number":"B000000024","phone":"0914265083","titleNo":2,"title":"店員","password":"$2a$35$","isDisabled":false,"isDeleted":false,"createdAt":"2023-04-10T20:45:29.958+00:00"},</v>
+        <f t="shared" si="0"/>
+        <v>{"name":"星火燎","number":"A000000025","phone":"0914265083","titleNo":2,"title":"店員","password":"$2a$35$","isDisabled":false,"isDeleted":false,"createdAt":"2009-11-16T05:13:57.458+00:00"},</v>
       </c>
       <c r="S28" s="2" t="s">
-        <v>642</v>
+        <v>692</v>
       </c>
     </row>
     <row r="29" spans="2:19" x14ac:dyDescent="0.4">
@@ -3883,20 +3880,20 @@
         <v>33</v>
       </c>
       <c r="D29" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>落葉歸</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>280</v>
+        <v>260</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>563</v>
+        <v>472</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>380</v>
+        <v>360</v>
       </c>
       <c r="H29" t="str">
-        <f t="shared" si="0"/>
+        <f>RIGHT(B29,10)</f>
         <v>0978426315</v>
       </c>
       <c r="I29" s="2" t="s">
@@ -3915,14 +3912,14 @@
         <v>184</v>
       </c>
       <c r="N29" s="1" t="s">
-        <v>431</v>
+        <v>541</v>
       </c>
       <c r="Q29" t="str">
-        <f t="shared" si="1"/>
-        <v>{"name":"落葉歸","number":"B000000025","phone":"0978426315","titleNo":2,"title":"店員","password":"$2a$36$","isDisabled":false,"isDeleted":false,"createdAt":"2022-11-09T05:47:03.264+00:00"},</v>
+        <f t="shared" si="0"/>
+        <v>{"name":"落葉歸","number":"A000000026","phone":"0978426315","titleNo":2,"title":"店員","password":"$2a$36$","isDisabled":false,"isDeleted":false,"createdAt":"2010-03-14T14:50:24.901+00:00"},</v>
       </c>
       <c r="S29" s="2" t="s">
-        <v>643</v>
+        <v>693</v>
       </c>
     </row>
     <row r="30" spans="2:19" x14ac:dyDescent="0.4">
@@ -3933,20 +3930,20 @@
         <v>34</v>
       </c>
       <c r="D30" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>龍飛燕</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>281</v>
+        <v>261</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>564</v>
+        <v>473</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>381</v>
+        <v>361</v>
       </c>
       <c r="H30" t="str">
-        <f t="shared" si="0"/>
+        <f>RIGHT(B30,10)</f>
         <v>0963182457</v>
       </c>
       <c r="I30" s="2" t="s">
@@ -3965,14 +3962,14 @@
         <v>184</v>
       </c>
       <c r="N30" s="1" t="s">
-        <v>432</v>
+        <v>542</v>
       </c>
       <c r="Q30" t="str">
-        <f t="shared" si="1"/>
-        <v>{"name":"龍飛燕","number":"B000000026","phone":"0963182457","titleNo":2,"title":"店員","password":"$2a$37$","isDisabled":false,"isDeleted":false,"createdAt":"2022-12-16T11:45:18.400+00:00"},</v>
+        <f t="shared" si="0"/>
+        <v>{"name":"龍飛燕","number":"A000000027","phone":"0963182457","titleNo":2,"title":"店員","password":"$2a$37$","isDisabled":false,"isDeleted":false,"createdAt":"2010-10-02T23:16:23.166+00:00"},</v>
       </c>
       <c r="S30" s="2" t="s">
-        <v>644</v>
+        <v>694</v>
       </c>
     </row>
     <row r="31" spans="2:19" x14ac:dyDescent="0.4">
@@ -3983,20 +3980,20 @@
         <v>35</v>
       </c>
       <c r="D31" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>雪蓮花</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>282</v>
+        <v>262</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>565</v>
+        <v>474</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>382</v>
+        <v>362</v>
       </c>
       <c r="H31" t="str">
-        <f t="shared" si="0"/>
+        <f>RIGHT(B31,10)</f>
         <v>0986314275</v>
       </c>
       <c r="I31" s="2" t="s">
@@ -4015,14 +4012,14 @@
         <v>184</v>
       </c>
       <c r="N31" s="1" t="s">
-        <v>433</v>
+        <v>543</v>
       </c>
       <c r="Q31" t="str">
-        <f t="shared" si="1"/>
-        <v>{"name":"雪蓮花","number":"B000000027","phone":"0986314275","titleNo":2,"title":"店員","password":"$2a$38$","isDisabled":false,"isDeleted":false,"createdAt":"2022-12-18T20:13:56.630+00:00"},</v>
+        <f t="shared" si="0"/>
+        <v>{"name":"雪蓮花","number":"A000000028","phone":"0986314275","titleNo":2,"title":"店員","password":"$2a$38$","isDisabled":false,"isDeleted":false,"createdAt":"2011-03-10T06:25:47.766+00:00"},</v>
       </c>
       <c r="S31" s="2" t="s">
-        <v>645</v>
+        <v>695</v>
       </c>
     </row>
     <row r="32" spans="2:19" x14ac:dyDescent="0.4">
@@ -4033,20 +4030,20 @@
         <v>36</v>
       </c>
       <c r="D32" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>桃花塢</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>283</v>
+        <v>263</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>566</v>
+        <v>475</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>383</v>
+        <v>363</v>
       </c>
       <c r="H32" t="str">
-        <f t="shared" si="0"/>
+        <f>RIGHT(B32,10)</f>
         <v>0923184705</v>
       </c>
       <c r="I32" s="2" t="s">
@@ -4065,14 +4062,14 @@
         <v>184</v>
       </c>
       <c r="N32" s="1" t="s">
-        <v>434</v>
+        <v>544</v>
       </c>
       <c r="Q32" t="str">
-        <f t="shared" si="1"/>
-        <v>{"name":"桃花塢","number":"B000000028","phone":"0923184705","titleNo":2,"title":"店員","password":"$2a$39$","isDisabled":false,"isDeleted":false,"createdAt":"2023-03-20T14:22:32.534+00:00"},</v>
+        <f t="shared" si="0"/>
+        <v>{"name":"桃花塢","number":"A000000029","phone":"0923184705","titleNo":2,"title":"店員","password":"$2a$39$","isDisabled":false,"isDeleted":false,"createdAt":"2011-06-24T13:06:09.583+00:00"},</v>
       </c>
       <c r="S32" s="2" t="s">
-        <v>646</v>
+        <v>696</v>
       </c>
     </row>
     <row r="33" spans="2:19" x14ac:dyDescent="0.4">
@@ -4083,20 +4080,20 @@
         <v>37</v>
       </c>
       <c r="D33" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>虹彩霓</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>284</v>
+        <v>264</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>567</v>
+        <v>476</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>384</v>
+        <v>364</v>
       </c>
       <c r="H33" t="str">
-        <f t="shared" si="0"/>
+        <f>RIGHT(B33,10)</f>
         <v>0938562471</v>
       </c>
       <c r="I33" s="2" t="s">
@@ -4115,14 +4112,14 @@
         <v>184</v>
       </c>
       <c r="N33" s="1" t="s">
-        <v>435</v>
+        <v>545</v>
       </c>
       <c r="Q33" t="str">
-        <f t="shared" si="1"/>
-        <v>{"name":"虹彩霓","number":"B000000029","phone":"0938562471","titleNo":2,"title":"店員","password":"$2a$40$","isDisabled":false,"isDeleted":false,"createdAt":"2022-09-27T06:12:35.528+00:00"},</v>
+        <f t="shared" si="0"/>
+        <v>{"name":"虹彩霓","number":"A000000030","phone":"0938562471","titleNo":2,"title":"店員","password":"$2a$40$","isDisabled":false,"isDeleted":false,"createdAt":"2011-12-13T14:55:38.102+00:00"},</v>
       </c>
       <c r="S33" s="2" t="s">
-        <v>647</v>
+        <v>697</v>
       </c>
     </row>
     <row r="34" spans="2:19" x14ac:dyDescent="0.4">
@@ -4133,20 +4130,20 @@
         <v>38</v>
       </c>
       <c r="D34" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>碧空山</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>285</v>
+        <v>265</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>568</v>
+        <v>477</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>385</v>
+        <v>365</v>
       </c>
       <c r="H34" t="str">
-        <f t="shared" si="0"/>
+        <f>RIGHT(B34,10)</f>
         <v>0963185427</v>
       </c>
       <c r="I34" s="2" t="s">
@@ -4165,14 +4162,14 @@
         <v>184</v>
       </c>
       <c r="N34" s="1" t="s">
-        <v>436</v>
+        <v>546</v>
       </c>
       <c r="Q34" t="str">
-        <f t="shared" si="1"/>
-        <v>{"name":"碧空山","number":"B000000030","phone":"0963185427","titleNo":2,"title":"店員","password":"$2a$41$","isDisabled":false,"isDeleted":false,"createdAt":"2022-09-24T21:07:54.041+00:00"},</v>
+        <f t="shared" si="0"/>
+        <v>{"name":"碧空山","number":"A000000031","phone":"0963185427","titleNo":2,"title":"店員","password":"$2a$41$","isDisabled":false,"isDeleted":false,"createdAt":"2012-06-06T16:58:02.062+00:00"},</v>
       </c>
       <c r="S34" s="2" t="s">
-        <v>648</v>
+        <v>698</v>
       </c>
     </row>
     <row r="35" spans="2:19" x14ac:dyDescent="0.4">
@@ -4183,20 +4180,20 @@
         <v>39</v>
       </c>
       <c r="D35" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>神仙境</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>286</v>
+        <v>266</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>235</v>
+        <v>478</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>386</v>
+        <v>366</v>
       </c>
       <c r="H35" t="str">
-        <f t="shared" si="0"/>
+        <f>RIGHT(B35,10)</f>
         <v>0913275640</v>
       </c>
       <c r="I35" s="2" t="s">
@@ -4215,14 +4212,14 @@
         <v>184</v>
       </c>
       <c r="N35" s="1" t="s">
-        <v>437</v>
+        <v>547</v>
       </c>
       <c r="Q35" t="str">
-        <f t="shared" si="1"/>
-        <v>{"name":"神仙境","number":"C000000001","phone":"0913275640","titleNo":3,"title":"廚師","password":"$2a$42$","isDisabled":false,"isDeleted":false,"createdAt":"2022-11-03T02:20:27.520+00:00"},</v>
+        <f t="shared" si="0"/>
+        <v>{"name":"神仙境","number":"A000000032","phone":"0913275640","titleNo":3,"title":"廚師","password":"$2a$42$","isDisabled":false,"isDeleted":false,"createdAt":"2012-09-26T09:06:18.331+00:00"},</v>
       </c>
       <c r="S35" s="2" t="s">
-        <v>649</v>
+        <v>699</v>
       </c>
     </row>
     <row r="36" spans="2:19" x14ac:dyDescent="0.4">
@@ -4233,20 +4230,20 @@
         <v>40</v>
       </c>
       <c r="D36" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>女俠客</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>287</v>
+        <v>267</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>236</v>
+        <v>479</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>387</v>
+        <v>367</v>
       </c>
       <c r="H36" t="str">
-        <f t="shared" si="0"/>
+        <f>RIGHT(B36,10)</f>
         <v>0928354167</v>
       </c>
       <c r="I36" s="2" t="s">
@@ -4265,14 +4262,14 @@
         <v>184</v>
       </c>
       <c r="N36" s="1" t="s">
-        <v>438</v>
+        <v>548</v>
       </c>
       <c r="Q36" t="str">
-        <f t="shared" si="1"/>
-        <v>{"name":"女俠客","number":"C000000002","phone":"0928354167","titleNo":3,"title":"廚師","password":"$2a$43$","isDisabled":false,"isDeleted":false,"createdAt":"2022-09-23T16:34:22.396+00:00"},</v>
+        <f t="shared" si="0"/>
+        <v>{"name":"女俠客","number":"A000000033","phone":"0928354167","titleNo":3,"title":"廚師","password":"$2a$43$","isDisabled":false,"isDeleted":false,"createdAt":"2013-03-20T07:47:32.690+00:00"},</v>
       </c>
       <c r="S36" s="2" t="s">
-        <v>650</v>
+        <v>700</v>
       </c>
     </row>
     <row r="37" spans="2:19" x14ac:dyDescent="0.4">
@@ -4283,20 +4280,20 @@
         <v>41</v>
       </c>
       <c r="D37" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>玉琴曲</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>288</v>
+        <v>268</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>237</v>
+        <v>480</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>388</v>
+        <v>368</v>
       </c>
       <c r="H37" t="str">
-        <f t="shared" si="0"/>
+        <f>RIGHT(B37,10)</f>
         <v>0938562147</v>
       </c>
       <c r="I37" s="2" t="s">
@@ -4315,14 +4312,14 @@
         <v>184</v>
       </c>
       <c r="N37" s="1" t="s">
-        <v>439</v>
+        <v>549</v>
       </c>
       <c r="Q37" t="str">
-        <f t="shared" si="1"/>
-        <v>{"name":"玉琴曲","number":"C000000003","phone":"0938562147","titleNo":3,"title":"廚師","password":"$2a$44$","isDisabled":false,"isDeleted":false,"createdAt":"2022-10-06T08:08:54.794+00:00"},</v>
+        <f t="shared" si="0"/>
+        <v>{"name":"玉琴曲","number":"A000000034","phone":"0938562147","titleNo":3,"title":"廚師","password":"$2a$44$","isDisabled":false,"isDeleted":false,"createdAt":"2013-07-08T19:02:06.226+00:00"},</v>
       </c>
       <c r="S37" s="2" t="s">
-        <v>651</v>
+        <v>701</v>
       </c>
     </row>
     <row r="38" spans="2:19" x14ac:dyDescent="0.4">
@@ -4333,20 +4330,20 @@
         <v>42</v>
       </c>
       <c r="D38" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>雪莊主</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>289</v>
+        <v>269</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>238</v>
+        <v>481</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>389</v>
+        <v>369</v>
       </c>
       <c r="H38" t="str">
-        <f t="shared" si="0"/>
+        <f>RIGHT(B38,10)</f>
         <v>0915473286</v>
       </c>
       <c r="I38" s="2" t="s">
@@ -4365,14 +4362,14 @@
         <v>184</v>
       </c>
       <c r="N38" s="1" t="s">
-        <v>440</v>
+        <v>550</v>
       </c>
       <c r="Q38" t="str">
-        <f t="shared" si="1"/>
-        <v>{"name":"雪莊主","number":"C000000004","phone":"0915473286","titleNo":3,"title":"廚師","password":"$2a$45$","isDisabled":false,"isDeleted":false,"createdAt":"2022-09-10T16:48:07.034+00:00"},</v>
+        <f t="shared" si="0"/>
+        <v>{"name":"雪莊主","number":"A000000035","phone":"0915473286","titleNo":3,"title":"廚師","password":"$2a$45$","isDisabled":false,"isDeleted":false,"createdAt":"2013-12-28T10:22:16.178+00:00"},</v>
       </c>
       <c r="S38" s="2" t="s">
-        <v>652</v>
+        <v>702</v>
       </c>
     </row>
     <row r="39" spans="2:19" x14ac:dyDescent="0.4">
@@ -4383,20 +4380,20 @@
         <v>43</v>
       </c>
       <c r="D39" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>飛鳥想</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>290</v>
+        <v>270</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>239</v>
+        <v>482</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>390</v>
+        <v>370</v>
       </c>
       <c r="H39" t="str">
-        <f t="shared" si="0"/>
+        <f>RIGHT(B39,10)</f>
         <v>0956714283</v>
       </c>
       <c r="I39" s="2" t="s">
@@ -4415,14 +4412,14 @@
         <v>184</v>
       </c>
       <c r="N39" s="1" t="s">
-        <v>441</v>
+        <v>551</v>
       </c>
       <c r="Q39" t="str">
-        <f t="shared" si="1"/>
-        <v>{"name":"飛鳥想","number":"C000000005","phone":"0956714283","titleNo":3,"title":"廚師","password":"$2a$46$","isDisabled":false,"isDeleted":false,"createdAt":"2022-10-27T01:03:02.509+00:00"},</v>
+        <f t="shared" si="0"/>
+        <v>{"name":"飛鳥想","number":"A000000036","phone":"0956714283","titleNo":3,"title":"廚師","password":"$2a$46$","isDisabled":false,"isDeleted":false,"createdAt":"2014-06-14T07:56:22.222+00:00"},</v>
       </c>
       <c r="S39" s="2" t="s">
-        <v>653</v>
+        <v>703</v>
       </c>
     </row>
     <row r="40" spans="2:19" x14ac:dyDescent="0.4">
@@ -4433,20 +4430,20 @@
         <v>44</v>
       </c>
       <c r="D40" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>春水源</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>291</v>
+        <v>271</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>240</v>
+        <v>483</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>391</v>
+        <v>371</v>
       </c>
       <c r="H40" t="str">
-        <f t="shared" si="0"/>
+        <f>RIGHT(B40,10)</f>
         <v>0974286315</v>
       </c>
       <c r="I40" s="2" t="s">
@@ -4465,14 +4462,14 @@
         <v>184</v>
       </c>
       <c r="N40" s="1" t="s">
-        <v>443</v>
+        <v>552</v>
       </c>
       <c r="Q40" t="str">
-        <f t="shared" si="1"/>
-        <v>{"name":"春水源","number":"C000000006","phone":"0974286315","titleNo":3,"title":"廚師","password":"$2a$47$","isDisabled":false,"isDeleted":false,"createdAt":"2022-03-20T14:15:34.221+00:00"},</v>
+        <f t="shared" si="0"/>
+        <v>{"name":"春水源","number":"A000000037","phone":"0974286315","titleNo":3,"title":"廚師","password":"$2a$47$","isDisabled":false,"isDeleted":false,"createdAt":"2019-02-04T11:25:45.620+00:00"},</v>
       </c>
       <c r="S40" s="2" t="s">
-        <v>654</v>
+        <v>704</v>
       </c>
     </row>
     <row r="41" spans="2:19" x14ac:dyDescent="0.4">
@@ -4483,20 +4480,20 @@
         <v>45</v>
       </c>
       <c r="D41" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>月傾城</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>292</v>
+        <v>272</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>241</v>
+        <v>484</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>392</v>
+        <v>372</v>
       </c>
       <c r="H41" t="str">
-        <f t="shared" si="0"/>
+        <f>RIGHT(B41,10)</f>
         <v>0987312465</v>
       </c>
       <c r="I41" s="2" t="s">
@@ -4515,14 +4512,14 @@
         <v>184</v>
       </c>
       <c r="N41" s="1" t="s">
-        <v>444</v>
+        <v>553</v>
       </c>
       <c r="Q41" t="str">
-        <f t="shared" si="1"/>
-        <v>{"name":"月傾城","number":"C000000007","phone":"0987312465","titleNo":3,"title":"廚師","password":"$2a$48$","isDisabled":false,"isDeleted":false,"createdAt":"2021-12-14T23:50:09.605+00:00"},</v>
+        <f t="shared" si="0"/>
+        <v>{"name":"月傾城","number":"A000000038","phone":"0987312465","titleNo":3,"title":"廚師","password":"$2a$48$","isDisabled":false,"isDeleted":false,"createdAt":"2019-02-10T02:39:15.702+00:00"},</v>
       </c>
       <c r="S41" s="2" t="s">
-        <v>655</v>
+        <v>705</v>
       </c>
     </row>
     <row r="42" spans="2:19" x14ac:dyDescent="0.4">
@@ -4533,20 +4530,20 @@
         <v>46</v>
       </c>
       <c r="D42" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>傾國妃</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>293</v>
+        <v>273</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>242</v>
+        <v>485</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>393</v>
+        <v>373</v>
       </c>
       <c r="H42" t="str">
-        <f t="shared" si="0"/>
+        <f>RIGHT(B42,10)</f>
         <v>0925384617</v>
       </c>
       <c r="I42" s="2" t="s">
@@ -4565,14 +4562,14 @@
         <v>184</v>
       </c>
       <c r="N42" s="1" t="s">
-        <v>445</v>
+        <v>554</v>
       </c>
       <c r="Q42" t="str">
-        <f t="shared" si="1"/>
-        <v>{"name":"傾國妃","number":"C000000008","phone":"0925384617","titleNo":3,"title":"廚師","password":"$2a$49$","isDisabled":false,"isDeleted":false,"createdAt":"2023-01-31T21:33:22.703+00:00"},</v>
+        <f t="shared" si="0"/>
+        <v>{"name":"傾國妃","number":"A000000039","phone":"0925384617","titleNo":3,"title":"廚師","password":"$2a$49$","isDisabled":false,"isDeleted":false,"createdAt":"2019-02-17T21:50:38.816+00:00"},</v>
       </c>
       <c r="S42" s="2" t="s">
-        <v>656</v>
+        <v>706</v>
       </c>
     </row>
     <row r="43" spans="2:19" x14ac:dyDescent="0.4">
@@ -4583,20 +4580,20 @@
         <v>47</v>
       </c>
       <c r="D43" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>飛天舞</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>294</v>
+        <v>274</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>243</v>
+        <v>486</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>394</v>
+        <v>374</v>
       </c>
       <c r="H43" t="str">
-        <f t="shared" si="0"/>
+        <f>RIGHT(B43,10)</f>
         <v>0987416235</v>
       </c>
       <c r="I43" s="2" t="s">
@@ -4615,14 +4612,14 @@
         <v>184</v>
       </c>
       <c r="N43" s="1" t="s">
-        <v>446</v>
+        <v>555</v>
       </c>
       <c r="Q43" t="str">
-        <f t="shared" si="1"/>
-        <v>{"name":"飛天舞","number":"C000000009","phone":"0987416235","titleNo":3,"title":"廚師","password":"$2a$50$","isDisabled":false,"isDeleted":false,"createdAt":"2021-10-29T06:25:01.906+00:00"},</v>
+        <f t="shared" si="0"/>
+        <v>{"name":"飛天舞","number":"A000000040","phone":"0987416235","titleNo":3,"title":"廚師","password":"$2a$50$","isDisabled":false,"isDeleted":false,"createdAt":"2019-03-05T16:10:02.345+00:00"},</v>
       </c>
       <c r="S43" s="2" t="s">
-        <v>657</v>
+        <v>707</v>
       </c>
     </row>
     <row r="44" spans="2:19" x14ac:dyDescent="0.4">
@@ -4633,20 +4630,20 @@
         <v>48</v>
       </c>
       <c r="D44" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>靈龍鳳</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>295</v>
+        <v>275</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>244</v>
+        <v>487</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>395</v>
+        <v>375</v>
       </c>
       <c r="H44" t="str">
-        <f t="shared" si="0"/>
+        <f>RIGHT(B44,10)</f>
         <v>0956487312</v>
       </c>
       <c r="I44" s="2" t="s">
@@ -4665,14 +4662,14 @@
         <v>184</v>
       </c>
       <c r="N44" s="1" t="s">
-        <v>447</v>
+        <v>556</v>
       </c>
       <c r="Q44" t="str">
-        <f t="shared" si="1"/>
-        <v>{"name":"靈龍鳳","number":"C000000010","phone":"0956487312","titleNo":3,"title":"廚師","password":"$2a$51$","isDisabled":false,"isDeleted":false,"createdAt":"2022-09-14T16:43:08.933+00:00"},</v>
+        <f t="shared" si="0"/>
+        <v>{"name":"靈龍鳳","number":"A000000041","phone":"0956487312","titleNo":3,"title":"廚師","password":"$2a$51$","isDisabled":false,"isDeleted":false,"createdAt":"2019-03-20T09:55:23.019+00:00"},</v>
       </c>
       <c r="S44" s="2" t="s">
-        <v>658</v>
+        <v>708</v>
       </c>
     </row>
     <row r="45" spans="2:19" x14ac:dyDescent="0.4">
@@ -4683,20 +4680,20 @@
         <v>49</v>
       </c>
       <c r="D45" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>帝皇后</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>296</v>
+        <v>276</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>245</v>
+        <v>488</v>
       </c>
       <c r="G45" s="4" t="s">
-        <v>396</v>
+        <v>376</v>
       </c>
       <c r="H45" t="str">
-        <f t="shared" si="0"/>
+        <f>RIGHT(B45,10)</f>
         <v>0975426831</v>
       </c>
       <c r="I45" s="2" t="s">
@@ -4715,14 +4712,14 @@
         <v>184</v>
       </c>
       <c r="N45" s="1" t="s">
-        <v>448</v>
+        <v>557</v>
       </c>
       <c r="Q45" t="str">
-        <f t="shared" si="1"/>
-        <v>{"name":"帝皇后","number":"C000000011","phone":"0975426831","titleNo":3,"title":"廚師","password":"$2a$52$","isDisabled":false,"isDeleted":false,"createdAt":"2023-03-23T10:51:51.779+00:00"},</v>
+        <f t="shared" si="0"/>
+        <v>{"name":"帝皇后","number":"A000000042","phone":"0975426831","titleNo":3,"title":"廚師","password":"$2a$52$","isDisabled":false,"isDeleted":false,"createdAt":"2019-03-23T18:30:12.278+00:00"},</v>
       </c>
       <c r="S45" s="2" t="s">
-        <v>659</v>
+        <v>709</v>
       </c>
     </row>
     <row r="46" spans="2:19" x14ac:dyDescent="0.4">
@@ -4733,20 +4730,20 @@
         <v>50</v>
       </c>
       <c r="D46" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>竹林寺</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>297</v>
+        <v>277</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>246</v>
+        <v>489</v>
       </c>
       <c r="G46" s="4" t="s">
-        <v>397</v>
+        <v>377</v>
       </c>
       <c r="H46" t="str">
-        <f t="shared" si="0"/>
+        <f>RIGHT(B46,10)</f>
         <v>0973125468</v>
       </c>
       <c r="I46" s="2" t="s">
@@ -4765,14 +4762,14 @@
         <v>184</v>
       </c>
       <c r="N46" s="1" t="s">
-        <v>449</v>
+        <v>558</v>
       </c>
       <c r="Q46" t="str">
-        <f t="shared" si="1"/>
-        <v>{"name":"竹林寺","number":"C000000012","phone":"0973125468","titleNo":3,"title":"廚師","password":"$2a$53$","isDisabled":false,"isDeleted":false,"createdAt":"2022-10-16T17:26:34.926+00:00"},</v>
+        <f t="shared" si="0"/>
+        <v>{"name":"竹林寺","number":"A000000043","phone":"0973125468","titleNo":3,"title":"廚師","password":"$2a$53$","isDisabled":false,"isDeleted":false,"createdAt":"2019-04-07T14:02:49.893+00:00"},</v>
       </c>
       <c r="S46" s="2" t="s">
-        <v>660</v>
+        <v>710</v>
       </c>
     </row>
     <row r="47" spans="2:19" x14ac:dyDescent="0.4">
@@ -4783,20 +4780,20 @@
         <v>51</v>
       </c>
       <c r="D47" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>白雪糕</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>298</v>
+        <v>278</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>247</v>
+        <v>490</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>398</v>
+        <v>378</v>
       </c>
       <c r="H47" t="str">
-        <f t="shared" si="0"/>
+        <f>RIGHT(B47,10)</f>
         <v>0912563478</v>
       </c>
       <c r="I47" s="2" t="s">
@@ -4815,14 +4812,14 @@
         <v>184</v>
       </c>
       <c r="N47" s="1" t="s">
-        <v>450</v>
+        <v>559</v>
       </c>
       <c r="Q47" t="str">
-        <f t="shared" si="1"/>
-        <v>{"name":"白雪糕","number":"C000000013","phone":"0912563478","titleNo":3,"title":"廚師","password":"$2a$54$","isDisabled":false,"isDeleted":false,"createdAt":"2021-08-26T07:39:13.491+00:00"},</v>
+        <f t="shared" si="0"/>
+        <v>{"name":"白雪糕","number":"A000000044","phone":"0912563478","titleNo":3,"title":"廚師","password":"$2a$54$","isDisabled":false,"isDeleted":false,"createdAt":"2019-04-17T04:59:31.225+00:00"},</v>
       </c>
       <c r="S47" s="2" t="s">
-        <v>661</v>
+        <v>711</v>
       </c>
     </row>
     <row r="48" spans="2:19" x14ac:dyDescent="0.4">
@@ -4833,20 +4830,20 @@
         <v>52</v>
       </c>
       <c r="D48" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>雨雪霜</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>299</v>
+        <v>279</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>248</v>
+        <v>491</v>
       </c>
       <c r="G48" s="4" t="s">
-        <v>399</v>
+        <v>379</v>
       </c>
       <c r="H48" t="str">
-        <f t="shared" si="0"/>
+        <f>RIGHT(B48,10)</f>
         <v>0942316578</v>
       </c>
       <c r="I48" s="2" t="s">
@@ -4865,14 +4862,14 @@
         <v>184</v>
       </c>
       <c r="N48" s="1" t="s">
-        <v>451</v>
+        <v>560</v>
       </c>
       <c r="Q48" t="str">
-        <f t="shared" si="1"/>
-        <v>{"name":"雨雪霜","number":"C000000014","phone":"0942316578","titleNo":3,"title":"廚師","password":"$2a$55$","isDisabled":false,"isDeleted":false,"createdAt":"2021-12-31T12:41:47.066+00:00"},</v>
+        <f t="shared" si="0"/>
+        <v>{"name":"雨雪霜","number":"A000000045","phone":"0942316578","titleNo":3,"title":"廚師","password":"$2a$55$","isDisabled":false,"isDeleted":false,"createdAt":"2019-05-01T20:37:12.500+00:00"},</v>
       </c>
       <c r="S48" s="2" t="s">
-        <v>662</v>
+        <v>712</v>
       </c>
     </row>
     <row r="49" spans="1:19" x14ac:dyDescent="0.4">
@@ -4883,20 +4880,20 @@
         <v>53</v>
       </c>
       <c r="D49" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>燕雀安</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>300</v>
+        <v>280</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>249</v>
+        <v>492</v>
       </c>
       <c r="G49" s="4" t="s">
-        <v>400</v>
+        <v>380</v>
       </c>
       <c r="H49" t="str">
-        <f t="shared" si="0"/>
+        <f>RIGHT(B49,10)</f>
         <v>0942761538</v>
       </c>
       <c r="I49" s="2" t="s">
@@ -4915,14 +4912,14 @@
         <v>184</v>
       </c>
       <c r="N49" s="1" t="s">
-        <v>452</v>
+        <v>561</v>
       </c>
       <c r="Q49" t="str">
-        <f t="shared" si="1"/>
-        <v>{"name":"燕雀安","number":"C000000015","phone":"0942761538","titleNo":3,"title":"廚師","password":"$2a$56$","isDisabled":false,"isDeleted":false,"createdAt":"2022-06-13T18:07:16.927+00:00"},</v>
+        <f t="shared" si="0"/>
+        <v>{"name":"燕雀安","number":"A000000046","phone":"0942761538","titleNo":3,"title":"廚師","password":"$2a$56$","isDisabled":false,"isDeleted":false,"createdAt":"2019-05-13T12:44:33.100+00:00"},</v>
       </c>
       <c r="S49" s="2" t="s">
-        <v>663</v>
+        <v>713</v>
       </c>
     </row>
     <row r="50" spans="1:19" x14ac:dyDescent="0.4">
@@ -4933,20 +4930,20 @@
         <v>54</v>
       </c>
       <c r="D50" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>雪藏龍</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>301</v>
+        <v>281</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>250</v>
+        <v>493</v>
       </c>
       <c r="G50" s="4" t="s">
-        <v>401</v>
+        <v>381</v>
       </c>
       <c r="H50" t="str">
-        <f t="shared" si="0"/>
+        <f>RIGHT(B50,10)</f>
         <v>0946218375</v>
       </c>
       <c r="I50" s="2" t="s">
@@ -4965,14 +4962,14 @@
         <v>184</v>
       </c>
       <c r="N50" s="1" t="s">
-        <v>453</v>
+        <v>562</v>
       </c>
       <c r="Q50" t="str">
-        <f t="shared" si="1"/>
-        <v>{"name":"雪藏龍","number":"C000000016","phone":"0946218375","titleNo":3,"title":"廚師","password":"$2a$57$","isDisabled":false,"isDeleted":false,"createdAt":"2022-02-12T07:26:24.855+00:00"},</v>
+        <f t="shared" si="0"/>
+        <v>{"name":"雪藏龍","number":"A000000047","phone":"0946218375","titleNo":3,"title":"廚師","password":"$2a$57$","isDisabled":false,"isDeleted":false,"createdAt":"2019-05-24T03:09:57.405+00:00"},</v>
       </c>
       <c r="S50" s="2" t="s">
-        <v>664</v>
+        <v>714</v>
       </c>
     </row>
     <row r="51" spans="1:19" x14ac:dyDescent="0.4">
@@ -4983,20 +4980,20 @@
         <v>55</v>
       </c>
       <c r="D51" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>雲水月</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>302</v>
+        <v>282</v>
       </c>
       <c r="F51" s="4" t="s">
-        <v>251</v>
+        <v>494</v>
       </c>
       <c r="G51" s="4" t="s">
-        <v>402</v>
+        <v>382</v>
       </c>
       <c r="H51" t="str">
-        <f t="shared" si="0"/>
+        <f>RIGHT(B51,10)</f>
         <v>0943186527</v>
       </c>
       <c r="I51" s="2" t="s">
@@ -5015,14 +5012,14 @@
         <v>184</v>
       </c>
       <c r="N51" s="1" t="s">
-        <v>454</v>
+        <v>563</v>
       </c>
       <c r="Q51" t="str">
-        <f t="shared" si="1"/>
-        <v>{"name":"雲水月","number":"C000000017","phone":"0943186527","titleNo":3,"title":"廚師","password":"$2a$58$","isDisabled":false,"isDeleted":false,"createdAt":"2021-10-28T08:01:02.832+00:00"},</v>
+        <f t="shared" si="0"/>
+        <v>{"name":"雲水月","number":"A000000048","phone":"0943186527","titleNo":3,"title":"廚師","password":"$2a$58$","isDisabled":false,"isDeleted":false,"createdAt":"2019-06-06T23:15:05.168+00:00"},</v>
       </c>
       <c r="S51" s="2" t="s">
-        <v>665</v>
+        <v>715</v>
       </c>
     </row>
     <row r="52" spans="1:19" x14ac:dyDescent="0.4">
@@ -5033,20 +5030,20 @@
         <v>56</v>
       </c>
       <c r="D52" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>雪夜狐</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>303</v>
+        <v>283</v>
       </c>
       <c r="F52" s="4" t="s">
-        <v>252</v>
+        <v>495</v>
       </c>
       <c r="G52" s="4" t="s">
-        <v>403</v>
+        <v>383</v>
       </c>
       <c r="H52" t="str">
-        <f t="shared" si="0"/>
+        <f>RIGHT(B52,10)</f>
         <v>0951847623</v>
       </c>
       <c r="I52" s="2" t="s">
@@ -5065,14 +5062,14 @@
         <v>184</v>
       </c>
       <c r="N52" s="1" t="s">
-        <v>455</v>
+        <v>564</v>
       </c>
       <c r="Q52" t="str">
-        <f t="shared" si="1"/>
-        <v>{"name":"雪夜狐","number":"C000000018","phone":"0951847623","titleNo":3,"title":"廚師","password":"$2a$59$","isDisabled":false,"isDeleted":false,"createdAt":"2023-04-08T23:17:47.289+00:00"},</v>
+        <f t="shared" si="0"/>
+        <v>{"name":"雪夜狐","number":"A000000049","phone":"0951847623","titleNo":3,"title":"廚師","password":"$2a$59$","isDisabled":false,"isDeleted":false,"createdAt":"2019-06-14T08:51:22.416+00:00"},</v>
       </c>
       <c r="S52" s="2" t="s">
-        <v>666</v>
+        <v>716</v>
       </c>
     </row>
     <row r="53" spans="1:19" x14ac:dyDescent="0.4">
@@ -5083,20 +5080,20 @@
         <v>57</v>
       </c>
       <c r="D53" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>草原狼</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>304</v>
+        <v>284</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>253</v>
+        <v>496</v>
       </c>
       <c r="G53" s="4" t="s">
-        <v>404</v>
+        <v>384</v>
       </c>
       <c r="H53" t="str">
-        <f t="shared" si="0"/>
+        <f>RIGHT(B53,10)</f>
         <v>0932764150</v>
       </c>
       <c r="I53" s="2" t="s">
@@ -5115,14 +5112,14 @@
         <v>184</v>
       </c>
       <c r="N53" s="1" t="s">
-        <v>456</v>
+        <v>565</v>
       </c>
       <c r="Q53" t="str">
-        <f t="shared" si="1"/>
-        <v>{"name":"草原狼","number":"C000000019","phone":"0932764150","titleNo":3,"title":"廚師","password":"$2a$60$","isDisabled":false,"isDeleted":false,"createdAt":"2022-06-21T05:28:50.537+00:00"},</v>
+        <f t="shared" si="0"/>
+        <v>{"name":"草原狼","number":"A000000050","phone":"0932764150","titleNo":3,"title":"廚師","password":"$2a$60$","isDisabled":false,"isDeleted":false,"createdAt":"2019-06-25T22:13:59.667+00:00"},</v>
       </c>
       <c r="S53" s="2" t="s">
-        <v>667</v>
+        <v>717</v>
       </c>
     </row>
     <row r="54" spans="1:19" x14ac:dyDescent="0.4">
@@ -5134,20 +5131,20 @@
         <v>58</v>
       </c>
       <c r="D54" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>狂風怒</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>305</v>
+        <v>285</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>254</v>
+        <v>668</v>
       </c>
       <c r="G54" s="4" t="s">
-        <v>405</v>
+        <v>385</v>
       </c>
       <c r="H54" t="str">
-        <f t="shared" si="0"/>
+        <f>RIGHT(B54,10)</f>
         <v>0973125864</v>
       </c>
       <c r="I54" s="2" t="s">
@@ -5166,11 +5163,11 @@
         <v>184</v>
       </c>
       <c r="N54" s="1" t="s">
-        <v>457</v>
+        <v>566</v>
       </c>
       <c r="Q54" t="str">
-        <f t="shared" si="1"/>
-        <v>{"name":"狂風怒","number":"C000000020","phone":"0973125864","titleNo":3,"title":"廚師","password":"$2a$61$","isDisabled":false,"isDeleted":false,"createdAt":"2022-10-04T19:07:36.137+00:00"},</v>
+        <f t="shared" si="0"/>
+        <v>{"name":"狂風怒","number":"A000000051","phone":"0973125864","titleNo":3,"title":"廚師","password":"$2a$61$","isDisabled":false,"isDeleted":false,"createdAt":"2019-07-06T19:27:03.214+00:00"},</v>
       </c>
       <c r="S54" s="2" t="s">
         <v>718</v>
@@ -5181,9 +5178,8 @@
       <c r="C55" s="1"/>
       <c r="F55" s="4"/>
       <c r="G55" s="4"/>
-      <c r="N55" s="1"/>
       <c r="S55" s="2" t="s">
-        <v>508</v>
+        <v>388</v>
       </c>
     </row>
     <row r="56" spans="1:19" x14ac:dyDescent="0.4">
@@ -5191,140 +5187,120 @@
       <c r="C56" s="1"/>
       <c r="F56" s="4"/>
       <c r="G56" s="4"/>
-      <c r="N56" s="1"/>
     </row>
     <row r="57" spans="1:19" x14ac:dyDescent="0.4">
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
       <c r="F57" s="4"/>
       <c r="G57" s="4"/>
-      <c r="N57" s="1"/>
     </row>
     <row r="58" spans="1:19" x14ac:dyDescent="0.4">
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
       <c r="F58" s="4"/>
       <c r="G58" s="4"/>
-      <c r="N58" s="1"/>
     </row>
     <row r="59" spans="1:19" x14ac:dyDescent="0.4">
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="F59" s="4"/>
       <c r="G59" s="4"/>
-      <c r="N59" s="1"/>
     </row>
     <row r="60" spans="1:19" x14ac:dyDescent="0.4">
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
       <c r="F60" s="4"/>
       <c r="G60" s="4"/>
-      <c r="N60" s="1"/>
     </row>
     <row r="61" spans="1:19" x14ac:dyDescent="0.4">
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
       <c r="F61" s="4"/>
       <c r="G61" s="4"/>
-      <c r="N61" s="1"/>
     </row>
     <row r="62" spans="1:19" x14ac:dyDescent="0.4">
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
       <c r="F62" s="4"/>
       <c r="G62" s="4"/>
-      <c r="N62" s="1"/>
     </row>
     <row r="63" spans="1:19" x14ac:dyDescent="0.4">
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
       <c r="F63" s="4"/>
       <c r="G63" s="4"/>
-      <c r="N63" s="1"/>
     </row>
     <row r="64" spans="1:19" x14ac:dyDescent="0.4">
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
       <c r="F64" s="4"/>
       <c r="G64" s="4"/>
-      <c r="N64" s="1"/>
     </row>
     <row r="65" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
       <c r="F65" s="4"/>
       <c r="G65" s="4"/>
-      <c r="N65" s="1"/>
     </row>
     <row r="66" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
       <c r="F66" s="4"/>
       <c r="G66" s="4"/>
-      <c r="N66" s="1"/>
     </row>
     <row r="67" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
       <c r="F67" s="4"/>
       <c r="G67" s="4"/>
-      <c r="N67" s="1"/>
     </row>
     <row r="68" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
       <c r="F68" s="4"/>
       <c r="G68" s="4"/>
-      <c r="N68" s="1"/>
     </row>
     <row r="69" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
       <c r="F69" s="4"/>
       <c r="G69" s="4"/>
-      <c r="N69" s="1"/>
     </row>
     <row r="70" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
       <c r="F70" s="4"/>
       <c r="G70" s="4"/>
-      <c r="N70" s="1"/>
     </row>
     <row r="71" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
       <c r="F71" s="4"/>
       <c r="G71" s="4"/>
-      <c r="N71" s="1"/>
     </row>
     <row r="72" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
       <c r="F72" s="4"/>
       <c r="G72" s="4"/>
-      <c r="N72" s="1"/>
     </row>
     <row r="73" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
       <c r="F73" s="4"/>
       <c r="G73" s="4"/>
-      <c r="N73" s="1"/>
     </row>
     <row r="74" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
       <c r="F74" s="4"/>
       <c r="G74" s="4"/>
-      <c r="N74" s="1"/>
     </row>
     <row r="75" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
       <c r="F75" s="4"/>
       <c r="G75" s="4"/>
-      <c r="N75" s="1"/>
     </row>
     <row r="76" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B76" s="1"/>
@@ -5547,15 +5523,16 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22F99467-EB2D-44F4-BB36-E4DD2F52E660}">
-  <dimension ref="B4:R59"/>
+  <dimension ref="B4:R60"/>
   <sheetViews>
-    <sheetView topLeftCell="F42" workbookViewId="0">
-      <selection activeCell="R55" sqref="R55"/>
+    <sheetView topLeftCell="E38" workbookViewId="0">
+      <selection activeCell="R41" sqref="R41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
@@ -5579,13 +5556,13 @@
         <v>1</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>442</v>
+        <v>387</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>2</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>442</v>
+        <v>387</v>
       </c>
       <c r="H4" t="s">
         <v>3</v>
@@ -5621,23 +5598,23 @@
         <v>紅梅香</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>306</v>
+        <v>286</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>569</v>
+        <v>162</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>509</v>
+        <v>389</v>
       </c>
       <c r="H5" t="str">
         <f>"0"&amp;B5</f>
         <v>0902846781</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>255</v>
+        <v>235</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>406</v>
+        <v>386</v>
       </c>
       <c r="K5" s="2" t="s">
         <v>184</v>
@@ -5646,14 +5623,14 @@
         <v>184</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>458</v>
+        <v>567</v>
       </c>
       <c r="P5" t="str">
-        <f t="shared" ref="P5:P36" si="1">"{""name"":"""&amp;E5&amp;""",""number"":"""&amp;F5&amp;""",""phone"":"""&amp;H5&amp;""",""titleNo"":"&amp;I5&amp;",""title"":"&amp;J5&amp;",""isDisabled"":"&amp;K5&amp;",""isDeleted"":"&amp;L5&amp;",""createdAt"":"""&amp;M5&amp;"""},"</f>
-        <v>{"name":"紅梅香","number":"D000000001","phone":"0902846781","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2021-11-16T04:33:12.354+00:00"},</v>
-      </c>
-      <c r="R5" s="2" t="s">
-        <v>668</v>
+        <f>"{""name"":"""&amp;E5&amp;""",""number"":"""&amp;F5&amp;""",""phone"":"""&amp;H5&amp;""",""titleNo"":"&amp;I5&amp;",""title"":"&amp;J5&amp;",""isDisabled"":"&amp;K5&amp;",""isDeleted"":"&amp;L5&amp;",""createdAt"":"""&amp;M5&amp;"""},"</f>
+        <v>{"name":"紅梅香","number":"B000000001","phone":"0902846781","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2019-07-16T08:08:58.702+00:00"},</v>
+      </c>
+      <c r="R5" t="s">
+        <v>617</v>
       </c>
     </row>
     <row r="6" spans="2:18" x14ac:dyDescent="0.4">
@@ -5668,23 +5645,23 @@
         <v>花開半</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>307</v>
+        <v>287</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>570</v>
+        <v>163</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>510</v>
+        <v>390</v>
       </c>
       <c r="H6" t="str">
-        <f t="shared" ref="H6:H54" si="2">"0"&amp;B6</f>
+        <f t="shared" ref="H6:H54" si="1">"0"&amp;B6</f>
         <v>0928765432</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>255</v>
+        <v>235</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>406</v>
+        <v>386</v>
       </c>
       <c r="K6" s="2" t="s">
         <v>184</v>
@@ -5693,14 +5670,14 @@
         <v>184</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>459</v>
+        <v>568</v>
       </c>
       <c r="P6" t="str">
-        <f t="shared" si="1"/>
-        <v>{"name":"花開半","number":"D000000002","phone":"0928765432","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2022-06-01T21:39:16.913+00:00"},</v>
-      </c>
-      <c r="R6" s="2" t="s">
-        <v>669</v>
+        <f t="shared" ref="P6:P54" si="2">"{""name"":"""&amp;E6&amp;""",""number"":"""&amp;F6&amp;""",""phone"":"""&amp;H6&amp;""",""titleNo"":"&amp;I6&amp;",""title"":"&amp;J6&amp;",""isDisabled"":"&amp;K6&amp;",""isDeleted"":"&amp;L6&amp;",""createdAt"":"""&amp;M6&amp;"""},"</f>
+        <v>{"name":"花開半","number":"B000000002","phone":"0928765432","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2019-07-28T05:33:18.458+00:00"},</v>
+      </c>
+      <c r="R6" t="s">
+        <v>618</v>
       </c>
     </row>
     <row r="7" spans="2:18" x14ac:dyDescent="0.4">
@@ -5715,39 +5692,39 @@
         <v>雪月風</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>308</v>
+        <v>288</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>571</v>
+        <v>164</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>511</v>
+        <v>391</v>
       </c>
       <c r="H7" t="str">
+        <f t="shared" si="1"/>
+        <v>0989154896</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="P7" t="str">
         <f t="shared" si="2"/>
-        <v>0989154896</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>406</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="M7" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="P7" t="str">
-        <f t="shared" si="1"/>
-        <v>{"name":"雪月風","number":"D000000003","phone":"0989154896","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2022-02-15T22:24:18.970+00:00"},</v>
-      </c>
-      <c r="R7" s="2" t="s">
-        <v>670</v>
+        <v>{"name":"雪月風","number":"B000000003","phone":"0989154896","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2019-08-03T18:49:41.092+00:00"},</v>
+      </c>
+      <c r="R7" t="s">
+        <v>619</v>
       </c>
     </row>
     <row r="8" spans="2:18" x14ac:dyDescent="0.4">
@@ -5762,39 +5739,39 @@
         <v>陽光樂</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>309</v>
+        <v>289</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>572</v>
+        <v>165</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>512</v>
+        <v>392</v>
       </c>
       <c r="H8" t="str">
+        <f t="shared" si="1"/>
+        <v>0902213574</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="P8" t="str">
         <f t="shared" si="2"/>
-        <v>0902213574</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>406</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="L8" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="M8" s="1" t="s">
-        <v>461</v>
-      </c>
-      <c r="P8" t="str">
-        <f t="shared" si="1"/>
-        <v>{"name":"陽光樂","number":"D000000004","phone":"0902213574","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2022-08-22T11:44:26.424+00:00"},</v>
-      </c>
-      <c r="R8" s="2" t="s">
-        <v>671</v>
+        <v>{"name":"陽光樂","number":"B000000004","phone":"0902213574","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2019-08-18T12:36:22.764+00:00"},</v>
+      </c>
+      <c r="R8" t="s">
+        <v>620</v>
       </c>
     </row>
     <row r="9" spans="2:18" x14ac:dyDescent="0.4">
@@ -5809,39 +5786,39 @@
         <v>花開結</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>310</v>
+        <v>290</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>573</v>
+        <v>166</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>513</v>
+        <v>393</v>
       </c>
       <c r="H9" t="str">
+        <f t="shared" si="1"/>
+        <v>0937723502</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="P9" t="str">
         <f t="shared" si="2"/>
-        <v>0937723502</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>406</v>
-      </c>
-      <c r="K9" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="L9" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="M9" s="1" t="s">
-        <v>462</v>
-      </c>
-      <c r="P9" t="str">
-        <f t="shared" si="1"/>
-        <v>{"name":"花開結","number":"D000000005","phone":"0937723502","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2021-10-15T07:30:19.703+00:00"},</v>
-      </c>
-      <c r="R9" s="2" t="s">
-        <v>672</v>
+        <v>{"name":"花開結","number":"B000000005","phone":"0937723502","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2019-09-01T07:20:17.985+00:00"},</v>
+      </c>
+      <c r="R9" t="s">
+        <v>621</v>
       </c>
     </row>
     <row r="10" spans="2:18" x14ac:dyDescent="0.4">
@@ -5856,39 +5833,39 @@
         <v>天香慕</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>311</v>
+        <v>291</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>574</v>
+        <v>167</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>514</v>
+        <v>394</v>
       </c>
       <c r="H10" t="str">
+        <f t="shared" si="1"/>
+        <v>0933543285</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="P10" t="str">
         <f t="shared" si="2"/>
-        <v>0933543285</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>406</v>
-      </c>
-      <c r="K10" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="L10" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="M10" s="1" t="s">
-        <v>463</v>
-      </c>
-      <c r="P10" t="str">
-        <f t="shared" si="1"/>
-        <v>{"name":"天香慕","number":"D000000006","phone":"0933543285","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2022-03-29T22:11:47.662+00:00"},</v>
-      </c>
-      <c r="R10" s="2" t="s">
-        <v>673</v>
+        <v>{"name":"天香慕","number":"B000000006","phone":"0933543285","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2019-09-08T22:10:29.186+00:00"},</v>
+      </c>
+      <c r="R10" t="s">
+        <v>622</v>
       </c>
     </row>
     <row r="11" spans="2:18" x14ac:dyDescent="0.4">
@@ -5903,39 +5880,39 @@
         <v>紅塵客</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>312</v>
+        <v>292</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>575</v>
+        <v>168</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>515</v>
+        <v>395</v>
       </c>
       <c r="H11" t="str">
+        <f t="shared" si="1"/>
+        <v>0964687456</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="P11" t="str">
         <f t="shared" si="2"/>
-        <v>0964687456</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="J11" s="2" t="s">
-        <v>406</v>
-      </c>
-      <c r="K11" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="L11" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="M11" s="1" t="s">
-        <v>464</v>
-      </c>
-      <c r="P11" t="str">
-        <f t="shared" si="1"/>
-        <v>{"name":"紅塵客","number":"D000000007","phone":"0964687456","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2021-11-23T15:23:01.228+00:00"},</v>
-      </c>
-      <c r="R11" s="2" t="s">
-        <v>674</v>
+        <v>{"name":"紅塵客","number":"B000000007","phone":"0964687456","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2019-09-21T16:47:53.504+00:00"},</v>
+      </c>
+      <c r="R11" t="s">
+        <v>623</v>
       </c>
     </row>
     <row r="12" spans="2:18" x14ac:dyDescent="0.4">
@@ -5950,39 +5927,39 @@
         <v>琴瑟音</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>313</v>
+        <v>293</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>576</v>
+        <v>169</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>516</v>
+        <v>396</v>
       </c>
       <c r="H12" t="str">
+        <f t="shared" si="1"/>
+        <v>0937645289</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="P12" t="str">
         <f t="shared" si="2"/>
-        <v>0937645289</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="J12" s="2" t="s">
-        <v>406</v>
-      </c>
-      <c r="K12" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="L12" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="M12" s="1" t="s">
-        <v>465</v>
-      </c>
-      <c r="P12" t="str">
-        <f t="shared" si="1"/>
-        <v>{"name":"琴瑟音","number":"D000000008","phone":"0937645289","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2022-06-06T14:13:27.097+00:00"},</v>
-      </c>
-      <c r="R12" s="2" t="s">
-        <v>675</v>
+        <v>{"name":"琴瑟音","number":"B000000008","phone":"0937645289","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2019-10-03T11:12:59.137+00:00"},</v>
+      </c>
+      <c r="R12" t="s">
+        <v>624</v>
       </c>
     </row>
     <row r="13" spans="2:18" x14ac:dyDescent="0.4">
@@ -5997,39 +5974,39 @@
         <v>愛如花</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>314</v>
+        <v>294</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>577</v>
+        <v>170</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>517</v>
+        <v>397</v>
       </c>
       <c r="H13" t="str">
+        <f t="shared" si="1"/>
+        <v>0955432569</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="P13" t="str">
         <f t="shared" si="2"/>
-        <v>0955432569</v>
-      </c>
-      <c r="I13" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="J13" s="2" t="s">
-        <v>406</v>
-      </c>
-      <c r="K13" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="L13" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="M13" s="1" t="s">
-        <v>466</v>
-      </c>
-      <c r="P13" t="str">
-        <f t="shared" si="1"/>
-        <v>{"name":"愛如花","number":"D000000009","phone":"0955432569","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2021-12-17T05:17:57.586+00:00"},</v>
-      </c>
-      <c r="R13" s="2" t="s">
-        <v>676</v>
+        <v>{"name":"愛如花","number":"B000000009","phone":"0955432569","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2019-10-17T06:08:45.150+00:00"},</v>
+      </c>
+      <c r="R13" t="s">
+        <v>625</v>
       </c>
     </row>
     <row r="14" spans="2:18" x14ac:dyDescent="0.4">
@@ -6044,39 +6021,39 @@
         <v>深海潛</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>315</v>
+        <v>295</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>578</v>
+        <v>171</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>518</v>
+        <v>398</v>
       </c>
       <c r="H14" t="str">
+        <f t="shared" si="1"/>
+        <v>0988542895</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>576</v>
+      </c>
+      <c r="P14" t="str">
         <f t="shared" si="2"/>
-        <v>0988542895</v>
-      </c>
-      <c r="I14" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="J14" s="2" t="s">
-        <v>406</v>
-      </c>
-      <c r="K14" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="L14" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="M14" s="1" t="s">
-        <v>467</v>
-      </c>
-      <c r="P14" t="str">
-        <f t="shared" si="1"/>
-        <v>{"name":"深海潛","number":"D000000010","phone":"0988542895","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2022-08-04T02:52:55.810+00:00"},</v>
-      </c>
-      <c r="R14" s="2" t="s">
-        <v>677</v>
+        <v>{"name":"深海潛","number":"B000000010","phone":"0988542895","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2019-10-28T23:22:27.526+00:00"},</v>
+      </c>
+      <c r="R14" t="s">
+        <v>626</v>
       </c>
     </row>
     <row r="15" spans="2:18" x14ac:dyDescent="0.4">
@@ -6091,39 +6068,39 @@
         <v>雨蘭香</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>316</v>
+        <v>296</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>579</v>
+        <v>172</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>519</v>
+        <v>399</v>
       </c>
       <c r="H15" t="str">
+        <f t="shared" si="1"/>
+        <v>0968594321</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>577</v>
+      </c>
+      <c r="P15" t="str">
         <f t="shared" si="2"/>
-        <v>0968594321</v>
-      </c>
-      <c r="I15" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="J15" s="2" t="s">
-        <v>406</v>
-      </c>
-      <c r="K15" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="L15" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="M15" s="1" t="s">
-        <v>468</v>
-      </c>
-      <c r="P15" t="str">
-        <f t="shared" si="1"/>
-        <v>{"name":"雨蘭香","number":"D000000011","phone":"0968594321","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2022-03-24T04:22:07.955+00:00"},</v>
-      </c>
-      <c r="R15" s="2" t="s">
-        <v>678</v>
+        <v>{"name":"雨蘭香","number":"B000000011","phone":"0968594321","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2019-11-08T19:42:49.708+00:00"},</v>
+      </c>
+      <c r="R15" t="s">
+        <v>627</v>
       </c>
     </row>
     <row r="16" spans="2:18" x14ac:dyDescent="0.4">
@@ -6138,39 +6115,39 @@
         <v>紫陽花</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>317</v>
+        <v>297</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>580</v>
+        <v>173</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>520</v>
+        <v>400</v>
       </c>
       <c r="H16" t="str">
+        <f t="shared" si="1"/>
+        <v>0928596412</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="P16" t="str">
         <f t="shared" si="2"/>
-        <v>0928596412</v>
-      </c>
-      <c r="I16" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="J16" s="2" t="s">
-        <v>406</v>
-      </c>
-      <c r="K16" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="L16" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="M16" s="1" t="s">
-        <v>469</v>
-      </c>
-      <c r="P16" t="str">
-        <f t="shared" si="1"/>
-        <v>{"name":"紫陽花","number":"D000000012","phone":"0928596412","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2022-08-25T18:15:32.166+00:00"},</v>
-      </c>
-      <c r="R16" s="2" t="s">
-        <v>679</v>
+        <v>{"name":"紫陽花","number":"B000000012","phone":"0928596412","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2019-11-22T14:53:56.917+00:00"},</v>
+      </c>
+      <c r="R16" t="s">
+        <v>628</v>
       </c>
     </row>
     <row r="17" spans="2:18" x14ac:dyDescent="0.4">
@@ -6185,39 +6162,39 @@
         <v>仙女飛</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>318</v>
+        <v>298</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>581</v>
+        <v>174</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>521</v>
+        <v>401</v>
       </c>
       <c r="H17" t="str">
+        <f t="shared" si="1"/>
+        <v>0975348962</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="P17" t="str">
         <f t="shared" si="2"/>
-        <v>0975348962</v>
-      </c>
-      <c r="I17" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="J17" s="2" t="s">
-        <v>406</v>
-      </c>
-      <c r="K17" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="L17" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="M17" s="1" t="s">
-        <v>470</v>
-      </c>
-      <c r="P17" t="str">
-        <f t="shared" si="1"/>
-        <v>{"name":"仙女飛","number":"D000000013","phone":"0975348962","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2022-02-05T09:53:39.014+00:00"},</v>
-      </c>
-      <c r="R17" s="2" t="s">
-        <v>680</v>
+        <v>{"name":"仙女飛","number":"B000000013","phone":"0975348962","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2019-11-28T03:57:39.045+00:00"},</v>
+      </c>
+      <c r="R17" t="s">
+        <v>629</v>
       </c>
     </row>
     <row r="18" spans="2:18" x14ac:dyDescent="0.4">
@@ -6232,39 +6209,39 @@
         <v>雲霧裡</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>319</v>
+        <v>299</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>582</v>
+        <v>175</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>522</v>
+        <v>402</v>
       </c>
       <c r="H18" t="str">
+        <f t="shared" si="1"/>
+        <v>0962358714</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="M18" s="1" t="s">
+        <v>580</v>
+      </c>
+      <c r="P18" t="str">
         <f t="shared" si="2"/>
-        <v>0962358714</v>
-      </c>
-      <c r="I18" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="J18" s="2" t="s">
-        <v>406</v>
-      </c>
-      <c r="K18" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="L18" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="M18" s="1" t="s">
-        <v>471</v>
-      </c>
-      <c r="P18" t="str">
-        <f t="shared" si="1"/>
-        <v>{"name":"雲霧裡","number":"D000000014","phone":"0962358714","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2022-01-21T19:10:03.173+00:00"},</v>
-      </c>
-      <c r="R18" s="2" t="s">
-        <v>681</v>
+        <v>{"name":"雲霧裡","number":"B000000014","phone":"0962358714","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2019-12-10T01:35:26.276+00:00"},</v>
+      </c>
+      <c r="R18" t="s">
+        <v>630</v>
       </c>
     </row>
     <row r="19" spans="2:18" x14ac:dyDescent="0.4">
@@ -6279,39 +6256,39 @@
         <v>靈狐仙</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>320</v>
+        <v>300</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>583</v>
+        <v>176</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>523</v>
+        <v>403</v>
       </c>
       <c r="H19" t="str">
+        <f t="shared" si="1"/>
+        <v>0945812376</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="L19" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="M19" s="1" t="s">
+        <v>581</v>
+      </c>
+      <c r="P19" t="str">
         <f t="shared" si="2"/>
-        <v>0945812376</v>
-      </c>
-      <c r="I19" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="J19" s="2" t="s">
-        <v>406</v>
-      </c>
-      <c r="K19" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="L19" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="M19" s="1" t="s">
-        <v>472</v>
-      </c>
-      <c r="P19" t="str">
-        <f t="shared" si="1"/>
-        <v>{"name":"靈狐仙","number":"D000000015","phone":"0945812376","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2022-03-31T13:19:19.930+00:00"},</v>
-      </c>
-      <c r="R19" s="2" t="s">
-        <v>682</v>
+        <v>{"name":"靈狐仙","number":"B000000015","phone":"0945812376","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2019-12-18T19:44:06.789+00:00"},</v>
+      </c>
+      <c r="R19" t="s">
+        <v>631</v>
       </c>
     </row>
     <row r="20" spans="2:18" x14ac:dyDescent="0.4">
@@ -6326,39 +6303,39 @@
         <v>夜雨香</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>321</v>
+        <v>301</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>584</v>
+        <v>177</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>524</v>
+        <v>404</v>
       </c>
       <c r="H20" t="str">
+        <f t="shared" si="1"/>
+        <v>0943192675</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="L20" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="M20" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="P20" t="str">
         <f t="shared" si="2"/>
-        <v>0943192675</v>
-      </c>
-      <c r="I20" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="J20" s="2" t="s">
-        <v>406</v>
-      </c>
-      <c r="K20" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="L20" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="M20" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="P20" t="str">
-        <f t="shared" si="1"/>
-        <v>{"name":"夜雨香","number":"D000000016","phone":"0943192675","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2022-01-28T18:20:50.973+00:00"},</v>
-      </c>
-      <c r="R20" s="2" t="s">
-        <v>683</v>
+        <v>{"name":"夜雨香","number":"B000000016","phone":"0943192675","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2020-01-02T10:14:55.399+00:00"},</v>
+      </c>
+      <c r="R20" t="s">
+        <v>632</v>
       </c>
     </row>
     <row r="21" spans="2:18" x14ac:dyDescent="0.4">
@@ -6373,39 +6350,39 @@
         <v>美人香</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>322</v>
+        <v>302</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>585</v>
+        <v>178</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>525</v>
+        <v>405</v>
       </c>
       <c r="H21" t="str">
+        <f t="shared" si="1"/>
+        <v>0989275631</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="L21" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="M21" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="P21" t="str">
         <f t="shared" si="2"/>
-        <v>0989275631</v>
-      </c>
-      <c r="I21" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="J21" s="2" t="s">
-        <v>406</v>
-      </c>
-      <c r="K21" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="L21" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="M21" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="P21" t="str">
-        <f t="shared" si="1"/>
-        <v>{"name":"美人香","number":"D000000017","phone":"0989275631","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2021-11-12T11:48:16.759+00:00"},</v>
-      </c>
-      <c r="R21" s="2" t="s">
-        <v>684</v>
+        <v>{"name":"美人香","number":"B000000017","phone":"0989275631","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2020-01-12T02:27:17.772+00:00"},</v>
+      </c>
+      <c r="R21" t="s">
+        <v>633</v>
       </c>
     </row>
     <row r="22" spans="2:18" x14ac:dyDescent="0.4">
@@ -6420,39 +6397,39 @@
         <v>時光倒</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>323</v>
+        <v>303</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>586</v>
+        <v>179</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>526</v>
+        <v>406</v>
       </c>
       <c r="H22" t="str">
+        <f t="shared" si="1"/>
+        <v>0918675423</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="L22" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="M22" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="P22" t="str">
         <f t="shared" si="2"/>
-        <v>0918675423</v>
-      </c>
-      <c r="I22" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="J22" s="2" t="s">
-        <v>406</v>
-      </c>
-      <c r="K22" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="L22" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="M22" s="1" t="s">
-        <v>475</v>
-      </c>
-      <c r="P22" t="str">
-        <f t="shared" si="1"/>
-        <v>{"name":"時光倒","number":"D000000018","phone":"0918675423","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2022-01-20T09:05:31.541+00:00"},</v>
-      </c>
-      <c r="R22" s="2" t="s">
-        <v>685</v>
+        <v>{"name":"時光倒","number":"B000000018","phone":"0918675423","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2020-01-25T01:55:45.442+00:00"},</v>
+      </c>
+      <c r="R22" t="s">
+        <v>634</v>
       </c>
     </row>
     <row r="23" spans="2:18" x14ac:dyDescent="0.4">
@@ -6467,39 +6444,39 @@
         <v>楓葉紅</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>324</v>
+        <v>304</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>587</v>
+        <v>180</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>527</v>
+        <v>407</v>
       </c>
       <c r="H23" t="str">
+        <f t="shared" si="1"/>
+        <v>0921753486</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="K23" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="L23" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="M23" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="P23" t="str">
         <f t="shared" si="2"/>
-        <v>0921753486</v>
-      </c>
-      <c r="I23" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="J23" s="2" t="s">
-        <v>406</v>
-      </c>
-      <c r="K23" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="L23" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="M23" s="1" t="s">
-        <v>476</v>
-      </c>
-      <c r="P23" t="str">
-        <f t="shared" si="1"/>
-        <v>{"name":"楓葉紅","number":"D000000019","phone":"0921753486","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2022-04-09T01:23:27.904+00:00"},</v>
-      </c>
-      <c r="R23" s="2" t="s">
-        <v>686</v>
+        <v>{"name":"楓葉紅","number":"B000000019","phone":"0921753486","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2020-02-03T18:10:14.524+00:00"},</v>
+      </c>
+      <c r="R23" t="s">
+        <v>635</v>
       </c>
     </row>
     <row r="24" spans="2:18" x14ac:dyDescent="0.4">
@@ -6514,39 +6491,39 @@
         <v>愛情路</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>325</v>
+        <v>305</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>588</v>
+        <v>181</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>528</v>
+        <v>408</v>
       </c>
       <c r="H24" t="str">
+        <f t="shared" si="1"/>
+        <v>0941837692</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="K24" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="L24" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="M24" s="1" t="s">
+        <v>586</v>
+      </c>
+      <c r="P24" t="str">
         <f t="shared" si="2"/>
-        <v>0941837692</v>
-      </c>
-      <c r="I24" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="J24" s="2" t="s">
-        <v>406</v>
-      </c>
-      <c r="K24" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="L24" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="M24" s="1" t="s">
-        <v>477</v>
-      </c>
-      <c r="P24" t="str">
-        <f t="shared" si="1"/>
-        <v>{"name":"愛情路","number":"D000000020","phone":"0941837692","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2021-08-28T02:28:13.324+00:00"},</v>
-      </c>
-      <c r="R24" s="2" t="s">
-        <v>687</v>
+        <v>{"name":"愛情路","number":"B000000020","phone":"0941837692","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2020-02-12T08:36:59.023+00:00"},</v>
+      </c>
+      <c r="R24" t="s">
+        <v>636</v>
       </c>
     </row>
     <row r="25" spans="2:18" x14ac:dyDescent="0.4">
@@ -6561,39 +6538,39 @@
         <v>梅花雪</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>326</v>
+        <v>306</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>589</v>
+        <v>439</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>529</v>
+        <v>409</v>
       </c>
       <c r="H25" t="str">
+        <f t="shared" si="1"/>
+        <v>0968325471</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="K25" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="L25" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="M25" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="P25" t="str">
         <f t="shared" si="2"/>
-        <v>0968325471</v>
-      </c>
-      <c r="I25" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="J25" s="2" t="s">
-        <v>406</v>
-      </c>
-      <c r="K25" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="L25" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="M25" s="1" t="s">
-        <v>478</v>
-      </c>
-      <c r="P25" t="str">
-        <f t="shared" si="1"/>
-        <v>{"name":"梅花雪","number":"D000000021","phone":"0968325471","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2022-10-05T11:34:27.820+00:00"},</v>
-      </c>
-      <c r="R25" s="2" t="s">
-        <v>688</v>
+        <v>{"name":"梅花雪","number":"B000000021","phone":"0968325471","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2020-02-26T02:34:05.955+00:00"},</v>
+      </c>
+      <c r="R25" t="s">
+        <v>637</v>
       </c>
     </row>
     <row r="26" spans="2:18" x14ac:dyDescent="0.4">
@@ -6608,39 +6585,39 @@
         <v>雲中仙</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>327</v>
+        <v>307</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>590</v>
+        <v>440</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>530</v>
+        <v>410</v>
       </c>
       <c r="H26" t="str">
+        <f t="shared" si="1"/>
+        <v>0943685741</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="K26" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="L26" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="M26" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="P26" t="str">
         <f t="shared" si="2"/>
-        <v>0943685741</v>
-      </c>
-      <c r="I26" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="J26" s="2" t="s">
-        <v>406</v>
-      </c>
-      <c r="K26" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="L26" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="M26" s="1" t="s">
-        <v>479</v>
-      </c>
-      <c r="P26" t="str">
-        <f t="shared" si="1"/>
-        <v>{"name":"雲中仙","number":"D000000022","phone":"0943685741","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2023-02-05T02:29:14.874+00:00"},</v>
-      </c>
-      <c r="R26" s="2" t="s">
-        <v>689</v>
+        <v>{"name":"雲中仙","number":"B000000022","phone":"0943685741","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2020-03-21T07:12:32.091+00:00"},</v>
+      </c>
+      <c r="R26" t="s">
+        <v>638</v>
       </c>
     </row>
     <row r="27" spans="2:18" x14ac:dyDescent="0.4">
@@ -6655,39 +6632,39 @@
         <v>風雨聲</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>328</v>
+        <v>308</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>591</v>
+        <v>441</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>531</v>
+        <v>411</v>
       </c>
       <c r="H27" t="str">
+        <f t="shared" si="1"/>
+        <v>0973548691</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="K27" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="L27" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="M27" s="1" t="s">
+        <v>589</v>
+      </c>
+      <c r="P27" t="str">
         <f t="shared" si="2"/>
-        <v>0973548691</v>
-      </c>
-      <c r="I27" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="J27" s="2" t="s">
-        <v>406</v>
-      </c>
-      <c r="K27" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="L27" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="M27" s="1" t="s">
-        <v>480</v>
-      </c>
-      <c r="P27" t="str">
-        <f t="shared" si="1"/>
-        <v>{"name":"風雨聲","number":"D000000023","phone":"0973548691","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2023-02-18T03:48:35.504+00:00"},</v>
-      </c>
-      <c r="R27" s="2" t="s">
-        <v>690</v>
+        <v>{"name":"風雨聲","number":"B000000023","phone":"0973548691","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2020-04-17T12:45:39.209+00:00"},</v>
+      </c>
+      <c r="R27" t="s">
+        <v>639</v>
       </c>
     </row>
     <row r="28" spans="2:18" x14ac:dyDescent="0.4">
@@ -6702,39 +6679,39 @@
         <v>桃花緣</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>329</v>
+        <v>309</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>592</v>
+        <v>442</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>532</v>
+        <v>412</v>
       </c>
       <c r="H28" t="str">
+        <f t="shared" si="1"/>
+        <v>0921384765</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="J28" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="K28" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="L28" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="M28" s="1" t="s">
+        <v>590</v>
+      </c>
+      <c r="P28" t="str">
         <f t="shared" si="2"/>
-        <v>0921384765</v>
-      </c>
-      <c r="I28" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="J28" s="2" t="s">
-        <v>406</v>
-      </c>
-      <c r="K28" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="L28" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="M28" s="1" t="s">
-        <v>481</v>
-      </c>
-      <c r="P28" t="str">
-        <f t="shared" si="1"/>
-        <v>{"name":"桃花緣","number":"D000000024","phone":"0921384765","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2022-10-18T03:12:21.701+00:00"},</v>
-      </c>
-      <c r="R28" s="2" t="s">
-        <v>691</v>
+        <v>{"name":"桃花緣","number":"B000000024","phone":"0921384765","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2020-05-23T01:23:50.642+00:00"},</v>
+      </c>
+      <c r="R28" t="s">
+        <v>640</v>
       </c>
     </row>
     <row r="29" spans="2:18" x14ac:dyDescent="0.4">
@@ -6749,39 +6726,39 @@
         <v>花開花</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>330</v>
+        <v>310</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>593</v>
+        <v>443</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>533</v>
+        <v>413</v>
       </c>
       <c r="H29" t="str">
+        <f t="shared" si="1"/>
+        <v>0962874531</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="K29" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="L29" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="M29" s="1" t="s">
+        <v>591</v>
+      </c>
+      <c r="P29" t="str">
         <f t="shared" si="2"/>
-        <v>0962874531</v>
-      </c>
-      <c r="I29" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="J29" s="2" t="s">
-        <v>406</v>
-      </c>
-      <c r="K29" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="L29" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="M29" s="1" t="s">
-        <v>482</v>
-      </c>
-      <c r="P29" t="str">
-        <f t="shared" si="1"/>
-        <v>{"name":"花開花","number":"D000000025","phone":"0962874531","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2022-11-13T22:42:37.486+00:00"},</v>
-      </c>
-      <c r="R29" s="2" t="s">
-        <v>692</v>
+        <v>{"name":"花開花","number":"B000000025","phone":"0962874531","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2020-06-13T18:10:21.225+00:00"},</v>
+      </c>
+      <c r="R29" t="s">
+        <v>641</v>
       </c>
     </row>
     <row r="30" spans="2:18" x14ac:dyDescent="0.4">
@@ -6796,39 +6773,39 @@
         <v>天地月</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>331</v>
+        <v>311</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>594</v>
+        <v>444</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>534</v>
+        <v>414</v>
       </c>
       <c r="H30" t="str">
+        <f t="shared" si="1"/>
+        <v>0938567124</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="J30" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="K30" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="L30" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="M30" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="P30" t="str">
         <f t="shared" si="2"/>
-        <v>0938567124</v>
-      </c>
-      <c r="I30" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="J30" s="2" t="s">
-        <v>406</v>
-      </c>
-      <c r="K30" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="L30" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="M30" s="1" t="s">
-        <v>483</v>
-      </c>
-      <c r="P30" t="str">
-        <f t="shared" si="1"/>
-        <v>{"name":"天地月","number":"D000000026","phone":"0938567124","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2022-10-16T01:32:03.803+00:00"},</v>
-      </c>
-      <c r="R30" s="2" t="s">
-        <v>693</v>
+        <v>{"name":"天地月","number":"B000000026","phone":"0938567124","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2020-07-26T08:59:37.512+00:00"},</v>
+      </c>
+      <c r="R30" t="s">
+        <v>642</v>
       </c>
     </row>
     <row r="31" spans="2:18" x14ac:dyDescent="0.4">
@@ -6843,39 +6820,39 @@
         <v>紫金花</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>332</v>
+        <v>312</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>595</v>
+        <v>445</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>535</v>
+        <v>415</v>
       </c>
       <c r="H31" t="str">
+        <f t="shared" si="1"/>
+        <v>0956782143</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="J31" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="K31" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="L31" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="M31" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="P31" t="str">
         <f t="shared" si="2"/>
-        <v>0956782143</v>
-      </c>
-      <c r="I31" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="J31" s="2" t="s">
-        <v>406</v>
-      </c>
-      <c r="K31" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="L31" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="M31" s="1" t="s">
-        <v>484</v>
-      </c>
-      <c r="P31" t="str">
-        <f t="shared" si="1"/>
-        <v>{"name":"紫金花","number":"D000000027","phone":"0956782143","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2023-02-06T22:09:31.420+00:00"},</v>
-      </c>
-      <c r="R31" s="2" t="s">
-        <v>694</v>
+        <v>{"name":"紫金花","number":"B000000027","phone":"0956782143","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2020-08-20T19:34:59.662+00:00"},</v>
+      </c>
+      <c r="R31" t="s">
+        <v>643</v>
       </c>
     </row>
     <row r="32" spans="2:18" x14ac:dyDescent="0.4">
@@ -6890,39 +6867,39 @@
         <v>飛天燕</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>333</v>
+        <v>313</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>596</v>
+        <v>446</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>536</v>
+        <v>416</v>
       </c>
       <c r="H32" t="str">
+        <f t="shared" si="1"/>
+        <v>0978345162</v>
+      </c>
+      <c r="I32" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="J32" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="K32" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="L32" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="M32" s="1" t="s">
+        <v>594</v>
+      </c>
+      <c r="P32" t="str">
         <f t="shared" si="2"/>
-        <v>0978345162</v>
-      </c>
-      <c r="I32" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="J32" s="2" t="s">
-        <v>406</v>
-      </c>
-      <c r="K32" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="L32" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="M32" s="1" t="s">
-        <v>485</v>
-      </c>
-      <c r="P32" t="str">
-        <f t="shared" si="1"/>
-        <v>{"name":"飛天燕","number":"D000000028","phone":"0978345162","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2022-10-08T08:48:21.518+00:00"},</v>
-      </c>
-      <c r="R32" s="2" t="s">
-        <v>695</v>
+        <v>{"name":"飛天燕","number":"B000000028","phone":"0978345162","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2020-09-15T04:50:43.891+00:00"},</v>
+      </c>
+      <c r="R32" t="s">
+        <v>644</v>
       </c>
     </row>
     <row r="33" spans="2:18" x14ac:dyDescent="0.4">
@@ -6937,39 +6914,39 @@
         <v>紫雲霞</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>334</v>
+        <v>314</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>597</v>
+        <v>447</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>537</v>
+        <v>417</v>
       </c>
       <c r="H33" t="str">
+        <f t="shared" si="1"/>
+        <v>0983657142</v>
+      </c>
+      <c r="I33" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="J33" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="K33" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="L33" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="M33" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="P33" t="str">
         <f t="shared" si="2"/>
-        <v>0983657142</v>
-      </c>
-      <c r="I33" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="J33" s="2" t="s">
-        <v>406</v>
-      </c>
-      <c r="K33" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="L33" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="M33" s="1" t="s">
-        <v>486</v>
-      </c>
-      <c r="P33" t="str">
-        <f t="shared" si="1"/>
-        <v>{"name":"紫雲霞","number":"D000000029","phone":"0983657142","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2022-11-25T14:59:56.031+00:00"},</v>
-      </c>
-      <c r="R33" s="2" t="s">
-        <v>696</v>
+        <v>{"name":"紫雲霞","number":"B000000029","phone":"0983657142","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2020-10-29T17:13:48.412+00:00"},</v>
+      </c>
+      <c r="R33" t="s">
+        <v>645</v>
       </c>
     </row>
     <row r="34" spans="2:18" x14ac:dyDescent="0.4">
@@ -6984,39 +6961,39 @@
         <v>青山翠</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>335</v>
+        <v>315</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>598</v>
+        <v>448</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>538</v>
+        <v>418</v>
       </c>
       <c r="H34" t="str">
+        <f t="shared" si="1"/>
+        <v>0912673548</v>
+      </c>
+      <c r="I34" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="J34" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="K34" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="L34" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="M34" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="P34" t="str">
         <f t="shared" si="2"/>
-        <v>0912673548</v>
-      </c>
-      <c r="I34" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="J34" s="2" t="s">
-        <v>406</v>
-      </c>
-      <c r="K34" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="L34" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="M34" s="1" t="s">
-        <v>487</v>
-      </c>
-      <c r="P34" t="str">
-        <f t="shared" si="1"/>
-        <v>{"name":"青山翠","number":"D000000030","phone":"0912673548","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2023-03-07T12:55:36.945+00:00"},</v>
-      </c>
-      <c r="R34" s="2" t="s">
-        <v>697</v>
+        <v>{"name":"青山翠","number":"B000000030","phone":"0912673548","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2020-11-25T08:46:29.927+00:00"},</v>
+      </c>
+      <c r="R34" t="s">
+        <v>646</v>
       </c>
     </row>
     <row r="35" spans="2:18" x14ac:dyDescent="0.4">
@@ -7031,39 +7008,39 @@
         <v>水墨畫</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>336</v>
+        <v>316</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>599</v>
+        <v>497</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>539</v>
+        <v>419</v>
       </c>
       <c r="H35" t="str">
+        <f t="shared" si="1"/>
+        <v>0963851742</v>
+      </c>
+      <c r="I35" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="J35" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="K35" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="L35" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="M35" s="1" t="s">
+        <v>597</v>
+      </c>
+      <c r="P35" t="str">
         <f t="shared" si="2"/>
-        <v>0963851742</v>
-      </c>
-      <c r="I35" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="J35" s="2" t="s">
-        <v>406</v>
-      </c>
-      <c r="K35" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="L35" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="M35" s="1" t="s">
-        <v>488</v>
-      </c>
-      <c r="P35" t="str">
-        <f t="shared" si="1"/>
-        <v>{"name":"水墨畫","number":"D000000031","phone":"0963851742","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2022-12-05T21:31:36.919+00:00"},</v>
-      </c>
-      <c r="R35" s="2" t="s">
-        <v>698</v>
+        <v>{"name":"水墨畫","number":"B000000031","phone":"0963851742","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2020-12-12T03:20:22.255+00:00"},</v>
+      </c>
+      <c r="R35" t="s">
+        <v>647</v>
       </c>
     </row>
     <row r="36" spans="2:18" x14ac:dyDescent="0.4">
@@ -7078,39 +7055,39 @@
         <v>蝶戀花</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>337</v>
+        <v>317</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>600</v>
+        <v>498</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>540</v>
+        <v>420</v>
       </c>
       <c r="H36" t="str">
+        <f t="shared" si="1"/>
+        <v>0925176843</v>
+      </c>
+      <c r="I36" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="J36" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="K36" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="L36" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="M36" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="P36" t="str">
         <f t="shared" si="2"/>
-        <v>0925176843</v>
-      </c>
-      <c r="I36" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="J36" s="2" t="s">
-        <v>406</v>
-      </c>
-      <c r="K36" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="L36" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="M36" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="P36" t="str">
-        <f t="shared" si="1"/>
-        <v>{"name":"蝶戀花","number":"D000000032","phone":"0925176843","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2023-03-02T16:43:49.845+00:00"},</v>
-      </c>
-      <c r="R36" s="2" t="s">
-        <v>699</v>
+        <v>{"name":"蝶戀花","number":"B000000032","phone":"0925176843","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2021-01-06T15:22:02.118+00:00"},</v>
+      </c>
+      <c r="R36" t="s">
+        <v>648</v>
       </c>
     </row>
     <row r="37" spans="2:18" x14ac:dyDescent="0.4">
@@ -7125,39 +7102,39 @@
         <v>桃花心</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>338</v>
+        <v>318</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>601</v>
+        <v>499</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>541</v>
+        <v>421</v>
       </c>
       <c r="H37" t="str">
+        <f t="shared" si="1"/>
+        <v>0954213867</v>
+      </c>
+      <c r="I37" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="J37" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="K37" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="L37" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="M37" s="1" t="s">
+        <v>599</v>
+      </c>
+      <c r="P37" t="str">
         <f t="shared" si="2"/>
-        <v>0954213867</v>
-      </c>
-      <c r="I37" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="J37" s="2" t="s">
-        <v>406</v>
-      </c>
-      <c r="K37" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="L37" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="M37" s="1" t="s">
-        <v>490</v>
-      </c>
-      <c r="P37" t="str">
-        <f t="shared" ref="P37:P54" si="5">"{""name"":"""&amp;E37&amp;""",""number"":"""&amp;F37&amp;""",""phone"":"""&amp;H37&amp;""",""titleNo"":"&amp;I37&amp;",""title"":"&amp;J37&amp;",""isDisabled"":"&amp;K37&amp;",""isDeleted"":"&amp;L37&amp;",""createdAt"":"""&amp;M37&amp;"""},"</f>
-        <v>{"name":"桃花心","number":"D000000033","phone":"0954213867","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2023-03-22T09:13:24.863+00:00"},</v>
-      </c>
-      <c r="R37" s="2" t="s">
-        <v>700</v>
+        <v>{"name":"桃花心","number":"B000000033","phone":"0954213867","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2021-02-10T07:30:05.882+00:00"},</v>
+      </c>
+      <c r="R37" t="s">
+        <v>649</v>
       </c>
     </row>
     <row r="38" spans="2:18" x14ac:dyDescent="0.4">
@@ -7172,39 +7149,39 @@
         <v>梅花寒</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>339</v>
+        <v>319</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>602</v>
+        <v>500</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>542</v>
+        <v>422</v>
       </c>
       <c r="H38" t="str">
+        <f t="shared" si="1"/>
+        <v>0945128367</v>
+      </c>
+      <c r="I38" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="J38" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="K38" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="L38" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="M38" s="1" t="s">
+        <v>600</v>
+      </c>
+      <c r="P38" t="str">
         <f t="shared" si="2"/>
-        <v>0945128367</v>
-      </c>
-      <c r="I38" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="J38" s="2" t="s">
-        <v>406</v>
-      </c>
-      <c r="K38" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="L38" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="M38" s="1" t="s">
-        <v>491</v>
-      </c>
-      <c r="P38" t="str">
-        <f t="shared" si="5"/>
-        <v>{"name":"梅花寒","number":"D000000034","phone":"0945128367","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2022-12-27T01:45:24.083+00:00"},</v>
-      </c>
-      <c r="R38" s="2" t="s">
-        <v>701</v>
+        <v>{"name":"梅花寒","number":"B000000034","phone":"0945128367","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2021-03-07T18:01:28.232+00:00"},</v>
+      </c>
+      <c r="R38" t="s">
+        <v>650</v>
       </c>
     </row>
     <row r="39" spans="2:18" x14ac:dyDescent="0.4">
@@ -7219,39 +7196,39 @@
         <v>雲海深</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>340</v>
+        <v>320</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>603</v>
+        <v>501</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>543</v>
+        <v>423</v>
       </c>
       <c r="H39" t="str">
+        <f t="shared" si="1"/>
+        <v>0941852637</v>
+      </c>
+      <c r="I39" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="J39" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="K39" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="L39" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="M39" s="1" t="s">
+        <v>601</v>
+      </c>
+      <c r="P39" t="str">
         <f t="shared" si="2"/>
-        <v>0941852637</v>
-      </c>
-      <c r="I39" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="J39" s="2" t="s">
-        <v>406</v>
-      </c>
-      <c r="K39" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="L39" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="M39" s="1" t="s">
-        <v>492</v>
-      </c>
-      <c r="P39" t="str">
-        <f t="shared" si="5"/>
-        <v>{"name":"雲海深","number":"D000000035","phone":"0941852637","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2022-12-18T04:22:38.697+00:00"},</v>
-      </c>
-      <c r="R39" s="2" t="s">
-        <v>702</v>
+        <v>{"name":"雲海深","number":"B000000035","phone":"0941852637","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2021-04-19T10:17:49.659+00:00"},</v>
+      </c>
+      <c r="R39" t="s">
+        <v>651</v>
       </c>
     </row>
     <row r="40" spans="2:18" x14ac:dyDescent="0.4">
@@ -7266,39 +7243,39 @@
         <v>雨花石</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>341</v>
+        <v>321</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>604</v>
+        <v>502</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>544</v>
+        <v>424</v>
       </c>
       <c r="H40" t="str">
+        <f t="shared" si="1"/>
+        <v>0916458327</v>
+      </c>
+      <c r="I40" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="J40" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="K40" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="L40" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="M40" s="1" t="s">
+        <v>602</v>
+      </c>
+      <c r="P40" t="str">
         <f t="shared" si="2"/>
-        <v>0916458327</v>
-      </c>
-      <c r="I40" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="J40" s="2" t="s">
-        <v>406</v>
-      </c>
-      <c r="K40" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="L40" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="M40" s="1" t="s">
-        <v>493</v>
-      </c>
-      <c r="P40" t="str">
-        <f t="shared" si="5"/>
-        <v>{"name":"雨花石","number":"D000000036","phone":"0916458327","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2023-03-17T09:10:45.040+00:00"},</v>
-      </c>
-      <c r="R40" s="2" t="s">
-        <v>703</v>
+        <v>{"name":"雨花石","number":"B000000036","phone":"0916458327","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2021-05-12T02:39:25.682+00:00"},</v>
+      </c>
+      <c r="R40" t="s">
+        <v>652</v>
       </c>
     </row>
     <row r="41" spans="2:18" x14ac:dyDescent="0.4">
@@ -7313,39 +7290,39 @@
         <v>星空夜</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>342</v>
+        <v>322</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>605</v>
+        <v>503</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>545</v>
+        <v>425</v>
       </c>
       <c r="H41" t="str">
+        <f t="shared" si="1"/>
+        <v>0987316548</v>
+      </c>
+      <c r="I41" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="J41" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="K41" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="L41" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="M41" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="P41" t="str">
         <f t="shared" si="2"/>
-        <v>0987316548</v>
-      </c>
-      <c r="I41" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="J41" s="2" t="s">
-        <v>406</v>
-      </c>
-      <c r="K41" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="L41" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="M41" s="1" t="s">
-        <v>494</v>
-      </c>
-      <c r="P41" t="str">
-        <f t="shared" si="5"/>
-        <v>{"name":"星空夜","number":"D000000037","phone":"0987316548","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2022-11-24T13:08:29.524+00:00"},</v>
-      </c>
-      <c r="R41" s="2" t="s">
-        <v>704</v>
+        <v>{"name":"星空夜","number":"B000000037","phone":"0987316548","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2021-06-28T08:23:58.081+00:00"},</v>
+      </c>
+      <c r="R41" t="s">
+        <v>653</v>
       </c>
     </row>
     <row r="42" spans="2:18" x14ac:dyDescent="0.4">
@@ -7360,39 +7337,39 @@
         <v>金玉滿</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>343</v>
+        <v>323</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>606</v>
+        <v>504</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>546</v>
+        <v>426</v>
       </c>
       <c r="H42" t="str">
+        <f t="shared" si="1"/>
+        <v>0916573842</v>
+      </c>
+      <c r="I42" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="J42" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="K42" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="L42" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="M42" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="P42" t="str">
         <f t="shared" si="2"/>
-        <v>0916573842</v>
-      </c>
-      <c r="I42" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="J42" s="2" t="s">
-        <v>406</v>
-      </c>
-      <c r="K42" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="L42" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="M42" s="1" t="s">
-        <v>495</v>
-      </c>
-      <c r="P42" t="str">
-        <f t="shared" si="5"/>
-        <v>{"name":"金玉滿","number":"D000000038","phone":"0916573842","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2023-01-17T02:02:06.772+00:00"},</v>
-      </c>
-      <c r="R42" s="2" t="s">
-        <v>705</v>
+        <v>{"name":"金玉滿","number":"B000000038","phone":"0916573842","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2021-07-14T20:59:18.994+00:00"},</v>
+      </c>
+      <c r="R42" t="s">
+        <v>654</v>
       </c>
     </row>
     <row r="43" spans="2:18" x14ac:dyDescent="0.4">
@@ -7407,39 +7384,39 @@
         <v>紫竹林</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>344</v>
+        <v>324</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>607</v>
+        <v>505</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>547</v>
+        <v>427</v>
       </c>
       <c r="H43" t="str">
+        <f t="shared" si="1"/>
+        <v>0981654372</v>
+      </c>
+      <c r="I43" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="J43" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="K43" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="L43" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="M43" s="1" t="s">
+        <v>605</v>
+      </c>
+      <c r="P43" t="str">
         <f t="shared" si="2"/>
-        <v>0981654372</v>
-      </c>
-      <c r="I43" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="J43" s="2" t="s">
-        <v>406</v>
-      </c>
-      <c r="K43" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="L43" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="M43" s="1" t="s">
-        <v>496</v>
-      </c>
-      <c r="P43" t="str">
-        <f t="shared" si="5"/>
-        <v>{"name":"紫竹林","number":"D000000039","phone":"0981654372","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2022-12-25T23:12:11.261+00:00"},</v>
-      </c>
-      <c r="R43" s="2" t="s">
-        <v>706</v>
+        <v>{"name":"紫竹林","number":"B000000039","phone":"0981654372","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2021-08-01T16:15:31.414+00:00"},</v>
+      </c>
+      <c r="R43" t="s">
+        <v>655</v>
       </c>
     </row>
     <row r="44" spans="2:18" x14ac:dyDescent="0.4">
@@ -7454,39 +7431,39 @@
         <v>青青草</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>345</v>
+        <v>325</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>608</v>
+        <v>506</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>548</v>
+        <v>428</v>
       </c>
       <c r="H44" t="str">
+        <f t="shared" si="1"/>
+        <v>0967853412</v>
+      </c>
+      <c r="I44" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="J44" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="K44" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="L44" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="M44" s="1" t="s">
+        <v>606</v>
+      </c>
+      <c r="P44" t="str">
         <f t="shared" si="2"/>
-        <v>0967853412</v>
-      </c>
-      <c r="I44" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="J44" s="2" t="s">
-        <v>406</v>
-      </c>
-      <c r="K44" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="L44" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="M44" s="1" t="s">
-        <v>497</v>
-      </c>
-      <c r="P44" t="str">
-        <f t="shared" si="5"/>
-        <v>{"name":"青青草","number":"D000000040","phone":"0967853412","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2022-10-22T18:45:39.505+00:00"},</v>
-      </c>
-      <c r="R44" s="2" t="s">
-        <v>707</v>
+        <v>{"name":"青青草","number":"B000000040","phone":"0967853412","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2021-09-04T12:29:38.056+00:00"},</v>
+      </c>
+      <c r="R44" t="s">
+        <v>656</v>
       </c>
     </row>
     <row r="45" spans="2:18" x14ac:dyDescent="0.4">
@@ -7501,39 +7478,39 @@
         <v>紫羅蘭</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>346</v>
+        <v>326</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>609</v>
+        <v>507</v>
       </c>
       <c r="G45" s="4" t="s">
-        <v>549</v>
+        <v>429</v>
       </c>
       <c r="H45" t="str">
+        <f t="shared" si="1"/>
+        <v>0937452168</v>
+      </c>
+      <c r="I45" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="J45" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="K45" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="L45" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="M45" s="1" t="s">
+        <v>607</v>
+      </c>
+      <c r="P45" t="str">
         <f t="shared" si="2"/>
-        <v>0937452168</v>
-      </c>
-      <c r="I45" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="J45" s="2" t="s">
-        <v>406</v>
-      </c>
-      <c r="K45" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="L45" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="M45" s="1" t="s">
-        <v>498</v>
-      </c>
-      <c r="P45" t="str">
-        <f t="shared" si="5"/>
-        <v>{"name":"紫羅蘭","number":"D000000041","phone":"0937452168","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2023-03-15T16:33:57.583+00:00"},</v>
-      </c>
-      <c r="R45" s="2" t="s">
-        <v>708</v>
+        <v>{"name":"紫羅蘭","number":"B000000041","phone":"0937452168","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2021-10-15T14:57:39.620+00:00"},</v>
+      </c>
+      <c r="R45" t="s">
+        <v>657</v>
       </c>
     </row>
     <row r="46" spans="2:18" x14ac:dyDescent="0.4">
@@ -7548,39 +7525,39 @@
         <v>白蘭花</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>347</v>
+        <v>327</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>610</v>
+        <v>508</v>
       </c>
       <c r="G46" s="4" t="s">
-        <v>550</v>
+        <v>430</v>
       </c>
       <c r="H46" t="str">
+        <f t="shared" si="1"/>
+        <v>0982734651</v>
+      </c>
+      <c r="I46" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="J46" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="K46" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="L46" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="M46" s="1" t="s">
+        <v>608</v>
+      </c>
+      <c r="P46" t="str">
         <f t="shared" si="2"/>
-        <v>0982734651</v>
-      </c>
-      <c r="I46" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="J46" s="2" t="s">
-        <v>406</v>
-      </c>
-      <c r="K46" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="L46" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="M46" s="1" t="s">
-        <v>499</v>
-      </c>
-      <c r="P46" t="str">
-        <f t="shared" si="5"/>
-        <v>{"name":"白蘭花","number":"D000000042","phone":"0982734651","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2023-01-06T02:22:11.967+00:00"},</v>
-      </c>
-      <c r="R46" s="2" t="s">
-        <v>709</v>
+        <v>{"name":"白蘭花","number":"B000000042","phone":"0982734651","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2021-11-03T08:23:09.741+00:00"},</v>
+      </c>
+      <c r="R46" t="s">
+        <v>658</v>
       </c>
     </row>
     <row r="47" spans="2:18" x14ac:dyDescent="0.4">
@@ -7595,39 +7572,39 @@
         <v>花海深</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>348</v>
+        <v>328</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>611</v>
+        <v>509</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>551</v>
+        <v>431</v>
       </c>
       <c r="H47" t="str">
+        <f t="shared" si="1"/>
+        <v>0938574612</v>
+      </c>
+      <c r="I47" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="J47" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="K47" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="L47" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="M47" s="1" t="s">
+        <v>609</v>
+      </c>
+      <c r="P47" t="str">
         <f t="shared" si="2"/>
-        <v>0938574612</v>
-      </c>
-      <c r="I47" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="J47" s="2" t="s">
-        <v>406</v>
-      </c>
-      <c r="K47" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="L47" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="M47" s="1" t="s">
-        <v>500</v>
-      </c>
-      <c r="P47" t="str">
-        <f t="shared" si="5"/>
-        <v>{"name":"花海深","number":"D000000043","phone":"0938574612","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2022-10-10T05:28:54.427+00:00"},</v>
-      </c>
-      <c r="R47" s="2" t="s">
-        <v>710</v>
+        <v>{"name":"花海深","number":"B000000043","phone":"0938574612","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2021-12-06T23:41:23.008+00:00"},</v>
+      </c>
+      <c r="R47" t="s">
+        <v>659</v>
       </c>
     </row>
     <row r="48" spans="2:18" x14ac:dyDescent="0.4">
@@ -7642,39 +7619,39 @@
         <v>飛燕舞</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>349</v>
+        <v>329</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>612</v>
+        <v>510</v>
       </c>
       <c r="G48" s="4" t="s">
-        <v>552</v>
+        <v>432</v>
       </c>
       <c r="H48" t="str">
+        <f t="shared" si="1"/>
+        <v>0962571348</v>
+      </c>
+      <c r="I48" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="J48" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="K48" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="L48" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="M48" s="1" t="s">
+        <v>610</v>
+      </c>
+      <c r="P48" t="str">
         <f t="shared" si="2"/>
-        <v>0962571348</v>
-      </c>
-      <c r="I48" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="J48" s="2" t="s">
-        <v>406</v>
-      </c>
-      <c r="K48" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="L48" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="M48" s="1" t="s">
-        <v>501</v>
-      </c>
-      <c r="P48" t="str">
-        <f t="shared" si="5"/>
-        <v>{"name":"飛燕舞","number":"D000000044","phone":"0962571348","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2022-10-26T17:34:52.986+00:00"},</v>
-      </c>
-      <c r="R48" s="2" t="s">
-        <v>711</v>
+        <v>{"name":"飛燕舞","number":"B000000044","phone":"0962571348","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2022-01-08T03:35:32.195+00:00"},</v>
+      </c>
+      <c r="R48" t="s">
+        <v>660</v>
       </c>
     </row>
     <row r="49" spans="2:18" x14ac:dyDescent="0.4">
@@ -7689,39 +7666,39 @@
         <v>玉樹林</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>350</v>
+        <v>330</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>613</v>
+        <v>511</v>
       </c>
       <c r="G49" s="4" t="s">
-        <v>553</v>
+        <v>433</v>
       </c>
       <c r="H49" t="str">
+        <f t="shared" si="1"/>
+        <v>0941385762</v>
+      </c>
+      <c r="I49" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="J49" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="K49" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="L49" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="M49" s="1" t="s">
+        <v>611</v>
+      </c>
+      <c r="P49" t="str">
         <f t="shared" si="2"/>
-        <v>0941385762</v>
-      </c>
-      <c r="I49" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="J49" s="2" t="s">
-        <v>406</v>
-      </c>
-      <c r="K49" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="L49" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="M49" s="1" t="s">
-        <v>502</v>
-      </c>
-      <c r="P49" t="str">
-        <f t="shared" si="5"/>
-        <v>{"name":"玉樹林","number":"D000000045","phone":"0941385762","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2022-11-08T07:51:33.562+00:00"},</v>
-      </c>
-      <c r="R49" s="2" t="s">
-        <v>712</v>
+        <v>{"name":"玉樹林","number":"B000000045","phone":"0941385762","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2022-02-12T14:14:42.018+00:00"},</v>
+      </c>
+      <c r="R49" t="s">
+        <v>661</v>
       </c>
     </row>
     <row r="50" spans="2:18" x14ac:dyDescent="0.4">
@@ -7736,39 +7713,39 @@
         <v>春風吹</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>351</v>
+        <v>331</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>614</v>
+        <v>512</v>
       </c>
       <c r="G50" s="4" t="s">
-        <v>554</v>
+        <v>434</v>
       </c>
       <c r="H50" t="str">
+        <f t="shared" si="1"/>
+        <v>0957831642</v>
+      </c>
+      <c r="I50" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="J50" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="K50" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="L50" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="M50" s="1" t="s">
+        <v>612</v>
+      </c>
+      <c r="P50" t="str">
         <f t="shared" si="2"/>
-        <v>0957831642</v>
-      </c>
-      <c r="I50" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="J50" s="2" t="s">
-        <v>406</v>
-      </c>
-      <c r="K50" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="L50" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="M50" s="1" t="s">
-        <v>503</v>
-      </c>
-      <c r="P50" t="str">
-        <f t="shared" si="5"/>
-        <v>{"name":"春風吹","number":"D000000046","phone":"0957831642","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2023-02-07T22:33:24.423+00:00"},</v>
-      </c>
-      <c r="R50" s="2" t="s">
-        <v>713</v>
+        <v>{"name":"春風吹","number":"B000000046","phone":"0957831642","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2022-03-11T03:50:25.498+00:00"},</v>
+      </c>
+      <c r="R50" t="s">
+        <v>662</v>
       </c>
     </row>
     <row r="51" spans="2:18" x14ac:dyDescent="0.4">
@@ -7783,39 +7760,39 @@
         <v>雪山飛</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>352</v>
+        <v>332</v>
       </c>
       <c r="F51" s="4" t="s">
-        <v>615</v>
+        <v>513</v>
       </c>
       <c r="G51" s="4" t="s">
-        <v>555</v>
+        <v>435</v>
       </c>
       <c r="H51" t="str">
+        <f t="shared" si="1"/>
+        <v>0972365418</v>
+      </c>
+      <c r="I51" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="J51" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="K51" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="L51" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="M51" s="1" t="s">
+        <v>613</v>
+      </c>
+      <c r="P51" t="str">
         <f t="shared" si="2"/>
-        <v>0972365418</v>
-      </c>
-      <c r="I51" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="J51" s="2" t="s">
-        <v>406</v>
-      </c>
-      <c r="K51" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="L51" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="M51" s="1" t="s">
-        <v>504</v>
-      </c>
-      <c r="P51" t="str">
-        <f t="shared" si="5"/>
-        <v>{"name":"雪山飛","number":"D000000047","phone":"0972365418","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2023-03-20T06:50:01.294+00:00"},</v>
-      </c>
-      <c r="R51" s="2" t="s">
-        <v>714</v>
+        <v>{"name":"雪山飛","number":"B000000047","phone":"0972365418","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2022-04-19T21:26:57.840+00:00"},</v>
+      </c>
+      <c r="R51" t="s">
+        <v>663</v>
       </c>
     </row>
     <row r="52" spans="2:18" x14ac:dyDescent="0.4">
@@ -7830,39 +7807,39 @@
         <v>玫瑰花</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>353</v>
+        <v>333</v>
       </c>
       <c r="F52" s="4" t="s">
-        <v>616</v>
+        <v>514</v>
       </c>
       <c r="G52" s="4" t="s">
-        <v>556</v>
+        <v>436</v>
       </c>
       <c r="H52" t="str">
+        <f t="shared" si="1"/>
+        <v>0915732846</v>
+      </c>
+      <c r="I52" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="J52" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="K52" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="L52" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="M52" s="1" t="s">
+        <v>614</v>
+      </c>
+      <c r="P52" t="str">
         <f t="shared" si="2"/>
-        <v>0915732846</v>
-      </c>
-      <c r="I52" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="J52" s="2" t="s">
-        <v>406</v>
-      </c>
-      <c r="K52" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="L52" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="M52" s="1" t="s">
-        <v>505</v>
-      </c>
-      <c r="P52" t="str">
-        <f t="shared" si="5"/>
-        <v>{"name":"玫瑰花","number":"D000000048","phone":"0915732846","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2023-03-24T13:06:39.383+00:00"},</v>
-      </c>
-      <c r="R52" s="2" t="s">
-        <v>715</v>
+        <v>{"name":"玫瑰花","number":"B000000048","phone":"0915732846","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2022-05-14T16:02:31.556+00:00"},</v>
+      </c>
+      <c r="R52" t="s">
+        <v>664</v>
       </c>
     </row>
     <row r="53" spans="2:18" x14ac:dyDescent="0.4">
@@ -7873,43 +7850,43 @@
         <v>233</v>
       </c>
       <c r="D53" s="2" t="str">
-        <f t="shared" ref="D53:D54" si="6">RIGHT(C53,3)</f>
+        <f t="shared" ref="D53:D54" si="5">RIGHT(C53,3)</f>
         <v>夜色靜</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>354</v>
+        <v>334</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>617</v>
+        <v>515</v>
       </c>
       <c r="G53" s="4" t="s">
-        <v>557</v>
+        <v>437</v>
       </c>
       <c r="H53" t="str">
+        <f t="shared" si="1"/>
+        <v>0982175364</v>
+      </c>
+      <c r="I53" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="J53" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="K53" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="L53" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="M53" s="1" t="s">
+        <v>615</v>
+      </c>
+      <c r="P53" t="str">
         <f t="shared" si="2"/>
-        <v>0982175364</v>
-      </c>
-      <c r="I53" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="J53" s="2" t="s">
-        <v>406</v>
-      </c>
-      <c r="K53" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="L53" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="M53" s="1" t="s">
-        <v>506</v>
-      </c>
-      <c r="P53" t="str">
-        <f t="shared" si="5"/>
-        <v>{"name":"夜色靜","number":"D000000049","phone":"0982175364","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2022-11-18T06:21:05.648+00:00"},</v>
-      </c>
-      <c r="R53" s="2" t="s">
-        <v>716</v>
+        <v>{"name":"夜色靜","number":"B000000049","phone":"0982175364","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2022-06-08T03:47:49.231+00:00"},</v>
+      </c>
+      <c r="R53" t="s">
+        <v>665</v>
       </c>
     </row>
     <row r="54" spans="2:18" x14ac:dyDescent="0.4">
@@ -7920,49 +7897,49 @@
         <v>234</v>
       </c>
       <c r="D54" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>落日慕</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>355</v>
+        <v>335</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>618</v>
+        <v>516</v>
       </c>
       <c r="G54" s="4" t="s">
-        <v>558</v>
+        <v>438</v>
       </c>
       <c r="H54" t="str">
+        <f t="shared" si="1"/>
+        <v>0965873214</v>
+      </c>
+      <c r="I54" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="J54" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="K54" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="L54" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="M54" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="P54" t="str">
         <f t="shared" si="2"/>
-        <v>0965873214</v>
-      </c>
-      <c r="I54" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="J54" s="2" t="s">
-        <v>406</v>
-      </c>
-      <c r="K54" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="L54" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="M54" s="1" t="s">
-        <v>507</v>
-      </c>
-      <c r="P54" t="str">
-        <f t="shared" si="5"/>
-        <v>{"name":"落日慕","number":"D000000050","phone":"0965873214","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2022-12-28T00:34:03.527+00:00"},</v>
-      </c>
-      <c r="R54" s="2" t="s">
-        <v>717</v>
+        <v>{"name":"落日慕","number":"B000000050","phone":"0965873214","titleNo":4,"title":"會員","isDisabled":false,"isDeleted":false,"createdAt":"2022-07-20T15:16:28.944+00:00"},</v>
+      </c>
+      <c r="R54" t="s">
+        <v>666</v>
       </c>
     </row>
     <row r="55" spans="2:18" x14ac:dyDescent="0.4">
       <c r="M55" s="1"/>
       <c r="R55" s="2" t="s">
-        <v>508</v>
+        <v>388</v>
       </c>
     </row>
     <row r="56" spans="2:18" x14ac:dyDescent="0.4">
@@ -7976,6 +7953,9 @@
     </row>
     <row r="59" spans="2:18" x14ac:dyDescent="0.4">
       <c r="M59" s="1"/>
+    </row>
+    <row r="60" spans="2:18" x14ac:dyDescent="0.4">
+      <c r="M60" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
